--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -556,27 +556,27 @@
       </c>
       <c r="D1" s="16" t="inlineStr">
         <is>
+          <t>betting_line</t>
+        </is>
+      </c>
+      <c r="E1" s="16" t="inlineStr">
+        <is>
           <t>goalie_id</t>
         </is>
       </c>
-      <c r="E1" s="16" t="inlineStr">
+      <c r="F1" s="16" t="inlineStr">
         <is>
           <t>team_abbrev</t>
         </is>
       </c>
-      <c r="F1" s="16" t="inlineStr">
+      <c r="G1" s="16" t="inlineStr">
         <is>
           <t>opponent_team</t>
         </is>
       </c>
-      <c r="G1" s="16" t="inlineStr">
+      <c r="H1" s="16" t="inlineStr">
         <is>
           <t>is_home</t>
-        </is>
-      </c>
-      <c r="H1" s="16" t="inlineStr">
-        <is>
-          <t>betting_line</t>
         </is>
       </c>
       <c r="I1" s="16" t="inlineStr">
@@ -644,26 +644,22 @@
       <c r="B2" t="n">
         <v>2025020657</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
         <is>
           <t>DAL</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>MTL</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -689,26 +685,22 @@
       <c r="B3" t="n">
         <v>2025020657</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
         <is>
           <t>MTL</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>DAL</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -734,26 +726,22 @@
       <c r="B4" t="n">
         <v>2025020658</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
         <is>
           <t>CBJ</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>PIT</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -779,26 +767,22 @@
       <c r="B5" t="n">
         <v>2025020658</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
         <is>
           <t>PIT</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>CBJ</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -824,49 +808,27 @@
       <c r="B6" t="n">
         <v>2025020659</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Tarasov</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>8480193</v>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>FLA</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>COL</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.4832989275455475</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.340214490890503</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
@@ -887,47 +849,27 @@
       <c r="B7" t="n">
         <v>2025020659</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>8480193</v>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>COL</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>FLA</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>25</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.4832989275455475</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.340214490890503</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
@@ -954,26 +896,26 @@
         </is>
       </c>
       <c r="D8" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E8" t="n">
         <v>8474596</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>NJD</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>25.5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>25</v>
       </c>
       <c r="J8" t="n">
         <v>0.5094840526580811</v>
@@ -1017,32 +959,32 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8474596</v>
-      </c>
-      <c r="E9" t="inlineStr">
+        <v>23.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8483548</v>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>NJD</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>23.5</v>
       </c>
-      <c r="I9" t="n">
-        <v>25</v>
-      </c>
       <c r="J9" t="n">
-        <v>0.5094840526580811</v>
+        <v>0.4905944764614105</v>
       </c>
       <c r="K9" t="n">
-        <v>1.896810531616211</v>
+        <v>1.881104707717896</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1080,26 +1022,26 @@
         </is>
       </c>
       <c r="D10" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E10" t="n">
         <v>8482821</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>CHI</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>VGK</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="n">
-        <v>25.5</v>
-      </c>
       <c r="I10" t="n">
-        <v>25</v>
+        <v>25.39999961853027</v>
       </c>
       <c r="J10" t="n">
         <v>0.4777129590511322</v>
@@ -1137,47 +1079,27 @@
       <c r="B11" t="n">
         <v>2025020661</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>8482821</v>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
         <is>
           <t>VGK</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>CHI</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="n">
-        <v>25</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.4777129590511322</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.45740795135498</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
@@ -1238,7 +1160,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>2026-01-04 15:13:01</t>
+          <t>2026-01-04 16:16:51</t>
         </is>
       </c>
       <c r="C3" s="11" t="n"/>

--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Settings" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-05" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-04" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-06" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-05" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-04" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,19 +29,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FFffffff"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="14"/>
     </font>
     <font>
-      <b val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
     </font>
     <font>
       <b val="1"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
   <fills count="3">
@@ -53,12 +77,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004472C4"/>
-        <bgColor rgb="004472C4"/>
+        <fgColor rgb="FF4472c4"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -66,21 +89,154 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -159,10 +315,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -200,69 +356,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -286,54 +444,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -343,7 +500,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -352,7 +509,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -361,7 +518,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -369,10 +526,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -401,7 +558,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -414,13 +571,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -440,7 +596,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:E23"/>
@@ -450,248 +606,323 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="25" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="25" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="25" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="25" min="5" max="5"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="22" t="inlineStr">
         <is>
           <t>BETTING PERFORMANCE SUMMARY</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="E1" s="5" t="n"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="7" t="n"/>
+      <c r="B2" s="5" t="n"/>
+      <c r="C2" s="5" t="n"/>
+      <c r="D2" s="5" t="n"/>
+      <c r="E2" s="5" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t>Generated:</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>2026-01-05 18:19:28</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="C3" s="5" t="n"/>
+      <c r="D3" s="5" t="n"/>
+      <c r="E3" s="5" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="7" t="n"/>
+      <c r="B4" s="5" t="n"/>
+      <c r="C4" s="5" t="n"/>
+      <c r="D4" s="5" t="n"/>
+      <c r="E4" s="5" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="26" t="inlineStr">
         <is>
           <t>OVERALL PERFORMANCE</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="7" t="n"/>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>Total Bets</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="B7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="5" t="n"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="7" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="B8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="5" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="B9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5" t="n"/>
+      <c r="D9" s="5" t="n"/>
+      <c r="E9" s="5" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
         <is>
           <t>Pushes</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="B10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="5" t="n"/>
+      <c r="E10" s="5" t="n"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
         <is>
           <t>Win Rate</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="B11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="5" t="n"/>
+      <c r="E11" s="5" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
         <is>
           <t>Total Profit/Loss</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="B12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="5" t="n"/>
+      <c r="E12" s="5" t="n"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
         <is>
           <t>ROI %</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="B13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="5" t="n"/>
+      <c r="E13" s="5" t="n"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="7" t="n"/>
+      <c r="B14" s="5" t="n"/>
+      <c r="C14" s="5" t="n"/>
+      <c r="D14" s="5" t="n"/>
+      <c r="E14" s="5" t="n"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="7" t="n"/>
+      <c r="B15" s="5" t="n"/>
+      <c r="C15" s="5" t="n"/>
+      <c r="D15" s="5" t="n"/>
+      <c r="E15" s="5" t="n"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="26" t="inlineStr">
         <is>
           <t>PERFORMANCE BY CONFIDENCE LEVEL</t>
         </is>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="B16" s="5" t="n"/>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="23" t="inlineStr">
         <is>
           <t>Confidence</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B17" s="24" t="inlineStr">
         <is>
           <t>Bets</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C17" s="24" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
+      <c r="D17" s="24" t="inlineStr">
         <is>
           <t>Win Rate</t>
         </is>
       </c>
-      <c r="E17" s="3" t="inlineStr">
+      <c r="E17" s="24" t="inlineStr">
         <is>
           <t>ROI %</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="B18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="7" t="inlineStr">
         <is>
           <t>55-60%</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="B19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="7" t="inlineStr">
         <is>
           <t>60-65%</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="B20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
         <is>
           <t>65-70%</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="B21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" s="7" t="inlineStr">
         <is>
           <t>70-75%</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="B22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="7" t="inlineStr">
         <is>
           <t>75%+</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="B23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -699,14 +930,14 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:B12"/>
@@ -717,105 +948,116 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30.005" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
+    <col width="20.005" bestFit="1" customWidth="1" style="25" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="22" t="inlineStr">
         <is>
           <t>BETTING TRACKER SETTINGS</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="B1" s="5" t="n"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="7" t="n"/>
+      <c r="B2" s="5" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="23" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="24" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>Default Unit Size</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>Min Confidence to Bet (%)</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="5" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="7" t="inlineStr">
         <is>
           <t>High Confidence Threshold (%)</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="5" t="n">
         <v>65</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="7" t="n"/>
+      <c r="B7" s="5" t="n"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="7" t="inlineStr">
         <is>
           <t>Odds Format</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>-110</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="B8" s="5" t="n">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
         <is>
           <t>Win Payout Multiplier</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="6" t="n">
         <v>0.909</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="7" t="n"/>
+      <c r="B10" s="5" t="n"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
         <is>
           <t>Model Path</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>models/classifier_model.json</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
         <is>
           <t>Feature Count</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="5" t="n">
         <v>89</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -825,128 +1067,106 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="16" customWidth="1" min="12" max="12"/>
-    <col width="15" customWidth="1" min="13" max="13"/>
-    <col width="12" customWidth="1" min="14" max="14"/>
-    <col width="14" customWidth="1" min="15" max="15"/>
-    <col width="13" customWidth="1" min="16" max="16"/>
-    <col width="10" customWidth="1" min="17" max="17"/>
-    <col width="12" customWidth="1" min="18" max="18"/>
-    <col width="30" customWidth="1" min="19" max="19"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="27" t="inlineStr">
         <is>
           <t>game_date</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="27" t="inlineStr">
         <is>
           <t>game_id</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="27" t="inlineStr">
         <is>
           <t>goalie_name</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="27" t="inlineStr">
         <is>
           <t>betting_line</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="27" t="inlineStr">
         <is>
           <t>goalie_id</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="27" t="inlineStr">
         <is>
           <t>team_abbrev</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="27" t="inlineStr">
         <is>
           <t>opponent_team</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="27" t="inlineStr">
         <is>
           <t>is_home</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="27" t="inlineStr">
         <is>
           <t>predicted_saves</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="J1" s="27" t="inlineStr">
         <is>
           <t>prob_over</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="K1" s="27" t="inlineStr">
         <is>
           <t>confidence_pct</t>
         </is>
       </c>
-      <c r="L1" s="4" t="inlineStr">
+      <c r="L1" s="27" t="inlineStr">
         <is>
           <t>confidence_bucket</t>
         </is>
       </c>
-      <c r="M1" s="4" t="inlineStr">
+      <c r="M1" s="27" t="inlineStr">
         <is>
           <t>recommendation</t>
         </is>
       </c>
-      <c r="N1" s="4" t="inlineStr">
+      <c r="N1" s="27" t="inlineStr">
         <is>
           <t>bet_amount</t>
         </is>
       </c>
-      <c r="O1" s="4" t="inlineStr">
+      <c r="O1" s="27" t="inlineStr">
         <is>
           <t>bet_selection</t>
         </is>
       </c>
-      <c r="P1" s="4" t="inlineStr">
+      <c r="P1" s="27" t="inlineStr">
         <is>
           <t>actual_saves</t>
         </is>
       </c>
-      <c r="Q1" s="4" t="inlineStr">
+      <c r="Q1" s="27" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="R1" s="4" t="inlineStr">
+      <c r="R1" s="27" t="inlineStr">
         <is>
           <t>profit_loss</t>
         </is>
       </c>
-      <c r="S1" s="4" t="inlineStr">
+      <c r="S1" s="27" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
@@ -955,117 +1175,109 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2025020662</v>
+        <v>2025020667</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>shesterkin</t>
+          <t>Luukkonen</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>24.5</v>
+        <v>22.5</v>
       </c>
       <c r="E2" t="n">
-        <v>8478048</v>
+        <v>8480045</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>NYR</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>24.5</v>
+        <v>22.79999923706055</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4933153092861176</v>
+        <v>0.5552597641944885</v>
       </c>
       <c r="K2" t="n">
-        <v>1.336938142776489</v>
+        <v>11.05195236206055</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>50-55%</t>
+          <t>55-60%</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>NO BET</t>
+          <t>OVER</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v/>
-      </c>
-      <c r="Q2" t="n">
-        <v/>
-      </c>
-      <c r="R2" t="n">
-        <v/>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
+          <t>OVER</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2025020662</v>
+        <v>2025020667</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vejmelka</t>
+          <t>Demko</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>21.5</v>
+        <v>25.5</v>
       </c>
       <c r="E3" t="n">
-        <v>8478872</v>
+        <v>8477967</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>NYR</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>21.5</v>
+        <v>25.39999961853027</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4965449273586273</v>
+        <v>0.4845336079597473</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6910145282745361</v>
+        <v>3.093278408050537</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -1077,68 +1289,58 @@
           <t>NO BET</t>
         </is>
       </c>
-      <c r="N3" t="n">
-        <v/>
-      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="P3" t="n">
-        <v/>
-      </c>
-      <c r="Q3" t="n">
-        <v/>
-      </c>
-      <c r="R3" t="n">
-        <v/>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2025020663</v>
+        <v>2025020668</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lindgren</t>
+          <t>vasilevskiy</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>24.5</v>
+        <v>25.5</v>
       </c>
       <c r="E4" t="n">
-        <v>8479292</v>
+        <v>8476883</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>WSH</t>
+          <t>TBL</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ANA</t>
+          <t>COL</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>24.5</v>
+        <v>25.60000038146973</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5056146383285522</v>
+        <v>0.5264507532119751</v>
       </c>
       <c r="K4" t="n">
-        <v>1.122927665710449</v>
+        <v>5.29015064239502</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -1150,68 +1352,58 @@
           <t>NO BET</t>
         </is>
       </c>
-      <c r="N4" t="n">
-        <v/>
-      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="P4" t="n">
-        <v/>
-      </c>
-      <c r="Q4" t="n">
-        <v/>
-      </c>
-      <c r="R4" t="n">
-        <v/>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2025020663</v>
+        <v>2025020668</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>mrazek</t>
+          <t>wedgewood</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>24.5</v>
+        <v>23.5</v>
       </c>
       <c r="E5" t="n">
-        <v>8475852</v>
+        <v>8475809</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ANA</t>
+          <t>COL</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>WSH</t>
+          <t>TBL</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>24.39999961853027</v>
+        <v>23.70000076293945</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4718681573867798</v>
+        <v>0.545477032661438</v>
       </c>
       <c r="K5" t="n">
-        <v>5.626368522644043</v>
+        <v>9.095406532287598</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -1223,141 +1415,123 @@
           <t>NO BET</t>
         </is>
       </c>
-      <c r="N5" t="n">
-        <v/>
-      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="P5" t="n">
-        <v/>
-      </c>
-      <c r="Q5" t="n">
-        <v/>
-      </c>
-      <c r="R5" t="n">
-        <v/>
-      </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2025020664</v>
+        <v>2025020670</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Meriläinen</t>
+          <t>vladar</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>22.5</v>
+        <v>23.5</v>
       </c>
       <c r="E6" t="n">
-        <v>8482447</v>
+        <v>8478435</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>OTT</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ANA</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>22.29999923706055</v>
+        <v>23.79999923706055</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4697911739349365</v>
+        <v>0.557132363319397</v>
       </c>
       <c r="K6" t="n">
-        <v>6.041765213012695</v>
+        <v>11.42647266387939</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>50-55%</t>
+          <t>55-60%</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>NO BET</t>
+          <t>OVER</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v/>
-      </c>
-      <c r="Q6" t="n">
-        <v/>
-      </c>
-      <c r="R6" t="n">
-        <v/>
-      </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
+          <t>OVER</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2025020664</v>
+        <v>2025020670</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>dostal</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>25.5</v>
+        <v>23.5</v>
       </c>
       <c r="E7" t="n">
-        <v>8476434</v>
+        <v>8480843</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ANA</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>OTT</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>25.70000076293945</v>
+        <v>23.29999923706055</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5345669984817505</v>
+        <v>0.4578225910663605</v>
       </c>
       <c r="K7" t="n">
-        <v>6.913399696350098</v>
+        <v>8.435482025146484</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -1369,68 +1543,58 @@
           <t>NO BET</t>
         </is>
       </c>
-      <c r="N7" t="n">
-        <v/>
-      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="P7" t="n">
-        <v/>
-      </c>
-      <c r="Q7" t="n">
-        <v/>
-      </c>
-      <c r="R7" t="n">
-        <v/>
-      </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2025020665</v>
+        <v>2025020671</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>wolf</t>
+          <t>bussi</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>22.5</v>
+        <v>20.5</v>
       </c>
       <c r="E8" t="n">
-        <v>8481692</v>
+        <v>8483548</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CGY</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>22.5</v>
+        <v>20.60000038146973</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5023762583732605</v>
+        <v>0.5299063324928284</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4752516746520996</v>
+        <v>5.981266498565674</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -1442,239 +1606,731 @@
           <t>NO BET</t>
         </is>
       </c>
-      <c r="N8" t="n">
-        <v/>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="P8" t="n">
-        <v/>
-      </c>
-      <c r="Q8" t="n">
-        <v/>
-      </c>
-      <c r="R8" t="n">
-        <v/>
-      </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2025020665</v>
-      </c>
-      <c r="C9" t="n">
-        <v/>
+        <v>2025020671</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>oettinger</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v/>
+        <v>26.5</v>
       </c>
       <c r="E9" t="n">
-        <v/>
+        <v>8479979</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CGY</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v/>
+        <v>26.60000038146973</v>
       </c>
       <c r="J9" t="n">
-        <v/>
+        <v>0.5169711112976074</v>
       </c>
       <c r="K9" t="n">
-        <v/>
-      </c>
-      <c r="L9" t="n">
-        <v/>
-      </c>
-      <c r="M9" t="n">
-        <v/>
-      </c>
-      <c r="N9" t="n">
-        <v/>
-      </c>
+        <v>3.394222259521484</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="P9" t="n">
-        <v/>
-      </c>
-      <c r="Q9" t="n">
-        <v/>
-      </c>
-      <c r="R9" t="n">
-        <v/>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2025020666</v>
+        <v>2025020669</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>kuemper</t>
+          <t>sorokin</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>22.5</v>
+        <v>25.5</v>
       </c>
       <c r="E10" t="n">
-        <v>8475311</v>
+        <v>8478009</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>LAK</t>
+          <t>NYI</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NJD</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>22.60000038146973</v>
+        <v>25.10000038146973</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5147799849510193</v>
+        <v>0.4189472794532776</v>
       </c>
       <c r="K10" t="n">
-        <v>2.955996990203857</v>
+        <v>16.21054458618164</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>50-55%</t>
+          <t>55-60%</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>NO BET</t>
+          <t>UNDER</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v/>
-      </c>
-      <c r="Q10" t="n">
-        <v/>
-      </c>
-      <c r="R10" t="n">
-        <v/>
-      </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
+          <t>UNDER</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2025020666</v>
+        <v>2025020669</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>gustavsson</t>
+          <t>markstrom</t>
         </is>
       </c>
       <c r="D11" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8474593</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NJD</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>NYI</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>23.70000076293945</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5303427577018738</v>
+      </c>
+      <c r="K11" t="n">
+        <v>6.068551540374756</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2025020672</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>woll</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8479361</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>26.39999961853027</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.4754874110221863</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.902517795562744</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2025020672</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>bobrovsky</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8475683</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>21.29999923706055</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.4570921957492828</v>
+      </c>
+      <c r="K13" t="n">
+        <v>8.581561088562012</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2025020673</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>WPG</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>VGK</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2025020673</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>VGK</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>WPG</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2025020674</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ingram</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8478971</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>EDM</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>NSH</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>23.10000038146973</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.4189472794532776</v>
+      </c>
+      <c r="K16" t="n">
+        <v>16.21054458618164</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>55-60%</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>UNDER</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>UNDER</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2025020674</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NSH</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>EDM</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2025020675</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>nedeljkovic</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>25.5</v>
       </c>
-      <c r="E11" t="n">
-        <v>8479406</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>LAK</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>25.39999961853027</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.4891166090965271</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.17667818069458</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="E18" t="n">
+        <v>8477968</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>SJS</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>CBJ</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>25.20000076293945</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.4327419400215149</v>
+      </c>
+      <c r="K18" t="n">
+        <v>13.45161247253418</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>55-60%</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>UNDER</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>UNDER</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2025020675</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>greaves</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8482982</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>CBJ</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>SJS</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5020118355751038</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.402367115020752</v>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v/>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="P11" t="n">
-        <v/>
-      </c>
-      <c r="Q11" t="n">
-        <v/>
-      </c>
-      <c r="R11" t="n">
-        <v/>
-      </c>
-      <c r="S11" t="n">
-        <v/>
-      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2025020676</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2025020676</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1684,830 +2340,1666 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="16" customWidth="1" min="12" max="12"/>
-    <col width="15" customWidth="1" min="13" max="13"/>
-    <col width="12" customWidth="1" min="14" max="14"/>
-    <col width="14" customWidth="1" min="15" max="15"/>
-    <col width="13" customWidth="1" min="16" max="16"/>
-    <col width="10" customWidth="1" min="17" max="17"/>
-    <col width="12" customWidth="1" min="18" max="18"/>
-    <col width="30" customWidth="1" min="19" max="19"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="25" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="25" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="25" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="9" max="9"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="12" max="12"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="13" max="13"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="15" max="15"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="25" min="16" max="16"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="25" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="19" max="19"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>game_date</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>game_id</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>goalie_name</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="12" t="inlineStr">
         <is>
           <t>betting_line</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>goalie_id</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>team_abbrev</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>opponent_team</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="11" t="inlineStr">
         <is>
           <t>is_home</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="12" t="inlineStr">
         <is>
           <t>predicted_saves</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="J1" s="12" t="inlineStr">
         <is>
           <t>prob_over</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="K1" s="12" t="inlineStr">
         <is>
           <t>confidence_pct</t>
         </is>
       </c>
-      <c r="L1" s="4" t="inlineStr">
+      <c r="L1" s="10" t="inlineStr">
         <is>
           <t>confidence_bucket</t>
         </is>
       </c>
-      <c r="M1" s="4" t="inlineStr">
+      <c r="M1" s="10" t="inlineStr">
         <is>
           <t>recommendation</t>
         </is>
       </c>
-      <c r="N1" s="4" t="inlineStr">
+      <c r="N1" s="10" t="inlineStr">
         <is>
           <t>bet_amount</t>
         </is>
       </c>
-      <c r="O1" s="4" t="inlineStr">
+      <c r="O1" s="10" t="inlineStr">
         <is>
           <t>bet_selection</t>
         </is>
       </c>
-      <c r="P1" s="4" t="inlineStr">
+      <c r="P1" s="11" t="inlineStr">
         <is>
           <t>actual_saves</t>
         </is>
       </c>
-      <c r="Q1" s="4" t="inlineStr">
+      <c r="Q1" s="10" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="R1" s="4" t="inlineStr">
+      <c r="R1" s="11" t="inlineStr">
         <is>
           <t>profit_loss</t>
         </is>
       </c>
-      <c r="S1" s="4" t="inlineStr">
+      <c r="S1" s="10" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>2025020662</v>
+      </c>
+      <c r="C2" s="7" t="inlineStr">
+        <is>
+          <t>shesterkin</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>8478048</v>
+      </c>
+      <c r="F2" s="7" t="inlineStr">
+        <is>
+          <t>NYR</t>
+        </is>
+      </c>
+      <c r="G2" s="7" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J2" s="6" t="n">
+        <v>0.4933153092861176</v>
+      </c>
+      <c r="K2" s="6" t="n">
+        <v>1.336938142776489</v>
+      </c>
+      <c r="L2" s="7" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="M2" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="N2" s="7" t="n"/>
+      <c r="O2" s="7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="P2" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="R2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="7" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>2025020662</v>
+      </c>
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t>Vejmelka</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>8478872</v>
+      </c>
+      <c r="F3" s="7" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="G3" s="7" t="inlineStr">
+        <is>
+          <t>NYR</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="J3" s="6" t="n">
+        <v>0.4965449273586273</v>
+      </c>
+      <c r="K3" s="6" t="n">
+        <v>0.6910145282745361</v>
+      </c>
+      <c r="L3" s="7" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="M3" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="N3" s="7" t="n"/>
+      <c r="O3" s="7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="P3" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="7" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>2025020663</v>
+      </c>
+      <c r="C4" s="7" t="inlineStr">
+        <is>
+          <t>Lindgren</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>8479292</v>
+      </c>
+      <c r="F4" s="7" t="inlineStr">
+        <is>
+          <t>WSH</t>
+        </is>
+      </c>
+      <c r="G4" s="7" t="inlineStr">
+        <is>
+          <t>ANA</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.5056146383285522</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>1.122927665710449</v>
+      </c>
+      <c r="L4" s="7" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="M4" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="N4" s="7" t="n"/>
+      <c r="O4" s="7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="R4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="7" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>2025020663</v>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>mrazek</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>8475852</v>
+      </c>
+      <c r="F5" s="7" t="inlineStr">
+        <is>
+          <t>ANA</t>
+        </is>
+      </c>
+      <c r="G5" s="7" t="inlineStr">
+        <is>
+          <t>WSH</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.4718681573867798</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>5.626368522644043</v>
+      </c>
+      <c r="L5" s="7" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="M5" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="N5" s="7" t="n"/>
+      <c r="O5" s="7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>2025020664</v>
+      </c>
+      <c r="C6" s="7" t="inlineStr">
+        <is>
+          <t>Meriläinen</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8482447</v>
+      </c>
+      <c r="F6" s="7" t="inlineStr">
+        <is>
+          <t>OTT</t>
+        </is>
+      </c>
+      <c r="G6" s="7" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>22.29999923706055</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.4697911739349365</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>6.041765213012695</v>
+      </c>
+      <c r="L6" s="7" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="M6" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="N6" s="7" t="n"/>
+      <c r="O6" s="7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="7" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>2025020664</v>
+      </c>
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <t>gibson</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>8476434</v>
+      </c>
+      <c r="F7" s="7" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="G7" s="7" t="inlineStr">
+        <is>
+          <t>OTT</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>25.70000076293945</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.5345669984817505</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>6.913399696350098</v>
+      </c>
+      <c r="L7" s="7" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="M7" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="N7" s="7" t="n"/>
+      <c r="O7" s="7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="7" t="n"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>2025020665</v>
+      </c>
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t>wolf</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>8481692</v>
+      </c>
+      <c r="F8" s="7" t="inlineStr">
+        <is>
+          <t>CGY</t>
+        </is>
+      </c>
+      <c r="G8" s="7" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.5023762583732605</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.4752516746520996</v>
+      </c>
+      <c r="L8" s="7" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="M8" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="N8" s="7" t="n"/>
+      <c r="O8" s="7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="R8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="7" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>2025020665</v>
+      </c>
+      <c r="C9" s="7" t="n"/>
+      <c r="D9" s="6" t="n"/>
+      <c r="E9" s="5" t="n"/>
+      <c r="F9" s="7" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr">
+        <is>
+          <t>CGY</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6" t="n"/>
+      <c r="J9" s="6" t="n"/>
+      <c r="K9" s="6" t="n"/>
+      <c r="L9" s="7" t="n"/>
+      <c r="M9" s="7" t="n"/>
+      <c r="N9" s="7" t="n"/>
+      <c r="O9" s="7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="P9" s="5" t="n"/>
+      <c r="Q9" s="7" t="n"/>
+      <c r="R9" s="5" t="n"/>
+      <c r="S9" s="7" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>2025020666</v>
+      </c>
+      <c r="C10" s="7" t="inlineStr">
+        <is>
+          <t>kuemper</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>8475311</v>
+      </c>
+      <c r="F10" s="7" t="inlineStr">
+        <is>
+          <t>LAK</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>22.60000038146973</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.5147799849510193</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>2.955996990203857</v>
+      </c>
+      <c r="L10" s="7" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="M10" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="N10" s="7" t="n"/>
+      <c r="O10" s="7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="7" t="n"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>2025020666</v>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>gustavsson</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>8479406</v>
+      </c>
+      <c r="F11" s="7" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr">
+        <is>
+          <t>LAK</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>25.39999961853027</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.4891166090965271</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>2.17667818069458</v>
+      </c>
+      <c r="L11" s="7" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="M11" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="N11" s="7" t="n"/>
+      <c r="O11" s="7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="7" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12.005" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
+    <col width="12.005" bestFit="1" customWidth="1" style="25" min="2" max="2"/>
+    <col width="18.005" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
+    <col width="12.005" bestFit="1" customWidth="1" style="25" min="5" max="5"/>
+    <col width="12.005" bestFit="1" customWidth="1" style="7" min="6" max="6"/>
+    <col width="15.005" bestFit="1" customWidth="1" style="7" min="7" max="7"/>
+    <col width="10.005" bestFit="1" customWidth="1" style="25" min="8" max="8"/>
+    <col width="15.005" bestFit="1" customWidth="1" style="9" min="9" max="9"/>
+    <col width="12.005" bestFit="1" customWidth="1" style="9" min="10" max="10"/>
+    <col width="14.005" bestFit="1" customWidth="1" style="9" min="11" max="11"/>
+    <col width="16.005" bestFit="1" customWidth="1" style="7" min="12" max="12"/>
+    <col width="15.005" bestFit="1" customWidth="1" style="7" min="13" max="13"/>
+    <col width="12.005" bestFit="1" customWidth="1" style="25" min="14" max="14"/>
+    <col width="14.005" bestFit="1" customWidth="1" style="7" min="15" max="15"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="25" min="16" max="16"/>
+    <col width="10.005" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
+    <col width="12.005" bestFit="1" customWidth="1" style="25" min="18" max="18"/>
+    <col width="30.005" bestFit="1" customWidth="1" style="7" min="19" max="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>game_date</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>game_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>goalie_name</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>betting_line</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>goalie_id</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>team_abbrev</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>opponent_team</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>is_home</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>predicted_saves</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>prob_over</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>confidence_pct</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>confidence_bucket</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>recommendation</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>bet_amount</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>bet_selection</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>actual_saves</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>profit_loss</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="7" t="inlineStr">
         <is>
           <t>2026-01-04</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="5" t="n">
         <v>2025020657</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="7" t="inlineStr">
         <is>
           <t>oettinger</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="6" t="n">
         <v>22.5</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="5" t="n">
         <v>8479979</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="7" t="inlineStr">
         <is>
           <t>DAL</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="7" t="inlineStr">
         <is>
           <t>MTL</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="6" t="n">
         <v>22.60000038146973</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="6" t="n">
         <v>0.5244908332824707</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="6" t="n">
         <v>4.898166656494141</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="7" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="M2" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="N2" s="5" t="n"/>
+      <c r="O2" s="7" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="Q2" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="R2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="7" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t>2026-01-04</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="5" t="n">
         <v>2025020657</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="7" t="inlineStr">
         <is>
           <t>montembeault</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="6" t="n">
         <v>22.5</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="5" t="n">
         <v>8478470</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="7" t="inlineStr">
         <is>
           <t>MTL</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="7" t="inlineStr">
         <is>
           <t>DAL</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="H3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="n">
         <v>22.29999923706055</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="6" t="n">
         <v>0.4697287678718567</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="6" t="n">
         <v>6.054246425628662</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="7" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="M3" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="N3" s="5" t="n"/>
+      <c r="O3" s="7" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="Q3" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="7" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>2026-01-04</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="5" t="n">
         <v>2025020658</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="7" t="inlineStr">
         <is>
           <t>Greaves</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="6" t="n">
         <v>24.5</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="5" t="n">
         <v>8482982</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="7" t="inlineStr">
         <is>
           <t>CBJ</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="7" t="inlineStr">
         <is>
           <t>PIT</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="6" t="n">
         <v>24.60000038146973</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="6" t="n">
         <v>0.5212882161140442</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="6" t="n">
         <v>4.257643222808838</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="7" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="M4" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="N4" s="5" t="n"/>
+      <c r="O4" s="7" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="Q4" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="R4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="7" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>2026-01-04</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="5" t="n">
         <v>2025020658</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="7" t="inlineStr">
         <is>
           <t>silovs</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="6" t="n">
         <v>24.5</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="5" t="n">
         <v>8481668</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="7" t="inlineStr">
         <is>
           <t>PIT</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="7" t="inlineStr">
         <is>
           <t>CBJ</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="H5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6" t="n">
         <v>24.20000076293945</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="6" t="n">
         <v>0.4449719786643982</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="6" t="n">
         <v>11.0056037902832</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="7" t="inlineStr">
         <is>
           <t>55-60%</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M5" s="7" t="inlineStr">
         <is>
           <t>UNDER</t>
         </is>
       </c>
-      <c r="N5" t="n">
+      <c r="N5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" s="7" t="inlineStr">
         <is>
           <t>UNDER</t>
         </is>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" s="7" t="inlineStr">
         <is>
           <t>WIN</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" s="6" t="n">
         <v>0.9090909090909091</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="S5" s="7" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="7" t="inlineStr">
         <is>
           <t>2026-01-04</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="5" t="n">
         <v>2025020659</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>Bobrovsky</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="6" t="n">
         <v>25.5</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="5" t="n">
         <v>8475683</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="7" t="inlineStr">
         <is>
           <t>FLA</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="7" t="inlineStr">
         <is>
           <t>COL</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="6" t="n">
         <v>25.39999961853027</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="6" t="n">
         <v>0.4728188216686249</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="6" t="n">
         <v>5.436235427856445</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="7" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="M6" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="n"/>
+      <c r="O6" s="7" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="P6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="7" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>2026-01-04</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="5" t="n">
         <v>2025020659</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="7" t="inlineStr">
         <is>
           <t>Wedgewood</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="6" t="n">
         <v>24.5</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="5" t="n">
         <v>8475809</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="7" t="inlineStr">
         <is>
           <t>COL</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="7" t="inlineStr">
         <is>
           <t>FLA</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6" t="n">
         <v>24.60000038146973</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="6" t="n">
         <v>0.5242565274238586</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="6" t="n">
         <v>4.851305484771729</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="7" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="M7" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="N7" s="5" t="n"/>
+      <c r="O7" s="7" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="P7" t="n">
+      <c r="P7" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="Q7" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="7" t="n"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="7" t="inlineStr">
         <is>
           <t>2026-01-04</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="5" t="n">
         <v>2025020660</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr">
         <is>
           <t>Allen</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="6" t="n">
         <v>25.5</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="5" t="n">
         <v>8474596</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="7" t="inlineStr">
         <is>
           <t>NJD</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" s="7" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="6" t="n">
         <v>25.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="6" t="n">
         <v>0.5094840526580811</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="6" t="n">
         <v>1.896810531616211</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="7" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="M8" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="N8" s="5" t="n"/>
+      <c r="O8" s="7" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="P8" t="n">
+      <c r="P8" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="Q8" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="R8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="7" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
         <is>
           <t>2026-01-04</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="5" t="n">
         <v>2025020660</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="7" t="inlineStr">
         <is>
           <t>Bussi</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="6" t="n">
         <v>23.5</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="5" t="n">
         <v>8483548</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" s="7" t="inlineStr">
         <is>
           <t>NJD</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6" t="n">
         <v>23.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="6" t="n">
         <v>0.4905944764614105</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="6" t="n">
         <v>1.881104707717896</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="7" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="M9" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="N9" s="5" t="n"/>
+      <c r="O9" s="7" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="P9" t="n">
+      <c r="P9" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="Q9" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="7" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
         <is>
           <t>2026-01-04</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="5" t="n">
         <v>2025020661</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="7" t="inlineStr">
         <is>
           <t>Soderblom</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="6" t="n">
         <v>25.5</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="5" t="n">
         <v>8482821</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="7" t="inlineStr">
         <is>
           <t>CHI</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" s="7" t="inlineStr">
         <is>
           <t>VGK</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="6" t="n">
         <v>25.39999961853027</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="6" t="n">
         <v>0.4777129590511322</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="6" t="n">
         <v>4.45740795135498</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="7" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="M10" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="N10" s="5" t="n"/>
+      <c r="O10" s="7" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="P10" t="n">
+      <c r="P10" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="Q10" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="7" t="n"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
         <is>
           <t>2026-01-04</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="5" t="n">
         <v>2025020661</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="7" t="inlineStr">
         <is>
           <t>schmid</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="6" t="n">
         <v>20.5</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="5" t="n">
         <v>8481033</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="7" t="inlineStr">
         <is>
           <t>VGK</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" s="7" t="inlineStr">
         <is>
           <t>CHI</t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="H11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6" t="n">
         <v>20.60000038146973</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" s="6" t="n">
         <v>0.5160665512084961</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="6" t="n">
         <v>3.213310241699219</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="7" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="M11" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="N11" s="5" t="n"/>
+      <c r="O11" s="7" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="P11" t="n">
+      <c r="P11" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q11" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="7" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -55,6 +55,12 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="14"/>
     </font>
@@ -67,12 +73,8 @@
     <font>
       <b val="1"/>
     </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -84,14 +86,8 @@
         <fgColor rgb="FF4472c4"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004472C4"/>
-        <bgColor rgb="004472C4"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -137,6 +133,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -146,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -184,22 +195,25 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -208,10 +222,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -220,11 +237,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,14 +614,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="24" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="26" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="18" t="inlineStr">
+      <c r="A1" s="19" t="inlineStr">
         <is>
           <t>BETTING PERFORMANCE SUMMARY</t>
         </is>
@@ -644,7 +658,7 @@
       <c r="E4" s="5" t="n"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="22" t="inlineStr">
+      <c r="A5" s="24" t="inlineStr">
         <is>
           <t>OVERALL PERFORMANCE</t>
         </is>
@@ -734,10 +748,8 @@
           <t>Total Profit/Loss</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>-3.41</t>
-        </is>
+      <c r="B12" s="5" t="n">
+        <v>-3.41</v>
       </c>
       <c r="C12" s="5" t="n"/>
       <c r="D12" s="5" t="n"/>
@@ -773,7 +785,7 @@
       <c r="E15" s="5" t="n"/>
     </row>
     <row r="16" ht="20.25" customHeight="1">
-      <c r="A16" s="22" t="inlineStr">
+      <c r="A16" s="24" t="inlineStr">
         <is>
           <t>PERFORMANCE BY CONFIDENCE LEVEL</t>
         </is>
@@ -784,27 +796,27 @@
       <c r="E16" s="5" t="n"/>
     </row>
     <row r="17" ht="19.5" customHeight="1">
-      <c r="A17" s="19" t="inlineStr">
+      <c r="A17" s="20" t="inlineStr">
         <is>
           <t>Confidence</t>
         </is>
       </c>
-      <c r="B17" s="20" t="inlineStr">
+      <c r="B17" s="21" t="inlineStr">
         <is>
           <t>Bets</t>
         </is>
       </c>
-      <c r="C17" s="20" t="inlineStr">
+      <c r="C17" s="21" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="D17" s="19" t="inlineStr">
+      <c r="D17" s="20" t="inlineStr">
         <is>
           <t>Win Rate</t>
         </is>
       </c>
-      <c r="E17" s="20" t="inlineStr">
+      <c r="E17" s="21" t="inlineStr">
         <is>
           <t>ROI %</t>
         </is>
@@ -822,7 +834,7 @@
       <c r="C18" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="D18" s="23" t="inlineStr">
+      <c r="D18" s="25" t="inlineStr">
         <is>
           <t>50.0%</t>
         </is>
@@ -845,7 +857,7 @@
       <c r="C19" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="D19" s="23" t="inlineStr">
+      <c r="D19" s="25" t="inlineStr">
         <is>
           <t>38.5%</t>
         </is>
@@ -868,7 +880,7 @@
       <c r="C20" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="23" t="inlineStr">
+      <c r="D20" s="25" t="inlineStr">
         <is>
           <t>0.0%</t>
         </is>
@@ -891,7 +903,7 @@
       <c r="C21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D21" s="23" t="inlineStr">
+      <c r="D21" s="25" t="inlineStr">
         <is>
           <t>0.0%</t>
         </is>
@@ -914,7 +926,7 @@
       <c r="C22" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D22" s="23" t="inlineStr">
+      <c r="D22" s="25" t="inlineStr">
         <is>
           <t>0.0%</t>
         </is>
@@ -937,7 +949,7 @@
       <c r="C23" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D23" s="23" t="inlineStr">
+      <c r="D23" s="25" t="inlineStr">
         <is>
           <t>0.0%</t>
         </is>
@@ -971,15 +983,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="7" max="7"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="8" max="8"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="9" max="9"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="10" max="10"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="11" max="11"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="12" max="12"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="13" max="13"/>
@@ -987,9 +999,9 @@
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="15" max="15"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="16" max="16"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="18" max="18"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="20" max="20"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="21" max="21"/>
   </cols>
   <sheetData>
@@ -1821,25 +1833,25 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12.005" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
-    <col width="12.005" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col width="12.005" bestFit="1" customWidth="1" style="22" min="2" max="2"/>
     <col width="18.005" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
     <col width="13.005" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="6" max="6"/>
-    <col width="12.005" bestFit="1" customWidth="1" style="8" min="7" max="7"/>
+    <col width="12.005" bestFit="1" customWidth="1" style="22" min="7" max="7"/>
     <col width="12.005" bestFit="1" customWidth="1" style="7" min="8" max="8"/>
     <col width="15.005" bestFit="1" customWidth="1" style="7" min="9" max="9"/>
-    <col width="10.005" bestFit="1" customWidth="1" style="8" min="10" max="10"/>
+    <col width="10.005" bestFit="1" customWidth="1" style="22" min="10" max="10"/>
     <col width="15.005" bestFit="1" customWidth="1" style="9" min="11" max="11"/>
     <col width="12.005" bestFit="1" customWidth="1" style="9" min="12" max="12"/>
     <col width="14.005" bestFit="1" customWidth="1" style="9" min="13" max="13"/>
     <col width="16.005" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
     <col width="15.005" bestFit="1" customWidth="1" style="7" min="15" max="15"/>
-    <col width="12.005" bestFit="1" customWidth="1" style="8" min="16" max="16"/>
+    <col width="12.005" bestFit="1" customWidth="1" style="22" min="16" max="16"/>
     <col width="14.005" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
-    <col width="13.005" bestFit="1" customWidth="1" style="8" min="18" max="18"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="22" min="18" max="18"/>
     <col width="10.005" bestFit="1" customWidth="1" style="7" min="19" max="19"/>
-    <col width="12.005" bestFit="1" customWidth="1" style="8" min="20" max="20"/>
+    <col width="12.005" bestFit="1" customWidth="1" style="22" min="20" max="20"/>
     <col width="30.005" bestFit="1" customWidth="1" style="7" min="21" max="21"/>
   </cols>
   <sheetData>
@@ -2702,11 +2714,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30.005" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
-    <col width="20.005" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col width="20.005" bestFit="1" customWidth="1" style="22" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="18" t="inlineStr">
+      <c r="A1" s="19" t="inlineStr">
         <is>
           <t>BETTING TRACKER SETTINGS</t>
         </is>
@@ -2718,12 +2730,12 @@
       <c r="B2" s="5" t="n"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="19" t="inlineStr">
+      <c r="A3" s="20" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
       </c>
-      <c r="B3" s="20" t="inlineStr">
+      <c r="B3" s="21" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -2823,137 +2835,113 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="12" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="16" customWidth="1" min="14" max="14"/>
-    <col width="15" customWidth="1" min="15" max="15"/>
-    <col width="12" customWidth="1" min="16" max="16"/>
-    <col width="14" customWidth="1" min="17" max="17"/>
-    <col width="13" customWidth="1" min="18" max="18"/>
-    <col width="10" customWidth="1" min="19" max="19"/>
-    <col width="12" customWidth="1" min="20" max="20"/>
-    <col width="30" customWidth="1" min="21" max="21"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="26" t="inlineStr">
+      <c r="A1" s="27" t="inlineStr">
         <is>
           <t>game_date</t>
         </is>
       </c>
-      <c r="B1" s="26" t="inlineStr">
+      <c r="B1" s="27" t="inlineStr">
         <is>
           <t>game_id</t>
         </is>
       </c>
-      <c r="C1" s="26" t="inlineStr">
+      <c r="C1" s="27" t="inlineStr">
         <is>
           <t>goalie_name</t>
         </is>
       </c>
-      <c r="D1" s="26" t="inlineStr">
+      <c r="D1" s="27" t="inlineStr">
         <is>
           <t>betting_line</t>
         </is>
       </c>
-      <c r="E1" s="26" t="inlineStr">
+      <c r="E1" s="27" t="inlineStr">
         <is>
           <t>line_over</t>
         </is>
       </c>
-      <c r="F1" s="26" t="inlineStr">
+      <c r="F1" s="27" t="inlineStr">
         <is>
           <t>line_under</t>
         </is>
       </c>
-      <c r="G1" s="26" t="inlineStr">
+      <c r="G1" s="27" t="inlineStr">
         <is>
           <t>goalie_id</t>
         </is>
       </c>
-      <c r="H1" s="26" t="inlineStr">
+      <c r="H1" s="27" t="inlineStr">
         <is>
           <t>team_abbrev</t>
         </is>
       </c>
-      <c r="I1" s="26" t="inlineStr">
+      <c r="I1" s="27" t="inlineStr">
         <is>
           <t>opponent_team</t>
         </is>
       </c>
-      <c r="J1" s="26" t="inlineStr">
+      <c r="J1" s="27" t="inlineStr">
         <is>
           <t>is_home</t>
         </is>
       </c>
-      <c r="K1" s="26" t="inlineStr">
+      <c r="K1" s="27" t="inlineStr">
         <is>
           <t>predicted_saves</t>
         </is>
       </c>
-      <c r="L1" s="26" t="inlineStr">
+      <c r="L1" s="27" t="inlineStr">
         <is>
           <t>prob_over</t>
         </is>
       </c>
-      <c r="M1" s="26" t="inlineStr">
+      <c r="M1" s="27" t="inlineStr">
         <is>
           <t>confidence_pct</t>
         </is>
       </c>
-      <c r="N1" s="26" t="inlineStr">
+      <c r="N1" s="27" t="inlineStr">
         <is>
           <t>confidence_bucket</t>
         </is>
       </c>
-      <c r="O1" s="26" t="inlineStr">
+      <c r="O1" s="27" t="inlineStr">
         <is>
           <t>recommendation</t>
         </is>
       </c>
-      <c r="P1" s="26" t="inlineStr">
+      <c r="P1" s="27" t="inlineStr">
         <is>
           <t>bet_amount</t>
         </is>
       </c>
-      <c r="Q1" s="26" t="inlineStr">
+      <c r="Q1" s="27" t="inlineStr">
         <is>
           <t>bet_selection</t>
         </is>
       </c>
-      <c r="R1" s="26" t="inlineStr">
+      <c r="R1" s="27" t="inlineStr">
         <is>
           <t>actual_saves</t>
         </is>
       </c>
-      <c r="S1" s="26" t="inlineStr">
+      <c r="S1" s="27" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="T1" s="26" t="inlineStr">
+      <c r="T1" s="27" t="inlineStr">
         <is>
           <t>profit_loss</t>
         </is>
       </c>
-      <c r="U1" s="26" t="inlineStr">
+      <c r="U1" s="27" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
@@ -2968,10 +2956,23 @@
       <c r="B2" t="n">
         <v>2025020716</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ellis</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-102</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-129</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8481551</v>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>BUF</t>
@@ -2985,11 +2986,25 @@
       <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.5060381889343262</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.207637786865234</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
@@ -3010,10 +3025,23 @@
       <c r="B3" t="n">
         <v>2025020716</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>bobrovsky</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-108</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-121</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8475683</v>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>FLA</t>
@@ -3027,11 +3055,25 @@
       <c r="J3" t="n">
         <v>0</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.5227136611938477</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4.542732238769531</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
@@ -3052,10 +3094,23 @@
       <c r="B4" t="n">
         <v>2025020717</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Gibson</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-103</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-127</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8476434</v>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>DET</t>
@@ -3069,11 +3124,25 @@
       <c r="J4" t="n">
         <v>1</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5014620423316956</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.2924084663391113</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
@@ -3094,10 +3163,23 @@
       <c r="B5" t="n">
         <v>2025020717</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>andersen</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-130</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8475883</v>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>CAR</t>
@@ -3111,11 +3193,25 @@
       <c r="J5" t="n">
         <v>0</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>21.79999923706055</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5524033904075623</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10.48067855834961</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>55-60%</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>OVER</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
@@ -3136,10 +3232,23 @@
       <c r="B6" t="n">
         <v>2025020718</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>quick</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-103</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-127</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8471734</v>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>NYR</t>
@@ -3153,11 +3262,25 @@
       <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>22.89999961853027</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5868213176727295</v>
+      </c>
+      <c r="M6" t="n">
+        <v>17.3642635345459</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>55-60%</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>OVER</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
@@ -3178,10 +3301,23 @@
       <c r="B7" t="n">
         <v>2025020718</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>grubauer</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-110</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-118</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8475831</v>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>SEA</t>
@@ -3195,11 +3331,25 @@
       <c r="J7" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.5074939131736755</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.498782634735107</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
@@ -3220,10 +3370,23 @@
       <c r="B8" t="n">
         <v>2025020719</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>vladar</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>106</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-137</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8478435</v>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>PHI</t>
@@ -3237,11 +3400,25 @@
       <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>23</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.5969618558883667</v>
+      </c>
+      <c r="M8" t="n">
+        <v>19.39237213134766</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>55-60%</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>OVER</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
@@ -3262,10 +3439,23 @@
       <c r="B9" t="n">
         <v>2025020719</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>johansson</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-122</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-107</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8477992</v>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>TBL</t>
@@ -3279,11 +3469,25 @@
       <c r="J9" t="n">
         <v>0</v>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.5488682389259338</v>
+      </c>
+      <c r="M9" t="n">
+        <v>9.773647308349609</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
@@ -3304,10 +3508,23 @@
       <c r="B10" t="n">
         <v>2025020720</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>dobes</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-102</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-129</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8482487</v>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>MTL</t>
@@ -3321,11 +3538,25 @@
       <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>22.89999961853027</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.5871408581733704</v>
+      </c>
+      <c r="M10" t="n">
+        <v>17.42817115783691</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>55-60%</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>OVER</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
@@ -3346,10 +3577,23 @@
       <c r="B11" t="n">
         <v>2025020720</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>tolopilo</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-108</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-121</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8484268</v>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>VAN</t>
@@ -3363,11 +3607,25 @@
       <c r="J11" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>23.70000076293945</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.5326730012893677</v>
+      </c>
+      <c r="M11" t="n">
+        <v>6.534600257873535</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
@@ -3388,10 +3646,23 @@
       <c r="B12" t="n">
         <v>2025020721</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>wallstedt</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-113</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-115</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8482661</v>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>MIN</t>
@@ -3405,17 +3676,27 @@
       <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>25.70000076293945</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.5452720522880554</v>
+      </c>
+      <c r="M12" t="n">
+        <v>9.054410934448242</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
+      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -3430,10 +3711,23 @@
       <c r="B13" t="n">
         <v>2025020721</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>markstrom</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-117</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-112</v>
+      </c>
+      <c r="G13" t="n">
+        <v>8474593</v>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>NJD</t>
@@ -3447,17 +3741,27 @@
       <c r="J13" t="n">
         <v>0</v>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.5228213667869568</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4.564273357391357</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
+      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -3472,10 +3776,23 @@
       <c r="B14" t="n">
         <v>2025020722</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>knight</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-114</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-114</v>
+      </c>
+      <c r="G14" t="n">
+        <v>8481519</v>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>CHI</t>
@@ -3489,17 +3806,27 @@
       <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.5004028081893921</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.08056163787841797</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
+      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -3514,10 +3841,23 @@
       <c r="B15" t="n">
         <v>2025020722</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ingram</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-113</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-115</v>
+      </c>
+      <c r="G15" t="n">
+        <v>8478971</v>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>EDM</t>
@@ -3531,17 +3871,27 @@
       <c r="J15" t="n">
         <v>0</v>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>21.79999923706055</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.5661694407463074</v>
+      </c>
+      <c r="M15" t="n">
+        <v>13.23388862609863</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>55-60%</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>OVER</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -3556,10 +3906,23 @@
       <c r="B16" t="n">
         <v>2025020723</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>miner</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-130</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>8481529</v>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>COL</t>
@@ -3573,17 +3936,27 @@
       <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>21.79999923706055</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.5536573529243469</v>
+      </c>
+      <c r="M16" t="n">
+        <v>10.73147010803223</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>55-60%</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -3598,10 +3971,23 @@
       <c r="B17" t="n">
         <v>2025020723</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>woll</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-125</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-104</v>
+      </c>
+      <c r="G17" t="n">
+        <v>8479361</v>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>TOR</t>
@@ -3615,17 +4001,27 @@
       <c r="J17" t="n">
         <v>0</v>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>28.39999961853027</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.4855145514011383</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.897089719772339</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
+      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
@@ -3640,10 +4036,23 @@
       <c r="B18" t="n">
         <v>2025020724</v>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Kuemper</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>106</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-137</v>
+      </c>
+      <c r="G18" t="n">
+        <v>8475311</v>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
           <t>LAK</t>
@@ -3657,17 +4066,27 @@
       <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>22.79999923706055</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.5581576228141785</v>
+      </c>
+      <c r="M18" t="n">
+        <v>11.63152503967285</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>55-60%</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>OVER</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -3682,10 +4101,23 @@
       <c r="B19" t="n">
         <v>2025020724</v>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>oettinger</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-104</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-125</v>
+      </c>
+      <c r="G19" t="n">
+        <v>8479979</v>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
           <t>DAL</t>
@@ -3699,17 +4131,27 @@
       <c r="J19" t="n">
         <v>0</v>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>24.60000038146973</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.5200075507164001</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4.001510143280029</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
+      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -3723,7 +4165,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:U11"/>
@@ -3733,684 +4175,777 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="9" max="9"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="12" max="12"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="13" max="13"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="15" max="15"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="16" max="16"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="19" max="19"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="21" max="21"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="25" t="inlineStr">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>game_date</t>
         </is>
       </c>
-      <c r="B1" s="25" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>game_id</t>
         </is>
       </c>
-      <c r="C1" s="25" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>goalie_name</t>
         </is>
       </c>
-      <c r="D1" s="25" t="inlineStr">
+      <c r="D1" s="12" t="inlineStr">
         <is>
           <t>betting_line</t>
         </is>
       </c>
-      <c r="E1" s="25" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>line_over</t>
         </is>
       </c>
-      <c r="F1" s="25" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>line_under</t>
         </is>
       </c>
-      <c r="G1" s="25" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>goalie_id</t>
         </is>
       </c>
-      <c r="H1" s="25" t="inlineStr">
+      <c r="H1" s="10" t="inlineStr">
         <is>
           <t>team_abbrev</t>
         </is>
       </c>
-      <c r="I1" s="25" t="inlineStr">
+      <c r="I1" s="10" t="inlineStr">
         <is>
           <t>opponent_team</t>
         </is>
       </c>
-      <c r="J1" s="25" t="inlineStr">
+      <c r="J1" s="11" t="inlineStr">
         <is>
           <t>is_home</t>
         </is>
       </c>
-      <c r="K1" s="25" t="inlineStr">
+      <c r="K1" s="12" t="inlineStr">
         <is>
           <t>predicted_saves</t>
         </is>
       </c>
-      <c r="L1" s="25" t="inlineStr">
+      <c r="L1" s="12" t="inlineStr">
         <is>
           <t>prob_over</t>
         </is>
       </c>
-      <c r="M1" s="25" t="inlineStr">
+      <c r="M1" s="12" t="inlineStr">
         <is>
           <t>confidence_pct</t>
         </is>
       </c>
-      <c r="N1" s="25" t="inlineStr">
+      <c r="N1" s="10" t="inlineStr">
         <is>
           <t>confidence_bucket</t>
         </is>
       </c>
-      <c r="O1" s="25" t="inlineStr">
+      <c r="O1" s="10" t="inlineStr">
         <is>
           <t>recommendation</t>
         </is>
       </c>
-      <c r="P1" s="25" t="inlineStr">
+      <c r="P1" s="11" t="inlineStr">
         <is>
           <t>bet_amount</t>
         </is>
       </c>
-      <c r="Q1" s="25" t="inlineStr">
+      <c r="Q1" s="10" t="inlineStr">
         <is>
           <t>bet_selection</t>
         </is>
       </c>
-      <c r="R1" s="25" t="inlineStr">
+      <c r="R1" s="11" t="inlineStr">
         <is>
           <t>actual_saves</t>
         </is>
       </c>
-      <c r="S1" s="25" t="inlineStr">
+      <c r="S1" s="10" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="T1" s="25" t="inlineStr">
+      <c r="T1" s="11" t="inlineStr">
         <is>
           <t>profit_loss</t>
         </is>
       </c>
-      <c r="U1" s="25" t="inlineStr">
+      <c r="U1" s="10" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="7" t="inlineStr">
         <is>
           <t>2026-01-11</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="5" t="n">
         <v>2025020711</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="C2" s="7" t="n"/>
+      <c r="D2" s="6" t="n"/>
+      <c r="E2" s="5" t="n"/>
+      <c r="F2" s="5" t="n"/>
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="7" t="inlineStr">
         <is>
           <t>WPG</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="7" t="inlineStr">
         <is>
           <t>NJD</t>
         </is>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="K2" s="6" t="n"/>
+      <c r="L2" s="6" t="n"/>
+      <c r="M2" s="6" t="n"/>
+      <c r="N2" s="7" t="n"/>
+      <c r="O2" s="7" t="n"/>
+      <c r="P2" s="5" t="n"/>
+      <c r="Q2" s="7" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="R2" s="5" t="n"/>
+      <c r="S2" s="7" t="n"/>
+      <c r="T2" s="5" t="n"/>
+      <c r="U2" s="7" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t>2026-01-11</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="5" t="n">
         <v>2025020711</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="C3" s="7" t="n"/>
+      <c r="D3" s="6" t="n"/>
+      <c r="E3" s="5" t="n"/>
+      <c r="F3" s="5" t="n"/>
+      <c r="G3" s="5" t="n"/>
+      <c r="H3" s="7" t="inlineStr">
         <is>
           <t>NJD</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" s="7" t="inlineStr">
         <is>
           <t>WPG</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="inlineStr">
+      <c r="J3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6" t="n"/>
+      <c r="L3" s="6" t="n"/>
+      <c r="M3" s="6" t="n"/>
+      <c r="N3" s="7" t="n"/>
+      <c r="O3" s="7" t="n"/>
+      <c r="P3" s="5" t="n"/>
+      <c r="Q3" s="7" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="R3" s="5" t="n"/>
+      <c r="S3" s="7" t="n"/>
+      <c r="T3" s="5" t="n"/>
+      <c r="U3" s="7" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>2026-01-11</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="5" t="n">
         <v>2025020712</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="7" t="inlineStr">
         <is>
           <t>korpisalo</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="6" t="n">
         <v>25.5</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="5" t="n">
         <v>106</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="5" t="n">
         <v>-137</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="5" t="n">
         <v>8476914</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="7" t="inlineStr">
         <is>
           <t>BOS</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" s="7" t="inlineStr">
         <is>
           <t>PIT</t>
         </is>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="6" t="n">
         <v>25.60000038146973</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="6" t="n">
         <v>0.5174108147621155</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="6" t="n">
         <v>3.482162952423096</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="7" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" s="7" t="inlineStr">
         <is>
           <t>OVER</t>
         </is>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" s="7" t="inlineStr">
         <is>
           <t>OVER</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S4" s="7" t="inlineStr">
         <is>
           <t>WIN</t>
         </is>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="6" t="n">
         <v>1.06</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="U4" s="7" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>2026-01-11</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="5" t="n">
         <v>2025020712</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="7" t="inlineStr">
         <is>
           <t>skinner</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="6" t="n">
         <v>23.5</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="5" t="n">
         <v>-104</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="5" t="n">
         <v>-118</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="5" t="n">
         <v>8479973</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="7" t="inlineStr">
         <is>
           <t>PIT</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5" s="7" t="inlineStr">
         <is>
           <t>BOS</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="J5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6" t="n">
         <v>23.60000038146973</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" s="6" t="n">
         <v>0.5104933977127075</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="6" t="n">
         <v>2.098679542541504</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="7" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="O5" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="P5" s="5" t="n"/>
+      <c r="Q5" s="7" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="S5" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="T5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="7" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="7" t="inlineStr">
         <is>
           <t>2026-01-11</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="5" t="n">
         <v>2025020713</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>Annunen</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="6" t="n">
         <v>23.5</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="5" t="n">
         <v>-118</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="5" t="n">
         <v>-110</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="5" t="n">
         <v>8481020</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="7" t="inlineStr">
         <is>
           <t>NSH</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I6" s="7" t="inlineStr">
         <is>
           <t>WSH</t>
         </is>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="6" t="n">
         <v>23.5</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" s="6" t="n">
         <v>0.5050497055053711</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="6" t="n">
         <v>1.009941101074219</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="7" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="O6" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="n"/>
+      <c r="Q6" s="7" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="S6" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="7" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>2026-01-11</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="5" t="n">
         <v>2025020713</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="7" t="inlineStr">
         <is>
           <t>lindgren</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="6" t="n">
         <v>24.5</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="5" t="n">
         <v>-124</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="5" t="n">
         <v>-106</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="5" t="n">
         <v>8479292</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="7" t="inlineStr">
         <is>
           <t>WSH</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I7" s="7" t="inlineStr">
         <is>
           <t>NSH</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6" t="n">
         <v>24.29999923706055</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7" s="6" t="n">
         <v>0.4668174088001251</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="6" t="n">
         <v>6.636518478393555</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" s="7" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
+      <c r="O7" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="P7" s="5" t="n"/>
+      <c r="Q7" s="7" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="R7" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="S7" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="7" t="n"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="7" t="inlineStr">
         <is>
           <t>2026-01-11</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="5" t="n">
         <v>2025020714</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="5" t="n"/>
+      <c r="H8" s="7" t="inlineStr">
         <is>
           <t>UTA</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I8" s="7" t="inlineStr">
         <is>
           <t>CBJ</t>
         </is>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="K8" s="6" t="n"/>
+      <c r="L8" s="6" t="n"/>
+      <c r="M8" s="6" t="n"/>
+      <c r="N8" s="7" t="n"/>
+      <c r="O8" s="7" t="n"/>
+      <c r="P8" s="5" t="n"/>
+      <c r="Q8" s="7" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="R8" s="5" t="n"/>
+      <c r="S8" s="7" t="n"/>
+      <c r="T8" s="5" t="n"/>
+      <c r="U8" s="7" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
         <is>
           <t>2026-01-11</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="5" t="n">
         <v>2025020714</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="7" t="inlineStr">
         <is>
           <t>greaves</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="6" t="n">
         <v>26.5</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="5" t="n">
         <v>-106</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="5" t="n">
         <v>-124</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="5" t="n">
         <v>8482982</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" s="7" t="inlineStr">
         <is>
           <t>CBJ</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I9" s="7" t="inlineStr">
         <is>
           <t>UTA</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6" t="n">
         <v>26.39999961853027</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9" s="6" t="n">
         <v>0.4883530735969543</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="6" t="n">
         <v>2.329385280609131</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N9" s="7" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="O9" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="P9" s="5" t="n"/>
+      <c r="Q9" s="7" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="S9" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="T9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="7" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
         <is>
           <t>2026-01-11</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="5" t="n">
         <v>2025020715</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="7" t="inlineStr">
         <is>
           <t>askarov</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="6" t="n">
         <v>25.5</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="5" t="n">
         <v>-122</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="5" t="n">
         <v>-107</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="5" t="n">
         <v>8482137</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" s="7" t="inlineStr">
         <is>
           <t>SJS</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I10" s="7" t="inlineStr">
         <is>
           <t>VGK</t>
         </is>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="6" t="n">
         <v>25.20000076293945</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10" s="6" t="n">
         <v>0.4438229203224182</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="6" t="n">
         <v>11.23541641235352</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N10" s="7" t="inlineStr">
         <is>
           <t>55-60%</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O10" s="7" t="inlineStr">
         <is>
           <t>UNDER</t>
         </is>
       </c>
-      <c r="P10" t="n">
+      <c r="P10" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" s="7" t="inlineStr">
         <is>
           <t>UNDER</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="R10" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S10" s="7" t="inlineStr">
         <is>
           <t>LOSS</t>
         </is>
       </c>
-      <c r="T10" t="n">
+      <c r="T10" s="5" t="n">
         <v>-1</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="U10" s="7" t="n"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
         <is>
           <t>2026-01-11</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="5" t="n">
         <v>2025020715</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="C11" s="7" t="n"/>
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="5" t="n"/>
+      <c r="F11" s="5" t="n"/>
+      <c r="G11" s="5" t="n"/>
+      <c r="H11" s="7" t="inlineStr">
         <is>
           <t>VGK</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I11" s="7" t="inlineStr">
         <is>
           <t>SJS</t>
         </is>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="inlineStr">
+      <c r="J11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6" t="n"/>
+      <c r="L11" s="6" t="n"/>
+      <c r="M11" s="6" t="n"/>
+      <c r="N11" s="7" t="n"/>
+      <c r="O11" s="7" t="n"/>
+      <c r="P11" s="5" t="n"/>
+      <c r="Q11" s="7" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
+      <c r="R11" s="5" t="n"/>
+      <c r="S11" s="7" t="n"/>
+      <c r="T11" s="5" t="n"/>
+      <c r="U11" s="7" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4429,25 +4964,25 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="7" max="7"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="8" max="8"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="9" max="9"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="10" max="10"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="11" max="11"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="12" max="12"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="13" max="13"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="15" max="15"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="16" max="16"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="16" max="16"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="18" max="18"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="20" max="20"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="21" max="21"/>
   </cols>
   <sheetData>
@@ -6546,25 +7081,25 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="7" max="7"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="8" max="8"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="9" max="9"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="10" max="10"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="11" max="11"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="12" max="12"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="13" max="13"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="15" max="15"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="16" max="16"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="16" max="16"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="18" max="18"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="20" max="20"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="21" max="21"/>
   </cols>
   <sheetData>
@@ -7151,25 +7686,25 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="7" max="7"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="8" max="8"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="9" max="9"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="10" max="10"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="11" max="11"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="12" max="12"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="13" max="13"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="15" max="15"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="16" max="16"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="16" max="16"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="18" max="18"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="20" max="20"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="21" max="21"/>
   </cols>
   <sheetData>
@@ -8976,23 +9511,23 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="7" max="7"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="8" max="8"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="9" max="9"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="10" max="10"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="11" max="11"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="12" max="12"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="13" max="13"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="15" max="15"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="16" max="16"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="16" max="16"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="18" max="18"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="19" max="19"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="20" max="20"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="21" max="21"/>
@@ -9867,25 +10402,25 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="7" max="7"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="8" max="8"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="9" max="9"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="10" max="10"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="11" max="11"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="12" max="12"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="13" max="13"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="15" max="15"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="16" max="16"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="16" max="16"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="18" max="18"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="20" max="20"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="21" max="21"/>
   </cols>
   <sheetData>

--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,19 +27,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FFffffff"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="14"/>
     </font>
     <font>
-      <b val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
     </font>
     <font>
       <b val="1"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
   <fills count="3">
@@ -52,12 +69,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004472C4"/>
-        <bgColor rgb="004472C4"/>
+        <fgColor rgb="FF4472c4"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -65,21 +81,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -158,10 +238,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -199,69 +279,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -285,54 +367,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -342,7 +423,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -351,7 +432,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -360,7 +441,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -368,10 +449,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -400,7 +481,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -413,13 +494,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -439,7 +519,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:E23"/>
@@ -449,248 +529,323 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="5" max="5"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>BETTING PERFORMANCE SUMMARY</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="E1" s="10" t="n"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="7" t="n"/>
+      <c r="B2" s="10" t="n"/>
+      <c r="C2" s="10" t="n"/>
+      <c r="D2" s="10" t="n"/>
+      <c r="E2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t>Generated:</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="10" t="inlineStr">
         <is>
           <t>2026-01-13 09:22:22</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="C3" s="10" t="n"/>
+      <c r="D3" s="10" t="n"/>
+      <c r="E3" s="10" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="7" t="n"/>
+      <c r="B4" s="10" t="n"/>
+      <c r="C4" s="10" t="n"/>
+      <c r="D4" s="10" t="n"/>
+      <c r="E4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="13" t="inlineStr">
         <is>
           <t>OVERALL PERFORMANCE</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="B5" s="10" t="n"/>
+      <c r="C5" s="10" t="n"/>
+      <c r="D5" s="10" t="n"/>
+      <c r="E5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="7" t="n"/>
+      <c r="B6" s="10" t="n"/>
+      <c r="C6" s="10" t="n"/>
+      <c r="D6" s="10" t="n"/>
+      <c r="E6" s="10" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>Total Bets</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="B7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10" t="n"/>
+      <c r="D7" s="10" t="n"/>
+      <c r="E7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="7" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="B8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10" t="n"/>
+      <c r="D8" s="10" t="n"/>
+      <c r="E8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="B9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10" t="n"/>
+      <c r="D9" s="10" t="n"/>
+      <c r="E9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
         <is>
           <t>Pushes</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="B10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10" t="n"/>
+      <c r="D10" s="10" t="n"/>
+      <c r="E10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
         <is>
           <t>Win Rate</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="B11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10" t="n"/>
+      <c r="D11" s="10" t="n"/>
+      <c r="E11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
         <is>
           <t>Total Profit/Loss</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="B12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10" t="n"/>
+      <c r="D12" s="10" t="n"/>
+      <c r="E12" s="10" t="n"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
         <is>
           <t>ROI %</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="B13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10" t="n"/>
+      <c r="D13" s="10" t="n"/>
+      <c r="E13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="7" t="n"/>
+      <c r="B14" s="10" t="n"/>
+      <c r="C14" s="10" t="n"/>
+      <c r="D14" s="10" t="n"/>
+      <c r="E14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="7" t="n"/>
+      <c r="B15" s="10" t="n"/>
+      <c r="C15" s="10" t="n"/>
+      <c r="D15" s="10" t="n"/>
+      <c r="E15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="13" t="inlineStr">
         <is>
           <t>PERFORMANCE BY CONFIDENCE LEVEL</t>
         </is>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="B16" s="10" t="n"/>
+      <c r="C16" s="10" t="n"/>
+      <c r="D16" s="10" t="n"/>
+      <c r="E16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="11" t="inlineStr">
         <is>
           <t>Confidence</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B17" s="12" t="inlineStr">
         <is>
           <t>Bets</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C17" s="12" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
+      <c r="D17" s="12" t="inlineStr">
         <is>
           <t>Win Rate</t>
         </is>
       </c>
-      <c r="E17" s="3" t="inlineStr">
+      <c r="E17" s="12" t="inlineStr">
         <is>
           <t>ROI %</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="B18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="7" t="inlineStr">
         <is>
           <t>55-60%</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="B19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="7" t="inlineStr">
         <is>
           <t>60-65%</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="B20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
         <is>
           <t>65-70%</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="B21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" s="7" t="inlineStr">
         <is>
           <t>70-75%</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="B22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="7" t="inlineStr">
         <is>
           <t>75%+</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="B23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -698,14 +853,14 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:B13"/>
@@ -716,115 +871,128 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30.005" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
+    <col width="20.005" bestFit="1" customWidth="1" style="10" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>BETTING TRACKER SETTINGS</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="B1" s="10" t="n"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="7" t="n"/>
+      <c r="B2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="11" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="12" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>Default Unit Size</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>Min Confidence to Bet (%)</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="4" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="7" t="inlineStr">
         <is>
           <t>High Confidence Threshold (%)</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="4" t="n">
         <v>65</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>Min Expected Value (%)</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="4" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="7" t="n"/>
+      <c r="B8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
         <is>
           <t>Odds Format</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="10" t="inlineStr">
         <is>
           <t>American</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
         <is>
           <t>Default Odds (if missing)</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="4" t="n">
         <v>-110</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="7" t="n"/>
+      <c r="B11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
         <is>
           <t>Model Path</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="10" t="inlineStr">
         <is>
           <t>models/classifier_model.json</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
         <is>
           <t>Feature Count</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="4" t="n">
         <v>89</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -837,137 +1005,113 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="12" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="16" customWidth="1" min="14" max="14"/>
-    <col width="15" customWidth="1" min="15" max="15"/>
-    <col width="12" customWidth="1" min="16" max="16"/>
-    <col width="14" customWidth="1" min="17" max="17"/>
-    <col width="13" customWidth="1" min="18" max="18"/>
-    <col width="10" customWidth="1" min="19" max="19"/>
-    <col width="12" customWidth="1" min="20" max="20"/>
-    <col width="30" customWidth="1" min="21" max="21"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="14" t="inlineStr">
         <is>
           <t>game_date</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="14" t="inlineStr">
         <is>
           <t>game_id</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="14" t="inlineStr">
         <is>
           <t>goalie_name</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="14" t="inlineStr">
         <is>
           <t>betting_line</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="14" t="inlineStr">
         <is>
           <t>line_over</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="14" t="inlineStr">
         <is>
           <t>line_under</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="14" t="inlineStr">
         <is>
           <t>goalie_id</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="14" t="inlineStr">
         <is>
           <t>team_abbrev</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="14" t="inlineStr">
         <is>
           <t>opponent_team</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="J1" s="14" t="inlineStr">
         <is>
           <t>is_home</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="K1" s="14" t="inlineStr">
         <is>
           <t>predicted_saves</t>
         </is>
       </c>
-      <c r="L1" s="4" t="inlineStr">
+      <c r="L1" s="14" t="inlineStr">
         <is>
           <t>prob_over</t>
         </is>
       </c>
-      <c r="M1" s="4" t="inlineStr">
+      <c r="M1" s="14" t="inlineStr">
         <is>
           <t>confidence_pct</t>
         </is>
       </c>
-      <c r="N1" s="4" t="inlineStr">
+      <c r="N1" s="14" t="inlineStr">
         <is>
           <t>confidence_bucket</t>
         </is>
       </c>
-      <c r="O1" s="4" t="inlineStr">
+      <c r="O1" s="14" t="inlineStr">
         <is>
           <t>recommendation</t>
         </is>
       </c>
-      <c r="P1" s="4" t="inlineStr">
+      <c r="P1" s="14" t="inlineStr">
         <is>
           <t>bet_amount</t>
         </is>
       </c>
-      <c r="Q1" s="4" t="inlineStr">
+      <c r="Q1" s="14" t="inlineStr">
         <is>
           <t>bet_selection</t>
         </is>
       </c>
-      <c r="R1" s="4" t="inlineStr">
+      <c r="R1" s="14" t="inlineStr">
         <is>
           <t>actual_saves</t>
         </is>
       </c>
-      <c r="S1" s="4" t="inlineStr">
+      <c r="S1" s="14" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="T1" s="4" t="inlineStr">
+      <c r="T1" s="14" t="inlineStr">
         <is>
           <t>profit_loss</t>
         </is>
       </c>
-      <c r="U1" s="4" t="inlineStr">
+      <c r="U1" s="14" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
@@ -982,10 +1126,23 @@
       <c r="B2" t="n">
         <v>2025020725</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>meriläinen</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-115</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-113</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8482447</v>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>OTT</t>
@@ -999,11 +1156,25 @@
       <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>21.60000038146973</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.5157480239868164</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.149604797363281</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
@@ -1028,6 +1199,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>VAN</t>
@@ -1066,10 +1238,23 @@
       <c r="B4" t="n">
         <v>2025020726</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>silovs</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-109</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8481668</v>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>PIT</t>
@@ -1083,11 +1268,25 @@
       <c r="J4" t="n">
         <v>1</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5427504777908325</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8.550095558166504</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
@@ -1112,6 +1311,7 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
           <t>TBL</t>
@@ -1150,10 +1350,23 @@
       <c r="B6" t="n">
         <v>2025020727</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>thompson</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-117</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-112</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8480313</v>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>WSH</t>
@@ -1167,11 +1380,25 @@
       <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5308555960655212</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6.171119213104248</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
@@ -1196,6 +1423,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
           <t>MTL</t>
@@ -1234,10 +1462,23 @@
       <c r="B8" t="n">
         <v>2025020728</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>greaves</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-108</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-121</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8482982</v>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>CBJ</t>
@@ -1251,11 +1492,25 @@
       <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>26.60000038146973</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.510789155960083</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.157831192016602</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1276,10 +1531,23 @@
       <c r="B9" t="n">
         <v>2025020728</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>wolf</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-104</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8481692</v>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>CGY</t>
@@ -1293,11 +1561,25 @@
       <c r="J9" t="n">
         <v>0</v>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>26.39999961853027</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.4872313737869263</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.553725242614746</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1318,10 +1600,23 @@
       <c r="B10" t="n">
         <v>2025020729</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>swayman</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-114</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-108</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8480280</v>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>BOS</t>
@@ -1335,11 +1630,25 @@
       <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.5218905210494995</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4.378104209899902</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1364,6 +1673,7 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
           <t>DET</t>
@@ -1402,10 +1712,23 @@
       <c r="B12" t="n">
         <v>2025020730</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>hofer</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-115</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-107</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8480981</v>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>STL</t>
@@ -1419,11 +1742,25 @@
       <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.4923161268234253</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.536774635314941</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1448,6 +1785,7 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
           <t>CAR</t>
@@ -1486,10 +1824,23 @@
       <c r="B14" t="n">
         <v>2025020731</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>saros</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-120</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-103</v>
+      </c>
+      <c r="G14" t="n">
+        <v>8477424</v>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>NSH</t>
@@ -1503,11 +1854,25 @@
       <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>24.60000038146973</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.5277358889579773</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5.547177791595459</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1532,6 +1897,7 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
           <t>EDM</t>
@@ -1574,6 +1940,7 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
           <t>WPG</t>
@@ -1616,6 +1983,7 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
           <t>NYI</t>
@@ -1658,6 +2026,7 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
           <t>UTA</t>
@@ -1700,6 +2069,7 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
           <t>TOR</t>
@@ -1742,6 +2112,7 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
           <t>ANA</t>
@@ -1784,6 +2155,7 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
           <t>DAL</t>

--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -29,7 +29,7 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FFffffff"/>
+      <color theme="1"/>
       <sz val="11"/>
     </font>
     <font>
@@ -41,36 +41,31 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="14"/>
     </font>
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
     </font>
     <font>
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4472c4"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -83,16 +78,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -113,12 +108,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -126,6 +124,12 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
@@ -139,10 +143,16 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -150,6 +160,9 @@
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -530,322 +543,322 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="14" t="inlineStr">
         <is>
           <t>BETTING PERFORMANCE SUMMARY</t>
         </is>
       </c>
-      <c r="E1" s="10" t="n"/>
+      <c r="E1" s="15" t="n"/>
     </row>
     <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="7" t="n"/>
-      <c r="B2" s="10" t="n"/>
-      <c r="C2" s="10" t="n"/>
-      <c r="D2" s="10" t="n"/>
-      <c r="E2" s="10" t="n"/>
+      <c r="A2" s="10" t="n"/>
+      <c r="B2" s="15" t="n"/>
+      <c r="C2" s="15" t="n"/>
+      <c r="D2" s="15" t="n"/>
+      <c r="E2" s="15" t="n"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="7" t="inlineStr">
+      <c r="A3" s="10" t="inlineStr">
         <is>
           <t>Generated:</t>
         </is>
       </c>
-      <c r="B3" s="10" t="inlineStr">
+      <c r="B3" s="15" t="inlineStr">
         <is>
           <t>2026-01-13 09:22:22</t>
         </is>
       </c>
-      <c r="C3" s="10" t="n"/>
-      <c r="D3" s="10" t="n"/>
-      <c r="E3" s="10" t="n"/>
+      <c r="C3" s="15" t="n"/>
+      <c r="D3" s="15" t="n"/>
+      <c r="E3" s="15" t="n"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="7" t="n"/>
-      <c r="B4" s="10" t="n"/>
-      <c r="C4" s="10" t="n"/>
-      <c r="D4" s="10" t="n"/>
-      <c r="E4" s="10" t="n"/>
+      <c r="A4" s="10" t="n"/>
+      <c r="B4" s="15" t="n"/>
+      <c r="C4" s="15" t="n"/>
+      <c r="D4" s="15" t="n"/>
+      <c r="E4" s="15" t="n"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="13" t="inlineStr">
+      <c r="A5" s="19" t="inlineStr">
         <is>
           <t>OVERALL PERFORMANCE</t>
         </is>
       </c>
-      <c r="B5" s="10" t="n"/>
-      <c r="C5" s="10" t="n"/>
-      <c r="D5" s="10" t="n"/>
-      <c r="E5" s="10" t="n"/>
+      <c r="B5" s="15" t="n"/>
+      <c r="C5" s="15" t="n"/>
+      <c r="D5" s="15" t="n"/>
+      <c r="E5" s="15" t="n"/>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="7" t="n"/>
-      <c r="B6" s="10" t="n"/>
-      <c r="C6" s="10" t="n"/>
-      <c r="D6" s="10" t="n"/>
-      <c r="E6" s="10" t="n"/>
+      <c r="A6" s="10" t="n"/>
+      <c r="B6" s="15" t="n"/>
+      <c r="C6" s="15" t="n"/>
+      <c r="D6" s="15" t="n"/>
+      <c r="E6" s="15" t="n"/>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="7" t="inlineStr">
+      <c r="A7" s="10" t="inlineStr">
         <is>
           <t>Total Bets</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="10" t="n"/>
-      <c r="D7" s="10" t="n"/>
-      <c r="E7" s="10" t="n"/>
+      <c r="B7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15" t="n"/>
+      <c r="D7" s="15" t="n"/>
+      <c r="E7" s="15" t="n"/>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="7" t="inlineStr">
+      <c r="A8" s="10" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="10" t="n"/>
-      <c r="D8" s="10" t="n"/>
-      <c r="E8" s="10" t="n"/>
+      <c r="B8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15" t="n"/>
+      <c r="D8" s="15" t="n"/>
+      <c r="E8" s="15" t="n"/>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="10" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="10" t="n"/>
-      <c r="D9" s="10" t="n"/>
-      <c r="E9" s="10" t="n"/>
+      <c r="B9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15" t="n"/>
+      <c r="D9" s="15" t="n"/>
+      <c r="E9" s="15" t="n"/>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
+      <c r="A10" s="10" t="inlineStr">
         <is>
           <t>Pushes</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="10" t="n"/>
-      <c r="D10" s="10" t="n"/>
-      <c r="E10" s="10" t="n"/>
+      <c r="B10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="15" t="n"/>
+      <c r="D10" s="15" t="n"/>
+      <c r="E10" s="15" t="n"/>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
+      <c r="A11" s="10" t="inlineStr">
         <is>
           <t>Win Rate</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="10" t="n"/>
-      <c r="D11" s="10" t="n"/>
-      <c r="E11" s="10" t="n"/>
+      <c r="B11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15" t="n"/>
+      <c r="D11" s="15" t="n"/>
+      <c r="E11" s="15" t="n"/>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
+      <c r="A12" s="10" t="inlineStr">
         <is>
           <t>Total Profit/Loss</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="10" t="n"/>
-      <c r="D12" s="10" t="n"/>
-      <c r="E12" s="10" t="n"/>
+      <c r="B12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="15" t="n"/>
+      <c r="D12" s="15" t="n"/>
+      <c r="E12" s="15" t="n"/>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
+      <c r="A13" s="10" t="inlineStr">
         <is>
           <t>ROI %</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10" t="n"/>
-      <c r="D13" s="10" t="n"/>
-      <c r="E13" s="10" t="n"/>
+      <c r="B13" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="15" t="n"/>
+      <c r="D13" s="15" t="n"/>
+      <c r="E13" s="15" t="n"/>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="7" t="n"/>
-      <c r="B14" s="10" t="n"/>
-      <c r="C14" s="10" t="n"/>
-      <c r="D14" s="10" t="n"/>
-      <c r="E14" s="10" t="n"/>
+      <c r="A14" s="10" t="n"/>
+      <c r="B14" s="15" t="n"/>
+      <c r="C14" s="15" t="n"/>
+      <c r="D14" s="15" t="n"/>
+      <c r="E14" s="15" t="n"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="7" t="n"/>
-      <c r="B15" s="10" t="n"/>
-      <c r="C15" s="10" t="n"/>
-      <c r="D15" s="10" t="n"/>
-      <c r="E15" s="10" t="n"/>
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="15" t="n"/>
+      <c r="C15" s="15" t="n"/>
+      <c r="D15" s="15" t="n"/>
+      <c r="E15" s="15" t="n"/>
     </row>
     <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="13" t="inlineStr">
+      <c r="A16" s="19" t="inlineStr">
         <is>
           <t>PERFORMANCE BY CONFIDENCE LEVEL</t>
         </is>
       </c>
-      <c r="B16" s="10" t="n"/>
-      <c r="C16" s="10" t="n"/>
-      <c r="D16" s="10" t="n"/>
-      <c r="E16" s="10" t="n"/>
+      <c r="B16" s="15" t="n"/>
+      <c r="C16" s="15" t="n"/>
+      <c r="D16" s="15" t="n"/>
+      <c r="E16" s="15" t="n"/>
     </row>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="11" t="inlineStr">
+      <c r="A17" s="16" t="inlineStr">
         <is>
           <t>Confidence</t>
         </is>
       </c>
-      <c r="B17" s="12" t="inlineStr">
+      <c r="B17" s="17" t="inlineStr">
         <is>
           <t>Bets</t>
         </is>
       </c>
-      <c r="C17" s="12" t="inlineStr">
+      <c r="C17" s="17" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="D17" s="12" t="inlineStr">
+      <c r="D17" s="17" t="inlineStr">
         <is>
           <t>Win Rate</t>
         </is>
       </c>
-      <c r="E17" s="12" t="inlineStr">
+      <c r="E17" s="17" t="inlineStr">
         <is>
           <t>ROI %</t>
         </is>
       </c>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="7" t="inlineStr">
+      <c r="A18" s="10" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4" t="n">
+      <c r="B18" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="7" t="inlineStr">
+      <c r="A19" s="10" t="inlineStr">
         <is>
           <t>55-60%</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4" t="n">
+      <c r="B19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="7" t="inlineStr">
+      <c r="A20" s="10" t="inlineStr">
         <is>
           <t>60-65%</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4" t="n">
+      <c r="B20" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
+      <c r="A21" s="10" t="inlineStr">
         <is>
           <t>65-70%</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4" t="n">
+      <c r="B21" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="7" t="inlineStr">
+      <c r="A22" s="10" t="inlineStr">
         <is>
           <t>70-75%</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4" t="n">
+      <c r="B22" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="7" t="inlineStr">
+      <c r="A23" s="10" t="inlineStr">
         <is>
           <t>75%+</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4" t="n">
+      <c r="B23" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -871,123 +884,123 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30.005" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
-    <col width="20.005" bestFit="1" customWidth="1" style="10" min="2" max="2"/>
+    <col width="30.005" bestFit="1" customWidth="1" style="10" min="1" max="1"/>
+    <col width="20.005" bestFit="1" customWidth="1" style="18" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="14" t="inlineStr">
         <is>
           <t>BETTING TRACKER SETTINGS</t>
         </is>
       </c>
-      <c r="B1" s="10" t="n"/>
+      <c r="B1" s="15" t="n"/>
     </row>
     <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="7" t="n"/>
-      <c r="B2" s="10" t="n"/>
+      <c r="A2" s="10" t="n"/>
+      <c r="B2" s="15" t="n"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="11" t="inlineStr">
+      <c r="A3" s="16" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
       </c>
-      <c r="B3" s="12" t="inlineStr">
+      <c r="B3" s="17" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="7" t="inlineStr">
+      <c r="A4" s="10" t="inlineStr">
         <is>
           <t>Default Unit Size</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="7" t="inlineStr">
+      <c r="A5" s="10" t="inlineStr">
         <is>
           <t>Min Confidence to Bet (%)</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="15" t="n">
         <v>55</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="7" t="inlineStr">
+      <c r="A6" s="10" t="inlineStr">
         <is>
           <t>High Confidence Threshold (%)</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="15" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="7" t="inlineStr">
+      <c r="A7" s="10" t="inlineStr">
         <is>
           <t>Min Expected Value (%)</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="15" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="7" t="n"/>
-      <c r="B8" s="10" t="n"/>
+      <c r="A8" s="10" t="n"/>
+      <c r="B8" s="15" t="n"/>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="10" t="inlineStr">
         <is>
           <t>Odds Format</t>
         </is>
       </c>
-      <c r="B9" s="10" t="inlineStr">
+      <c r="B9" s="15" t="inlineStr">
         <is>
           <t>American</t>
         </is>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
+      <c r="A10" s="10" t="inlineStr">
         <is>
           <t>Default Odds (if missing)</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="15" t="n">
         <v>-110</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="7" t="n"/>
-      <c r="B11" s="10" t="n"/>
+      <c r="A11" s="10" t="n"/>
+      <c r="B11" s="15" t="n"/>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
+      <c r="A12" s="10" t="inlineStr">
         <is>
           <t>Model Path</t>
         </is>
       </c>
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="15" t="inlineStr">
         <is>
           <t>models/classifier_model.json</t>
         </is>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
+      <c r="A13" s="10" t="inlineStr">
         <is>
           <t>Feature Count</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="15" t="n">
         <v>89</v>
       </c>
     </row>
@@ -1011,107 +1024,107 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="14" t="inlineStr">
+      <c r="A1" s="20" t="inlineStr">
         <is>
           <t>game_date</t>
         </is>
       </c>
-      <c r="B1" s="14" t="inlineStr">
+      <c r="B1" s="20" t="inlineStr">
         <is>
           <t>game_id</t>
         </is>
       </c>
-      <c r="C1" s="14" t="inlineStr">
+      <c r="C1" s="20" t="inlineStr">
         <is>
           <t>goalie_name</t>
         </is>
       </c>
-      <c r="D1" s="14" t="inlineStr">
+      <c r="D1" s="20" t="inlineStr">
         <is>
           <t>betting_line</t>
         </is>
       </c>
-      <c r="E1" s="14" t="inlineStr">
+      <c r="E1" s="20" t="inlineStr">
         <is>
           <t>line_over</t>
         </is>
       </c>
-      <c r="F1" s="14" t="inlineStr">
+      <c r="F1" s="20" t="inlineStr">
         <is>
           <t>line_under</t>
         </is>
       </c>
-      <c r="G1" s="14" t="inlineStr">
+      <c r="G1" s="20" t="inlineStr">
         <is>
           <t>goalie_id</t>
         </is>
       </c>
-      <c r="H1" s="14" t="inlineStr">
+      <c r="H1" s="20" t="inlineStr">
         <is>
           <t>team_abbrev</t>
         </is>
       </c>
-      <c r="I1" s="14" t="inlineStr">
+      <c r="I1" s="20" t="inlineStr">
         <is>
           <t>opponent_team</t>
         </is>
       </c>
-      <c r="J1" s="14" t="inlineStr">
+      <c r="J1" s="20" t="inlineStr">
         <is>
           <t>is_home</t>
         </is>
       </c>
-      <c r="K1" s="14" t="inlineStr">
+      <c r="K1" s="20" t="inlineStr">
         <is>
           <t>predicted_saves</t>
         </is>
       </c>
-      <c r="L1" s="14" t="inlineStr">
+      <c r="L1" s="20" t="inlineStr">
         <is>
           <t>prob_over</t>
         </is>
       </c>
-      <c r="M1" s="14" t="inlineStr">
+      <c r="M1" s="20" t="inlineStr">
         <is>
           <t>confidence_pct</t>
         </is>
       </c>
-      <c r="N1" s="14" t="inlineStr">
+      <c r="N1" s="20" t="inlineStr">
         <is>
           <t>confidence_bucket</t>
         </is>
       </c>
-      <c r="O1" s="14" t="inlineStr">
+      <c r="O1" s="20" t="inlineStr">
         <is>
           <t>recommendation</t>
         </is>
       </c>
-      <c r="P1" s="14" t="inlineStr">
+      <c r="P1" s="20" t="inlineStr">
         <is>
           <t>bet_amount</t>
         </is>
       </c>
-      <c r="Q1" s="14" t="inlineStr">
+      <c r="Q1" s="20" t="inlineStr">
         <is>
           <t>bet_selection</t>
         </is>
       </c>
-      <c r="R1" s="14" t="inlineStr">
+      <c r="R1" s="20" t="inlineStr">
         <is>
           <t>actual_saves</t>
         </is>
       </c>
-      <c r="S1" s="14" t="inlineStr">
+      <c r="S1" s="20" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="T1" s="14" t="inlineStr">
+      <c r="T1" s="20" t="inlineStr">
         <is>
           <t>profit_loss</t>
         </is>
       </c>
-      <c r="U1" s="14" t="inlineStr">
+      <c r="U1" s="20" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
@@ -1135,10 +1148,10 @@
         <v>21.5</v>
       </c>
       <c r="E2" t="n">
+        <v>-113</v>
+      </c>
+      <c r="F2" t="n">
         <v>-115</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-113</v>
       </c>
       <c r="G2" t="n">
         <v>8482447</v>
@@ -1160,10 +1173,10 @@
         <v>21.60000038146973</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5157480239868164</v>
+        <v>0.5126954913139343</v>
       </c>
       <c r="M2" t="n">
-        <v>3.149604797363281</v>
+        <v>2.539098262786865</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -1195,11 +1208,23 @@
       <c r="B3" t="n">
         <v>2025020725</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>lankinen</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-118</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-110</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8480947</v>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>VAN</t>
@@ -1213,11 +1238,25 @@
       <c r="J3" t="n">
         <v>0</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.4920174479484558</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.596510410308838</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
@@ -1247,10 +1286,10 @@
         <v>22.5</v>
       </c>
       <c r="E4" t="n">
-        <v>-109</v>
+        <v>-112</v>
       </c>
       <c r="F4" t="n">
-        <v>-120</v>
+        <v>-117</v>
       </c>
       <c r="G4" t="n">
         <v>8481668</v>
@@ -1272,10 +1311,10 @@
         <v>22.70000076293945</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5427504777908325</v>
+        <v>0.5380865335464478</v>
       </c>
       <c r="M4" t="n">
-        <v>8.550095558166504</v>
+        <v>7.617306709289551</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -1307,11 +1346,23 @@
       <c r="B5" t="n">
         <v>2025020726</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>vasilevskiy</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-113</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-115</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8476883</v>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>TBL</t>
@@ -1325,11 +1376,25 @@
       <c r="J5" t="n">
         <v>0</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>24.60000038146973</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5146847367286682</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.936947345733643</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
@@ -1359,10 +1424,10 @@
         <v>22.5</v>
       </c>
       <c r="E6" t="n">
-        <v>-117</v>
+        <v>-124</v>
       </c>
       <c r="F6" t="n">
-        <v>-112</v>
+        <v>-106</v>
       </c>
       <c r="G6" t="n">
         <v>8480313</v>
@@ -1381,13 +1446,13 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>22.70000076293945</v>
+        <v>22.60000038146973</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5308555960655212</v>
+        <v>0.5291582345962524</v>
       </c>
       <c r="M6" t="n">
-        <v>6.171119213104248</v>
+        <v>5.831646919250488</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -1419,11 +1484,23 @@
       <c r="B7" t="n">
         <v>2025020727</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>montembeault</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-125</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-104</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8478470</v>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>MTL</t>
@@ -1437,11 +1514,25 @@
       <c r="J7" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.5148718357086182</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.974367141723633</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
@@ -1471,10 +1562,10 @@
         <v>26.5</v>
       </c>
       <c r="E8" t="n">
-        <v>-108</v>
+        <v>-107</v>
       </c>
       <c r="F8" t="n">
-        <v>-121</v>
+        <v>-122</v>
       </c>
       <c r="G8" t="n">
         <v>8482982</v>
@@ -1496,10 +1587,10 @@
         <v>26.60000038146973</v>
       </c>
       <c r="L8" t="n">
-        <v>0.510789155960083</v>
+        <v>0.5237208008766174</v>
       </c>
       <c r="M8" t="n">
-        <v>2.157831192016602</v>
+        <v>4.744160175323486</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -1540,10 +1631,10 @@
         <v>26.5</v>
       </c>
       <c r="E9" t="n">
-        <v>-104</v>
+        <v>-103</v>
       </c>
       <c r="F9" t="n">
-        <v>-120</v>
+        <v>-127</v>
       </c>
       <c r="G9" t="n">
         <v>8481692</v>
@@ -1565,10 +1656,10 @@
         <v>26.39999961853027</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4872313737869263</v>
+        <v>0.4788225293159485</v>
       </c>
       <c r="M9" t="n">
-        <v>2.553725242614746</v>
+        <v>4.235494136810303</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1609,10 +1700,10 @@
         <v>23.5</v>
       </c>
       <c r="E10" t="n">
-        <v>-114</v>
+        <v>-118</v>
       </c>
       <c r="F10" t="n">
-        <v>-108</v>
+        <v>-110</v>
       </c>
       <c r="G10" t="n">
         <v>8480280</v>
@@ -1634,10 +1725,10 @@
         <v>23.60000038146973</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5218905210494995</v>
+        <v>0.528777003288269</v>
       </c>
       <c r="M10" t="n">
-        <v>4.378104209899902</v>
+        <v>5.755400657653809</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1721,7 +1812,7 @@
         <v>26.5</v>
       </c>
       <c r="E12" t="n">
-        <v>-115</v>
+        <v>-122</v>
       </c>
       <c r="F12" t="n">
         <v>-107</v>
@@ -1746,10 +1837,10 @@
         <v>26.5</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4923161268234253</v>
+        <v>0.4926919639110565</v>
       </c>
       <c r="M12" t="n">
-        <v>1.536774635314941</v>
+        <v>1.461607217788696</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1781,11 +1872,23 @@
       <c r="B13" t="n">
         <v>2025020730</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>bussi</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-118</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-105</v>
+      </c>
+      <c r="G13" t="n">
+        <v>8483548</v>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>CAR</t>
@@ -1799,11 +1902,25 @@
       <c r="J13" t="n">
         <v>0</v>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>19.79999923706055</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.553071916103363</v>
+      </c>
+      <c r="M13" t="n">
+        <v>10.61438369750977</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>55-60%</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1833,10 +1950,10 @@
         <v>24.5</v>
       </c>
       <c r="E14" t="n">
-        <v>-120</v>
+        <v>-124</v>
       </c>
       <c r="F14" t="n">
-        <v>-103</v>
+        <v>-105</v>
       </c>
       <c r="G14" t="n">
         <v>8477424</v>
@@ -1855,13 +1972,13 @@
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>24.60000038146973</v>
+        <v>24.70000076293945</v>
       </c>
       <c r="L14" t="n">
-        <v>0.5277358889579773</v>
+        <v>0.5351357460021973</v>
       </c>
       <c r="M14" t="n">
-        <v>5.547177791595459</v>
+        <v>7.027149200439453</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1936,11 +2053,23 @@
       <c r="B16" t="n">
         <v>2025020732</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>hellebuyck</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-130</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>8476945</v>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>WPG</t>
@@ -1954,11 +2083,25 @@
       <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>22.60000038146973</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.5217793583869934</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4.355871677398682</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1979,11 +2122,23 @@
       <c r="B17" t="n">
         <v>2025020732</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>sorokin</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-129</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-102</v>
+      </c>
+      <c r="G17" t="n">
+        <v>8478009</v>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>NYI</t>
@@ -1997,11 +2152,25 @@
       <c r="J17" t="n">
         <v>0</v>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>24.70000076293945</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.532870888710022</v>
+      </c>
+      <c r="M17" t="n">
+        <v>6.574177742004395</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
@@ -2022,11 +2191,23 @@
       <c r="B18" t="n">
         <v>2025020733</v>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>vejmelka</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-129</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-102</v>
+      </c>
+      <c r="G18" t="n">
+        <v>8478872</v>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
           <t>UTA</t>
@@ -2040,11 +2221,25 @@
       <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>21.60000038146973</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.5225210189819336</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4.504203796386719</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
@@ -2108,11 +2303,23 @@
       <c r="B20" t="n">
         <v>2025020734</v>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>dostal</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-124</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-105</v>
+      </c>
+      <c r="G20" t="n">
+        <v>8480843</v>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
           <t>ANA</t>
@@ -2126,11 +2333,25 @@
       <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>22.79999923706055</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.5653749108314514</v>
+      </c>
+      <c r="M20" t="n">
+        <v>13.07498168945312</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>55-60%</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>

--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -125,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -154,23 +154,17 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
@@ -178,7 +172,16 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -582,14 +585,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="26" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="27" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="19" t="inlineStr">
+      <c r="A1" s="20" t="inlineStr">
         <is>
           <t>BETTING PERFORMANCE SUMMARY</t>
         </is>
@@ -626,7 +629,7 @@
       <c r="E4" s="5" t="n"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="24" t="inlineStr">
+      <c r="A5" s="25" t="inlineStr">
         <is>
           <t>OVERALL PERFORMANCE</t>
         </is>
@@ -755,7 +758,7 @@
       <c r="E15" s="5" t="n"/>
     </row>
     <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="24" t="inlineStr">
+      <c r="A16" s="25" t="inlineStr">
         <is>
           <t>PERFORMANCE BY CONFIDENCE LEVEL</t>
         </is>
@@ -766,27 +769,27 @@
       <c r="E16" s="5" t="n"/>
     </row>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="20" t="inlineStr">
+      <c r="A17" s="21" t="inlineStr">
         <is>
           <t>Confidence</t>
         </is>
       </c>
-      <c r="B17" s="21" t="inlineStr">
+      <c r="B17" s="22" t="inlineStr">
         <is>
           <t>Bets</t>
         </is>
       </c>
-      <c r="C17" s="21" t="inlineStr">
+      <c r="C17" s="22" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="D17" s="20" t="inlineStr">
+      <c r="D17" s="21" t="inlineStr">
         <is>
           <t>Win Rate</t>
         </is>
       </c>
-      <c r="E17" s="21" t="inlineStr">
+      <c r="E17" s="22" t="inlineStr">
         <is>
           <t>ROI %</t>
         </is>
@@ -804,7 +807,7 @@
       <c r="C18" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="25" t="inlineStr">
+      <c r="D18" s="26" t="inlineStr">
         <is>
           <t>0.0%</t>
         </is>
@@ -827,7 +830,7 @@
       <c r="C19" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="D19" s="25" t="inlineStr">
+      <c r="D19" s="26" t="inlineStr">
         <is>
           <t>100.0%</t>
         </is>
@@ -850,7 +853,7 @@
       <c r="C20" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="25" t="inlineStr">
+      <c r="D20" s="26" t="inlineStr">
         <is>
           <t>0.0%</t>
         </is>
@@ -873,7 +876,7 @@
       <c r="C21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D21" s="25" t="inlineStr">
+      <c r="D21" s="26" t="inlineStr">
         <is>
           <t>0.0%</t>
         </is>
@@ -896,7 +899,7 @@
       <c r="C22" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D22" s="25" t="inlineStr">
+      <c r="D22" s="26" t="inlineStr">
         <is>
           <t>0.0%</t>
         </is>
@@ -919,7 +922,7 @@
       <c r="C23" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D23" s="25" t="inlineStr">
+      <c r="D23" s="26" t="inlineStr">
         <is>
           <t>0.0%</t>
         </is>
@@ -953,11 +956,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30.005" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
-    <col width="20.005" bestFit="1" customWidth="1" style="22" min="2" max="2"/>
+    <col width="20.005" bestFit="1" customWidth="1" style="23" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="19" t="inlineStr">
+      <c r="A1" s="20" t="inlineStr">
         <is>
           <t>BETTING TRACKER SETTINGS</t>
         </is>
@@ -969,12 +972,12 @@
       <c r="B2" s="5" t="n"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="20" t="inlineStr">
+      <c r="A3" s="21" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
       </c>
-      <c r="B3" s="21" t="inlineStr">
+      <c r="B3" s="22" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -1092,112 +1095,112 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="27" t="inlineStr">
+      <c r="A1" s="28" t="inlineStr">
         <is>
           <t>game_date</t>
         </is>
       </c>
-      <c r="B1" s="27" t="inlineStr">
+      <c r="B1" s="28" t="inlineStr">
         <is>
           <t>game_id</t>
         </is>
       </c>
-      <c r="C1" s="27" t="inlineStr">
+      <c r="C1" s="28" t="inlineStr">
         <is>
           <t>goalie_name</t>
         </is>
       </c>
-      <c r="D1" s="27" t="inlineStr">
+      <c r="D1" s="28" t="inlineStr">
         <is>
           <t>betting_line</t>
         </is>
       </c>
-      <c r="E1" s="27" t="inlineStr">
+      <c r="E1" s="28" t="inlineStr">
         <is>
           <t>line_over</t>
         </is>
       </c>
-      <c r="F1" s="27" t="inlineStr">
+      <c r="F1" s="28" t="inlineStr">
         <is>
           <t>line_under</t>
         </is>
       </c>
-      <c r="G1" s="27" t="inlineStr">
+      <c r="G1" s="28" t="inlineStr">
         <is>
           <t>goalie_id</t>
         </is>
       </c>
-      <c r="H1" s="27" t="inlineStr">
+      <c r="H1" s="28" t="inlineStr">
         <is>
           <t>team_abbrev</t>
         </is>
       </c>
-      <c r="I1" s="27" t="inlineStr">
+      <c r="I1" s="28" t="inlineStr">
         <is>
           <t>opponent_team</t>
         </is>
       </c>
-      <c r="J1" s="27" t="inlineStr">
+      <c r="J1" s="28" t="inlineStr">
         <is>
           <t>is_home</t>
         </is>
       </c>
-      <c r="K1" s="27" t="inlineStr">
+      <c r="K1" s="28" t="inlineStr">
         <is>
           <t>predicted_saves</t>
         </is>
       </c>
-      <c r="L1" s="27" t="inlineStr">
+      <c r="L1" s="28" t="inlineStr">
         <is>
           <t>prob_over</t>
         </is>
       </c>
-      <c r="M1" s="27" t="inlineStr">
+      <c r="M1" s="28" t="inlineStr">
         <is>
           <t>confidence_pct</t>
         </is>
       </c>
-      <c r="N1" s="27" t="inlineStr">
+      <c r="N1" s="28" t="inlineStr">
         <is>
           <t>confidence_bucket</t>
         </is>
       </c>
-      <c r="O1" s="27" t="inlineStr">
+      <c r="O1" s="28" t="inlineStr">
         <is>
           <t>recommendation</t>
         </is>
       </c>
-      <c r="P1" s="27" t="inlineStr">
+      <c r="P1" s="28" t="inlineStr">
         <is>
           <t>ev</t>
         </is>
       </c>
-      <c r="Q1" s="27" t="inlineStr">
+      <c r="Q1" s="28" t="inlineStr">
         <is>
           <t>bet_amount</t>
         </is>
       </c>
-      <c r="R1" s="27" t="inlineStr">
+      <c r="R1" s="28" t="inlineStr">
         <is>
           <t>bet_selection</t>
         </is>
       </c>
-      <c r="S1" s="27" t="inlineStr">
+      <c r="S1" s="28" t="inlineStr">
         <is>
           <t>actual_saves</t>
         </is>
       </c>
-      <c r="T1" s="27" t="inlineStr">
+      <c r="T1" s="28" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="U1" s="27" t="inlineStr">
+      <c r="U1" s="28" t="inlineStr">
         <is>
           <t>profit_loss</t>
         </is>
       </c>
-      <c r="V1" s="27" t="inlineStr">
+      <c r="V1" s="28" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
@@ -1300,11 +1303,23 @@
       <c r="B4" t="n">
         <v>2025020741</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>skinner</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-115</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-106</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8479973</v>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>PIT</t>
@@ -1318,12 +1333,28 @@
       <c r="J4" t="n">
         <v>1</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5096580982208252</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.931619644165039</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.02422118186950684</v>
+      </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
@@ -1422,10 +1453,10 @@
         <v>22.70000076293945</v>
       </c>
       <c r="L6" t="n">
-        <v>0.533284068107605</v>
+        <v>0.5344140529632568</v>
       </c>
       <c r="M6" t="n">
-        <v>6.656813621520996</v>
+        <v>6.882810592651367</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -1438,7 +1469,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0258948802947998</v>
+        <v>0.02702486515045166</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -1491,13 +1522,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>26.5</v>
+        <v>26.39999961853027</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4901469349861145</v>
+        <v>0.4711514115333557</v>
       </c>
       <c r="M7" t="n">
-        <v>1.9706130027771</v>
+        <v>5.769717693328857</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -1510,7 +1541,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>-0.01395648717880249</v>
+        <v>0.005039036273956299</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -1532,11 +1563,23 @@
       <c r="B8" t="n">
         <v>2025020743</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>merzlikins</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-112</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-110</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8478007</v>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>CBJ</t>
@@ -1550,12 +1593,28 @@
       <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.5200234055519104</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4.00468111038208</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.008278489112854004</v>
+      </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
@@ -1620,11 +1679,23 @@
       <c r="B10" t="n">
         <v>2025020739</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>swayman</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-115</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-107</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8480280</v>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>BOS</t>
@@ -1638,12 +1709,28 @@
       <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.5357988476753235</v>
+      </c>
+      <c r="M10" t="n">
+        <v>7.159769535064697</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>0.0009151101112365723</v>
+      </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
@@ -1796,11 +1883,21 @@
       <c r="B14" t="n">
         <v>2025020745</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>knight</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-107</v>
+      </c>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>8481519</v>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>CHI</t>
@@ -1814,12 +1911,28 @@
       <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>25.39999961853027</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.4893680512905121</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.126389741897583</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>-0.0275401771068573</v>
+      </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
@@ -2159,26 +2272,26 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="7" max="7"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="8" max="8"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="9" max="9"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="10" max="10"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="11" max="11"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="12" max="12"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="13" max="13"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="15" max="15"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="16" max="16"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="17" max="17"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="17" max="17"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="18" max="18"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="19" max="19"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="19" max="19"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="20" max="20"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="21" max="21"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="21" max="21"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="22" max="22"/>
   </cols>
   <sheetData>
@@ -2386,10 +2499,10 @@
         <v>2025020735</v>
       </c>
       <c r="C3" s="7" t="n"/>
-      <c r="D3" s="10" t="n"/>
-      <c r="E3" s="11" t="n"/>
-      <c r="F3" s="11" t="n"/>
-      <c r="G3" s="11" t="n"/>
+      <c r="D3" s="6" t="n"/>
+      <c r="E3" s="5" t="n"/>
+      <c r="F3" s="5" t="n"/>
+      <c r="G3" s="5" t="n"/>
       <c r="H3" s="7" t="inlineStr">
         <is>
           <t>SEA</t>
@@ -2403,21 +2516,21 @@
       <c r="J3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="K3" s="10" t="n"/>
-      <c r="L3" s="10" t="n"/>
-      <c r="M3" s="10" t="n"/>
+      <c r="K3" s="6" t="n"/>
+      <c r="L3" s="6" t="n"/>
+      <c r="M3" s="6" t="n"/>
       <c r="N3" s="7" t="n"/>
       <c r="O3" s="7" t="n"/>
-      <c r="P3" s="10" t="n"/>
-      <c r="Q3" s="11" t="n"/>
+      <c r="P3" s="6" t="n"/>
+      <c r="Q3" s="5" t="n"/>
       <c r="R3" s="7" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="S3" s="11" t="n"/>
+      <c r="S3" s="5" t="n"/>
       <c r="T3" s="7" t="n"/>
-      <c r="U3" s="11" t="n"/>
+      <c r="U3" s="5" t="n"/>
       <c r="V3" s="7" t="n"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
@@ -2481,7 +2594,7 @@
       <c r="P4" s="6" t="n">
         <v>0.009655356407165527</v>
       </c>
-      <c r="Q4" s="11" t="n"/>
+      <c r="Q4" s="5" t="n"/>
       <c r="R4" s="7" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -2561,7 +2674,7 @@
       <c r="P5" s="6" t="n">
         <v>-0.02398097515106201</v>
       </c>
-      <c r="Q5" s="11" t="n"/>
+      <c r="Q5" s="5" t="n"/>
       <c r="R5" s="7" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -2641,7 +2754,7 @@
       <c r="P6" s="6" t="n">
         <v>-0.02290576696395874</v>
       </c>
-      <c r="Q6" s="11" t="n"/>
+      <c r="Q6" s="5" t="n"/>
       <c r="R6" s="7" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -2670,10 +2783,10 @@
         <v>2025020737</v>
       </c>
       <c r="C7" s="7" t="n"/>
-      <c r="D7" s="10" t="n"/>
-      <c r="E7" s="11" t="n"/>
-      <c r="F7" s="11" t="n"/>
-      <c r="G7" s="11" t="n"/>
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="5" t="n"/>
       <c r="H7" s="7" t="inlineStr">
         <is>
           <t>OTT</t>
@@ -2687,21 +2800,21 @@
       <c r="J7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="10" t="n"/>
-      <c r="L7" s="10" t="n"/>
-      <c r="M7" s="10" t="n"/>
+      <c r="K7" s="6" t="n"/>
+      <c r="L7" s="6" t="n"/>
+      <c r="M7" s="6" t="n"/>
       <c r="N7" s="7" t="n"/>
       <c r="O7" s="7" t="n"/>
-      <c r="P7" s="10" t="n"/>
-      <c r="Q7" s="11" t="n"/>
+      <c r="P7" s="6" t="n"/>
+      <c r="Q7" s="5" t="n"/>
       <c r="R7" s="7" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="S7" s="11" t="n"/>
+      <c r="S7" s="5" t="n"/>
       <c r="T7" s="7" t="n"/>
-      <c r="U7" s="11" t="n"/>
+      <c r="U7" s="5" t="n"/>
       <c r="V7" s="7" t="n"/>
     </row>
     <row r="8" ht="18.75" customHeight="1">
@@ -2765,7 +2878,7 @@
       <c r="P8" s="6" t="n">
         <v>-0.02441549301147461</v>
       </c>
-      <c r="Q8" s="11" t="n"/>
+      <c r="Q8" s="5" t="n"/>
       <c r="R8" s="7" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -2845,7 +2958,7 @@
       <c r="P9" s="6" t="n">
         <v>-0.0141146183013916</v>
       </c>
-      <c r="Q9" s="11" t="n"/>
+      <c r="Q9" s="5" t="n"/>
       <c r="R9" s="7" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -2884,26 +2997,26 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="7" max="7"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="8" max="8"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="9" max="9"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="10" max="10"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="11" max="11"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="12" max="12"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="13" max="13"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="15" max="15"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="16" max="16"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="17" max="17"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="17" max="17"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="18" max="18"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="19" max="19"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="19" max="19"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="20" max="20"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="21" max="21"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="21" max="21"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="22" max="22"/>
   </cols>
   <sheetData>

--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Settings" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2026-01-21" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2026-01-20" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="2026-01-19" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="2026-01-18" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="2026-01-17" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="2026-01-16" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="2026-01-15" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="2026-01-14" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="2026-01-13" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Settings" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-22" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-21" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-20" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-19" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-18" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-17" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-16" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-15" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-14" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-13" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26,7 +27,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -67,13 +68,23 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004472C4"/>
+        <bgColor rgb="004472C4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -116,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
@@ -198,6 +209,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,7 +616,7 @@
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>2026-01-21 19:20:34</t>
+          <t>2026-01-22 13:56:41</t>
         </is>
       </c>
       <c r="C3" s="5" t="n"/>
@@ -641,7 +655,7 @@
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="n"/>
       <c r="D7" s="5" t="n"/>
@@ -667,7 +681,7 @@
         </is>
       </c>
       <c r="B9" s="5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" s="5" t="n"/>
       <c r="D9" s="5" t="n"/>
@@ -694,7 +708,7 @@
       </c>
       <c r="B11" s="5" t="inlineStr">
         <is>
-          <t>64.3%</t>
+          <t>56.2%</t>
         </is>
       </c>
       <c r="C11" s="5" t="n"/>
@@ -709,7 +723,7 @@
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>+4.64</t>
+          <t>+1.64</t>
         </is>
       </c>
       <c r="C12" s="5" t="n"/>
@@ -724,7 +738,7 @@
       </c>
       <c r="B13" s="5" t="inlineStr">
         <is>
-          <t>+22.08%</t>
+          <t>+6.82%</t>
         </is>
       </c>
       <c r="C13" s="5" t="n"/>
@@ -790,19 +804,19 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C18" s="5" t="n">
         <v>7</v>
       </c>
       <c r="D18" s="25" t="inlineStr">
         <is>
-          <t>58.3%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>+15.44%</t>
+          <t>-0.30%</t>
         </is>
       </c>
     </row>
@@ -930,6 +944,1581 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="9" max="9"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="12" max="12"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="13" max="13"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="14" max="14"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="15" max="15"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="16" max="16"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="17" max="17"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="19" max="19"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="21" max="21"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="22" max="22"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>game_date</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>game_id</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>goalie_name</t>
+        </is>
+      </c>
+      <c r="E1" s="11" t="inlineStr">
+        <is>
+          <t>betting_line</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>line_over</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>line_under</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>goalie_id</t>
+        </is>
+      </c>
+      <c r="I1" s="7" t="inlineStr">
+        <is>
+          <t>team_abbrev</t>
+        </is>
+      </c>
+      <c r="J1" s="7" t="inlineStr">
+        <is>
+          <t>opponent_team</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>is_home</t>
+        </is>
+      </c>
+      <c r="L1" s="11" t="inlineStr">
+        <is>
+          <t>predicted_saves</t>
+        </is>
+      </c>
+      <c r="M1" s="11" t="inlineStr">
+        <is>
+          <t>prob_over</t>
+        </is>
+      </c>
+      <c r="N1" s="11" t="inlineStr">
+        <is>
+          <t>confidence_pct</t>
+        </is>
+      </c>
+      <c r="O1" s="7" t="inlineStr">
+        <is>
+          <t>confidence_bucket</t>
+        </is>
+      </c>
+      <c r="P1" s="7" t="inlineStr">
+        <is>
+          <t>recommendation</t>
+        </is>
+      </c>
+      <c r="Q1" s="11" t="inlineStr">
+        <is>
+          <t>ev</t>
+        </is>
+      </c>
+      <c r="R1" s="4" t="inlineStr">
+        <is>
+          <t>bet_amount</t>
+        </is>
+      </c>
+      <c r="S1" s="7" t="inlineStr">
+        <is>
+          <t>bet_selection</t>
+        </is>
+      </c>
+      <c r="T1" s="4" t="inlineStr">
+        <is>
+          <t>actual_saves</t>
+        </is>
+      </c>
+      <c r="U1" s="7" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="V1" s="4" t="inlineStr">
+        <is>
+          <t>profit_loss</t>
+        </is>
+      </c>
+      <c r="W1" s="7" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>2025020740</v>
+      </c>
+      <c r="C2" s="7" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D2" s="7" t="inlineStr">
+        <is>
+          <t>ellis</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>-109</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>-113</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>8481551</v>
+      </c>
+      <c r="I2" s="7" t="inlineStr">
+        <is>
+          <t>BUF</t>
+        </is>
+      </c>
+      <c r="J2" s="7" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="K2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M2" s="6" t="n">
+        <v>0.5167751908302307</v>
+      </c>
+      <c r="N2" s="6" t="n">
+        <v>3.355038166046143</v>
+      </c>
+      <c r="O2" s="7" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P2" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q2" s="6" t="n">
+        <v>-0.004755914211273193</v>
+      </c>
+      <c r="R2" s="2" t="n"/>
+      <c r="S2" s="7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T2" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="U2" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="7" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>2025020740</v>
+      </c>
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
+          <t>fowler</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>-122</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>-102</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>8484170</v>
+      </c>
+      <c r="I3" s="7" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="J3" s="7" t="inlineStr">
+        <is>
+          <t>BUF</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M3" s="6" t="n">
+        <v>0.5146946907043457</v>
+      </c>
+      <c r="N3" s="6" t="n">
+        <v>2.938938140869141</v>
+      </c>
+      <c r="O3" s="7" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P3" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q3" s="6" t="n">
+        <v>-0.01964521408081055</v>
+      </c>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T3" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="U3" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="7" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>2025020741</v>
+      </c>
+      <c r="C4" s="7" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D4" s="7" t="inlineStr">
+        <is>
+          <t>skinner</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-124</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>101</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>8479973</v>
+      </c>
+      <c r="I4" s="7" t="inlineStr">
+        <is>
+          <t>PIT</t>
+        </is>
+      </c>
+      <c r="J4" s="7" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.5096580982208252</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>1.931619644165039</v>
+      </c>
+      <c r="O4" s="7" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P4" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q4" s="6" t="n">
+        <v>-0.007170528173446655</v>
+      </c>
+      <c r="R4" s="2" t="n"/>
+      <c r="S4" s="7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T4" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="U4" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="7" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>2025020741</v>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>ersson</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-113</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-109</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>8481035</v>
+      </c>
+      <c r="I5" s="7" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="J5" s="7" t="inlineStr">
+        <is>
+          <t>PIT</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.5099865198135376</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>1.99730396270752</v>
+      </c>
+      <c r="O5" s="7" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P5" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q5" s="6" t="n">
+        <v>-0.02052992582321167</v>
+      </c>
+      <c r="R5" s="2" t="n"/>
+      <c r="S5" s="7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T5" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="U5" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="7" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>2025020742</v>
+      </c>
+      <c r="C6" s="7" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>thompson</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-103</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-121</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>8480313</v>
+      </c>
+      <c r="I6" s="7" t="inlineStr">
+        <is>
+          <t>WSH</t>
+        </is>
+      </c>
+      <c r="J6" s="7" t="inlineStr">
+        <is>
+          <t>SJS</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.5344140529632568</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>6.882810592651367</v>
+      </c>
+      <c r="O6" s="7" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P6" s="7" t="inlineStr">
+        <is>
+          <t>OVER</t>
+        </is>
+      </c>
+      <c r="Q6" s="6" t="n">
+        <v>0.02702486515045166</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="7" t="inlineStr">
+        <is>
+          <t>OVER</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="U6" s="7" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="V6" s="6" t="n">
+        <v>0.970873786407767</v>
+      </c>
+      <c r="W6" s="7" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>2025020742</v>
+      </c>
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>nedeljkovic</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>103</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-127</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>8482137</v>
+      </c>
+      <c r="I7" s="7" t="inlineStr">
+        <is>
+          <t>SJS</t>
+        </is>
+      </c>
+      <c r="J7" s="7" t="inlineStr">
+        <is>
+          <t>WSH</t>
+        </is>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>26.39999961853027</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.4711514115333557</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>5.769717693328857</v>
+      </c>
+      <c r="O7" s="7" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P7" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q7" s="6" t="n">
+        <v>-0.0214594304561615</v>
+      </c>
+      <c r="R7" s="2" t="n"/>
+      <c r="S7" s="7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="7" t="n"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>2025020743</v>
+      </c>
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr">
+        <is>
+          <t>merzlikins</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-118</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-105</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>8478007</v>
+      </c>
+      <c r="I8" s="7" t="inlineStr">
+        <is>
+          <t>CBJ</t>
+        </is>
+      </c>
+      <c r="J8" s="7" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0.5200234055519104</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>4.00468111038208</v>
+      </c>
+      <c r="O8" s="7" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P8" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q8" s="6" t="n">
+        <v>-0.02126097679138184</v>
+      </c>
+      <c r="R8" s="2" t="n"/>
+      <c r="S8" s="7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T8" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="U8" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="7" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>2025020743</v>
+      </c>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>lankinen</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>-122</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>8480947</v>
+      </c>
+      <c r="I9" s="7" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr">
+        <is>
+          <t>CBJ</t>
+        </is>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>26.39999961853027</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.4894924163818359</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>2.101516723632812</v>
+      </c>
+      <c r="O9" s="7" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P9" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q9" s="6" t="n">
+        <v>-0.01050758361816406</v>
+      </c>
+      <c r="R9" s="2" t="n"/>
+      <c r="S9" s="7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T9" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="U9" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="7" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>2025020739</v>
+      </c>
+      <c r="C10" s="7" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr">
+        <is>
+          <t>swayman</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-115</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-107</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>8480280</v>
+      </c>
+      <c r="I10" s="7" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>0.5357988476753235</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>7.159769535064697</v>
+      </c>
+      <c r="O10" s="7" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P10" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q10" s="6" t="n">
+        <v>0.0009151101112365723</v>
+      </c>
+      <c r="R10" s="2" t="n"/>
+      <c r="S10" s="7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T10" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="U10" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="7" t="n"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>2025020739</v>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D11" s="7" t="inlineStr">
+        <is>
+          <t>daccord</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-102</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-121</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>8478916</v>
+      </c>
+      <c r="I11" s="7" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J11" s="7" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>0.4986317753791809</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>0.2736449241638184</v>
+      </c>
+      <c r="O11" s="7" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P11" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q11" s="6" t="n">
+        <v>-0.006318747997283936</v>
+      </c>
+      <c r="R11" s="2" t="n"/>
+      <c r="S11" s="7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T11" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="U11" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="7" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>2025020744</v>
+      </c>
+      <c r="C12" s="7" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr">
+        <is>
+          <t>wallstedt</t>
+        </is>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-121</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>-102</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>8482661</v>
+      </c>
+      <c r="I12" s="7" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="J12" s="7" t="inlineStr">
+        <is>
+          <t>WPG</t>
+        </is>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>0.5280665755271912</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>5.613315105438232</v>
+      </c>
+      <c r="O12" s="7" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P12" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q12" s="6" t="n">
+        <v>-0.01944476366043091</v>
+      </c>
+      <c r="R12" s="2" t="n"/>
+      <c r="S12" s="7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T12" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="U12" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="7" t="n"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>2025020744</v>
+      </c>
+      <c r="C13" s="7" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="2" t="n"/>
+      <c r="G13" s="2" t="n"/>
+      <c r="H13" s="2" t="n"/>
+      <c r="I13" s="7" t="inlineStr">
+        <is>
+          <t>WPG</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3" t="n"/>
+      <c r="M13" s="3" t="n"/>
+      <c r="N13" s="3" t="n"/>
+      <c r="O13" s="7" t="n"/>
+      <c r="P13" s="7" t="n"/>
+      <c r="Q13" s="3" t="n"/>
+      <c r="R13" s="2" t="n"/>
+      <c r="S13" s="7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="n"/>
+      <c r="U13" s="7" t="n"/>
+      <c r="V13" s="2" t="n"/>
+      <c r="W13" s="7" t="n"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>2025020745</v>
+      </c>
+      <c r="C14" s="7" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr">
+        <is>
+          <t>knight</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-112</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-110</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>8481519</v>
+      </c>
+      <c r="I14" s="7" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="J14" s="7" t="inlineStr">
+        <is>
+          <t>CGY</t>
+        </is>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>25.39999961853027</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.4893680512905121</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>2.126389741897583</v>
+      </c>
+      <c r="O14" s="7" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P14" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q14" s="6" t="n">
+        <v>-0.01317763328552246</v>
+      </c>
+      <c r="R14" s="2" t="n"/>
+      <c r="S14" s="7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T14" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="U14" s="7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="7" t="n"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>2025020745</v>
+      </c>
+      <c r="C15" s="7" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="2" t="n"/>
+      <c r="G15" s="2" t="n"/>
+      <c r="H15" s="2" t="n"/>
+      <c r="I15" s="7" t="inlineStr">
+        <is>
+          <t>CGY</t>
+        </is>
+      </c>
+      <c r="J15" s="7" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="n"/>
+      <c r="M15" s="3" t="n"/>
+      <c r="N15" s="3" t="n"/>
+      <c r="O15" s="7" t="n"/>
+      <c r="P15" s="7" t="n"/>
+      <c r="Q15" s="3" t="n"/>
+      <c r="R15" s="2" t="n"/>
+      <c r="S15" s="7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="n"/>
+      <c r="U15" s="7" t="n"/>
+      <c r="V15" s="2" t="n"/>
+      <c r="W15" s="7" t="n"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>2025020746</v>
+      </c>
+      <c r="C16" s="7" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="2" t="n"/>
+      <c r="G16" s="2" t="n"/>
+      <c r="H16" s="2" t="n"/>
+      <c r="I16" s="7" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="J16" s="7" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3" t="n"/>
+      <c r="M16" s="3" t="n"/>
+      <c r="N16" s="3" t="n"/>
+      <c r="O16" s="7" t="n"/>
+      <c r="P16" s="7" t="n"/>
+      <c r="Q16" s="3" t="n"/>
+      <c r="R16" s="2" t="n"/>
+      <c r="S16" s="7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="n"/>
+      <c r="U16" s="7" t="n"/>
+      <c r="V16" s="2" t="n"/>
+      <c r="W16" s="7" t="n"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>2025020746</v>
+      </c>
+      <c r="C17" s="7" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="2" t="n"/>
+      <c r="G17" s="2" t="n"/>
+      <c r="H17" s="2" t="n"/>
+      <c r="I17" s="7" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="J17" s="7" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3" t="n"/>
+      <c r="M17" s="3" t="n"/>
+      <c r="N17" s="3" t="n"/>
+      <c r="O17" s="7" t="n"/>
+      <c r="P17" s="7" t="n"/>
+      <c r="Q17" s="3" t="n"/>
+      <c r="R17" s="2" t="n"/>
+      <c r="S17" s="7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="n"/>
+      <c r="U17" s="7" t="n"/>
+      <c r="V17" s="2" t="n"/>
+      <c r="W17" s="7" t="n"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>2025020747</v>
+      </c>
+      <c r="C18" s="7" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="2" t="n"/>
+      <c r="G18" s="2" t="n"/>
+      <c r="H18" s="2" t="n"/>
+      <c r="I18" s="7" t="inlineStr">
+        <is>
+          <t>EDM</t>
+        </is>
+      </c>
+      <c r="J18" s="7" t="inlineStr">
+        <is>
+          <t>NYI</t>
+        </is>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3" t="n"/>
+      <c r="M18" s="3" t="n"/>
+      <c r="N18" s="3" t="n"/>
+      <c r="O18" s="7" t="n"/>
+      <c r="P18" s="7" t="n"/>
+      <c r="Q18" s="3" t="n"/>
+      <c r="R18" s="2" t="n"/>
+      <c r="S18" s="7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="n"/>
+      <c r="U18" s="7" t="n"/>
+      <c r="V18" s="2" t="n"/>
+      <c r="W18" s="7" t="n"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>2025020747</v>
+      </c>
+      <c r="C19" s="7" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="n"/>
+      <c r="E19" s="3" t="n"/>
+      <c r="F19" s="2" t="n"/>
+      <c r="G19" s="2" t="n"/>
+      <c r="H19" s="2" t="n"/>
+      <c r="I19" s="7" t="inlineStr">
+        <is>
+          <t>NYI</t>
+        </is>
+      </c>
+      <c r="J19" s="7" t="inlineStr">
+        <is>
+          <t>EDM</t>
+        </is>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3" t="n"/>
+      <c r="M19" s="3" t="n"/>
+      <c r="N19" s="3" t="n"/>
+      <c r="O19" s="7" t="n"/>
+      <c r="P19" s="7" t="n"/>
+      <c r="Q19" s="3" t="n"/>
+      <c r="R19" s="2" t="n"/>
+      <c r="S19" s="7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="n"/>
+      <c r="U19" s="7" t="n"/>
+      <c r="V19" s="2" t="n"/>
+      <c r="W19" s="7" t="n"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>2025020748</v>
+      </c>
+      <c r="C20" s="7" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D20" s="7" t="n"/>
+      <c r="E20" s="3" t="n"/>
+      <c r="F20" s="2" t="n"/>
+      <c r="G20" s="2" t="n"/>
+      <c r="H20" s="2" t="n"/>
+      <c r="I20" s="7" t="inlineStr">
+        <is>
+          <t>VGK</t>
+        </is>
+      </c>
+      <c r="J20" s="7" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3" t="n"/>
+      <c r="M20" s="3" t="n"/>
+      <c r="N20" s="3" t="n"/>
+      <c r="O20" s="7" t="n"/>
+      <c r="P20" s="7" t="n"/>
+      <c r="Q20" s="3" t="n"/>
+      <c r="R20" s="2" t="n"/>
+      <c r="S20" s="7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="n"/>
+      <c r="U20" s="7" t="n"/>
+      <c r="V20" s="2" t="n"/>
+      <c r="W20" s="7" t="n"/>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>2025020748</v>
+      </c>
+      <c r="C21" s="7" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D21" s="7" t="n"/>
+      <c r="E21" s="3" t="n"/>
+      <c r="F21" s="2" t="n"/>
+      <c r="G21" s="2" t="n"/>
+      <c r="H21" s="2" t="n"/>
+      <c r="I21" s="7" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="J21" s="7" t="inlineStr">
+        <is>
+          <t>VGK</t>
+        </is>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3" t="n"/>
+      <c r="M21" s="3" t="n"/>
+      <c r="N21" s="3" t="n"/>
+      <c r="O21" s="7" t="n"/>
+      <c r="P21" s="7" t="n"/>
+      <c r="Q21" s="3" t="n"/>
+      <c r="R21" s="2" t="n"/>
+      <c r="S21" s="7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="n"/>
+      <c r="U21" s="7" t="n"/>
+      <c r="V21" s="2" t="n"/>
+      <c r="W21" s="7" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1700,7 +3289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -3638,6 +5227,1374 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:W17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="27" t="inlineStr">
+        <is>
+          <t>game_date</t>
+        </is>
+      </c>
+      <c r="B1" s="27" t="inlineStr">
+        <is>
+          <t>game_id</t>
+        </is>
+      </c>
+      <c r="C1" s="27" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="D1" s="27" t="inlineStr">
+        <is>
+          <t>goalie_name</t>
+        </is>
+      </c>
+      <c r="E1" s="27" t="inlineStr">
+        <is>
+          <t>betting_line</t>
+        </is>
+      </c>
+      <c r="F1" s="27" t="inlineStr">
+        <is>
+          <t>line_over</t>
+        </is>
+      </c>
+      <c r="G1" s="27" t="inlineStr">
+        <is>
+          <t>line_under</t>
+        </is>
+      </c>
+      <c r="H1" s="27" t="inlineStr">
+        <is>
+          <t>goalie_id</t>
+        </is>
+      </c>
+      <c r="I1" s="27" t="inlineStr">
+        <is>
+          <t>team_abbrev</t>
+        </is>
+      </c>
+      <c r="J1" s="27" t="inlineStr">
+        <is>
+          <t>opponent_team</t>
+        </is>
+      </c>
+      <c r="K1" s="27" t="inlineStr">
+        <is>
+          <t>is_home</t>
+        </is>
+      </c>
+      <c r="L1" s="27" t="inlineStr">
+        <is>
+          <t>predicted_saves</t>
+        </is>
+      </c>
+      <c r="M1" s="27" t="inlineStr">
+        <is>
+          <t>prob_over</t>
+        </is>
+      </c>
+      <c r="N1" s="27" t="inlineStr">
+        <is>
+          <t>confidence_pct</t>
+        </is>
+      </c>
+      <c r="O1" s="27" t="inlineStr">
+        <is>
+          <t>confidence_bucket</t>
+        </is>
+      </c>
+      <c r="P1" s="27" t="inlineStr">
+        <is>
+          <t>recommendation</t>
+        </is>
+      </c>
+      <c r="Q1" s="27" t="inlineStr">
+        <is>
+          <t>ev</t>
+        </is>
+      </c>
+      <c r="R1" s="27" t="inlineStr">
+        <is>
+          <t>bet_amount</t>
+        </is>
+      </c>
+      <c r="S1" s="27" t="inlineStr">
+        <is>
+          <t>bet_selection</t>
+        </is>
+      </c>
+      <c r="T1" s="27" t="inlineStr">
+        <is>
+          <t>actual_saves</t>
+        </is>
+      </c>
+      <c r="U1" s="27" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="V1" s="27" t="inlineStr">
+        <is>
+          <t>profit_loss</t>
+        </is>
+      </c>
+      <c r="W1" s="27" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2025020794</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Schmid</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-114</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-108</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8481033</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>VGK</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>21.70000076293945</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.5335663557052612</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.713271141052246</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0008561015129089355</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2025020794</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Korpisalo</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-114</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-108</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8476914</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VGK</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>24.29999923706055</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.4615394473075867</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7.692110538482666</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.01922976970672607</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2025020796</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Knight</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-122</v>
+      </c>
+      <c r="G4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8481519</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.4651559293270111</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.968813896179199</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>UNDER</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0348440408706665</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2025020797</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Greaves</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-114</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-108</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8482982</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CBJ</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>23.70000076293945</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.5321161150932312</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6.42322301864624</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.0005941390991210938</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2025020797</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DeSmith</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-105</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-118</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8479193</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CBJ</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.4942755997180939</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.144880056381226</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.01791951060295105</v>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2025020799</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Hellebuyck</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>101</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-124</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8476945</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>WPG</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.4948709011077881</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.025819778442383</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.002641528844833374</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2025020799</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tarasov</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-103</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8480193</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>WPG</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>22.60000038146973</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.5288675427436829</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.773508548736572</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>OVER</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.02147835493087769</v>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2025020798</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Saros</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-122</v>
+      </c>
+      <c r="G9" t="n">
+        <v>100</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8477424</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>NSH</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>OTT</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.5046124458312988</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.9224891662597656</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.004612445831298828</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2025020798</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Reimer</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-108</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-114</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8473503</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>OTT</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>NSH</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.5181494951248169</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.629899024963379</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.001081287860870361</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2025020800</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Silovs</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-110</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-112</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8481668</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>PIT</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>EDM</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.4908878803253174</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.822423934936523</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.01918977499008179</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2025020800</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Jarry</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-107</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-115</v>
+      </c>
+      <c r="H12" t="n">
+        <v>8477465</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>EDM</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PIT</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>23.70000076293945</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.5327706933021545</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.554138660430908</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.01586246490478516</v>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2025020801</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Talbot</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>101</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-124</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8475660</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>25.39999961853027</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.4863932132720947</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.721357345581055</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.01111921668052673</v>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2025020801</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Gustavsson</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>101</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-124</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8479406</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.5013213753700256</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.264275074005127</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.003808945417404175</v>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2025020795</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Montembeault</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-112</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-110</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8478470</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>BUF</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.5358108878135681</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.162177562713623</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.007508993148803711</v>
+      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2025020795</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Luukkonen</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-112</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-110</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8480045</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>BUF</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.4757562279701233</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4.848754405975342</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.0004342198371887207</v>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2025020798</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Sa</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-118</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-105</v>
+      </c>
+      <c r="H17" t="n">
+        <v>8477424</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>NSH</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>OTT</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.800000190734863</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.5518935322761536</v>
+      </c>
+      <c r="N17" t="n">
+        <v>10.37870597839355</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>55-60%</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.01060914993286133</v>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3837,10 +6794,17 @@
           <t>OVER</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
+      <c r="T2" t="n">
+        <v>15</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3916,10 +6880,17 @@
           <t>UNDER</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>40</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3987,16 +6958,22 @@
       <c r="Q4" t="n">
         <v>-0.0122448205947876</v>
       </c>
-      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="T4" t="n">
+        <v>22</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4064,16 +7041,22 @@
       <c r="Q5" t="n">
         <v>-0.007093489170074463</v>
       </c>
-      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="T5" t="n">
+        <v>24</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4141,16 +7124,22 @@
       <c r="Q6" t="n">
         <v>-0.0174713134765625</v>
       </c>
-      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="T6" t="n">
+        <v>21</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4218,16 +7207,22 @@
       <c r="Q7" t="n">
         <v>-0.007024466991424561</v>
       </c>
-      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+      <c r="T7" t="n">
+        <v>21</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4295,16 +7290,22 @@
       <c r="Q8" t="n">
         <v>-0.00929868221282959</v>
       </c>
-      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
+      <c r="T8" t="n">
+        <v>18</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4372,16 +7373,22 @@
       <c r="Q9" t="n">
         <v>-0.002378582954406738</v>
       </c>
-      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
+      <c r="T9" t="n">
+        <v>29</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4449,16 +7456,22 @@
       <c r="Q10" t="n">
         <v>-0.02095860242843628</v>
       </c>
-      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
+      <c r="T10" t="n">
+        <v>21</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4479,9 +7492,6 @@
           <t>Wedgewood</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
         <v>8475809</v>
       </c>
@@ -4498,22 +7508,22 @@
       <c r="K11" t="n">
         <v>1</v>
       </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
+      <c r="T11" t="n">
+        <v>15</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4534,9 +7544,6 @@
           <t>Dostal</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
         <v>8480843</v>
       </c>
@@ -4553,22 +7560,22 @@
       <c r="K12" t="n">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
+      <c r="T12" t="n">
+        <v>40</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4589,9 +7596,6 @@
           <t>Ersson</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
         <v>8481035</v>
       </c>
@@ -4608,22 +7612,22 @@
       <c r="K13" t="n">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
+      <c r="T13" t="n">
+        <v>22</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4644,9 +7648,6 @@
           <t>Grubauer</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
         <v>8475831</v>
       </c>
@@ -4663,22 +7664,22 @@
       <c r="K14" t="n">
         <v>1</v>
       </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>24</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4699,9 +7700,6 @@
           <t>Sorokin</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
         <v>8478009</v>
       </c>
@@ -4718,22 +7716,22 @@
       <c r="K15" t="n">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
+      <c r="T15" t="n">
+        <v>21</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4754,9 +7752,6 @@
           <t>Wolf</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
         <v>8481692</v>
       </c>
@@ -4773,22 +7768,22 @@
       <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
+      <c r="T16" t="n">
+        <v>21</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4809,9 +7804,6 @@
           <t>Skinner</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
         <v>8479973</v>
       </c>
@@ -4828,22 +7820,22 @@
       <c r="K17" t="n">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
+      <c r="T17" t="n">
+        <v>18</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4864,9 +7856,6 @@
           <t>Lankinen</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
         <v>8480947</v>
       </c>
@@ -4883,22 +7872,22 @@
       <c r="K18" t="n">
         <v>1</v>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
+      <c r="T18" t="n">
+        <v>29</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4919,9 +7908,6 @@
           <t>Thompson</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
         <v>8480313</v>
       </c>
@@ -4938,29 +7924,29 @@
       <c r="K19" t="n">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
+      <c r="T19" t="n">
+        <v>21</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -6504,7 +9490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -8117,7 +11103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -8572,7 +11558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -10613,7 +13599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -11554,1579 +14540,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:W21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="8" max="8"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="9" max="9"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="22" min="11" max="11"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="12" max="12"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="13" max="13"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="14" max="14"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="15" max="15"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="16" max="16"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="18" max="18"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="20" max="20"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="21" max="21"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="22" max="22"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="23" max="23"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>game_date</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>game_id</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="D1" s="7" t="inlineStr">
-        <is>
-          <t>goalie_name</t>
-        </is>
-      </c>
-      <c r="E1" s="11" t="inlineStr">
-        <is>
-          <t>betting_line</t>
-        </is>
-      </c>
-      <c r="F1" s="4" t="inlineStr">
-        <is>
-          <t>line_over</t>
-        </is>
-      </c>
-      <c r="G1" s="4" t="inlineStr">
-        <is>
-          <t>line_under</t>
-        </is>
-      </c>
-      <c r="H1" s="4" t="inlineStr">
-        <is>
-          <t>goalie_id</t>
-        </is>
-      </c>
-      <c r="I1" s="7" t="inlineStr">
-        <is>
-          <t>team_abbrev</t>
-        </is>
-      </c>
-      <c r="J1" s="7" t="inlineStr">
-        <is>
-          <t>opponent_team</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>is_home</t>
-        </is>
-      </c>
-      <c r="L1" s="11" t="inlineStr">
-        <is>
-          <t>predicted_saves</t>
-        </is>
-      </c>
-      <c r="M1" s="11" t="inlineStr">
-        <is>
-          <t>prob_over</t>
-        </is>
-      </c>
-      <c r="N1" s="11" t="inlineStr">
-        <is>
-          <t>confidence_pct</t>
-        </is>
-      </c>
-      <c r="O1" s="7" t="inlineStr">
-        <is>
-          <t>confidence_bucket</t>
-        </is>
-      </c>
-      <c r="P1" s="7" t="inlineStr">
-        <is>
-          <t>recommendation</t>
-        </is>
-      </c>
-      <c r="Q1" s="11" t="inlineStr">
-        <is>
-          <t>ev</t>
-        </is>
-      </c>
-      <c r="R1" s="4" t="inlineStr">
-        <is>
-          <t>bet_amount</t>
-        </is>
-      </c>
-      <c r="S1" s="7" t="inlineStr">
-        <is>
-          <t>bet_selection</t>
-        </is>
-      </c>
-      <c r="T1" s="4" t="inlineStr">
-        <is>
-          <t>actual_saves</t>
-        </is>
-      </c>
-      <c r="U1" s="7" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="V1" s="4" t="inlineStr">
-        <is>
-          <t>profit_loss</t>
-        </is>
-      </c>
-      <c r="W1" s="7" t="inlineStr">
-        <is>
-          <t>notes</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>2025020740</v>
-      </c>
-      <c r="C2" s="7" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D2" s="7" t="inlineStr">
-        <is>
-          <t>ellis</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>-109</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <v>-113</v>
-      </c>
-      <c r="H2" s="5" t="n">
-        <v>8481551</v>
-      </c>
-      <c r="I2" s="7" t="inlineStr">
-        <is>
-          <t>BUF</t>
-        </is>
-      </c>
-      <c r="J2" s="7" t="inlineStr">
-        <is>
-          <t>MTL</t>
-        </is>
-      </c>
-      <c r="K2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="6" t="n">
-        <v>23.60000038146973</v>
-      </c>
-      <c r="M2" s="6" t="n">
-        <v>0.5167751908302307</v>
-      </c>
-      <c r="N2" s="6" t="n">
-        <v>3.355038166046143</v>
-      </c>
-      <c r="O2" s="7" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P2" s="7" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q2" s="6" t="n">
-        <v>-0.004755914211273193</v>
-      </c>
-      <c r="R2" s="2" t="n"/>
-      <c r="S2" s="7" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T2" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="U2" s="7" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="7" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>2025020740</v>
-      </c>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D3" s="7" t="inlineStr">
-        <is>
-          <t>fowler</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>-122</v>
-      </c>
-      <c r="G3" s="5" t="n">
-        <v>-102</v>
-      </c>
-      <c r="H3" s="5" t="n">
-        <v>8484170</v>
-      </c>
-      <c r="I3" s="7" t="inlineStr">
-        <is>
-          <t>MTL</t>
-        </is>
-      </c>
-      <c r="J3" s="7" t="inlineStr">
-        <is>
-          <t>BUF</t>
-        </is>
-      </c>
-      <c r="K3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="6" t="n">
-        <v>23.60000038146973</v>
-      </c>
-      <c r="M3" s="6" t="n">
-        <v>0.5146946907043457</v>
-      </c>
-      <c r="N3" s="6" t="n">
-        <v>2.938938140869141</v>
-      </c>
-      <c r="O3" s="7" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P3" s="7" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q3" s="6" t="n">
-        <v>-0.01964521408081055</v>
-      </c>
-      <c r="R3" s="2" t="n"/>
-      <c r="S3" s="7" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T3" s="5" t="n">
-        <v>22</v>
-      </c>
-      <c r="U3" s="7" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="7" t="n"/>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>2025020741</v>
-      </c>
-      <c r="C4" s="7" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D4" s="7" t="inlineStr">
-        <is>
-          <t>skinner</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>-124</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>101</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>8479973</v>
-      </c>
-      <c r="I4" s="7" t="inlineStr">
-        <is>
-          <t>PIT</t>
-        </is>
-      </c>
-      <c r="J4" s="7" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="6" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="M4" s="6" t="n">
-        <v>0.5096580982208252</v>
-      </c>
-      <c r="N4" s="6" t="n">
-        <v>1.931619644165039</v>
-      </c>
-      <c r="O4" s="7" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P4" s="7" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q4" s="6" t="n">
-        <v>-0.007170528173446655</v>
-      </c>
-      <c r="R4" s="2" t="n"/>
-      <c r="S4" s="7" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T4" s="5" t="n">
-        <v>31</v>
-      </c>
-      <c r="U4" s="7" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="7" t="n"/>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>2025020741</v>
-      </c>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>ersson</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>-113</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>-109</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>8481035</v>
-      </c>
-      <c r="I5" s="7" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="J5" s="7" t="inlineStr">
-        <is>
-          <t>PIT</t>
-        </is>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="M5" s="6" t="n">
-        <v>0.5099865198135376</v>
-      </c>
-      <c r="N5" s="6" t="n">
-        <v>1.99730396270752</v>
-      </c>
-      <c r="O5" s="7" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P5" s="7" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q5" s="6" t="n">
-        <v>-0.02052992582321167</v>
-      </c>
-      <c r="R5" s="2" t="n"/>
-      <c r="S5" s="7" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T5" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="U5" s="7" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="7" t="n"/>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>2025020742</v>
-      </c>
-      <c r="C6" s="7" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D6" s="7" t="inlineStr">
-        <is>
-          <t>thompson</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>-103</v>
-      </c>
-      <c r="G6" s="5" t="n">
-        <v>-121</v>
-      </c>
-      <c r="H6" s="5" t="n">
-        <v>8480313</v>
-      </c>
-      <c r="I6" s="7" t="inlineStr">
-        <is>
-          <t>WSH</t>
-        </is>
-      </c>
-      <c r="J6" s="7" t="inlineStr">
-        <is>
-          <t>SJS</t>
-        </is>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="6" t="n">
-        <v>22.70000076293945</v>
-      </c>
-      <c r="M6" s="6" t="n">
-        <v>0.5344140529632568</v>
-      </c>
-      <c r="N6" s="6" t="n">
-        <v>6.882810592651367</v>
-      </c>
-      <c r="O6" s="7" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P6" s="7" t="inlineStr">
-        <is>
-          <t>OVER</t>
-        </is>
-      </c>
-      <c r="Q6" s="6" t="n">
-        <v>0.02702486515045166</v>
-      </c>
-      <c r="R6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="7" t="inlineStr">
-        <is>
-          <t>OVER</t>
-        </is>
-      </c>
-      <c r="T6" s="5" t="n">
-        <v>23</v>
-      </c>
-      <c r="U6" s="7" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="V6" s="6" t="n">
-        <v>0.970873786407767</v>
-      </c>
-      <c r="W6" s="7" t="n"/>
-    </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="n">
-        <v>2025020742</v>
-      </c>
-      <c r="C7" s="7" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D7" s="7" t="inlineStr">
-        <is>
-          <t>nedeljkovic</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>103</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <v>-127</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>8482137</v>
-      </c>
-      <c r="I7" s="7" t="inlineStr">
-        <is>
-          <t>SJS</t>
-        </is>
-      </c>
-      <c r="J7" s="7" t="inlineStr">
-        <is>
-          <t>WSH</t>
-        </is>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6" t="n">
-        <v>26.39999961853027</v>
-      </c>
-      <c r="M7" s="6" t="n">
-        <v>0.4711514115333557</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>5.769717693328857</v>
-      </c>
-      <c r="O7" s="7" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P7" s="7" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q7" s="6" t="n">
-        <v>-0.0214594304561615</v>
-      </c>
-      <c r="R7" s="2" t="n"/>
-      <c r="S7" s="7" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="7" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="7" t="n"/>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>2025020743</v>
-      </c>
-      <c r="C8" s="7" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr">
-        <is>
-          <t>merzlikins</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>-118</v>
-      </c>
-      <c r="G8" s="5" t="n">
-        <v>-105</v>
-      </c>
-      <c r="H8" s="5" t="n">
-        <v>8478007</v>
-      </c>
-      <c r="I8" s="7" t="inlineStr">
-        <is>
-          <t>CBJ</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr">
-        <is>
-          <t>VAN</t>
-        </is>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="6" t="n">
-        <v>23.60000038146973</v>
-      </c>
-      <c r="M8" s="6" t="n">
-        <v>0.5200234055519104</v>
-      </c>
-      <c r="N8" s="6" t="n">
-        <v>4.00468111038208</v>
-      </c>
-      <c r="O8" s="7" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P8" s="7" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q8" s="6" t="n">
-        <v>-0.02126097679138184</v>
-      </c>
-      <c r="R8" s="2" t="n"/>
-      <c r="S8" s="7" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T8" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="U8" s="7" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" s="7" t="n"/>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="n">
-        <v>2025020743</v>
-      </c>
-      <c r="C9" s="7" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr">
-        <is>
-          <t>lankinen</t>
-        </is>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" s="5" t="n">
-        <v>-122</v>
-      </c>
-      <c r="H9" s="5" t="n">
-        <v>8480947</v>
-      </c>
-      <c r="I9" s="7" t="inlineStr">
-        <is>
-          <t>VAN</t>
-        </is>
-      </c>
-      <c r="J9" s="7" t="inlineStr">
-        <is>
-          <t>CBJ</t>
-        </is>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6" t="n">
-        <v>26.39999961853027</v>
-      </c>
-      <c r="M9" s="6" t="n">
-        <v>0.4894924163818359</v>
-      </c>
-      <c r="N9" s="6" t="n">
-        <v>2.101516723632812</v>
-      </c>
-      <c r="O9" s="7" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P9" s="7" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q9" s="6" t="n">
-        <v>-0.01050758361816406</v>
-      </c>
-      <c r="R9" s="2" t="n"/>
-      <c r="S9" s="7" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T9" s="5" t="n">
-        <v>32</v>
-      </c>
-      <c r="U9" s="7" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="7" t="n"/>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>2025020739</v>
-      </c>
-      <c r="C10" s="7" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr">
-        <is>
-          <t>swayman</t>
-        </is>
-      </c>
-      <c r="E10" s="6" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>-115</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>-107</v>
-      </c>
-      <c r="H10" s="5" t="n">
-        <v>8480280</v>
-      </c>
-      <c r="I10" s="7" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="J10" s="7" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="6" t="n">
-        <v>22.70000076293945</v>
-      </c>
-      <c r="M10" s="6" t="n">
-        <v>0.5357988476753235</v>
-      </c>
-      <c r="N10" s="6" t="n">
-        <v>7.159769535064697</v>
-      </c>
-      <c r="O10" s="7" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P10" s="7" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q10" s="6" t="n">
-        <v>0.0009151101112365723</v>
-      </c>
-      <c r="R10" s="2" t="n"/>
-      <c r="S10" s="7" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T10" s="5" t="n">
-        <v>26</v>
-      </c>
-      <c r="U10" s="7" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="7" t="n"/>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>2025020739</v>
-      </c>
-      <c r="C11" s="7" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D11" s="7" t="inlineStr">
-        <is>
-          <t>daccord</t>
-        </is>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>-102</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v>-121</v>
-      </c>
-      <c r="H11" s="5" t="n">
-        <v>8478916</v>
-      </c>
-      <c r="I11" s="7" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J11" s="7" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M11" s="6" t="n">
-        <v>0.4986317753791809</v>
-      </c>
-      <c r="N11" s="6" t="n">
-        <v>0.2736449241638184</v>
-      </c>
-      <c r="O11" s="7" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P11" s="7" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q11" s="6" t="n">
-        <v>-0.006318747997283936</v>
-      </c>
-      <c r="R11" s="2" t="n"/>
-      <c r="S11" s="7" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T11" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="U11" s="7" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" s="7" t="n"/>
-    </row>
-    <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="n">
-        <v>2025020744</v>
-      </c>
-      <c r="C12" s="7" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>wallstedt</t>
-        </is>
-      </c>
-      <c r="E12" s="6" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>-121</v>
-      </c>
-      <c r="G12" s="5" t="n">
-        <v>-102</v>
-      </c>
-      <c r="H12" s="5" t="n">
-        <v>8482661</v>
-      </c>
-      <c r="I12" s="7" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="J12" s="7" t="inlineStr">
-        <is>
-          <t>WPG</t>
-        </is>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="6" t="n">
-        <v>23.60000038146973</v>
-      </c>
-      <c r="M12" s="6" t="n">
-        <v>0.5280665755271912</v>
-      </c>
-      <c r="N12" s="6" t="n">
-        <v>5.613315105438232</v>
-      </c>
-      <c r="O12" s="7" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P12" s="7" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q12" s="6" t="n">
-        <v>-0.01944476366043091</v>
-      </c>
-      <c r="R12" s="2" t="n"/>
-      <c r="S12" s="7" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T12" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="U12" s="7" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" s="7" t="n"/>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="n">
-        <v>2025020744</v>
-      </c>
-      <c r="C13" s="7" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="2" t="n"/>
-      <c r="G13" s="2" t="n"/>
-      <c r="H13" s="2" t="n"/>
-      <c r="I13" s="7" t="inlineStr">
-        <is>
-          <t>WPG</t>
-        </is>
-      </c>
-      <c r="J13" s="7" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3" t="n"/>
-      <c r="M13" s="3" t="n"/>
-      <c r="N13" s="3" t="n"/>
-      <c r="O13" s="7" t="n"/>
-      <c r="P13" s="7" t="n"/>
-      <c r="Q13" s="3" t="n"/>
-      <c r="R13" s="2" t="n"/>
-      <c r="S13" s="7" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T13" s="2" t="n"/>
-      <c r="U13" s="7" t="n"/>
-      <c r="V13" s="2" t="n"/>
-      <c r="W13" s="7" t="n"/>
-    </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="B14" s="5" t="n">
-        <v>2025020745</v>
-      </c>
-      <c r="C14" s="7" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D14" s="7" t="inlineStr">
-        <is>
-          <t>knight</t>
-        </is>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>-112</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>-110</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>8481519</v>
-      </c>
-      <c r="I14" s="7" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="J14" s="7" t="inlineStr">
-        <is>
-          <t>CGY</t>
-        </is>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="6" t="n">
-        <v>25.39999961853027</v>
-      </c>
-      <c r="M14" s="6" t="n">
-        <v>0.4893680512905121</v>
-      </c>
-      <c r="N14" s="6" t="n">
-        <v>2.126389741897583</v>
-      </c>
-      <c r="O14" s="7" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P14" s="7" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q14" s="6" t="n">
-        <v>-0.01317763328552246</v>
-      </c>
-      <c r="R14" s="2" t="n"/>
-      <c r="S14" s="7" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T14" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="U14" s="7" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" s="7" t="n"/>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="n">
-        <v>2025020745</v>
-      </c>
-      <c r="C15" s="7" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="3" t="n"/>
-      <c r="F15" s="2" t="n"/>
-      <c r="G15" s="2" t="n"/>
-      <c r="H15" s="2" t="n"/>
-      <c r="I15" s="7" t="inlineStr">
-        <is>
-          <t>CGY</t>
-        </is>
-      </c>
-      <c r="J15" s="7" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3" t="n"/>
-      <c r="M15" s="3" t="n"/>
-      <c r="N15" s="3" t="n"/>
-      <c r="O15" s="7" t="n"/>
-      <c r="P15" s="7" t="n"/>
-      <c r="Q15" s="3" t="n"/>
-      <c r="R15" s="2" t="n"/>
-      <c r="S15" s="7" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T15" s="2" t="n"/>
-      <c r="U15" s="7" t="n"/>
-      <c r="V15" s="2" t="n"/>
-      <c r="W15" s="7" t="n"/>
-    </row>
-    <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="B16" s="5" t="n">
-        <v>2025020746</v>
-      </c>
-      <c r="C16" s="7" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
-      <c r="H16" s="2" t="n"/>
-      <c r="I16" s="7" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="J16" s="7" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="3" t="n"/>
-      <c r="M16" s="3" t="n"/>
-      <c r="N16" s="3" t="n"/>
-      <c r="O16" s="7" t="n"/>
-      <c r="P16" s="7" t="n"/>
-      <c r="Q16" s="3" t="n"/>
-      <c r="R16" s="2" t="n"/>
-      <c r="S16" s="7" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T16" s="2" t="n"/>
-      <c r="U16" s="7" t="n"/>
-      <c r="V16" s="2" t="n"/>
-      <c r="W16" s="7" t="n"/>
-    </row>
-    <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="7" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="B17" s="5" t="n">
-        <v>2025020746</v>
-      </c>
-      <c r="C17" s="7" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D17" s="7" t="n"/>
-      <c r="E17" s="3" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
-      <c r="I17" s="7" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="J17" s="7" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="n"/>
-      <c r="M17" s="3" t="n"/>
-      <c r="N17" s="3" t="n"/>
-      <c r="O17" s="7" t="n"/>
-      <c r="P17" s="7" t="n"/>
-      <c r="Q17" s="3" t="n"/>
-      <c r="R17" s="2" t="n"/>
-      <c r="S17" s="7" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T17" s="2" t="n"/>
-      <c r="U17" s="7" t="n"/>
-      <c r="V17" s="2" t="n"/>
-      <c r="W17" s="7" t="n"/>
-    </row>
-    <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="n">
-        <v>2025020747</v>
-      </c>
-      <c r="C18" s="7" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="n"/>
-      <c r="E18" s="3" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
-      <c r="I18" s="7" t="inlineStr">
-        <is>
-          <t>EDM</t>
-        </is>
-      </c>
-      <c r="J18" s="7" t="inlineStr">
-        <is>
-          <t>NYI</t>
-        </is>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" s="3" t="n"/>
-      <c r="M18" s="3" t="n"/>
-      <c r="N18" s="3" t="n"/>
-      <c r="O18" s="7" t="n"/>
-      <c r="P18" s="7" t="n"/>
-      <c r="Q18" s="3" t="n"/>
-      <c r="R18" s="2" t="n"/>
-      <c r="S18" s="7" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T18" s="2" t="n"/>
-      <c r="U18" s="7" t="n"/>
-      <c r="V18" s="2" t="n"/>
-      <c r="W18" s="7" t="n"/>
-    </row>
-    <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="7" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="B19" s="5" t="n">
-        <v>2025020747</v>
-      </c>
-      <c r="C19" s="7" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D19" s="7" t="n"/>
-      <c r="E19" s="3" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
-      <c r="I19" s="7" t="inlineStr">
-        <is>
-          <t>NYI</t>
-        </is>
-      </c>
-      <c r="J19" s="7" t="inlineStr">
-        <is>
-          <t>EDM</t>
-        </is>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3" t="n"/>
-      <c r="M19" s="3" t="n"/>
-      <c r="N19" s="3" t="n"/>
-      <c r="O19" s="7" t="n"/>
-      <c r="P19" s="7" t="n"/>
-      <c r="Q19" s="3" t="n"/>
-      <c r="R19" s="2" t="n"/>
-      <c r="S19" s="7" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T19" s="2" t="n"/>
-      <c r="U19" s="7" t="n"/>
-      <c r="V19" s="2" t="n"/>
-      <c r="W19" s="7" t="n"/>
-    </row>
-    <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="B20" s="5" t="n">
-        <v>2025020748</v>
-      </c>
-      <c r="C20" s="7" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D20" s="7" t="n"/>
-      <c r="E20" s="3" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
-      <c r="I20" s="7" t="inlineStr">
-        <is>
-          <t>VGK</t>
-        </is>
-      </c>
-      <c r="J20" s="7" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="3" t="n"/>
-      <c r="M20" s="3" t="n"/>
-      <c r="N20" s="3" t="n"/>
-      <c r="O20" s="7" t="n"/>
-      <c r="P20" s="7" t="n"/>
-      <c r="Q20" s="3" t="n"/>
-      <c r="R20" s="2" t="n"/>
-      <c r="S20" s="7" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T20" s="2" t="n"/>
-      <c r="U20" s="7" t="n"/>
-      <c r="V20" s="2" t="n"/>
-      <c r="W20" s="7" t="n"/>
-    </row>
-    <row r="21" ht="18.75" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="n">
-        <v>2025020748</v>
-      </c>
-      <c r="C21" s="7" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D21" s="7" t="n"/>
-      <c r="E21" s="3" t="n"/>
-      <c r="F21" s="2" t="n"/>
-      <c r="G21" s="2" t="n"/>
-      <c r="H21" s="2" t="n"/>
-      <c r="I21" s="7" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="J21" s="7" t="inlineStr">
-        <is>
-          <t>VGK</t>
-        </is>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3" t="n"/>
-      <c r="M21" s="3" t="n"/>
-      <c r="N21" s="3" t="n"/>
-      <c r="O21" s="7" t="n"/>
-      <c r="P21" s="7" t="n"/>
-      <c r="Q21" s="3" t="n"/>
-      <c r="R21" s="2" t="n"/>
-      <c r="S21" s="7" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T21" s="2" t="n"/>
-      <c r="U21" s="7" t="n"/>
-      <c r="V21" s="2" t="n"/>
-      <c r="W21" s="7" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="192">
   <si>
     <t>game_date</t>
   </si>
@@ -481,6 +481,9 @@
   </si>
   <si>
     <t>Montembeault</t>
+  </si>
+  <si>
+    <t>Andersen</t>
   </si>
   <si>
     <t>BETTING TRACKER SETTINGS</t>
@@ -652,7 +655,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -682,11 +685,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -712,29 +730,35 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -1071,17 +1095,17 @@
     <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
+      <c r="A1" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
@@ -1093,10 +1117,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1110,8 +1134,8 @@
       <c r="E4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="22" t="s">
-        <v>168</v>
+      <c r="A5" s="24" t="s">
+        <v>169</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1127,7 +1151,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B7" s="2">
         <v>16</v>
@@ -1138,7 +1162,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B8" s="2">
         <v>9</v>
@@ -1149,7 +1173,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B9" s="2">
         <v>7</v>
@@ -1160,7 +1184,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -1171,10 +1195,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1182,10 +1206,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1193,10 +1217,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1217,8 +1241,8 @@
       <c r="E15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="22" t="s">
-        <v>179</v>
+      <c r="A16" s="24" t="s">
+        <v>180</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1226,20 +1250,20 @@
       <c r="E16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="19" t="s">
-        <v>180</v>
+      <c r="A17" s="21" t="s">
+        <v>181</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>174</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
@@ -1252,11 +1276,11 @@
       <c r="C18" s="2">
         <v>7</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>182</v>
+      <c r="D18" s="25" t="s">
+        <v>183</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
@@ -1269,16 +1293,16 @@
       <c r="C19" s="2">
         <v>2</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>184</v>
+      <c r="D19" s="25" t="s">
+        <v>185</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -1286,33 +1310,33 @@
       <c r="C20" s="2">
         <v>0</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>187</v>
+      <c r="D20" s="25" t="s">
+        <v>188</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="B21" s="2">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>187</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -1320,16 +1344,16 @@
       <c r="C22" s="2">
         <v>0</v>
       </c>
-      <c r="D22" s="23" t="s">
-        <v>187</v>
+      <c r="D22" s="25" t="s">
+        <v>188</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -1337,11 +1361,11 @@
       <c r="C23" s="2">
         <v>0</v>
       </c>
-      <c r="D23" s="23" t="s">
-        <v>187</v>
+      <c r="D23" s="25" t="s">
+        <v>188</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4592,8 +4616,8 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="18" t="s">
-        <v>152</v>
+      <c r="A1" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -4602,16 +4626,16 @@
       <c r="B2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="19" t="s">
-        <v>153</v>
+      <c r="A3" s="21" t="s">
+        <v>154</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -4619,7 +4643,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B5" s="2">
         <v>55</v>
@@ -4627,7 +4651,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B6" s="2">
         <v>65</v>
@@ -4635,7 +4659,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -4647,15 +4671,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B10" s="2">
         <v>-110</v>
@@ -4667,15 +4691,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B13" s="2">
         <v>89</v>
@@ -4691,7 +4715,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -4701,20 +4725,20 @@
     <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="27.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="19" max="19" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -4722,74 +4746,74 @@
     <col min="23" max="23" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="16" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4843,9 +4867,9 @@
         <v>29</v>
       </c>
       <c r="Q2" s="13">
-        <v>0.0008561015129089355</v>
-      </c>
-      <c r="R2" s="1"/>
+        <v>0.000856101512909</v>
+      </c>
+      <c r="R2" s="19"/>
       <c r="S2" s="1" t="s">
         <v>30</v>
       </c>
@@ -4906,7 +4930,7 @@
       <c r="Q3" s="13">
         <v>0.019229769706726</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="12">
         <v>1</v>
       </c>
       <c r="S3" s="1" t="s">
@@ -4969,7 +4993,7 @@
       <c r="Q4" s="13">
         <v>0.0348440408706665</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="12">
         <v>1</v>
       </c>
       <c r="S4" s="1" t="s">
@@ -5032,7 +5056,7 @@
       <c r="Q5" s="13">
         <v>-0.0005941390991210938</v>
       </c>
-      <c r="R5" s="1"/>
+      <c r="R5" s="19"/>
       <c r="S5" s="1" t="s">
         <v>30</v>
       </c>
@@ -5093,7 +5117,7 @@
       <c r="Q6" s="13">
         <v>-0.01791951060295105</v>
       </c>
-      <c r="R6" s="1"/>
+      <c r="R6" s="19"/>
       <c r="S6" s="1" t="s">
         <v>30</v>
       </c>
@@ -5154,7 +5178,7 @@
       <c r="Q7" s="13">
         <v>-0.002641528844833374</v>
       </c>
-      <c r="R7" s="1"/>
+      <c r="R7" s="19"/>
       <c r="S7" s="1" t="s">
         <v>30</v>
       </c>
@@ -5215,7 +5239,7 @@
       <c r="Q8" s="13">
         <v>0.021478354930878</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R8" s="12">
         <v>1</v>
       </c>
       <c r="S8" s="1" t="s">
@@ -5278,7 +5302,7 @@
       <c r="Q9" s="13">
         <v>-0.004612445831298828</v>
       </c>
-      <c r="R9" s="1"/>
+      <c r="R9" s="19"/>
       <c r="S9" s="1" t="s">
         <v>30</v>
       </c>
@@ -5339,7 +5363,7 @@
       <c r="Q10" s="13">
         <v>-0.001081287860870361</v>
       </c>
-      <c r="R10" s="1"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="1" t="s">
         <v>30</v>
       </c>
@@ -5400,7 +5424,7 @@
       <c r="Q11" s="13">
         <v>-0.01918977499008179</v>
       </c>
-      <c r="R11" s="1"/>
+      <c r="R11" s="19"/>
       <c r="S11" s="1" t="s">
         <v>30</v>
       </c>
@@ -5461,7 +5485,7 @@
       <c r="Q12" s="13">
         <v>0.015862464904785</v>
       </c>
-      <c r="R12" s="1"/>
+      <c r="R12" s="19"/>
       <c r="S12" s="1" t="s">
         <v>30</v>
       </c>
@@ -5522,7 +5546,7 @@
       <c r="Q13" s="13">
         <v>-0.01111921668052673</v>
       </c>
-      <c r="R13" s="1"/>
+      <c r="R13" s="19"/>
       <c r="S13" s="1" t="s">
         <v>30</v>
       </c>
@@ -5583,7 +5607,7 @@
       <c r="Q14" s="13">
         <v>0.003808945417404175</v>
       </c>
-      <c r="R14" s="1"/>
+      <c r="R14" s="19"/>
       <c r="S14" s="1" t="s">
         <v>30</v>
       </c>
@@ -5644,7 +5668,7 @@
       <c r="Q15" s="13">
         <v>0.007508993148803711</v>
       </c>
-      <c r="R15" s="1"/>
+      <c r="R15" s="19"/>
       <c r="S15" s="1" t="s">
         <v>30</v>
       </c>
@@ -5705,7 +5729,7 @@
       <c r="Q16" s="13">
         <v>0.0004342198371887207</v>
       </c>
-      <c r="R16" s="1"/>
+      <c r="R16" s="19"/>
       <c r="S16" s="1" t="s">
         <v>30</v>
       </c>
@@ -5713,6 +5737,67 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="12">
+        <v>2025020796</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="13">
+        <v>19.5</v>
+      </c>
+      <c r="F17" s="12">
+        <v>-103</v>
+      </c>
+      <c r="G17" s="12">
+        <v>-120</v>
+      </c>
+      <c r="H17" s="12">
+        <v>8475883</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="12">
+        <v>1</v>
+      </c>
+      <c r="L17" s="13">
+        <v>19.70000076293945</v>
+      </c>
+      <c r="M17" s="13">
+        <v>0.5309252142906189</v>
+      </c>
+      <c r="N17" s="13">
+        <v>6.185042858123779</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>0.023536026477814</v>
+      </c>
+      <c r="R17" s="19"/>
+      <c r="S17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5734,20 +5819,20 @@
     <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="19" max="19" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -5830,7 +5915,7 @@
       <c r="A2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="2">
         <v>2025020789</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -5839,16 +5924,16 @@
       <c r="D2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="3">
         <v>23.5</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="2">
         <v>-107</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="2">
         <v>-115</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="2">
         <v>8475809</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -5857,16 +5942,16 @@
       <c r="J2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="2">
         <v>1</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="3">
         <v>23.70000076293945</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="3">
         <v>0.5356113314628601</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="3">
         <v>7.122266292572021</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -5875,22 +5960,22 @@
       <c r="P2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="Q2" s="3">
         <v>0.01870310306549072</v>
       </c>
-      <c r="R2" s="12">
+      <c r="R2" s="2">
         <v>1</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T2" s="12">
+      <c r="T2" s="2">
         <v>15</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V2" s="12">
+      <c r="V2" s="2">
         <v>-1</v>
       </c>
       <c r="W2" s="1"/>
@@ -5899,7 +5984,7 @@
       <c r="A3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="2">
         <v>2025020789</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -5908,16 +5993,16 @@
       <c r="D3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="3">
         <v>27.5</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="2">
         <v>-125</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="2">
         <v>102</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="2">
         <v>8480843</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -5926,16 +6011,16 @@
       <c r="J3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K3" s="12">
-        <v>0</v>
-      </c>
-      <c r="L3" s="13">
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
         <v>27.29999923706055</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="3">
         <v>0.4652156233787537</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="3">
         <v>6.956875324249268</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -5944,22 +6029,22 @@
       <c r="P3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="3">
         <v>0.03973487019538879</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="2">
         <v>2</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="T3" s="12">
+      <c r="T3" s="2">
         <v>40</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V3" s="12">
+      <c r="V3" s="2">
         <v>-2</v>
       </c>
       <c r="W3" s="1"/>
@@ -5968,7 +6053,7 @@
       <c r="A4" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="2">
         <v>2025020790</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -5977,16 +6062,16 @@
       <c r="D4" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="3">
         <v>23.5</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="2">
         <v>-107</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="2">
         <v>-115</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="2">
         <v>8481035</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -5995,16 +6080,16 @@
       <c r="J4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="12">
-        <v>0</v>
-      </c>
-      <c r="L4" s="13">
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
         <v>23.5</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="3">
         <v>0.5046634078025818</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="3">
         <v>0.9326815605163574</v>
       </c>
       <c r="O4" s="1" t="s">
@@ -6013,20 +6098,20 @@
       <c r="P4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="3">
         <v>-0.0122448205947876</v>
       </c>
-      <c r="R4" s="14"/>
+      <c r="R4" s="12"/>
       <c r="S4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T4" s="12">
+      <c r="T4" s="2">
         <v>22</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V4" s="12">
+      <c r="V4" s="2">
         <v>0</v>
       </c>
       <c r="W4" s="1"/>
@@ -6035,7 +6120,7 @@
       <c r="A5" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="2">
         <v>2025020793</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -6044,16 +6129,16 @@
       <c r="D5" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="3">
         <v>24.5</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="2">
         <v>-102</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="2">
         <v>-122</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="2">
         <v>8475831</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -6062,16 +6147,16 @@
       <c r="J5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="2">
         <v>1</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="3">
         <v>24.5</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="3">
         <v>0.4978570342063904</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="3">
         <v>0.4285931587219238</v>
       </c>
       <c r="O5" s="1" t="s">
@@ -6080,20 +6165,20 @@
       <c r="P5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="3">
         <v>-0.007093489170074463</v>
       </c>
-      <c r="R5" s="14"/>
+      <c r="R5" s="12"/>
       <c r="S5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="2">
         <v>24</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V5" s="12">
+      <c r="V5" s="2">
         <v>0</v>
       </c>
       <c r="W5" s="1"/>
@@ -6102,7 +6187,7 @@
       <c r="A6" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="2">
         <v>2025020793</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -6111,16 +6196,16 @@
       <c r="D6" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="3">
         <v>24.5</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="2">
         <v>-106</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="2">
         <v>-117</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="2">
         <v>8478009</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -6129,16 +6214,16 @@
       <c r="J6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K6" s="12">
-        <v>0</v>
-      </c>
-      <c r="L6" s="13">
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
         <v>24.39999961853027</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="3">
         <v>0.4783008098602295</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="3">
         <v>4.339838027954102</v>
       </c>
       <c r="O6" s="1" t="s">
@@ -6147,20 +6232,20 @@
       <c r="P6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="3">
         <v>-0.0174713134765625</v>
       </c>
-      <c r="R6" s="14"/>
+      <c r="R6" s="12"/>
       <c r="S6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T6" s="12">
+      <c r="T6" s="2">
         <v>21</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V6" s="12">
+      <c r="V6" s="2">
         <v>0</v>
       </c>
       <c r="W6" s="1"/>
@@ -6169,7 +6254,7 @@
       <c r="A7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="2">
         <v>2025020791</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -6178,16 +6263,16 @@
       <c r="D7" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="3">
         <v>25.5</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="2">
         <v>-115</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="2">
         <v>-107</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="2">
         <v>8481692</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -6196,16 +6281,16 @@
       <c r="J7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="2">
         <v>1</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="3">
         <v>25.5</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="3">
         <v>0.4901162385940552</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="3">
         <v>1.976752281188965</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -6214,20 +6299,20 @@
       <c r="P7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="3">
         <v>-0.007024466991424561</v>
       </c>
-      <c r="R7" s="14"/>
+      <c r="R7" s="12"/>
       <c r="S7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T7" s="12">
+      <c r="T7" s="2">
         <v>21</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V7" s="12">
+      <c r="V7" s="2">
         <v>0</v>
       </c>
       <c r="W7" s="1"/>
@@ -6236,7 +6321,7 @@
       <c r="A8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="2">
         <v>2025020791</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -6245,16 +6330,16 @@
       <c r="D8" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="3">
         <v>24.5</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="2">
         <v>-104</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="2">
         <v>-118</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="2">
         <v>8479973</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -6263,16 +6348,16 @@
       <c r="J8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="12">
-        <v>0</v>
-      </c>
-      <c r="L8" s="13">
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>24.29999923706055</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="3">
         <v>0.4680142998695374</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="3">
         <v>6.397140026092529</v>
       </c>
       <c r="O8" s="1" t="s">
@@ -6281,20 +6366,20 @@
       <c r="P8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="3">
         <v>-0.00929868221282959</v>
       </c>
-      <c r="R8" s="14"/>
+      <c r="R8" s="12"/>
       <c r="S8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T8" s="12">
+      <c r="T8" s="2">
         <v>18</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V8" s="12">
+      <c r="V8" s="2">
         <v>0</v>
       </c>
       <c r="W8" s="1"/>
@@ -6303,7 +6388,7 @@
       <c r="A9" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="2">
         <v>2025020792</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -6312,16 +6397,16 @@
       <c r="D9" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="3">
         <v>24.5</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="2">
         <v>-113</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="2">
         <v>-109</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="2">
         <v>8480947</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -6330,16 +6415,16 @@
       <c r="J9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="2">
         <v>1</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="3">
         <v>24.39999961853027</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="3">
         <v>0.4808475077152252</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="3">
         <v>3.830498456954956</v>
       </c>
       <c r="O9" s="1" t="s">
@@ -6348,20 +6433,20 @@
       <c r="P9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="3">
         <v>-0.002378582954406738</v>
       </c>
-      <c r="R9" s="14"/>
+      <c r="R9" s="12"/>
       <c r="S9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="12">
+      <c r="T9" s="2">
         <v>29</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V9" s="12">
+      <c r="V9" s="2">
         <v>0</v>
       </c>
       <c r="W9" s="1"/>
@@ -6370,7 +6455,7 @@
       <c r="A10" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="2">
         <v>2025020792</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -6379,16 +6464,16 @@
       <c r="D10" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="3">
         <v>24.5</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="2">
         <v>-106</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="2">
         <v>-115</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="2">
         <v>8480313</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -6397,16 +6482,16 @@
       <c r="J10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="12">
-        <v>0</v>
-      </c>
-      <c r="L10" s="13">
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>24.39999961853027</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="3">
         <v>0.4860748648643494</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="3">
         <v>2.785027027130127</v>
       </c>
       <c r="O10" s="1" t="s">
@@ -6415,20 +6500,20 @@
       <c r="P10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="3">
         <v>-0.02095860242843628</v>
       </c>
-      <c r="R10" s="14"/>
+      <c r="R10" s="12"/>
       <c r="S10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T10" s="12">
+      <c r="T10" s="2">
         <v>21</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V10" s="12">
+      <c r="V10" s="2">
         <v>0</v>
       </c>
       <c r="W10" s="1"/>
@@ -6437,7 +6522,7 @@
       <c r="A11" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="2">
         <v>2025020789</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -6446,10 +6531,10 @@
       <c r="D11" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="12">
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="2">
         <v>8475809</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -6458,26 +6543,26 @@
       <c r="J11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="2">
         <v>1</v>
       </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="14"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="12"/>
       <c r="S11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T11" s="12">
+      <c r="T11" s="2">
         <v>15</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V11" s="12">
+      <c r="V11" s="2">
         <v>0</v>
       </c>
       <c r="W11" s="1"/>
@@ -6486,7 +6571,7 @@
       <c r="A12" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="2">
         <v>2025020789</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -6495,10 +6580,10 @@
       <c r="D12" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="12">
+      <c r="E12" s="13"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="2">
         <v>8480843</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -6507,26 +6592,26 @@
       <c r="J12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K12" s="12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="14"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="12"/>
       <c r="S12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T12" s="12">
+      <c r="T12" s="2">
         <v>40</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V12" s="12">
+      <c r="V12" s="2">
         <v>0</v>
       </c>
       <c r="W12" s="1"/>
@@ -6535,7 +6620,7 @@
       <c r="A13" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="2">
         <v>2025020790</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -6544,10 +6629,10 @@
       <c r="D13" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="12">
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="2">
         <v>8481035</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -6556,26 +6641,26 @@
       <c r="J13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="12">
-        <v>0</v>
-      </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="14"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="12"/>
       <c r="S13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T13" s="12">
+      <c r="T13" s="2">
         <v>22</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V13" s="12">
+      <c r="V13" s="2">
         <v>0</v>
       </c>
       <c r="W13" s="1"/>
@@ -6584,7 +6669,7 @@
       <c r="A14" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="2">
         <v>2025020793</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -6593,10 +6678,10 @@
       <c r="D14" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="12">
+      <c r="E14" s="13"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="2">
         <v>8475831</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -6605,26 +6690,26 @@
       <c r="J14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="2">
         <v>1</v>
       </c>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="14"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="12"/>
       <c r="S14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T14" s="12">
+      <c r="T14" s="2">
         <v>24</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V14" s="12">
+      <c r="V14" s="2">
         <v>0</v>
       </c>
       <c r="W14" s="1"/>
@@ -6633,7 +6718,7 @@
       <c r="A15" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="2">
         <v>2025020793</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -6642,10 +6727,10 @@
       <c r="D15" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="12">
+      <c r="E15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="2">
         <v>8478009</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -6654,26 +6739,26 @@
       <c r="J15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K15" s="12">
-        <v>0</v>
-      </c>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="14"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="12"/>
       <c r="S15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T15" s="12">
+      <c r="T15" s="2">
         <v>21</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V15" s="12">
+      <c r="V15" s="2">
         <v>0</v>
       </c>
       <c r="W15" s="1"/>
@@ -6682,7 +6767,7 @@
       <c r="A16" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="2">
         <v>2025020791</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -6691,10 +6776,10 @@
       <c r="D16" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="12">
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="2">
         <v>8481692</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -6703,26 +6788,26 @@
       <c r="J16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="2">
         <v>1</v>
       </c>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="14"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="12"/>
       <c r="S16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T16" s="12">
+      <c r="T16" s="2">
         <v>21</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V16" s="12">
+      <c r="V16" s="2">
         <v>0</v>
       </c>
       <c r="W16" s="1"/>
@@ -6731,7 +6816,7 @@
       <c r="A17" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="2">
         <v>2025020791</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -6740,10 +6825,10 @@
       <c r="D17" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="12">
+      <c r="E17" s="13"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="2">
         <v>8479973</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -6752,26 +6837,26 @@
       <c r="J17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K17" s="12">
-        <v>0</v>
-      </c>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="14"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="12"/>
       <c r="S17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T17" s="12">
+      <c r="T17" s="2">
         <v>18</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V17" s="12">
+      <c r="V17" s="2">
         <v>0</v>
       </c>
       <c r="W17" s="1"/>
@@ -6780,7 +6865,7 @@
       <c r="A18" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="2">
         <v>2025020792</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -6789,10 +6874,10 @@
       <c r="D18" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="12">
+      <c r="E18" s="13"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="2">
         <v>8480947</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -6801,26 +6886,26 @@
       <c r="J18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="2">
         <v>1</v>
       </c>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="14"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="12"/>
       <c r="S18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T18" s="12">
+      <c r="T18" s="2">
         <v>29</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V18" s="12">
+      <c r="V18" s="2">
         <v>0</v>
       </c>
       <c r="W18" s="1"/>
@@ -6829,7 +6914,7 @@
       <c r="A19" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="2">
         <v>2025020792</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -6838,10 +6923,10 @@
       <c r="D19" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="12">
+      <c r="E19" s="13"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="2">
         <v>8480313</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -6850,26 +6935,26 @@
       <c r="J19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="12">
-        <v>0</v>
-      </c>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="14"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="12"/>
       <c r="S19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T19" s="12">
+      <c r="T19" s="2">
         <v>21</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V19" s="12">
+      <c r="V19" s="2">
         <v>0</v>
       </c>
       <c r="W19" s="1"/>

--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="192">
   <si>
     <t>game_date</t>
   </si>
@@ -704,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -739,26 +739,23 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -1095,17 +1092,17 @@
     <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
@@ -1134,7 +1131,7 @@
       <c r="E4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>169</v>
       </c>
       <c r="B5" s="2"/>
@@ -1241,7 +1238,7 @@
       <c r="E15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>180</v>
       </c>
       <c r="B16" s="2"/>
@@ -1250,7 +1247,7 @@
       <c r="E16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>181</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1259,7 +1256,7 @@
       <c r="C17" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>174</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -1276,7 +1273,7 @@
       <c r="C18" s="2">
         <v>7</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="24" t="s">
         <v>183</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -1293,7 +1290,7 @@
       <c r="C19" s="2">
         <v>2</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="24" t="s">
         <v>185</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1310,7 +1307,7 @@
       <c r="C20" s="2">
         <v>0</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="24" t="s">
         <v>188</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -1327,7 +1324,7 @@
       <c r="C21" s="2">
         <v>0</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="24" t="s">
         <v>188</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -1344,7 +1341,7 @@
       <c r="C22" s="2">
         <v>0</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="24" t="s">
         <v>188</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -1361,7 +1358,7 @@
       <c r="C23" s="2">
         <v>0</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="24" t="s">
         <v>188</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -4616,7 +4613,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>153</v>
       </c>
       <c r="B1" s="2"/>
@@ -4626,7 +4623,7 @@
       <c r="B2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>154</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4715,7 +4712,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -4725,20 +4722,20 @@
     <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="14" max="14" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="7" width="27.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="19" max="19" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -4747,73 +4744,73 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="V1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="W1" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4821,7 +4818,7 @@
       <c r="A2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="15">
         <v>2025020794</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -4830,16 +4827,16 @@
       <c r="D2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="16">
         <v>21.5</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="15">
         <v>-114</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="15">
         <v>-108</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="15">
         <v>8481033</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -4848,16 +4845,16 @@
       <c r="J2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="12">
-        <v>0</v>
-      </c>
-      <c r="L2" s="13">
+      <c r="K2" s="15">
+        <v>0</v>
+      </c>
+      <c r="L2" s="16">
         <v>21.70000076293945</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="16">
         <v>0.5335663557052612</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="16">
         <v>6.713271141052246</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -4866,10 +4863,10 @@
       <c r="P2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="Q2" s="16">
         <v>0.000856101512909</v>
       </c>
-      <c r="R2" s="19"/>
+      <c r="R2" s="17"/>
       <c r="S2" s="1" t="s">
         <v>30</v>
       </c>
@@ -4882,7 +4879,7 @@
       <c r="A3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="15">
         <v>2025020794</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -4891,16 +4888,16 @@
       <c r="D3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="16">
         <v>24.5</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="15">
         <v>-114</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="15">
         <v>-108</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="15">
         <v>8476914</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -4909,16 +4906,16 @@
       <c r="J3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="15">
         <v>1</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="16">
         <v>24.29999923706055</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="16">
         <v>0.4615394473075867</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="16">
         <v>7.692110538482666</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -4927,10 +4924,10 @@
       <c r="P3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="16">
         <v>0.019229769706726</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="15">
         <v>1</v>
       </c>
       <c r="S3" s="1" t="s">
@@ -4945,7 +4942,7 @@
       <c r="A4" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="15">
         <v>2025020796</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -4954,16 +4951,16 @@
       <c r="D4" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="16">
         <v>27.5</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="15">
         <v>-122</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="15">
         <v>100</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="15">
         <v>8481519</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -4972,28 +4969,28 @@
       <c r="J4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="12">
-        <v>0</v>
-      </c>
-      <c r="L4" s="13">
-        <v>27.29999923706055</v>
-      </c>
-      <c r="M4" s="13">
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+      <c r="L4" s="16">
+        <v>28.29999923706055</v>
+      </c>
+      <c r="M4" s="16">
         <v>0.4651559293270111</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="16">
         <v>6.968813896179199</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>0.0348440408706665</v>
-      </c>
-      <c r="R4" s="12">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>0.0065421462059021</v>
+      </c>
+      <c r="R4" s="15">
         <v>1</v>
       </c>
       <c r="S4" s="1" t="s">
@@ -5008,7 +5005,7 @@
       <c r="A5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="15">
         <v>2025020797</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -5017,16 +5014,16 @@
       <c r="D5" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="16">
         <v>23.5</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="15">
         <v>-114</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="15">
         <v>-108</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="15">
         <v>8482982</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -5035,16 +5032,16 @@
       <c r="J5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="15">
         <v>1</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="16">
         <v>23.70000076293945</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="16">
         <v>0.5321161150932312</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="16">
         <v>6.42322301864624</v>
       </c>
       <c r="O5" s="1" t="s">
@@ -5053,10 +5050,10 @@
       <c r="P5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="16">
         <v>-0.0005941390991210938</v>
       </c>
-      <c r="R5" s="19"/>
+      <c r="R5" s="17"/>
       <c r="S5" s="1" t="s">
         <v>30</v>
       </c>
@@ -5069,7 +5066,7 @@
       <c r="A6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="15">
         <v>2025020797</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -5078,16 +5075,16 @@
       <c r="D6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="16">
         <v>25.5</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="15">
         <v>-105</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="15">
         <v>-118</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="15">
         <v>8479193</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -5096,16 +5093,16 @@
       <c r="J6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="12">
-        <v>0</v>
-      </c>
-      <c r="L6" s="13">
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="16">
         <v>25.5</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="16">
         <v>0.4942755997180939</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="16">
         <v>1.144880056381226</v>
       </c>
       <c r="O6" s="1" t="s">
@@ -5114,10 +5111,10 @@
       <c r="P6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="16">
         <v>-0.01791951060295105</v>
       </c>
-      <c r="R6" s="19"/>
+      <c r="R6" s="17"/>
       <c r="S6" s="1" t="s">
         <v>30</v>
       </c>
@@ -5130,7 +5127,7 @@
       <c r="A7" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="15">
         <v>2025020799</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -5139,16 +5136,16 @@
       <c r="D7" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="16">
         <v>25.5</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="15">
         <v>101</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="15">
         <v>-124</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="15">
         <v>8476945</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -5157,16 +5154,16 @@
       <c r="J7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="15">
         <v>1</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="16">
         <v>25.5</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="16">
         <v>0.4948709011077881</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="16">
         <v>1.025819778442383</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -5175,10 +5172,10 @@
       <c r="P7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" s="13">
-        <v>-0.002641528844833374</v>
-      </c>
-      <c r="R7" s="19"/>
+      <c r="Q7" s="16">
+        <v>0.002260059118270874</v>
+      </c>
+      <c r="R7" s="17"/>
       <c r="S7" s="1" t="s">
         <v>30</v>
       </c>
@@ -5191,7 +5188,7 @@
       <c r="A8" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="15">
         <v>2025020799</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -5200,16 +5197,16 @@
       <c r="D8" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="16">
         <v>22.5</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="15">
         <v>-103</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="15">
         <v>-120</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="15">
         <v>8480193</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -5218,16 +5215,16 @@
       <c r="J8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="12">
-        <v>0</v>
-      </c>
-      <c r="L8" s="13">
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16">
         <v>22.60000038146973</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="16">
         <v>0.5288675427436829</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="16">
         <v>5.773508548736572</v>
       </c>
       <c r="O8" s="1" t="s">
@@ -5236,10 +5233,10 @@
       <c r="P8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="16">
         <v>0.021478354930878</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8" s="15">
         <v>1</v>
       </c>
       <c r="S8" s="1" t="s">
@@ -5254,7 +5251,7 @@
       <c r="A9" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="15">
         <v>2025020798</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -5263,16 +5260,16 @@
       <c r="D9" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="16">
         <v>24.5</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="15">
         <v>-122</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="15">
         <v>100</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="15">
         <v>8477424</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -5281,16 +5278,16 @@
       <c r="J9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="15">
         <v>1</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="16">
         <v>24.5</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="16">
         <v>0.5046124458312988</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="16">
         <v>0.9224891662597656</v>
       </c>
       <c r="O9" s="1" t="s">
@@ -5299,10 +5296,10 @@
       <c r="P9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="16">
         <v>-0.004612445831298828</v>
       </c>
-      <c r="R9" s="19"/>
+      <c r="R9" s="17"/>
       <c r="S9" s="1" t="s">
         <v>30</v>
       </c>
@@ -5315,7 +5312,7 @@
       <c r="A10" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="15">
         <v>2025020798</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -5324,16 +5321,16 @@
       <c r="D10" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="16">
         <v>23.5</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="15">
         <v>-108</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="15">
         <v>-114</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="15">
         <v>8473503</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -5342,16 +5339,16 @@
       <c r="J10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="12">
-        <v>0</v>
-      </c>
-      <c r="L10" s="13">
+      <c r="K10" s="15">
+        <v>0</v>
+      </c>
+      <c r="L10" s="16">
         <v>23.60000038146973</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="16">
         <v>0.5181494951248169</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="16">
         <v>3.629899024963379</v>
       </c>
       <c r="O10" s="1" t="s">
@@ -5360,10 +5357,10 @@
       <c r="P10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="16">
         <v>-0.001081287860870361</v>
       </c>
-      <c r="R10" s="19"/>
+      <c r="R10" s="17"/>
       <c r="S10" s="1" t="s">
         <v>30</v>
       </c>
@@ -5376,7 +5373,7 @@
       <c r="A11" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="15">
         <v>2025020800</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -5385,16 +5382,16 @@
       <c r="D11" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="16">
         <v>24.5</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="15">
         <v>-110</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="15">
         <v>-112</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="15">
         <v>8481668</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -5403,16 +5400,16 @@
       <c r="J11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="12">
-        <v>0</v>
-      </c>
-      <c r="L11" s="13">
+      <c r="K11" s="15">
+        <v>0</v>
+      </c>
+      <c r="L11" s="16">
         <v>24.5</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="16">
         <v>0.4908878803253174</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="16">
         <v>1.822423934936523</v>
       </c>
       <c r="O11" s="1" t="s">
@@ -5421,10 +5418,10 @@
       <c r="P11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="16">
         <v>-0.01918977499008179</v>
       </c>
-      <c r="R11" s="19"/>
+      <c r="R11" s="17"/>
       <c r="S11" s="1" t="s">
         <v>30</v>
       </c>
@@ -5437,7 +5434,7 @@
       <c r="A12" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="15">
         <v>2025020800</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -5446,16 +5443,16 @@
       <c r="D12" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="16">
         <v>23.5</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="15">
         <v>-107</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="15">
         <v>-115</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="15">
         <v>8477465</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -5464,16 +5461,16 @@
       <c r="J12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="15">
         <v>1</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="16">
         <v>23.70000076293945</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="16">
         <v>0.5327706933021545</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="16">
         <v>6.554138660430908</v>
       </c>
       <c r="O12" s="1" t="s">
@@ -5482,10 +5479,10 @@
       <c r="P12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="16">
         <v>0.015862464904785</v>
       </c>
-      <c r="R12" s="19"/>
+      <c r="R12" s="17"/>
       <c r="S12" s="1" t="s">
         <v>30</v>
       </c>
@@ -5498,7 +5495,7 @@
       <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="15">
         <v>2025020801</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -5507,16 +5504,16 @@
       <c r="D13" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="16">
         <v>25.5</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="15">
         <v>101</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="15">
         <v>-124</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="15">
         <v>8475660</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -5525,16 +5522,16 @@
       <c r="J13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K13" s="12">
-        <v>0</v>
-      </c>
-      <c r="L13" s="13">
+      <c r="K13" s="15">
+        <v>0</v>
+      </c>
+      <c r="L13" s="16">
         <v>25.39999961853027</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="16">
         <v>0.4863932132720947</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="16">
         <v>2.721357345581055</v>
       </c>
       <c r="O13" s="1" t="s">
@@ -5543,10 +5540,10 @@
       <c r="P13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="16">
         <v>-0.01111921668052673</v>
       </c>
-      <c r="R13" s="19"/>
+      <c r="R13" s="17"/>
       <c r="S13" s="1" t="s">
         <v>30</v>
       </c>
@@ -5559,7 +5556,7 @@
       <c r="A14" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="15">
         <v>2025020801</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -5568,16 +5565,16 @@
       <c r="D14" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="16">
         <v>24.5</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="15">
         <v>101</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="15">
         <v>-124</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="15">
         <v>8479406</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -5586,16 +5583,16 @@
       <c r="J14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="15">
         <v>1</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="16">
         <v>24.5</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="16">
         <v>0.5013213753700256</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="16">
         <v>0.264275074005127</v>
       </c>
       <c r="O14" s="1" t="s">
@@ -5604,10 +5601,10 @@
       <c r="P14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="Q14" s="16">
         <v>0.003808945417404175</v>
       </c>
-      <c r="R14" s="19"/>
+      <c r="R14" s="17"/>
       <c r="S14" s="1" t="s">
         <v>30</v>
       </c>
@@ -5620,7 +5617,7 @@
       <c r="A15" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="15">
         <v>2025020795</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -5629,16 +5626,16 @@
       <c r="D15" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="16">
         <v>22.5</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="15">
         <v>-112</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="15">
         <v>-110</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="15">
         <v>8478470</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -5647,16 +5644,16 @@
       <c r="J15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="15">
         <v>1</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="16">
         <v>22.70000076293945</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="16">
         <v>0.5358108878135681</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="16">
         <v>7.162177562713623</v>
       </c>
       <c r="O15" s="1" t="s">
@@ -5665,10 +5662,10 @@
       <c r="P15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="16">
         <v>0.007508993148803711</v>
       </c>
-      <c r="R15" s="19"/>
+      <c r="R15" s="17"/>
       <c r="S15" s="1" t="s">
         <v>30</v>
       </c>
@@ -5681,7 +5678,7 @@
       <c r="A16" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="15">
         <v>2025020795</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -5690,16 +5687,16 @@
       <c r="D16" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="16">
         <v>24.5</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="15">
         <v>-112</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="15">
         <v>-110</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="15">
         <v>8480045</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -5708,16 +5705,16 @@
       <c r="J16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="12">
-        <v>0</v>
-      </c>
-      <c r="L16" s="13">
+      <c r="K16" s="15">
+        <v>0</v>
+      </c>
+      <c r="L16" s="16">
         <v>24.39999961853027</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="16">
         <v>0.4757562279701233</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="16">
         <v>4.848754405975342</v>
       </c>
       <c r="O16" s="1" t="s">
@@ -5726,10 +5723,10 @@
       <c r="P16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="16">
         <v>0.0004342198371887207</v>
       </c>
-      <c r="R16" s="19"/>
+      <c r="R16" s="17"/>
       <c r="S16" s="1" t="s">
         <v>30</v>
       </c>
@@ -5742,7 +5739,7 @@
       <c r="A17" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="15">
         <v>2025020796</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -5751,16 +5748,16 @@
       <c r="D17" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="16">
         <v>19.5</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="15">
         <v>-103</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="15">
         <v>-120</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="15">
         <v>8475883</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -5769,16 +5766,16 @@
       <c r="J17" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="15">
         <v>1</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="16">
         <v>19.70000076293945</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="16">
         <v>0.5309252142906189</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="16">
         <v>6.185042858123779</v>
       </c>
       <c r="O17" s="1" t="s">
@@ -5787,10 +5784,10 @@
       <c r="P17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Q17" s="13">
-        <v>0.023536026477814</v>
-      </c>
-      <c r="R17" s="19"/>
+      <c r="Q17" s="16">
+        <v>0.03587570786476135</v>
+      </c>
+      <c r="R17" s="17"/>
       <c r="S17" s="1" t="s">
         <v>30</v>
       </c>
@@ -5798,6 +5795,801 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="15">
+        <v>2025020796</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="16">
+        <v>28.5</v>
+      </c>
+      <c r="F18" s="15">
+        <v>-112</v>
+      </c>
+      <c r="G18" s="15">
+        <v>-112</v>
+      </c>
+      <c r="H18" s="15">
+        <v>8481519</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
+      <c r="L18" s="16">
+        <v>28.29999923706055</v>
+      </c>
+      <c r="M18" s="16">
+        <v>0.4651559293270111</v>
+      </c>
+      <c r="N18" s="16">
+        <v>6.968813896179199</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" s="16">
+        <v>0.0065421462059021</v>
+      </c>
+      <c r="R18" s="17"/>
+      <c r="S18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="15">
+        <v>2025020796</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="16">
+        <v>19.5</v>
+      </c>
+      <c r="F19" s="15">
+        <v>102</v>
+      </c>
+      <c r="G19" s="15">
+        <v>-125</v>
+      </c>
+      <c r="H19" s="15">
+        <v>8475883</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" s="15">
+        <v>1</v>
+      </c>
+      <c r="L19" s="16">
+        <v>19.70000076293945</v>
+      </c>
+      <c r="M19" s="16">
+        <v>0.5309252142906189</v>
+      </c>
+      <c r="N19" s="16">
+        <v>6.185042858123779</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q19" s="16">
+        <v>0.03587570786476135</v>
+      </c>
+      <c r="R19" s="15">
+        <v>1</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="15">
+        <v>2025020799</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="16">
+        <v>25.5</v>
+      </c>
+      <c r="F20" s="15">
+        <v>103</v>
+      </c>
+      <c r="G20" s="15">
+        <v>-124</v>
+      </c>
+      <c r="H20" s="15">
+        <v>8476945</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="15">
+        <v>1</v>
+      </c>
+      <c r="L20" s="16">
+        <v>25.5</v>
+      </c>
+      <c r="M20" s="16">
+        <v>0.4948709011077881</v>
+      </c>
+      <c r="N20" s="16">
+        <v>1.025819778442383</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>0.002260059118270874</v>
+      </c>
+      <c r="R20" s="17"/>
+      <c r="S20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="15">
+        <v>2025020799</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="16">
+        <v>25.5</v>
+      </c>
+      <c r="F21" s="15">
+        <v>103</v>
+      </c>
+      <c r="G21" s="15">
+        <v>-124</v>
+      </c>
+      <c r="H21" s="15">
+        <v>8476945</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" s="15">
+        <v>1</v>
+      </c>
+      <c r="L21" s="16">
+        <v>25.5</v>
+      </c>
+      <c r="M21" s="16">
+        <v>0.4948709011077881</v>
+      </c>
+      <c r="N21" s="16">
+        <v>1.025819778442383</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>0.002260059118270874</v>
+      </c>
+      <c r="R21" s="17"/>
+      <c r="S21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="15">
+        <v>2025020799</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="16">
+        <v>25.5</v>
+      </c>
+      <c r="F22" s="15">
+        <v>103</v>
+      </c>
+      <c r="G22" s="15">
+        <v>-124</v>
+      </c>
+      <c r="H22" s="15">
+        <v>8476945</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" s="15">
+        <v>1</v>
+      </c>
+      <c r="L22" s="16">
+        <v>25.5</v>
+      </c>
+      <c r="M22" s="16">
+        <v>0.4948709011077881</v>
+      </c>
+      <c r="N22" s="16">
+        <v>1.025819778442383</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>0.002260059118270874</v>
+      </c>
+      <c r="R22" s="17"/>
+      <c r="S22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="15">
+        <v>2025020798</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="15">
+        <v>25</v>
+      </c>
+      <c r="F23" s="15">
+        <v>-120</v>
+      </c>
+      <c r="G23" s="15">
+        <v>-120</v>
+      </c>
+      <c r="H23" s="15">
+        <v>8477424</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="15">
+        <v>1</v>
+      </c>
+      <c r="L23" s="15">
+        <v>25</v>
+      </c>
+      <c r="M23" s="16">
+        <v>0.5045216679573059</v>
+      </c>
+      <c r="N23" s="16">
+        <v>0.9043335914611816</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>-0.04093289375305176</v>
+      </c>
+      <c r="R23" s="17"/>
+      <c r="S23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="15">
+        <v>2025020798</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" s="16">
+        <v>23.5</v>
+      </c>
+      <c r="F24" s="15">
+        <v>-120</v>
+      </c>
+      <c r="G24" s="15">
+        <v>-120</v>
+      </c>
+      <c r="H24" s="15">
+        <v>8473503</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24" s="15">
+        <v>0</v>
+      </c>
+      <c r="L24" s="16">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M24" s="16">
+        <v>0.5181494951248169</v>
+      </c>
+      <c r="N24" s="16">
+        <v>3.629899024963379</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q24" s="16">
+        <v>-0.02730506658554077</v>
+      </c>
+      <c r="R24" s="17"/>
+      <c r="S24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="15">
+        <v>2025020799</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="15">
+        <v>25</v>
+      </c>
+      <c r="F25" s="15">
+        <v>-120</v>
+      </c>
+      <c r="G25" s="15">
+        <v>-120</v>
+      </c>
+      <c r="H25" s="15">
+        <v>8476945</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K25" s="15">
+        <v>1</v>
+      </c>
+      <c r="L25" s="15">
+        <v>25</v>
+      </c>
+      <c r="M25" s="16">
+        <v>0.4971076548099518</v>
+      </c>
+      <c r="N25" s="16">
+        <v>0.5784690380096436</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q25" s="16">
+        <v>-0.04256218671798706</v>
+      </c>
+      <c r="R25" s="17"/>
+      <c r="S25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="15">
+        <v>2025020799</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="16">
+        <v>22.5</v>
+      </c>
+      <c r="F26" s="15">
+        <v>-120</v>
+      </c>
+      <c r="G26" s="15">
+        <v>-120</v>
+      </c>
+      <c r="H26" s="15">
+        <v>8480193</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" s="15">
+        <v>0</v>
+      </c>
+      <c r="L26" s="16">
+        <v>22.60000038146973</v>
+      </c>
+      <c r="M26" s="16">
+        <v>0.5288675427436829</v>
+      </c>
+      <c r="N26" s="16">
+        <v>5.773508548736572</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q26" s="16">
+        <v>-0.0165870189666748</v>
+      </c>
+      <c r="R26" s="17"/>
+      <c r="S26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="15">
+        <v>2025020800</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="16">
+        <v>24.5</v>
+      </c>
+      <c r="F27" s="15">
+        <v>-120</v>
+      </c>
+      <c r="G27" s="15">
+        <v>-120</v>
+      </c>
+      <c r="H27" s="15">
+        <v>8481668</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" s="15">
+        <v>0</v>
+      </c>
+      <c r="L27" s="16">
+        <v>24.5</v>
+      </c>
+      <c r="M27" s="16">
+        <v>0.4908878803253174</v>
+      </c>
+      <c r="N27" s="16">
+        <v>1.822423934936523</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q27" s="16">
+        <v>-0.03634244203567505</v>
+      </c>
+      <c r="R27" s="17"/>
+      <c r="S27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="15">
+        <v>2025020800</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="16">
+        <v>23.5</v>
+      </c>
+      <c r="F28" s="15">
+        <v>-120</v>
+      </c>
+      <c r="G28" s="15">
+        <v>-120</v>
+      </c>
+      <c r="H28" s="15">
+        <v>8477465</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="15">
+        <v>1</v>
+      </c>
+      <c r="L28" s="16">
+        <v>23.70000076293945</v>
+      </c>
+      <c r="M28" s="16">
+        <v>0.5327706933021545</v>
+      </c>
+      <c r="N28" s="16">
+        <v>6.554138660430908</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q28" s="16">
+        <v>-0.01268386840820312</v>
+      </c>
+      <c r="R28" s="17"/>
+      <c r="S28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="15">
+        <v>2025020801</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="15">
+        <v>25</v>
+      </c>
+      <c r="F29" s="15">
+        <v>-120</v>
+      </c>
+      <c r="G29" s="15">
+        <v>-120</v>
+      </c>
+      <c r="H29" s="15">
+        <v>8475660</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K29" s="15">
+        <v>0</v>
+      </c>
+      <c r="L29" s="16">
+        <v>24.89999961853027</v>
+      </c>
+      <c r="M29" s="16">
+        <v>0.4886287450790405</v>
+      </c>
+      <c r="N29" s="16">
+        <v>2.274250984191895</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q29" s="16">
+        <v>-0.03408330678939819</v>
+      </c>
+      <c r="R29" s="17"/>
+      <c r="S29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="15">
+        <v>2025020801</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="15">
+        <v>24</v>
+      </c>
+      <c r="F30" s="15">
+        <v>-120</v>
+      </c>
+      <c r="G30" s="15">
+        <v>-120</v>
+      </c>
+      <c r="H30" s="15">
+        <v>8479406</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" s="15">
+        <v>1</v>
+      </c>
+      <c r="L30" s="15">
+        <v>24</v>
+      </c>
+      <c r="M30" s="16">
+        <v>0.5077030658721924</v>
+      </c>
+      <c r="N30" s="16">
+        <v>1.540613174438477</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q30" s="16">
+        <v>-0.03775149583816528</v>
+      </c>
+      <c r="R30" s="17"/>
+      <c r="S30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5819,20 +6611,20 @@
     <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="19" max="19" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -6101,7 +6893,7 @@
       <c r="Q4" s="3">
         <v>-0.0122448205947876</v>
       </c>
-      <c r="R4" s="12"/>
+      <c r="R4" s="2"/>
       <c r="S4" s="1" t="s">
         <v>30</v>
       </c>
@@ -6168,7 +6960,7 @@
       <c r="Q5" s="3">
         <v>-0.007093489170074463</v>
       </c>
-      <c r="R5" s="12"/>
+      <c r="R5" s="2"/>
       <c r="S5" s="1" t="s">
         <v>30</v>
       </c>
@@ -6235,7 +7027,7 @@
       <c r="Q6" s="3">
         <v>-0.0174713134765625</v>
       </c>
-      <c r="R6" s="12"/>
+      <c r="R6" s="2"/>
       <c r="S6" s="1" t="s">
         <v>30</v>
       </c>
@@ -6302,7 +7094,7 @@
       <c r="Q7" s="3">
         <v>-0.007024466991424561</v>
       </c>
-      <c r="R7" s="12"/>
+      <c r="R7" s="2"/>
       <c r="S7" s="1" t="s">
         <v>30</v>
       </c>
@@ -6369,7 +7161,7 @@
       <c r="Q8" s="3">
         <v>-0.00929868221282959</v>
       </c>
-      <c r="R8" s="12"/>
+      <c r="R8" s="2"/>
       <c r="S8" s="1" t="s">
         <v>30</v>
       </c>
@@ -6436,7 +7228,7 @@
       <c r="Q9" s="3">
         <v>-0.002378582954406738</v>
       </c>
-      <c r="R9" s="12"/>
+      <c r="R9" s="2"/>
       <c r="S9" s="1" t="s">
         <v>30</v>
       </c>
@@ -6503,7 +7295,7 @@
       <c r="Q10" s="3">
         <v>-0.02095860242843628</v>
       </c>
-      <c r="R10" s="12"/>
+      <c r="R10" s="2"/>
       <c r="S10" s="1" t="s">
         <v>30</v>
       </c>
@@ -6531,9 +7323,9 @@
       <c r="D11" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="2">
         <v>8475809</v>
       </c>
@@ -6546,13 +7338,13 @@
       <c r="K11" s="2">
         <v>1</v>
       </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="12"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="2"/>
       <c r="S11" s="1" t="s">
         <v>30</v>
       </c>
@@ -6580,9 +7372,9 @@
       <c r="D12" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="2">
         <v>8480843</v>
       </c>
@@ -6595,13 +7387,13 @@
       <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="12"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="2"/>
       <c r="S12" s="1" t="s">
         <v>30</v>
       </c>
@@ -6629,9 +7421,9 @@
       <c r="D13" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="2">
         <v>8481035</v>
       </c>
@@ -6644,13 +7436,13 @@
       <c r="K13" s="2">
         <v>0</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="12"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="2"/>
       <c r="S13" s="1" t="s">
         <v>30</v>
       </c>
@@ -6678,9 +7470,9 @@
       <c r="D14" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="2">
         <v>8475831</v>
       </c>
@@ -6693,13 +7485,13 @@
       <c r="K14" s="2">
         <v>1</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="12"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="2"/>
       <c r="S14" s="1" t="s">
         <v>30</v>
       </c>
@@ -6727,9 +7519,9 @@
       <c r="D15" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="2">
         <v>8478009</v>
       </c>
@@ -6742,13 +7534,13 @@
       <c r="K15" s="2">
         <v>0</v>
       </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="12"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="2"/>
       <c r="S15" s="1" t="s">
         <v>30</v>
       </c>
@@ -6776,9 +7568,9 @@
       <c r="D16" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="2">
         <v>8481692</v>
       </c>
@@ -6791,13 +7583,13 @@
       <c r="K16" s="2">
         <v>1</v>
       </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="12"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="2"/>
       <c r="S16" s="1" t="s">
         <v>30</v>
       </c>
@@ -6825,9 +7617,9 @@
       <c r="D17" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
       <c r="H17" s="2">
         <v>8479973</v>
       </c>
@@ -6840,13 +7632,13 @@
       <c r="K17" s="2">
         <v>0</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="12"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="2"/>
       <c r="S17" s="1" t="s">
         <v>30</v>
       </c>
@@ -6874,9 +7666,9 @@
       <c r="D18" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="2">
         <v>8480947</v>
       </c>
@@ -6889,13 +7681,13 @@
       <c r="K18" s="2">
         <v>1</v>
       </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="12"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="2"/>
       <c r="S18" s="1" t="s">
         <v>30</v>
       </c>
@@ -6923,9 +7715,9 @@
       <c r="D19" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="2">
         <v>8480313</v>
       </c>
@@ -6938,13 +7730,13 @@
       <c r="K19" s="2">
         <v>0</v>
       </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="12"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="2"/>
       <c r="S19" s="1" t="s">
         <v>30</v>
       </c>

--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="192">
   <si>
     <t>game_date</t>
   </si>
@@ -4712,7 +4712,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -4722,14 +4722,14 @@
     <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="14" max="14" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -4743,7 +4743,7 @@
     <col min="23" max="23" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4756,7 +4756,7 @@
       <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="13" t="s">
@@ -4777,7 +4777,7 @@
       <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="14" t="s">
@@ -5541,7 +5541,7 @@
         <v>29</v>
       </c>
       <c r="Q13" s="16">
-        <v>-0.01111921668052673</v>
+        <v>-0.02099597454071045</v>
       </c>
       <c r="R13" s="17"/>
       <c r="S13" s="1" t="s">
@@ -5787,9 +5787,11 @@
       <c r="Q17" s="16">
         <v>0.03587570786476135</v>
       </c>
-      <c r="R17" s="17"/>
+      <c r="R17" s="17">
+        <v>1</v>
+      </c>
       <c r="S17" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -6590,6 +6592,67 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="15">
+        <v>2025020801</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31" s="16">
+        <v>25.5</v>
+      </c>
+      <c r="F31" s="15">
+        <v>-103</v>
+      </c>
+      <c r="G31" s="15">
+        <v>-124</v>
+      </c>
+      <c r="H31" s="15">
+        <v>8475660</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K31" s="15">
+        <v>0</v>
+      </c>
+      <c r="L31" s="16">
+        <v>25.39999961853027</v>
+      </c>
+      <c r="M31" s="16">
+        <v>0.4863932132720947</v>
+      </c>
+      <c r="N31" s="16">
+        <v>2.721357345581055</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>-0.02099597454071045</v>
+      </c>
+      <c r="R31" s="17"/>
+      <c r="S31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -6144,152 +6144,126 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="15" customWidth="1" min="12" max="12"/>
-    <col width="12" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
-    <col width="16" customWidth="1" min="15" max="15"/>
-    <col width="15" customWidth="1" min="16" max="16"/>
-    <col width="12" customWidth="1" min="17" max="17"/>
-    <col width="12" customWidth="1" min="18" max="18"/>
-    <col width="14" customWidth="1" min="19" max="19"/>
-    <col width="13" customWidth="1" min="20" max="20"/>
-    <col width="10" customWidth="1" min="21" max="21"/>
-    <col width="12" customWidth="1" min="22" max="22"/>
-    <col width="30" customWidth="1" min="23" max="23"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="inlineStr">
+      <c r="A1" s="20" t="inlineStr">
         <is>
           <t>game_date</t>
         </is>
       </c>
-      <c r="B1" s="21" t="inlineStr">
+      <c r="B1" s="20" t="inlineStr">
         <is>
           <t>game_id</t>
         </is>
       </c>
-      <c r="C1" s="21" t="inlineStr">
+      <c r="C1" s="20" t="inlineStr">
         <is>
           <t>book</t>
         </is>
       </c>
-      <c r="D1" s="21" t="inlineStr">
+      <c r="D1" s="20" t="inlineStr">
         <is>
           <t>goalie_name</t>
         </is>
       </c>
-      <c r="E1" s="21" t="inlineStr">
+      <c r="E1" s="20" t="inlineStr">
         <is>
           <t>betting_line</t>
         </is>
       </c>
-      <c r="F1" s="21" t="inlineStr">
+      <c r="F1" s="20" t="inlineStr">
         <is>
           <t>line_over</t>
         </is>
       </c>
-      <c r="G1" s="21" t="inlineStr">
+      <c r="G1" s="20" t="inlineStr">
         <is>
           <t>line_under</t>
         </is>
       </c>
-      <c r="H1" s="21" t="inlineStr">
+      <c r="H1" s="20" t="inlineStr">
         <is>
           <t>goalie_id</t>
         </is>
       </c>
-      <c r="I1" s="21" t="inlineStr">
+      <c r="I1" s="20" t="inlineStr">
         <is>
           <t>team_abbrev</t>
         </is>
       </c>
-      <c r="J1" s="21" t="inlineStr">
+      <c r="J1" s="20" t="inlineStr">
         <is>
           <t>opponent_team</t>
         </is>
       </c>
-      <c r="K1" s="21" t="inlineStr">
+      <c r="K1" s="20" t="inlineStr">
         <is>
           <t>is_home</t>
         </is>
       </c>
-      <c r="L1" s="21" t="inlineStr">
+      <c r="L1" s="20" t="inlineStr">
         <is>
           <t>predicted_saves</t>
         </is>
       </c>
-      <c r="M1" s="21" t="inlineStr">
+      <c r="M1" s="20" t="inlineStr">
         <is>
           <t>prob_over</t>
         </is>
       </c>
-      <c r="N1" s="21" t="inlineStr">
+      <c r="N1" s="20" t="inlineStr">
         <is>
           <t>confidence_pct</t>
         </is>
       </c>
-      <c r="O1" s="21" t="inlineStr">
+      <c r="O1" s="20" t="inlineStr">
         <is>
           <t>confidence_bucket</t>
         </is>
       </c>
-      <c r="P1" s="21" t="inlineStr">
+      <c r="P1" s="20" t="inlineStr">
         <is>
           <t>recommendation</t>
         </is>
       </c>
-      <c r="Q1" s="21" t="inlineStr">
+      <c r="Q1" s="20" t="inlineStr">
         <is>
           <t>ev</t>
         </is>
       </c>
-      <c r="R1" s="21" t="inlineStr">
+      <c r="R1" s="20" t="inlineStr">
         <is>
           <t>bet_amount</t>
         </is>
       </c>
-      <c r="S1" s="21" t="inlineStr">
+      <c r="S1" s="20" t="inlineStr">
         <is>
           <t>bet_selection</t>
         </is>
       </c>
-      <c r="T1" s="21" t="inlineStr">
+      <c r="T1" s="20" t="inlineStr">
         <is>
           <t>actual_saves</t>
         </is>
       </c>
-      <c r="U1" s="21" t="inlineStr">
+      <c r="U1" s="20" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="V1" s="21" t="inlineStr">
+      <c r="V1" s="20" t="inlineStr">
         <is>
           <t>profit_loss</t>
         </is>
       </c>
-      <c r="W1" s="21" t="inlineStr">
+      <c r="W1" s="20" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
@@ -6309,6 +6283,7 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>TOR</t>
@@ -6353,6 +6328,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
           <t>VGK</t>
@@ -6397,6 +6373,7 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>CHI</t>
@@ -6441,6 +6418,7 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>TBL</t>
@@ -6485,6 +6463,7 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>DAL</t>
@@ -6529,6 +6508,7 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>STL</t>
@@ -6573,6 +6553,7 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
           <t>COL</t>
@@ -6617,6 +6598,7 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
           <t>PHI</t>
@@ -6661,6 +6643,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
           <t>CGY</t>
@@ -6705,6 +6688,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
           <t>WSH</t>
@@ -6749,6 +6733,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
           <t>VAN</t>
@@ -6793,6 +6778,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
           <t>NJD</t>
@@ -6837,6 +6823,7 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
           <t>SJS</t>
@@ -6881,6 +6868,7 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
           <t>NYR</t>
@@ -6925,6 +6913,7 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
           <t>SEA</t>
@@ -6969,6 +6958,7 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
           <t>ANA</t>
@@ -6998,6 +6988,160 @@
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2025020802</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Stolarz</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-118</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-104</v>
+      </c>
+      <c r="H18" t="n">
+        <v>8476932</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VGK</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>25.39999961853027</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.4886266887187958</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.274662256240845</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.00156933069229126</v>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2025020802</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Stolarz</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H19" t="n">
+        <v>8476932</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VGK</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>25.39999961853027</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.4886266887187958</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.274662256240845</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>-0.03408128023147583</v>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -51,6 +51,12 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="14"/>
     </font>
@@ -63,26 +69,16 @@
     <font>
       <b val="1"/>
     </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004472C4"/>
-        <bgColor rgb="004472C4"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -113,6 +109,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -122,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
@@ -163,16 +174,37 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -181,11 +213,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,14 +590,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="26" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="14" t="inlineStr">
+      <c r="A1" s="21" t="inlineStr">
         <is>
           <t>BETTING PERFORMANCE SUMMARY</t>
         </is>
@@ -605,7 +634,7 @@
       <c r="E4" s="2" t="n"/>
     </row>
     <row r="5" ht="20.25" customHeight="1">
-      <c r="A5" s="17" t="inlineStr">
+      <c r="A5" s="24" t="inlineStr">
         <is>
           <t>OVERALL PERFORMANCE</t>
         </is>
@@ -695,10 +724,8 @@
           <t>Total Profit/Loss</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>-0.36</t>
-        </is>
+      <c r="B12" s="2" t="n">
+        <v>-0.36</v>
       </c>
       <c r="C12" s="2" t="n"/>
       <c r="D12" s="2" t="n"/>
@@ -734,7 +761,7 @@
       <c r="E15" s="2" t="n"/>
     </row>
     <row r="16" ht="20.25" customHeight="1">
-      <c r="A16" s="17" t="inlineStr">
+      <c r="A16" s="24" t="inlineStr">
         <is>
           <t>PERFORMANCE BY CONFIDENCE LEVEL</t>
         </is>
@@ -745,7 +772,7 @@
       <c r="E16" s="2" t="n"/>
     </row>
     <row r="17" ht="19.5" customHeight="1">
-      <c r="A17" s="15" t="inlineStr">
+      <c r="A17" s="22" t="inlineStr">
         <is>
           <t>Confidence</t>
         </is>
@@ -760,7 +787,7 @@
           <t>Wins</t>
         </is>
       </c>
-      <c r="D17" s="15" t="inlineStr">
+      <c r="D17" s="22" t="inlineStr">
         <is>
           <t>Win Rate</t>
         </is>
@@ -783,7 +810,7 @@
       <c r="C18" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D18" s="18" t="inlineStr">
+      <c r="D18" s="25" t="inlineStr">
         <is>
           <t>43.8%</t>
         </is>
@@ -806,7 +833,7 @@
       <c r="C19" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D19" s="18" t="inlineStr">
+      <c r="D19" s="25" t="inlineStr">
         <is>
           <t>100.0%</t>
         </is>
@@ -829,7 +856,7 @@
       <c r="C20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="18" t="inlineStr">
+      <c r="D20" s="25" t="inlineStr">
         <is>
           <t>0.0%</t>
         </is>
@@ -852,7 +879,7 @@
       <c r="C21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D21" s="18" t="inlineStr">
+      <c r="D21" s="25" t="inlineStr">
         <is>
           <t>0.0%</t>
         </is>
@@ -875,7 +902,7 @@
       <c r="C22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D22" s="18" t="inlineStr">
+      <c r="D22" s="25" t="inlineStr">
         <is>
           <t>0.0%</t>
         </is>
@@ -898,7 +925,7 @@
       <c r="C23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D23" s="18" t="inlineStr">
+      <c r="D23" s="25" t="inlineStr">
         <is>
           <t>0.0%</t>
         </is>
@@ -932,27 +959,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="8" max="8"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="11" max="11"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="12" max="12"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="13" max="13"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="12" max="12"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="13" max="13"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="14" max="14"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="17" max="17"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="18" max="18"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="20" max="20"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="21" max="21"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="22" max="22"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="22" max="22"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="23" max="23"/>
   </cols>
   <sheetData>
@@ -1875,27 +1902,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="8" max="8"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="11" max="11"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="12" max="12"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="13" max="13"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="12" max="12"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="13" max="13"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="14" max="14"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="17" max="17"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="18" max="18"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="20" max="20"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="21" max="21"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="22" max="22"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="22" max="22"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="23" max="23"/>
   </cols>
   <sheetData>
@@ -3450,27 +3477,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="8" max="8"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="11" max="11"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="12" max="12"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="13" max="13"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="12" max="12"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="13" max="13"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="14" max="14"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="17" max="17"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="18" max="18"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="20" max="20"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="21" max="21"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="22" max="22"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="22" max="22"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="23" max="23"/>
   </cols>
   <sheetData>
@@ -4221,27 +4248,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="8" max="8"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="11" max="11"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="12" max="12"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="13" max="13"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="12" max="12"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="13" max="13"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="14" max="14"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="17" max="17"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="18" max="18"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="20" max="20"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="21" max="21"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="22" max="22"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="22" max="22"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="23" max="23"/>
   </cols>
   <sheetData>
@@ -6014,11 +6041,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30.005" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="20.005" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="20.005" bestFit="1" customWidth="1" style="18" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="14" t="inlineStr">
+      <c r="A1" s="21" t="inlineStr">
         <is>
           <t>BETTING TRACKER SETTINGS</t>
         </is>
@@ -6030,7 +6057,7 @@
       <c r="B2" s="2" t="n"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="15" t="inlineStr">
+      <c r="A3" s="22" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -6144,7 +6171,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6153,117 +6180,117 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="20" t="inlineStr">
+      <c r="A1" s="27" t="inlineStr">
         <is>
           <t>game_date</t>
         </is>
       </c>
-      <c r="B1" s="20" t="inlineStr">
+      <c r="B1" s="27" t="inlineStr">
         <is>
           <t>game_id</t>
         </is>
       </c>
-      <c r="C1" s="20" t="inlineStr">
+      <c r="C1" s="27" t="inlineStr">
         <is>
           <t>book</t>
         </is>
       </c>
-      <c r="D1" s="20" t="inlineStr">
+      <c r="D1" s="27" t="inlineStr">
         <is>
           <t>goalie_name</t>
         </is>
       </c>
-      <c r="E1" s="20" t="inlineStr">
+      <c r="E1" s="27" t="inlineStr">
         <is>
           <t>betting_line</t>
         </is>
       </c>
-      <c r="F1" s="20" t="inlineStr">
+      <c r="F1" s="27" t="inlineStr">
         <is>
           <t>line_over</t>
         </is>
       </c>
-      <c r="G1" s="20" t="inlineStr">
+      <c r="G1" s="27" t="inlineStr">
         <is>
           <t>line_under</t>
         </is>
       </c>
-      <c r="H1" s="20" t="inlineStr">
+      <c r="H1" s="27" t="inlineStr">
         <is>
           <t>goalie_id</t>
         </is>
       </c>
-      <c r="I1" s="20" t="inlineStr">
+      <c r="I1" s="27" t="inlineStr">
         <is>
           <t>team_abbrev</t>
         </is>
       </c>
-      <c r="J1" s="20" t="inlineStr">
+      <c r="J1" s="27" t="inlineStr">
         <is>
           <t>opponent_team</t>
         </is>
       </c>
-      <c r="K1" s="20" t="inlineStr">
+      <c r="K1" s="27" t="inlineStr">
         <is>
           <t>is_home</t>
         </is>
       </c>
-      <c r="L1" s="20" t="inlineStr">
+      <c r="L1" s="27" t="inlineStr">
         <is>
           <t>predicted_saves</t>
         </is>
       </c>
-      <c r="M1" s="20" t="inlineStr">
+      <c r="M1" s="27" t="inlineStr">
         <is>
           <t>prob_over</t>
         </is>
       </c>
-      <c r="N1" s="20" t="inlineStr">
+      <c r="N1" s="27" t="inlineStr">
         <is>
           <t>confidence_pct</t>
         </is>
       </c>
-      <c r="O1" s="20" t="inlineStr">
+      <c r="O1" s="27" t="inlineStr">
         <is>
           <t>confidence_bucket</t>
         </is>
       </c>
-      <c r="P1" s="20" t="inlineStr">
+      <c r="P1" s="27" t="inlineStr">
         <is>
           <t>recommendation</t>
         </is>
       </c>
-      <c r="Q1" s="20" t="inlineStr">
+      <c r="Q1" s="27" t="inlineStr">
         <is>
           <t>ev</t>
         </is>
       </c>
-      <c r="R1" s="20" t="inlineStr">
+      <c r="R1" s="27" t="inlineStr">
         <is>
           <t>bet_amount</t>
         </is>
       </c>
-      <c r="S1" s="20" t="inlineStr">
+      <c r="S1" s="27" t="inlineStr">
         <is>
           <t>bet_selection</t>
         </is>
       </c>
-      <c r="T1" s="20" t="inlineStr">
+      <c r="T1" s="27" t="inlineStr">
         <is>
           <t>actual_saves</t>
         </is>
       </c>
-      <c r="U1" s="20" t="inlineStr">
+      <c r="U1" s="27" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="V1" s="20" t="inlineStr">
+      <c r="V1" s="27" t="inlineStr">
         <is>
           <t>profit_loss</t>
         </is>
       </c>
-      <c r="W1" s="20" t="inlineStr">
+      <c r="W1" s="27" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
@@ -7143,6 +7170,1315 @@
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2025020806</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Wolf</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-117</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-106</v>
+      </c>
+      <c r="H20" t="n">
+        <v>8481692</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>CGY</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>WSH</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.4943341314792633</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.133173704147339</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>-0.008897185325622559</v>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2025020805</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Blackwood</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-122</v>
+      </c>
+      <c r="G21" t="n">
+        <v>100</v>
+      </c>
+      <c r="H21" t="n">
+        <v>8478406</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>COL</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>21.70000076293945</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.5438613891601562</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8.77227783203125</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>-0.005688130855560303</v>
+      </c>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2025020806</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Wolf</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H22" t="n">
+        <v>8481692</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>CGY</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>WSH</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.4943341314792633</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.133173704147339</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>-0.03978866338729858</v>
+      </c>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2025020805</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Blackwood</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H23" t="n">
+        <v>8478406</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>COL</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>21.70000076293945</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.5438613891601562</v>
+      </c>
+      <c r="N23" t="n">
+        <v>8.77227783203125</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.001593172550201416</v>
+      </c>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2025020805</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Ersson</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-103</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8481035</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>COL</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>26.29999923706055</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.4657920897006989</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6.841582298278809</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>-0.01124662160873413</v>
+      </c>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2025020806</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Cooley</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-113</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-109</v>
+      </c>
+      <c r="H25" t="n">
+        <v>8482445</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>CGY</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>WSH</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.4742054045200348</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5.158919334411621</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.004263520240783691</v>
+      </c>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2025020809</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Grubauer</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-102</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-121</v>
+      </c>
+      <c r="H26" t="n">
+        <v>8475831</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ANA</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.5015108585357666</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.3021717071533203</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>-0.003439664840698242</v>
+      </c>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2025020809</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Grubauer</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H27" t="n">
+        <v>8475831</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ANA</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.5015108585357666</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.3021717071533203</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>-0.04394370317459106</v>
+      </c>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2025020802</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Stolarz</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-125</v>
+      </c>
+      <c r="G28" t="n">
+        <v>102</v>
+      </c>
+      <c r="H28" t="n">
+        <v>8476932</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VGK</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>25.39999961853027</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.4886266887187958</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.274662256240845</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.01632377505302429</v>
+      </c>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2025020804</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Binnington</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-103</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H29" t="n">
+        <v>8476412</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>STL</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.5042712092399597</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.8542418479919434</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>-0.003117978572845459</v>
+      </c>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2025020805</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Blackwood</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-124</v>
+      </c>
+      <c r="G30" t="n">
+        <v>100</v>
+      </c>
+      <c r="H30" t="n">
+        <v>8478406</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>COL</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>21.70000076293945</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.5438613891601562</v>
+      </c>
+      <c r="N30" t="n">
+        <v>8.77227783203125</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>-0.009710013866424561</v>
+      </c>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2025020808</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Nedeljkovic</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-124</v>
+      </c>
+      <c r="G31" t="n">
+        <v>101</v>
+      </c>
+      <c r="H31" t="n">
+        <v>8477968</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>SJS</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>NYR</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.5266153216362</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5.32306432723999</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.02412775158882141</v>
+      </c>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2025020806</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Cooley</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H32" t="n">
+        <v>8482445</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>CGY</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>WSH</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.4742054045200348</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5.158919334411621</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>-0.01965993642807007</v>
+      </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2025020805</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Ersson</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H33" t="n">
+        <v>8481035</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>COL</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>26.29999923706055</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.4657920897006989</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6.841582298278809</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>-0.01124662160873413</v>
+      </c>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2025020808</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Nedeljkovic</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H34" t="n">
+        <v>8477968</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>SJS</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>NYR</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.5266153216362</v>
+      </c>
+      <c r="N34" t="n">
+        <v>5.32306432723999</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>-0.01883924007415771</v>
+      </c>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2025020804</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Binnington</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H35" t="n">
+        <v>8476412</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>STL</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.5042712092399597</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.8542418479919434</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>-0.04118335247039795</v>
+      </c>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2025020807</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Markstrom</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-102</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-121</v>
+      </c>
+      <c r="H36" t="n">
+        <v>8474593</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>NJD</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.4985940754413605</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.2811849117279053</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>-0.00635644793510437</v>
+      </c>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7151,7 +8487,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:W31"/>
@@ -7161,2628 +8497,2709 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="12" max="12"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="13" max="13"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="14" max="14"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="17" max="17"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="13" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="19" max="19"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="21" max="21"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="22" max="22"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="23" max="23"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="20" t="inlineStr">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>game_date</t>
         </is>
       </c>
-      <c r="B1" s="20" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>game_id</t>
         </is>
       </c>
-      <c r="C1" s="20" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>book</t>
         </is>
       </c>
-      <c r="D1" s="20" t="inlineStr">
+      <c r="D1" s="9" t="inlineStr">
         <is>
           <t>goalie_name</t>
         </is>
       </c>
-      <c r="E1" s="20" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>betting_line</t>
         </is>
       </c>
-      <c r="F1" s="20" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>line_over</t>
         </is>
       </c>
-      <c r="G1" s="20" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>line_under</t>
         </is>
       </c>
-      <c r="H1" s="20" t="inlineStr">
+      <c r="H1" s="10" t="inlineStr">
         <is>
           <t>goalie_id</t>
         </is>
       </c>
-      <c r="I1" s="20" t="inlineStr">
+      <c r="I1" s="9" t="inlineStr">
         <is>
           <t>team_abbrev</t>
         </is>
       </c>
-      <c r="J1" s="20" t="inlineStr">
+      <c r="J1" s="9" t="inlineStr">
         <is>
           <t>opponent_team</t>
         </is>
       </c>
-      <c r="K1" s="20" t="inlineStr">
+      <c r="K1" s="10" t="inlineStr">
         <is>
           <t>is_home</t>
         </is>
       </c>
-      <c r="L1" s="20" t="inlineStr">
+      <c r="L1" s="11" t="inlineStr">
         <is>
           <t>predicted_saves</t>
         </is>
       </c>
-      <c r="M1" s="20" t="inlineStr">
+      <c r="M1" s="11" t="inlineStr">
         <is>
           <t>prob_over</t>
         </is>
       </c>
-      <c r="N1" s="20" t="inlineStr">
+      <c r="N1" s="11" t="inlineStr">
         <is>
           <t>confidence_pct</t>
         </is>
       </c>
-      <c r="O1" s="20" t="inlineStr">
+      <c r="O1" s="9" t="inlineStr">
         <is>
           <t>confidence_bucket</t>
         </is>
       </c>
-      <c r="P1" s="20" t="inlineStr">
+      <c r="P1" s="9" t="inlineStr">
         <is>
           <t>recommendation</t>
         </is>
       </c>
-      <c r="Q1" s="20" t="inlineStr">
+      <c r="Q1" s="11" t="inlineStr">
         <is>
           <t>ev</t>
         </is>
       </c>
-      <c r="R1" s="20" t="inlineStr">
+      <c r="R1" s="10" t="inlineStr">
         <is>
           <t>bet_amount</t>
         </is>
       </c>
-      <c r="S1" s="20" t="inlineStr">
+      <c r="S1" s="9" t="inlineStr">
         <is>
           <t>bet_selection</t>
         </is>
       </c>
-      <c r="T1" s="20" t="inlineStr">
+      <c r="T1" s="10" t="inlineStr">
         <is>
           <t>actual_saves</t>
         </is>
       </c>
-      <c r="U1" s="20" t="inlineStr">
+      <c r="U1" s="9" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="V1" s="20" t="inlineStr">
+      <c r="V1" s="10" t="inlineStr">
         <is>
           <t>profit_loss</t>
         </is>
       </c>
-      <c r="W1" s="20" t="inlineStr">
+      <c r="W1" s="9" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2" t="n">
         <v>2025020794</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Schmid</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="3" t="n">
         <v>21.5</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2" t="n">
         <v>-114</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="2" t="n">
         <v>-108</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="2" t="n">
         <v>8481033</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>VGK</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>BOS</t>
         </is>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="K2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="n">
         <v>21.70000076293945</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="3" t="n">
         <v>0.5335663557052612</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2" s="3" t="n">
         <v>6.713271141052246</v>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q2" t="n">
+      <c r="P2" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="n">
         <v>0.0008561015129089999</v>
       </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T2" t="n">
+      <c r="R2" s="12" t="n"/>
+      <c r="S2" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="U2" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="5" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2" t="n">
         <v>2025020794</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Korpisalo</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="3" t="n">
         <v>24.5</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2" t="n">
         <v>-114</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="2" t="n">
         <v>-108</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="2" t="n">
         <v>8476914</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" s="5" t="inlineStr">
         <is>
           <t>BOS</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t>VGK</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="3" t="n">
         <v>24.29999923706055</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="3" t="n">
         <v>0.4615394473075867</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="3" t="n">
         <v>7.692110538482666</v>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
+      <c r="P3" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q3" s="3" t="n">
         <v>0.019229769706726</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" s="5" t="inlineStr">
         <is>
           <t>UNDER</t>
         </is>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U3" s="5" t="inlineStr">
         <is>
           <t>LOSS</t>
         </is>
       </c>
-      <c r="V3" t="n">
+      <c r="V3" s="2" t="n">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="W3" s="5" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="2" t="n">
         <v>2025020796</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Knight</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="3" t="n">
         <v>27.5</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="2" t="n">
         <v>-122</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="2" t="n">
         <v>8481519</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" s="5" t="inlineStr">
         <is>
           <t>CHI</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="K4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="n">
         <v>28.29999923706055</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="3" t="n">
         <v>0.4651559293270111</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="3" t="n">
         <v>6.968813896179199</v>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q4" t="n">
+      <c r="P4" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q4" s="3" t="n">
         <v>0.0065421462059021</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S4" s="5" t="inlineStr">
         <is>
           <t>UNDER</t>
         </is>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="U4" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="5" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="2" t="n">
         <v>2025020797</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>Greaves</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="3" t="n">
         <v>23.5</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2" t="n">
         <v>-114</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="2" t="n">
         <v>-108</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="2" t="n">
         <v>8482982</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5" s="5" t="inlineStr">
         <is>
           <t>CBJ</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="5" t="inlineStr">
         <is>
           <t>DAL</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" s="3" t="n">
         <v>23.70000076293945</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="3" t="n">
         <v>0.5321161150932312</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5" s="3" t="n">
         <v>6.42322301864624</v>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q5" t="n">
+      <c r="P5" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="n">
         <v>-0.0005941390991210938</v>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T5" t="n">
+      <c r="R5" s="12" t="n"/>
+      <c r="S5" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="U5" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="5" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="2" t="n">
         <v>2025020797</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>DeSmith</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="3" t="n">
         <v>25.5</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="2" t="n">
         <v>-105</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="2" t="n">
         <v>-118</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="2" t="n">
         <v>8479193</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I6" s="5" t="inlineStr">
         <is>
           <t>DAL</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" s="5" t="inlineStr">
         <is>
           <t>CBJ</t>
         </is>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="K6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="n">
         <v>25.5</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="3" t="n">
         <v>0.4942755997180939</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6" s="3" t="n">
         <v>1.144880056381226</v>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O6" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q6" s="3" t="n">
         <v>-0.01791951060295105</v>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T6" t="n">
+      <c r="R6" s="12" t="n"/>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="2" t="n">
         <v>2025020799</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Hellebuyck</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="3" t="n">
         <v>25.5</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="2" t="n">
         <v>-124</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="2" t="n">
         <v>8476945</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I7" s="5" t="inlineStr">
         <is>
           <t>WPG</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" s="5" t="inlineStr">
         <is>
           <t>FLA</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7" s="3" t="n">
         <v>25.5</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="3" t="n">
         <v>0.4948709011077881</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7" s="3" t="n">
         <v>1.025819778442383</v>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O7" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P7" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q7" s="3" t="n">
         <v>0.002260059118270874</v>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T7" t="n">
+      <c r="R7" s="12" t="n"/>
+      <c r="S7" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="U7" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5" t="n"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="2" t="n">
         <v>2025020799</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>Tarasov</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="3" t="n">
         <v>22.5</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="2" t="n">
         <v>-103</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="2" t="n">
         <v>-120</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="2" t="n">
         <v>8480193</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I8" s="5" t="inlineStr">
         <is>
           <t>FLA</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" s="5" t="inlineStr">
         <is>
           <t>WPG</t>
         </is>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="K8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="n">
         <v>22.60000038146973</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="3" t="n">
         <v>0.5288675427436829</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8" s="3" t="n">
         <v>5.773508548736572</v>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>OVER</t>
         </is>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8" s="3" t="n">
         <v>0.021478354930878</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="S8" s="5" t="inlineStr">
         <is>
           <t>OVER</t>
         </is>
       </c>
-      <c r="T8" t="n">
+      <c r="T8" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="U8" s="5" t="inlineStr">
         <is>
           <t>LOSS</t>
         </is>
       </c>
-      <c r="V8" t="n">
+      <c r="V8" s="2" t="n">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="W8" s="5" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="2" t="n">
         <v>2025020798</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>Saros</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="3" t="n">
         <v>24.5</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="2" t="n">
         <v>-122</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="2" t="n">
         <v>8477424</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I9" s="5" t="inlineStr">
         <is>
           <t>NSH</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" s="5" t="inlineStr">
         <is>
           <t>OTT</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9" s="3" t="n">
         <v>24.5</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="3" t="n">
         <v>0.5046124458312988</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9" s="3" t="n">
         <v>0.9224891662597656</v>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="O9" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P9" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q9" s="3" t="n">
         <v>-0.004612445831298828</v>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T9" t="n">
+      <c r="R9" s="12" t="n"/>
+      <c r="S9" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="U9" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="5" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="2" t="n">
         <v>2025020798</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>Reimer</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="3" t="n">
         <v>23.5</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="2" t="n">
         <v>-108</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="2" t="n">
         <v>-114</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="2" t="n">
         <v>8473503</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I10" s="5" t="inlineStr">
         <is>
           <t>OTT</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" s="5" t="inlineStr">
         <is>
           <t>NSH</t>
         </is>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="K10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="n">
         <v>23.60000038146973</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="3" t="n">
         <v>0.5181494951248169</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10" s="3" t="n">
         <v>3.629899024963379</v>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O10" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q10" t="n">
+      <c r="P10" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q10" s="3" t="n">
         <v>-0.001081287860870361</v>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T10" t="n">
+      <c r="R10" s="12" t="n"/>
+      <c r="S10" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="U10" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="5" t="n"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="2" t="n">
         <v>2025020800</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>Silovs</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="3" t="n">
         <v>24.5</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="2" t="n">
         <v>-110</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="2" t="n">
         <v>-112</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="2" t="n">
         <v>8481668</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I11" s="5" t="inlineStr">
         <is>
           <t>PIT</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" s="5" t="inlineStr">
         <is>
           <t>EDM</t>
         </is>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="K11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3" t="n">
         <v>24.5</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="3" t="n">
         <v>0.4908878803253174</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11" s="3" t="n">
         <v>1.822423934936523</v>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="O11" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
+      <c r="P11" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q11" s="3" t="n">
         <v>-0.01918977499008179</v>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T11" t="n">
+      <c r="R11" s="12" t="n"/>
+      <c r="S11" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="U11" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="5" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="2" t="n">
         <v>2025020800</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>Jarry</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="3" t="n">
         <v>23.5</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="2" t="n">
         <v>-107</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="2" t="n">
         <v>-115</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="2" t="n">
         <v>8477465</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I12" s="5" t="inlineStr">
         <is>
           <t>EDM</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J12" s="5" t="inlineStr">
         <is>
           <t>PIT</t>
         </is>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12" s="3" t="n">
         <v>23.70000076293945</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="3" t="n">
         <v>0.5327706933021545</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12" s="3" t="n">
         <v>6.554138660430908</v>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="O12" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P12" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q12" s="3" t="n">
         <v>0.015862464904785</v>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T12" t="n">
+      <c r="R12" s="12" t="n"/>
+      <c r="S12" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="U12" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="5" t="n"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="2" t="n">
         <v>2025020801</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>Talbot</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="3" t="n">
         <v>25.5</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="2" t="n">
         <v>-124</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="2" t="n">
         <v>8475660</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I13" s="5" t="inlineStr">
         <is>
           <t>DET</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" s="5" t="inlineStr">
         <is>
           <t>MIN</t>
         </is>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
+      <c r="K13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3" t="n">
         <v>25.39999961853027</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="3" t="n">
         <v>0.4863932132720947</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13" s="3" t="n">
         <v>2.721357345581055</v>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="O13" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q13" t="n">
+      <c r="P13" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q13" s="3" t="n">
         <v>-0.02099597454071045</v>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T13" t="n">
+      <c r="R13" s="12" t="n"/>
+      <c r="S13" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="U13" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="5" t="n"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="2" t="n">
         <v>2025020801</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>Gustavsson</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="3" t="n">
         <v>24.5</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="2" t="n">
         <v>-124</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="2" t="n">
         <v>8479406</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I14" s="5" t="inlineStr">
         <is>
           <t>MIN</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J14" s="5" t="inlineStr">
         <is>
           <t>DET</t>
         </is>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14" s="3" t="n">
         <v>24.5</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="3" t="n">
         <v>0.5013213753700256</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14" s="3" t="n">
         <v>0.264275074005127</v>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="O14" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q14" t="n">
+      <c r="P14" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q14" s="3" t="n">
         <v>0.003808945417404175</v>
       </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T14" t="n">
+      <c r="R14" s="12" t="n"/>
+      <c r="S14" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="U14" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="5" t="n"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="2" t="n">
         <v>2025020795</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>Montembeault</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="3" t="n">
         <v>22.5</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="2" t="n">
         <v>-112</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="2" t="n">
         <v>-110</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="2" t="n">
         <v>8478470</v>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I15" s="5" t="inlineStr">
         <is>
           <t>MTL</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J15" s="5" t="inlineStr">
         <is>
           <t>BUF</t>
         </is>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15" s="3" t="n">
         <v>22.70000076293945</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="3" t="n">
         <v>0.5358108878135681</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15" s="3" t="n">
         <v>7.162177562713623</v>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="O15" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P15" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q15" s="3" t="n">
         <v>0.007508993148803711</v>
       </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T15" t="n">
+      <c r="R15" s="12" t="n"/>
+      <c r="S15" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="U15" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="5" t="n"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="2" t="n">
         <v>2025020795</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>Luukkonen</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="3" t="n">
         <v>24.5</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="2" t="n">
         <v>-112</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="2" t="n">
         <v>-110</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="2" t="n">
         <v>8480045</v>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I16" s="5" t="inlineStr">
         <is>
           <t>BUF</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J16" s="5" t="inlineStr">
         <is>
           <t>MTL</t>
         </is>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
+      <c r="K16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3" t="n">
         <v>24.39999961853027</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16" s="3" t="n">
         <v>0.4757562279701233</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16" s="3" t="n">
         <v>4.848754405975342</v>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="O16" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P16" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q16" s="3" t="n">
         <v>0.0004342198371887207</v>
       </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T16" t="n">
+      <c r="R16" s="12" t="n"/>
+      <c r="S16" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="U16" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="5" t="n"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="2" t="n">
         <v>2025020796</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr">
         <is>
           <t>Andersen</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="3" t="n">
         <v>19.5</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="2" t="n">
         <v>-103</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="2" t="n">
         <v>-120</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="2" t="n">
         <v>8475883</v>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I17" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J17" s="5" t="inlineStr">
         <is>
           <t>CHI</t>
         </is>
       </c>
-      <c r="K17" t="n">
+      <c r="K17" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17" s="3" t="n">
         <v>19.70000076293945</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17" s="3" t="n">
         <v>0.5309252142906189</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17" s="3" t="n">
         <v>6.185042858123779</v>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="O17" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="P17" s="5" t="inlineStr">
         <is>
           <t>OVER</t>
         </is>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17" s="3" t="n">
         <v>0.03587570786476135</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="S17" s="5" t="inlineStr">
         <is>
           <t>OVER</t>
         </is>
       </c>
-      <c r="T17" t="n">
+      <c r="T17" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="U17" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="5" t="n"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="2" t="n">
         <v>2025020796</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>Knight</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="3" t="n">
         <v>28.5</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="2" t="n">
         <v>-112</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="2" t="n">
         <v>-112</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="2" t="n">
         <v>8481519</v>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I18" s="5" t="inlineStr">
         <is>
           <t>CHI</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J18" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="K18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3" t="n">
         <v>28.29999923706055</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18" s="3" t="n">
         <v>0.4651559293270111</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18" s="3" t="n">
         <v>6.968813896179199</v>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="O18" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q18" t="n">
+      <c r="P18" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q18" s="3" t="n">
         <v>0.0065421462059021</v>
       </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T18" t="n">
+      <c r="R18" s="12" t="n"/>
+      <c r="S18" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="U18" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="5" t="n"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="2" t="n">
         <v>2025020796</v>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>Andersen</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="3" t="n">
         <v>19.5</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="2" t="n">
         <v>-125</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" s="2" t="n">
         <v>8475883</v>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I19" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J19" s="5" t="inlineStr">
         <is>
           <t>CHI</t>
         </is>
       </c>
-      <c r="K19" t="n">
+      <c r="K19" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19" s="3" t="n">
         <v>19.70000076293945</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19" s="3" t="n">
         <v>0.5309252142906189</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19" s="3" t="n">
         <v>6.185042858123779</v>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="O19" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q19" t="n">
+      <c r="P19" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q19" s="3" t="n">
         <v>0.03587570786476135</v>
       </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T19" t="n">
+      <c r="R19" s="12" t="n"/>
+      <c r="S19" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="U19" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="5" t="n"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="2" t="n">
         <v>2025020799</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>Hellebuyck</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="3" t="n">
         <v>25.5</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="2" t="n">
         <v>-124</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="2" t="n">
         <v>8476945</v>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I20" s="5" t="inlineStr">
         <is>
           <t>WPG</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J20" s="5" t="inlineStr">
         <is>
           <t>FLA</t>
         </is>
       </c>
-      <c r="K20" t="n">
+      <c r="K20" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20" s="3" t="n">
         <v>25.5</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20" s="3" t="n">
         <v>0.4948709011077881</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20" s="3" t="n">
         <v>1.025819778442383</v>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="O20" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q20" t="n">
+      <c r="P20" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q20" s="3" t="n">
         <v>0.002260059118270874</v>
       </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T20" t="n">
+      <c r="R20" s="12" t="n"/>
+      <c r="S20" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="U20" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="5" t="n"/>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="2" t="n">
         <v>2025020799</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t>Hellebuyck</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="3" t="n">
         <v>25.5</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="2" t="n">
         <v>-124</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21" s="2" t="n">
         <v>8476945</v>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I21" s="5" t="inlineStr">
         <is>
           <t>WPG</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J21" s="5" t="inlineStr">
         <is>
           <t>FLA</t>
         </is>
       </c>
-      <c r="K21" t="n">
+      <c r="K21" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21" s="3" t="n">
         <v>25.5</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21" s="3" t="n">
         <v>0.4948709011077881</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21" s="3" t="n">
         <v>1.025819778442383</v>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="O21" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q21" t="n">
+      <c r="P21" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q21" s="3" t="n">
         <v>0.002260059118270874</v>
       </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T21" t="n">
+      <c r="R21" s="12" t="n"/>
+      <c r="S21" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="U21" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="5" t="n"/>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="2" t="n">
         <v>2025020799</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>Hellebuyck</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="3" t="n">
         <v>25.5</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="2" t="n">
         <v>-124</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22" s="2" t="n">
         <v>8476945</v>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I22" s="5" t="inlineStr">
         <is>
           <t>WPG</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J22" s="5" t="inlineStr">
         <is>
           <t>FLA</t>
         </is>
       </c>
-      <c r="K22" t="n">
+      <c r="K22" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22" s="3" t="n">
         <v>25.5</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22" s="3" t="n">
         <v>0.4948709011077881</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22" s="3" t="n">
         <v>1.025819778442383</v>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="O22" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q22" t="n">
+      <c r="P22" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q22" s="3" t="n">
         <v>0.002260059118270874</v>
       </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T22" t="n">
+      <c r="R22" s="12" t="n"/>
+      <c r="S22" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="U22" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" s="5" t="n"/>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" s="2" t="n">
         <v>2025020798</v>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>PrizePicks</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" s="5" t="inlineStr">
         <is>
           <t>Saros</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="2" t="n">
         <v>-120</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="2" t="n">
         <v>-120</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23" s="2" t="n">
         <v>8477424</v>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I23" s="5" t="inlineStr">
         <is>
           <t>NSH</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J23" s="5" t="inlineStr">
         <is>
           <t>OTT</t>
         </is>
       </c>
-      <c r="K23" t="n">
+      <c r="K23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23" s="3" t="n">
         <v>0.5045216679573059</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23" s="3" t="n">
         <v>0.9043335914611816</v>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="O23" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q23" t="n">
+      <c r="P23" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q23" s="3" t="n">
         <v>-0.04093289375305176</v>
       </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T23" t="n">
+      <c r="R23" s="12" t="n"/>
+      <c r="S23" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="U23" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" s="5" t="n"/>
+    </row>
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="2" t="n">
         <v>2025020798</v>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>PrizePicks</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t>Reimer</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" s="3" t="n">
         <v>23.5</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" s="2" t="n">
         <v>-120</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="2" t="n">
         <v>-120</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24" s="2" t="n">
         <v>8473503</v>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I24" s="5" t="inlineStr">
         <is>
           <t>OTT</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J24" s="5" t="inlineStr">
         <is>
           <t>NSH</t>
         </is>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
+      <c r="K24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="n">
         <v>23.60000038146973</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24" s="3" t="n">
         <v>0.5181494951248169</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N24" s="3" t="n">
         <v>3.629899024963379</v>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="O24" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q24" t="n">
+      <c r="P24" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q24" s="3" t="n">
         <v>-0.02730506658554077</v>
       </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T24" t="n">
+      <c r="R24" s="12" t="n"/>
+      <c r="S24" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="U24" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" s="5" t="n"/>
+    </row>
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="2" t="n">
         <v>2025020799</v>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>PrizePicks</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" s="5" t="inlineStr">
         <is>
           <t>Hellebuyck</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" s="2" t="n">
         <v>-120</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="2" t="n">
         <v>-120</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25" s="2" t="n">
         <v>8476945</v>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I25" s="5" t="inlineStr">
         <is>
           <t>WPG</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J25" s="5" t="inlineStr">
         <is>
           <t>FLA</t>
         </is>
       </c>
-      <c r="K25" t="n">
+      <c r="K25" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25" s="3" t="n">
         <v>0.4971076548099518</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25" s="3" t="n">
         <v>0.5784690380096436</v>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="O25" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q25" t="n">
+      <c r="P25" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q25" s="3" t="n">
         <v>-0.04256218671798706</v>
       </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T25" t="n">
+      <c r="R25" s="12" t="n"/>
+      <c r="S25" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="U25" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" s="5" t="n"/>
+    </row>
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="2" t="n">
         <v>2025020799</v>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>PrizePicks</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" s="5" t="inlineStr">
         <is>
           <t>Tarasov</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" s="3" t="n">
         <v>22.5</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" s="2" t="n">
         <v>-120</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="2" t="n">
         <v>-120</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26" s="2" t="n">
         <v>8480193</v>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="I26" s="5" t="inlineStr">
         <is>
           <t>FLA</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J26" s="5" t="inlineStr">
         <is>
           <t>WPG</t>
         </is>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
+      <c r="K26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3" t="n">
         <v>22.60000038146973</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26" s="3" t="n">
         <v>0.5288675427436829</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N26" s="3" t="n">
         <v>5.773508548736572</v>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="O26" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q26" t="n">
+      <c r="P26" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q26" s="3" t="n">
         <v>-0.0165870189666748</v>
       </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T26" t="n">
+      <c r="R26" s="12" t="n"/>
+      <c r="S26" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="U26" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" s="5" t="n"/>
+    </row>
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" s="2" t="n">
         <v>2025020800</v>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>PrizePicks</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" s="5" t="inlineStr">
         <is>
           <t>Silovs</t>
         </is>
       </c>
-      <c r="E27" t="n">
+      <c r="E27" s="3" t="n">
         <v>24.5</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27" s="2" t="n">
         <v>-120</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" s="2" t="n">
         <v>-120</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27" s="2" t="n">
         <v>8481668</v>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="I27" s="5" t="inlineStr">
         <is>
           <t>PIT</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J27" s="5" t="inlineStr">
         <is>
           <t>EDM</t>
         </is>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
+      <c r="K27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3" t="n">
         <v>24.5</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27" s="3" t="n">
         <v>0.4908878803253174</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N27" s="3" t="n">
         <v>1.822423934936523</v>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="O27" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q27" t="n">
+      <c r="P27" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q27" s="3" t="n">
         <v>-0.03634244203567505</v>
       </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T27" t="n">
+      <c r="R27" s="12" t="n"/>
+      <c r="S27" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="U27" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="5" t="n"/>
+    </row>
+    <row r="28" ht="18.75" customHeight="1">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" s="2" t="n">
         <v>2025020800</v>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>PrizePicks</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>Jarry</t>
         </is>
       </c>
-      <c r="E28" t="n">
+      <c r="E28" s="3" t="n">
         <v>23.5</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28" s="2" t="n">
         <v>-120</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28" s="2" t="n">
         <v>-120</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28" s="2" t="n">
         <v>8477465</v>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="I28" s="5" t="inlineStr">
         <is>
           <t>EDM</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J28" s="5" t="inlineStr">
         <is>
           <t>PIT</t>
         </is>
       </c>
-      <c r="K28" t="n">
+      <c r="K28" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28" s="3" t="n">
         <v>23.70000076293945</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28" s="3" t="n">
         <v>0.5327706933021545</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N28" s="3" t="n">
         <v>6.554138660430908</v>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="O28" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q28" t="n">
+      <c r="P28" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q28" s="3" t="n">
         <v>-0.01268386840820312</v>
       </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T28" t="n">
+      <c r="R28" s="12" t="n"/>
+      <c r="S28" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="U28" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" s="5" t="n"/>
+    </row>
+    <row r="29" ht="18.75" customHeight="1">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" s="2" t="n">
         <v>2025020801</v>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>PrizePicks</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" s="5" t="inlineStr">
         <is>
           <t>Talbot</t>
         </is>
       </c>
-      <c r="E29" t="n">
+      <c r="E29" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29" s="2" t="n">
         <v>-120</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" s="2" t="n">
         <v>-120</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29" s="2" t="n">
         <v>8475660</v>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="I29" s="5" t="inlineStr">
         <is>
           <t>DET</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J29" s="5" t="inlineStr">
         <is>
           <t>MIN</t>
         </is>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
+      <c r="K29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="n">
         <v>24.89999961853027</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M29" s="3" t="n">
         <v>0.4886287450790405</v>
       </c>
-      <c r="N29" t="n">
+      <c r="N29" s="3" t="n">
         <v>2.274250984191895</v>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="O29" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q29" t="n">
+      <c r="P29" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q29" s="3" t="n">
         <v>-0.03408330678939819</v>
       </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T29" t="n">
+      <c r="R29" s="12" t="n"/>
+      <c r="S29" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="U29" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" s="5" t="n"/>
+    </row>
+    <row r="30" ht="18.75" customHeight="1">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" s="2" t="n">
         <v>2025020801</v>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>PrizePicks</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" s="5" t="inlineStr">
         <is>
           <t>Gustavsson</t>
         </is>
       </c>
-      <c r="E30" t="n">
+      <c r="E30" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30" s="2" t="n">
         <v>-120</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30" s="2" t="n">
         <v>-120</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30" s="2" t="n">
         <v>8479406</v>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="I30" s="5" t="inlineStr">
         <is>
           <t>MIN</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="J30" s="5" t="inlineStr">
         <is>
           <t>DET</t>
         </is>
       </c>
-      <c r="K30" t="n">
+      <c r="K30" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M30" s="3" t="n">
         <v>0.5077030658721924</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N30" s="3" t="n">
         <v>1.540613174438477</v>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="O30" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q30" t="n">
+      <c r="P30" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q30" s="3" t="n">
         <v>-0.03775149583816528</v>
       </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T30" t="n">
+      <c r="R30" s="12" t="n"/>
+      <c r="S30" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="U30" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" s="5" t="n"/>
+    </row>
+    <row r="31" ht="18.75" customHeight="1">
+      <c r="A31" s="5" t="inlineStr">
         <is>
           <t>2026-01-22</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" s="2" t="n">
         <v>2025020801</v>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" s="5" t="inlineStr">
         <is>
           <t>Talbot</t>
         </is>
       </c>
-      <c r="E31" t="n">
+      <c r="E31" s="3" t="n">
         <v>25.5</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31" s="2" t="n">
         <v>-103</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31" s="2" t="n">
         <v>-124</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31" s="2" t="n">
         <v>8475660</v>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="I31" s="5" t="inlineStr">
         <is>
           <t>DET</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J31" s="5" t="inlineStr">
         <is>
           <t>MIN</t>
         </is>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
+      <c r="K31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3" t="n">
         <v>25.39999961853027</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M31" s="3" t="n">
         <v>0.4863932132720947</v>
       </c>
-      <c r="N31" t="n">
+      <c r="N31" s="3" t="n">
         <v>2.721357345581055</v>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="O31" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q31" t="n">
+      <c r="P31" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q31" s="3" t="n">
         <v>-0.02099597454071045</v>
       </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T31" t="n">
+      <c r="R31" s="12" t="n"/>
+      <c r="S31" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
+      <c r="U31" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" s="5" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9801,27 +11218,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="8" max="8"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="11" max="11"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="12" max="12"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="13" max="13"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="12" max="12"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="13" max="13"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="14" max="14"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="17" max="17"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="18" max="18"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="20" max="20"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="21" max="21"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="22" max="22"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="22" max="22"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="23" max="23"/>
   </cols>
   <sheetData>
@@ -11298,27 +12715,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="8" max="8"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="11" max="11"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="12" max="12"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="13" max="13"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="12" max="12"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="13" max="13"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="14" max="14"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="17" max="17"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="18" max="18"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="20" max="20"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="21" max="21"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="22" max="22"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="22" max="22"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="23" max="23"/>
   </cols>
   <sheetData>
@@ -12842,27 +14259,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="8" max="8"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="11" max="11"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="12" max="12"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="13" max="13"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="12" max="12"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="13" max="13"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="14" max="14"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="17" max="17"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="18" max="18"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="20" max="20"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="21" max="21"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="22" max="22"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="22" max="22"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="23" max="23"/>
   </cols>
   <sheetData>
@@ -14455,7 +15872,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
@@ -14464,7 +15881,7 @@
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="8" max="8"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="11" max="11"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="12" max="12"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="13" max="13"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="14" max="14"/>
@@ -14910,27 +16327,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="8" max="8"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="11" max="11"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="12" max="12"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="13" max="13"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="12" max="12"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="13" max="13"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="14" max="14"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="17" max="17"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="18" max="18"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="20" max="20"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="21" max="21"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="22" max="22"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="22" max="22"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="23" max="23"/>
   </cols>
   <sheetData>

--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -8,17 +8,18 @@
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Settings" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2026-01-23" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2026-01-22" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="2026-01-21" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="2026-01-20" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="2026-01-19" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="2026-01-18" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="2026-01-17" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="2026-01-16" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="2026-01-15" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="2026-01-14" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="2026-01-13" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="2026-01-24" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2026-01-23" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2026-01-22" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2026-01-21" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2026-01-20" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="2026-01-19" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="2026-01-18" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="2026-01-17" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="2026-01-16" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="2026-01-15" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="2026-01-14" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="2026-01-13" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28,7 +29,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -69,13 +70,23 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004472C4"/>
+        <bgColor rgb="004472C4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -133,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
@@ -215,6 +226,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -950,6 +964,2047 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:W27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="12" max="12"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="13" max="13"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="14" max="14"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="17" max="17"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="19" max="19"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="21" max="21"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="22" max="22"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>game_date</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>game_id</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>goalie_name</t>
+        </is>
+      </c>
+      <c r="E1" s="8" t="inlineStr">
+        <is>
+          <t>betting_line</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>line_over</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>line_under</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>goalie_id</t>
+        </is>
+      </c>
+      <c r="I1" s="5" t="inlineStr">
+        <is>
+          <t>team_abbrev</t>
+        </is>
+      </c>
+      <c r="J1" s="5" t="inlineStr">
+        <is>
+          <t>opponent_team</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>is_home</t>
+        </is>
+      </c>
+      <c r="L1" s="8" t="inlineStr">
+        <is>
+          <t>predicted_saves</t>
+        </is>
+      </c>
+      <c r="M1" s="8" t="inlineStr">
+        <is>
+          <t>prob_over</t>
+        </is>
+      </c>
+      <c r="N1" s="8" t="inlineStr">
+        <is>
+          <t>confidence_pct</t>
+        </is>
+      </c>
+      <c r="O1" s="5" t="inlineStr">
+        <is>
+          <t>confidence_bucket</t>
+        </is>
+      </c>
+      <c r="P1" s="5" t="inlineStr">
+        <is>
+          <t>recommendation</t>
+        </is>
+      </c>
+      <c r="Q1" s="8" t="inlineStr">
+        <is>
+          <t>ev</t>
+        </is>
+      </c>
+      <c r="R1" s="4" t="inlineStr">
+        <is>
+          <t>bet_amount</t>
+        </is>
+      </c>
+      <c r="S1" s="5" t="inlineStr">
+        <is>
+          <t>bet_selection</t>
+        </is>
+      </c>
+      <c r="T1" s="4" t="inlineStr">
+        <is>
+          <t>actual_saves</t>
+        </is>
+      </c>
+      <c r="U1" s="5" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="V1" s="4" t="inlineStr">
+        <is>
+          <t>profit_loss</t>
+        </is>
+      </c>
+      <c r="W1" s="5" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>2025020754</v>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="n"/>
+      <c r="E2" s="3" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="5" t="inlineStr">
+        <is>
+          <t>BUF</t>
+        </is>
+      </c>
+      <c r="J2" s="5" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3" t="n"/>
+      <c r="M2" s="3" t="n"/>
+      <c r="N2" s="3" t="n"/>
+      <c r="O2" s="5" t="n"/>
+      <c r="P2" s="5" t="n"/>
+      <c r="Q2" s="3" t="n"/>
+      <c r="R2" s="2" t="n"/>
+      <c r="S2" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="n"/>
+      <c r="U2" s="5" t="n"/>
+      <c r="V2" s="2" t="n"/>
+      <c r="W2" s="5" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2025020754</v>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>BUF</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3" t="n"/>
+      <c r="M3" s="3" t="n"/>
+      <c r="N3" s="3" t="n"/>
+      <c r="O3" s="5" t="n"/>
+      <c r="P3" s="5" t="n"/>
+      <c r="Q3" s="3" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="5" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="5" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>2025020755</v>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="J4" s="5" t="inlineStr">
+        <is>
+          <t>NYR</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="n"/>
+      <c r="M4" s="3" t="n"/>
+      <c r="N4" s="3" t="n"/>
+      <c r="O4" s="5" t="n"/>
+      <c r="P4" s="5" t="n"/>
+      <c r="Q4" s="3" t="n"/>
+      <c r="R4" s="2" t="n"/>
+      <c r="S4" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="n"/>
+      <c r="U4" s="5" t="n"/>
+      <c r="V4" s="2" t="n"/>
+      <c r="W4" s="5" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>2025020755</v>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>rittich</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>-124</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>-105</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>8479496</v>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>NYR</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>25.39999961853027</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>0.4853150248527527</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>2.936995029449463</v>
+      </c>
+      <c r="O5" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P5" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <v>0.002489864826202</v>
+      </c>
+      <c r="R5" s="2" t="n"/>
+      <c r="S5" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="n"/>
+      <c r="U5" s="5" t="n"/>
+      <c r="V5" s="2" t="n"/>
+      <c r="W5" s="5" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>2025020756</v>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>wolf</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>-103</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>-127</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>8481692</v>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>CGY</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>NYI</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>0.4925245940685272</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>1.495081186294556</v>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>-0.01486459374427795</v>
+      </c>
+      <c r="R6" s="2" t="n"/>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>2025020756</v>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>NYI</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>CGY</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="n"/>
+      <c r="M7" s="3" t="n"/>
+      <c r="N7" s="3" t="n"/>
+      <c r="O7" s="5" t="n"/>
+      <c r="P7" s="5" t="n"/>
+      <c r="Q7" s="3" t="n"/>
+      <c r="R7" s="2" t="n"/>
+      <c r="S7" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="n"/>
+      <c r="U7" s="5" t="n"/>
+      <c r="V7" s="2" t="n"/>
+      <c r="W7" s="5" t="n"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>2025020757</v>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>vejmelka</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>-122</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>8478872</v>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="J8" s="5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>21.60000038146973</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>0.5218251943588257</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>4.365038871765137</v>
+      </c>
+      <c r="O8" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P8" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>-0.02182519435882568</v>
+      </c>
+      <c r="R8" s="2" t="n"/>
+      <c r="S8" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="U8" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="5" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>2025020757</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n"/>
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="2" t="n"/>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J9" s="5" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="n"/>
+      <c r="M9" s="3" t="n"/>
+      <c r="N9" s="3" t="n"/>
+      <c r="O9" s="5" t="n"/>
+      <c r="P9" s="5" t="n"/>
+      <c r="Q9" s="3" t="n"/>
+      <c r="R9" s="2" t="n"/>
+      <c r="S9" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="n"/>
+      <c r="U9" s="5" t="n"/>
+      <c r="V9" s="2" t="n"/>
+      <c r="W9" s="5" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>2025020758</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>Meriläinen</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>-117</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>-106</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>8482447</v>
+      </c>
+      <c r="I10" s="5" t="inlineStr">
+        <is>
+          <t>OTT</t>
+        </is>
+      </c>
+      <c r="J10" s="5" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>0.5429470539093018</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>8.589410781860352</v>
+      </c>
+      <c r="O10" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P10" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q10" s="3" t="n">
+        <v>0.00377655029296875</v>
+      </c>
+      <c r="R10" s="2" t="n"/>
+      <c r="S10" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="U10" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="5" t="n"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>2025020758</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>montembeault</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>-124</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>-106</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>8478470</v>
+      </c>
+      <c r="I11" s="5" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="J11" s="5" t="inlineStr">
+        <is>
+          <t>OTT</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>0.4824399650096893</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>3.512006998062134</v>
+      </c>
+      <c r="O11" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P11" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q11" s="3" t="n">
+        <v>0.002996921539307</v>
+      </c>
+      <c r="R11" s="2" t="n"/>
+      <c r="S11" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="U11" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="5" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>2025020759</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>markstrom</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>-130</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>8474593</v>
+      </c>
+      <c r="I12" s="5" t="inlineStr">
+        <is>
+          <t>NJD</t>
+        </is>
+      </c>
+      <c r="J12" s="5" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3" t="n">
+        <v>25.29999923706055</v>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>0.4688402414321899</v>
+      </c>
+      <c r="N12" s="3" t="n">
+        <v>6.231951713562012</v>
+      </c>
+      <c r="O12" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P12" s="5" t="inlineStr">
+        <is>
+          <t>UNDER</t>
+        </is>
+      </c>
+      <c r="Q12" s="3" t="n">
+        <v>0.03115975856781006</v>
+      </c>
+      <c r="R12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" s="5" t="inlineStr">
+        <is>
+          <t>UNDER</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="U12" s="5" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W12" s="5" t="n"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>2025020759</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>andersen</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>-115</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>-107</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>8475883</v>
+      </c>
+      <c r="I13" s="5" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="J13" s="5" t="inlineStr">
+        <is>
+          <t>NJD</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>22.60000038146973</v>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>0.5256665349006653</v>
+      </c>
+      <c r="N13" s="3" t="n">
+        <v>5.133306980133057</v>
+      </c>
+      <c r="O13" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P13" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q13" s="3" t="n">
+        <v>-0.009217202663421631</v>
+      </c>
+      <c r="R13" s="2" t="n"/>
+      <c r="S13" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="U13" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="5" t="n"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>2025020760</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>silovs</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>-107</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>-122</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>8481668</v>
+      </c>
+      <c r="I14" s="5" t="inlineStr">
+        <is>
+          <t>PIT</t>
+        </is>
+      </c>
+      <c r="J14" s="5" t="inlineStr">
+        <is>
+          <t>CBJ</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3" t="n">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="M14" s="3" t="n">
+        <v>0.4898678064346313</v>
+      </c>
+      <c r="N14" s="3" t="n">
+        <v>2.02643871307373</v>
+      </c>
+      <c r="O14" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P14" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q14" s="3" t="n">
+        <v>-0.02704042196273804</v>
+      </c>
+      <c r="R14" s="2" t="n"/>
+      <c r="S14" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="U14" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="5" t="n"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>2025020760</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>merzlikins</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>-104</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>-125</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>8478007</v>
+      </c>
+      <c r="I15" s="5" t="inlineStr">
+        <is>
+          <t>CBJ</t>
+        </is>
+      </c>
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>PIT</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>26.29999923706055</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <v>0.4607813954353333</v>
+      </c>
+      <c r="N15" s="3" t="n">
+        <v>7.84372091293335</v>
+      </c>
+      <c r="O15" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P15" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q15" s="3" t="n">
+        <v>-0.01633697748184204</v>
+      </c>
+      <c r="R15" s="2" t="n"/>
+      <c r="S15" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="U15" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="5" t="n"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>2025020761</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>thompson</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>-124</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>-106</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>8480313</v>
+      </c>
+      <c r="I16" s="5" t="inlineStr">
+        <is>
+          <t>WSH</t>
+        </is>
+      </c>
+      <c r="J16" s="5" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3" t="n">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="M16" s="3" t="n">
+        <v>0.484540194272995</v>
+      </c>
+      <c r="N16" s="3" t="n">
+        <v>3.091961145401001</v>
+      </c>
+      <c r="O16" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P16" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q16" s="3" t="n">
+        <v>0.0008966922760009766</v>
+      </c>
+      <c r="R16" s="2" t="n"/>
+      <c r="S16" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="U16" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="5" t="n"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>2025020761</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="2" t="n"/>
+      <c r="G17" s="2" t="n"/>
+      <c r="H17" s="2" t="n"/>
+      <c r="I17" s="5" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="J17" s="5" t="inlineStr">
+        <is>
+          <t>WSH</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3" t="n"/>
+      <c r="M17" s="3" t="n"/>
+      <c r="N17" s="3" t="n"/>
+      <c r="O17" s="5" t="n"/>
+      <c r="P17" s="5" t="n"/>
+      <c r="Q17" s="3" t="n"/>
+      <c r="R17" s="2" t="n"/>
+      <c r="S17" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="n"/>
+      <c r="U17" s="5" t="n"/>
+      <c r="V17" s="2" t="n"/>
+      <c r="W17" s="5" t="n"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>2025020762</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>hellebuyck</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>-130</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>8476945</v>
+      </c>
+      <c r="I18" s="5" t="inlineStr">
+        <is>
+          <t>WPG</t>
+        </is>
+      </c>
+      <c r="J18" s="5" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3" t="n">
+        <v>22.60000038146973</v>
+      </c>
+      <c r="M18" s="3" t="n">
+        <v>0.5289821028709412</v>
+      </c>
+      <c r="N18" s="3" t="n">
+        <v>5.796420574188232</v>
+      </c>
+      <c r="O18" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P18" s="5" t="inlineStr">
+        <is>
+          <t>OVER</t>
+        </is>
+      </c>
+      <c r="Q18" s="3" t="n">
+        <v>0.02898210287094116</v>
+      </c>
+      <c r="R18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" s="5" t="inlineStr">
+        <is>
+          <t>OVER</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="U18" s="5" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" s="5" t="n"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>2025020762</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>hildeby</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>-115</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>-107</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>8483710</v>
+      </c>
+      <c r="I19" s="5" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="J19" s="5" t="inlineStr">
+        <is>
+          <t>WPG</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3" t="n">
+        <v>25.29999923706055</v>
+      </c>
+      <c r="M19" s="3" t="n">
+        <v>0.4635265171527863</v>
+      </c>
+      <c r="N19" s="3" t="n">
+        <v>7.294696807861328</v>
+      </c>
+      <c r="O19" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P19" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q19" s="3" t="n">
+        <v>0.019565284252167</v>
+      </c>
+      <c r="R19" s="2" t="n"/>
+      <c r="S19" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="U19" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="5" t="n"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>2025020763</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>soderblom</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>-124</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>-106</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>8482821</v>
+      </c>
+      <c r="I20" s="5" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="J20" s="5" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="M20" s="3" t="n">
+        <v>0.5075373649597168</v>
+      </c>
+      <c r="N20" s="3" t="n">
+        <v>1.507472991943359</v>
+      </c>
+      <c r="O20" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P20" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q20" s="3" t="n">
+        <v>-0.02210044860839844</v>
+      </c>
+      <c r="R20" s="2" t="n"/>
+      <c r="S20" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="U20" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="5" t="n"/>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>2025020763</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>korpisalo</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>-125</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>-104</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>8476914</v>
+      </c>
+      <c r="I21" s="5" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="J21" s="5" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <v>22.60000038146973</v>
+      </c>
+      <c r="M21" s="3" t="n">
+        <v>0.5244103670120239</v>
+      </c>
+      <c r="N21" s="3" t="n">
+        <v>4.882073402404785</v>
+      </c>
+      <c r="O21" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P21" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q21" s="3" t="n">
+        <v>-0.03114521503448486</v>
+      </c>
+      <c r="R21" s="2" t="n"/>
+      <c r="S21" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="U21" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="5" t="n"/>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>2025020764</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>lankinen</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>-106</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>-124</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>8480947</v>
+      </c>
+      <c r="I22" s="5" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="J22" s="5" t="inlineStr">
+        <is>
+          <t>EDM</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <v>25.39999961853027</v>
+      </c>
+      <c r="M22" s="3" t="n">
+        <v>0.4826528131961823</v>
+      </c>
+      <c r="N22" s="3" t="n">
+        <v>3.46943736076355</v>
+      </c>
+      <c r="O22" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P22" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q22" s="3" t="n">
+        <v>-0.03191027045249939</v>
+      </c>
+      <c r="R22" s="2" t="n"/>
+      <c r="S22" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" s="5" t="n"/>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>2025020764</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>jarry</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>-107</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>-122</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>8477465</v>
+      </c>
+      <c r="I23" s="5" t="inlineStr">
+        <is>
+          <t>EDM</t>
+        </is>
+      </c>
+      <c r="J23" s="5" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M23" s="3" t="n">
+        <v>0.5193759202957153</v>
+      </c>
+      <c r="N23" s="3" t="n">
+        <v>3.875184059143066</v>
+      </c>
+      <c r="O23" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P23" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q23" s="3" t="n">
+        <v>0.002467691898345947</v>
+      </c>
+      <c r="R23" s="2" t="n"/>
+      <c r="S23" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="U23" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" s="5" t="n"/>
+    </row>
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>2025020765</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>schmid</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>-124</v>
+      </c>
+      <c r="G24" s="2" t="n"/>
+      <c r="H24" s="2" t="n">
+        <v>8481033</v>
+      </c>
+      <c r="I24" s="5" t="inlineStr">
+        <is>
+          <t>VGK</t>
+        </is>
+      </c>
+      <c r="J24" s="5" t="inlineStr">
+        <is>
+          <t>NSH</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3" t="n">
+        <v>21.70000076293945</v>
+      </c>
+      <c r="M24" s="3" t="n">
+        <v>0.5330469012260437</v>
+      </c>
+      <c r="N24" s="3" t="n">
+        <v>6.60938024520874</v>
+      </c>
+      <c r="O24" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P24" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q24" s="3" t="n">
+        <v>-0.02052450180053711</v>
+      </c>
+      <c r="R24" s="2" t="n"/>
+      <c r="S24" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="U24" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" s="5" t="n"/>
+    </row>
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>2025020765</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="n"/>
+      <c r="E25" s="3" t="n"/>
+      <c r="F25" s="2" t="n"/>
+      <c r="G25" s="2" t="n"/>
+      <c r="H25" s="2" t="n"/>
+      <c r="I25" s="5" t="inlineStr">
+        <is>
+          <t>NSH</t>
+        </is>
+      </c>
+      <c r="J25" s="5" t="inlineStr">
+        <is>
+          <t>VGK</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3" t="n"/>
+      <c r="M25" s="3" t="n"/>
+      <c r="N25" s="3" t="n"/>
+      <c r="O25" s="5" t="n"/>
+      <c r="P25" s="5" t="n"/>
+      <c r="Q25" s="3" t="n"/>
+      <c r="R25" s="2" t="n"/>
+      <c r="S25" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="n"/>
+      <c r="U25" s="5" t="n"/>
+      <c r="V25" s="2" t="n"/>
+      <c r="W25" s="5" t="n"/>
+    </row>
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>2025020766</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="n"/>
+      <c r="E26" s="3" t="n"/>
+      <c r="F26" s="2" t="n"/>
+      <c r="G26" s="2" t="n"/>
+      <c r="H26" s="2" t="n"/>
+      <c r="I26" s="5" t="inlineStr">
+        <is>
+          <t>ANA</t>
+        </is>
+      </c>
+      <c r="J26" s="5" t="inlineStr">
+        <is>
+          <t>LAK</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="3" t="n"/>
+      <c r="M26" s="3" t="n"/>
+      <c r="N26" s="3" t="n"/>
+      <c r="O26" s="5" t="n"/>
+      <c r="P26" s="5" t="n"/>
+      <c r="Q26" s="3" t="n"/>
+      <c r="R26" s="2" t="n"/>
+      <c r="S26" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="n"/>
+      <c r="U26" s="5" t="n"/>
+      <c r="V26" s="2" t="n"/>
+      <c r="W26" s="5" t="n"/>
+    </row>
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>2025020766</v>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="n"/>
+      <c r="E27" s="3" t="n"/>
+      <c r="F27" s="2" t="n"/>
+      <c r="G27" s="2" t="n"/>
+      <c r="H27" s="2" t="n"/>
+      <c r="I27" s="5" t="inlineStr">
+        <is>
+          <t>LAK</t>
+        </is>
+      </c>
+      <c r="J27" s="5" t="inlineStr">
+        <is>
+          <t>ANA</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3" t="n"/>
+      <c r="M27" s="3" t="n"/>
+      <c r="N27" s="3" t="n"/>
+      <c r="O27" s="5" t="n"/>
+      <c r="P27" s="5" t="n"/>
+      <c r="Q27" s="3" t="n"/>
+      <c r="R27" s="2" t="n"/>
+      <c r="S27" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="n"/>
+      <c r="U27" s="5" t="n"/>
+      <c r="V27" s="2" t="n"/>
+      <c r="W27" s="5" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1887,7 +3942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -3462,7 +5517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -4233,7 +6288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -6171,6 +8226,296 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:W3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="27" t="inlineStr">
+        <is>
+          <t>game_date</t>
+        </is>
+      </c>
+      <c r="B1" s="27" t="inlineStr">
+        <is>
+          <t>game_id</t>
+        </is>
+      </c>
+      <c r="C1" s="27" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="D1" s="27" t="inlineStr">
+        <is>
+          <t>goalie_name</t>
+        </is>
+      </c>
+      <c r="E1" s="27" t="inlineStr">
+        <is>
+          <t>betting_line</t>
+        </is>
+      </c>
+      <c r="F1" s="27" t="inlineStr">
+        <is>
+          <t>line_over</t>
+        </is>
+      </c>
+      <c r="G1" s="27" t="inlineStr">
+        <is>
+          <t>line_under</t>
+        </is>
+      </c>
+      <c r="H1" s="27" t="inlineStr">
+        <is>
+          <t>goalie_id</t>
+        </is>
+      </c>
+      <c r="I1" s="27" t="inlineStr">
+        <is>
+          <t>team_abbrev</t>
+        </is>
+      </c>
+      <c r="J1" s="27" t="inlineStr">
+        <is>
+          <t>opponent_team</t>
+        </is>
+      </c>
+      <c r="K1" s="27" t="inlineStr">
+        <is>
+          <t>is_home</t>
+        </is>
+      </c>
+      <c r="L1" s="27" t="inlineStr">
+        <is>
+          <t>predicted_saves</t>
+        </is>
+      </c>
+      <c r="M1" s="27" t="inlineStr">
+        <is>
+          <t>prob_over</t>
+        </is>
+      </c>
+      <c r="N1" s="27" t="inlineStr">
+        <is>
+          <t>confidence_pct</t>
+        </is>
+      </c>
+      <c r="O1" s="27" t="inlineStr">
+        <is>
+          <t>confidence_bucket</t>
+        </is>
+      </c>
+      <c r="P1" s="27" t="inlineStr">
+        <is>
+          <t>recommendation</t>
+        </is>
+      </c>
+      <c r="Q1" s="27" t="inlineStr">
+        <is>
+          <t>ev</t>
+        </is>
+      </c>
+      <c r="R1" s="27" t="inlineStr">
+        <is>
+          <t>bet_amount</t>
+        </is>
+      </c>
+      <c r="S1" s="27" t="inlineStr">
+        <is>
+          <t>bet_selection</t>
+        </is>
+      </c>
+      <c r="T1" s="27" t="inlineStr">
+        <is>
+          <t>actual_saves</t>
+        </is>
+      </c>
+      <c r="U1" s="27" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="V1" s="27" t="inlineStr">
+        <is>
+          <t>profit_loss</t>
+        </is>
+      </c>
+      <c r="W1" s="27" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2025020813</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Bussi</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-103</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8483548</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>OTT</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.5308861136436462</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.177222728729248</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>OVER</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.02349692583084106</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2025020813</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Bussi</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8483548</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>OTT</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.5308861136436462</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6.177222728729248</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.01456844806671143</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:W55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6305,12 +8650,6 @@
       <c r="B2" t="n">
         <v>2025020802</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>TOR</t>
@@ -6324,22 +8663,11 @@
       <c r="K2" t="n">
         <v>1</v>
       </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6350,12 +8678,6 @@
       <c r="B3" t="n">
         <v>2025020802</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
           <t>VGK</t>
@@ -6369,22 +8691,11 @@
       <c r="K3" t="n">
         <v>0</v>
       </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6395,12 +8706,6 @@
       <c r="B4" t="n">
         <v>2025020803</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>CHI</t>
@@ -6414,22 +8719,11 @@
       <c r="K4" t="n">
         <v>1</v>
       </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6440,12 +8734,6 @@
       <c r="B5" t="n">
         <v>2025020803</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>TBL</t>
@@ -6459,22 +8747,11 @@
       <c r="K5" t="n">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6550,10 +8827,17 @@
           <t>OVER</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="T6" t="n">
+        <v>20</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6564,12 +8848,6 @@
       <c r="B7" t="n">
         <v>2025020804</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>STL</t>
@@ -6583,22 +8861,11 @@
       <c r="K7" t="n">
         <v>0</v>
       </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6609,12 +8876,6 @@
       <c r="B8" t="n">
         <v>2025020805</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
           <t>COL</t>
@@ -6628,22 +8889,11 @@
       <c r="K8" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6654,12 +8904,6 @@
       <c r="B9" t="n">
         <v>2025020805</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
           <t>PHI</t>
@@ -6673,22 +8917,11 @@
       <c r="K9" t="n">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6699,12 +8932,6 @@
       <c r="B10" t="n">
         <v>2025020806</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
           <t>CGY</t>
@@ -6718,22 +8945,11 @@
       <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6744,12 +8960,6 @@
       <c r="B11" t="n">
         <v>2025020806</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
           <t>WSH</t>
@@ -6763,22 +8973,11 @@
       <c r="K11" t="n">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6789,12 +8988,6 @@
       <c r="B12" t="n">
         <v>2025020807</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
           <t>VAN</t>
@@ -6808,22 +9001,11 @@
       <c r="K12" t="n">
         <v>1</v>
       </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6834,12 +9016,6 @@
       <c r="B13" t="n">
         <v>2025020807</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
           <t>NJD</t>
@@ -6853,22 +9029,11 @@
       <c r="K13" t="n">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6879,12 +9044,6 @@
       <c r="B14" t="n">
         <v>2025020808</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
           <t>SJS</t>
@@ -6898,22 +9057,11 @@
       <c r="K14" t="n">
         <v>1</v>
       </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6924,12 +9072,6 @@
       <c r="B15" t="n">
         <v>2025020808</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
           <t>NYR</t>
@@ -6943,22 +9085,11 @@
       <c r="K15" t="n">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6969,12 +9100,6 @@
       <c r="B16" t="n">
         <v>2025020809</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
           <t>SEA</t>
@@ -6988,22 +9113,11 @@
       <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7014,12 +9128,6 @@
       <c r="B17" t="n">
         <v>2025020809</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
           <t>ANA</t>
@@ -7033,22 +9141,11 @@
       <c r="K17" t="n">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7116,16 +9213,22 @@
       <c r="Q18" t="n">
         <v>0.00156933069229126</v>
       </c>
-      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
+      <c r="T18" t="n">
+        <v>25</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="V18" t="n">
+        <v>1.02</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7193,16 +9296,22 @@
       <c r="Q19" t="n">
         <v>-0.03408128023147583</v>
       </c>
-      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
+      <c r="T19" t="n">
+        <v>25</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7270,16 +9379,22 @@
       <c r="Q20" t="n">
         <v>-0.008897185325622559</v>
       </c>
-      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7347,16 +9462,22 @@
       <c r="Q21" t="n">
         <v>-0.005688130855560303</v>
       </c>
-      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
+      <c r="T21" t="n">
+        <v>13</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7424,16 +9545,22 @@
       <c r="Q22" t="n">
         <v>-0.03978866338729858</v>
       </c>
-      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7501,16 +9628,22 @@
       <c r="Q23" t="n">
         <v>-0.001593172550201416</v>
       </c>
-      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
+      <c r="T23" t="n">
+        <v>13</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7578,16 +9711,22 @@
       <c r="Q24" t="n">
         <v>-0.01124662160873413</v>
       </c>
-      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
+      <c r="T24" t="n">
+        <v>32</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7655,16 +9794,22 @@
       <c r="Q25" t="n">
         <v>0.004263520240783691</v>
       </c>
-      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
+      <c r="T25" t="n">
+        <v>35</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="V25" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7732,16 +9877,22 @@
       <c r="Q26" t="n">
         <v>-0.003439664840698242</v>
       </c>
-      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
+      <c r="T26" t="n">
+        <v>27</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7809,16 +9960,22 @@
       <c r="Q27" t="n">
         <v>-0.04394370317459106</v>
       </c>
-      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
+      <c r="T27" t="n">
+        <v>27</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7894,10 +10051,17 @@
           <t>UNDER</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
+      <c r="T28" t="n">
+        <v>25</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="V28" t="n">
+        <v>1.02</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7965,16 +10129,22 @@
       <c r="Q29" t="n">
         <v>-0.003117978572845459</v>
       </c>
-      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
+      <c r="T29" t="n">
+        <v>16</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8042,16 +10212,22 @@
       <c r="Q30" t="n">
         <v>-0.009710013866424561</v>
       </c>
-      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
+      <c r="T30" t="n">
+        <v>13</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8119,16 +10295,22 @@
       <c r="Q31" t="n">
         <v>-0.02412775158882141</v>
       </c>
-      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
+      <c r="T31" t="n">
+        <v>28</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8196,16 +10378,22 @@
       <c r="Q32" t="n">
         <v>-0.01965993642807007</v>
       </c>
-      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
+      <c r="T32" t="n">
+        <v>35</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8273,16 +10461,22 @@
       <c r="Q33" t="n">
         <v>-0.01124662160873413</v>
       </c>
-      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
+      <c r="T33" t="n">
+        <v>32</v>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8350,16 +10544,22 @@
       <c r="Q34" t="n">
         <v>-0.01883924007415771</v>
       </c>
-      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
+      <c r="T34" t="n">
+        <v>28</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8427,16 +10627,22 @@
       <c r="Q35" t="n">
         <v>-0.04118335247039795</v>
       </c>
-      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
+      <c r="T35" t="n">
+        <v>16</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8504,16 +10710,22 @@
       <c r="Q36" t="n">
         <v>-0.00635644793510437</v>
       </c>
-      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
+      <c r="T36" t="n">
+        <v>21</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8581,16 +10793,22 @@
       <c r="Q37" t="n">
         <v>-0.04404860734939575</v>
       </c>
-      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
+      <c r="T37" t="n">
+        <v>21</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8658,16 +10876,22 @@
       <c r="Q38" t="n">
         <v>0.00183260440826416</v>
       </c>
-      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
+      <c r="T38" t="n">
+        <v>28</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8735,16 +10959,22 @@
       <c r="Q39" t="n">
         <v>-0.0156099796295166</v>
       </c>
-      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
+      <c r="T39" t="n">
+        <v>13</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8812,16 +11042,22 @@
       <c r="Q40" t="n">
         <v>-0.02634060382843018</v>
       </c>
-      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
+      <c r="T40" t="n">
+        <v>20</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8889,16 +11125,22 @@
       <c r="Q41" t="n">
         <v>-0.01091170310974121</v>
       </c>
-      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
+      <c r="T41" t="n">
+        <v>28</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8966,16 +11208,22 @@
       <c r="Q42" t="n">
         <v>-0.03367704153060913</v>
       </c>
-      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
+      <c r="T42" t="n">
+        <v>20</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9043,16 +11291,22 @@
       <c r="Q43" t="n">
         <v>-0.01672804355621338</v>
       </c>
-      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
+      <c r="T43" t="n">
+        <v>20</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9120,16 +11374,22 @@
       <c r="Q44" t="n">
         <v>-0.01956945657730103</v>
       </c>
-      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
+      <c r="T44" t="n">
+        <v>35</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9197,16 +11457,22 @@
       <c r="Q45" t="n">
         <v>-0.02425515651702881</v>
       </c>
-      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
+      <c r="T45" t="n">
+        <v>18</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9282,10 +11548,17 @@
           <t>OVER</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
+      <c r="T46" t="n">
+        <v>20</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="V46" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9361,10 +11634,17 @@
           <t>UNDER</t>
         </is>
       </c>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
+      <c r="T47" t="n">
+        <v>35</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="V47" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9432,16 +11712,22 @@
       <c r="Q48" t="n">
         <v>-0.03413885831832886</v>
       </c>
-      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
+      <c r="T48" t="n">
+        <v>25</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9509,16 +11795,22 @@
       <c r="Q49" t="n">
         <v>-0.01613831520080566</v>
       </c>
-      <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
+      <c r="T49" t="n">
+        <v>18</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9586,16 +11878,22 @@
       <c r="Q50" t="n">
         <v>0.02608859539031982</v>
       </c>
-      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
+      <c r="T50" t="n">
+        <v>20</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9663,16 +11961,22 @@
       <c r="Q51" t="n">
         <v>-0.02229869365692139</v>
       </c>
-      <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
+      <c r="T51" t="n">
+        <v>27</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9740,16 +12044,22 @@
       <c r="Q52" t="n">
         <v>-0.01334837079048157</v>
       </c>
-      <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
+      <c r="T52" t="n">
+        <v>25</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9817,16 +12127,22 @@
       <c r="Q53" t="n">
         <v>-0.02422469854354858</v>
       </c>
-      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
+      <c r="T53" t="n">
+        <v>21</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9894,16 +12210,22 @@
       <c r="Q54" t="n">
         <v>0.009249091148376465</v>
       </c>
-      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
+      <c r="T54" t="n">
+        <v>19</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9971,23 +12293,29 @@
       <c r="Q55" t="n">
         <v>-0.02618038654327393</v>
       </c>
-      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
+      <c r="T55" t="n">
+        <v>21</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -12706,7 +15034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -14203,7 +16531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -15747,7 +18075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -17360,7 +19688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -17813,2045 +20141,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:W27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="8" max="8"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="11" max="11"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="12" max="12"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="13" max="13"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="14" max="14"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="18" max="18"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="20" max="20"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="21" max="21"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="22" max="22"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="23" max="23"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>game_date</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>game_id</t>
-        </is>
-      </c>
-      <c r="C1" s="5" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="D1" s="5" t="inlineStr">
-        <is>
-          <t>goalie_name</t>
-        </is>
-      </c>
-      <c r="E1" s="8" t="inlineStr">
-        <is>
-          <t>betting_line</t>
-        </is>
-      </c>
-      <c r="F1" s="4" t="inlineStr">
-        <is>
-          <t>line_over</t>
-        </is>
-      </c>
-      <c r="G1" s="4" t="inlineStr">
-        <is>
-          <t>line_under</t>
-        </is>
-      </c>
-      <c r="H1" s="4" t="inlineStr">
-        <is>
-          <t>goalie_id</t>
-        </is>
-      </c>
-      <c r="I1" s="5" t="inlineStr">
-        <is>
-          <t>team_abbrev</t>
-        </is>
-      </c>
-      <c r="J1" s="5" t="inlineStr">
-        <is>
-          <t>opponent_team</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>is_home</t>
-        </is>
-      </c>
-      <c r="L1" s="8" t="inlineStr">
-        <is>
-          <t>predicted_saves</t>
-        </is>
-      </c>
-      <c r="M1" s="8" t="inlineStr">
-        <is>
-          <t>prob_over</t>
-        </is>
-      </c>
-      <c r="N1" s="8" t="inlineStr">
-        <is>
-          <t>confidence_pct</t>
-        </is>
-      </c>
-      <c r="O1" s="5" t="inlineStr">
-        <is>
-          <t>confidence_bucket</t>
-        </is>
-      </c>
-      <c r="P1" s="5" t="inlineStr">
-        <is>
-          <t>recommendation</t>
-        </is>
-      </c>
-      <c r="Q1" s="8" t="inlineStr">
-        <is>
-          <t>ev</t>
-        </is>
-      </c>
-      <c r="R1" s="4" t="inlineStr">
-        <is>
-          <t>bet_amount</t>
-        </is>
-      </c>
-      <c r="S1" s="5" t="inlineStr">
-        <is>
-          <t>bet_selection</t>
-        </is>
-      </c>
-      <c r="T1" s="4" t="inlineStr">
-        <is>
-          <t>actual_saves</t>
-        </is>
-      </c>
-      <c r="U1" s="5" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="V1" s="4" t="inlineStr">
-        <is>
-          <t>profit_loss</t>
-        </is>
-      </c>
-      <c r="W1" s="5" t="inlineStr">
-        <is>
-          <t>notes</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>2025020754</v>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="n"/>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="5" t="inlineStr">
-        <is>
-          <t>BUF</t>
-        </is>
-      </c>
-      <c r="J2" s="5" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3" t="n"/>
-      <c r="M2" s="3" t="n"/>
-      <c r="N2" s="3" t="n"/>
-      <c r="O2" s="5" t="n"/>
-      <c r="P2" s="5" t="n"/>
-      <c r="Q2" s="3" t="n"/>
-      <c r="R2" s="2" t="n"/>
-      <c r="S2" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T2" s="2" t="n"/>
-      <c r="U2" s="5" t="n"/>
-      <c r="V2" s="2" t="n"/>
-      <c r="W2" s="5" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>2025020754</v>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="n"/>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>BUF</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3" t="n"/>
-      <c r="M3" s="3" t="n"/>
-      <c r="N3" s="3" t="n"/>
-      <c r="O3" s="5" t="n"/>
-      <c r="P3" s="5" t="n"/>
-      <c r="Q3" s="3" t="n"/>
-      <c r="R3" s="2" t="n"/>
-      <c r="S3" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T3" s="2" t="n"/>
-      <c r="U3" s="5" t="n"/>
-      <c r="V3" s="2" t="n"/>
-      <c r="W3" s="5" t="n"/>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>2025020755</v>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="n"/>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="5" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="J4" s="5" t="inlineStr">
-        <is>
-          <t>NYR</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3" t="n"/>
-      <c r="M4" s="3" t="n"/>
-      <c r="N4" s="3" t="n"/>
-      <c r="O4" s="5" t="n"/>
-      <c r="P4" s="5" t="n"/>
-      <c r="Q4" s="3" t="n"/>
-      <c r="R4" s="2" t="n"/>
-      <c r="S4" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="n"/>
-      <c r="U4" s="5" t="n"/>
-      <c r="V4" s="2" t="n"/>
-      <c r="W4" s="5" t="n"/>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>2025020755</v>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>rittich</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>-124</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>-105</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>8479496</v>
-      </c>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
-          <t>NYR</t>
-        </is>
-      </c>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3" t="n">
-        <v>25.39999961853027</v>
-      </c>
-      <c r="M5" s="3" t="n">
-        <v>0.4853150248527527</v>
-      </c>
-      <c r="N5" s="3" t="n">
-        <v>2.936995029449463</v>
-      </c>
-      <c r="O5" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P5" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q5" s="3" t="n">
-        <v>0.002489864826202</v>
-      </c>
-      <c r="R5" s="2" t="n"/>
-      <c r="S5" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="n"/>
-      <c r="U5" s="5" t="n"/>
-      <c r="V5" s="2" t="n"/>
-      <c r="W5" s="5" t="n"/>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>2025020756</v>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>wolf</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>-103</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>-127</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>8481692</v>
-      </c>
-      <c r="I6" s="5" t="inlineStr">
-        <is>
-          <t>CGY</t>
-        </is>
-      </c>
-      <c r="J6" s="5" t="inlineStr">
-        <is>
-          <t>NYI</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="M6" s="3" t="n">
-        <v>0.4925245940685272</v>
-      </c>
-      <c r="N6" s="3" t="n">
-        <v>1.495081186294556</v>
-      </c>
-      <c r="O6" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P6" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q6" s="3" t="n">
-        <v>-0.01486459374427795</v>
-      </c>
-      <c r="R6" s="2" t="n"/>
-      <c r="S6" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T6" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="U6" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="5" t="n"/>
-    </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>2025020756</v>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="3" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>NYI</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
-          <t>CGY</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3" t="n"/>
-      <c r="M7" s="3" t="n"/>
-      <c r="N7" s="3" t="n"/>
-      <c r="O7" s="5" t="n"/>
-      <c r="P7" s="5" t="n"/>
-      <c r="Q7" s="3" t="n"/>
-      <c r="R7" s="2" t="n"/>
-      <c r="S7" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T7" s="2" t="n"/>
-      <c r="U7" s="5" t="n"/>
-      <c r="V7" s="2" t="n"/>
-      <c r="W7" s="5" t="n"/>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>2025020757</v>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>vejmelka</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>-122</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>8478872</v>
-      </c>
-      <c r="I8" s="5" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="J8" s="5" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3" t="n">
-        <v>21.60000038146973</v>
-      </c>
-      <c r="M8" s="3" t="n">
-        <v>0.5218251943588257</v>
-      </c>
-      <c r="N8" s="3" t="n">
-        <v>4.365038871765137</v>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q8" s="3" t="n">
-        <v>-0.02182519435882568</v>
-      </c>
-      <c r="R8" s="2" t="n"/>
-      <c r="S8" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T8" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="U8" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" s="5" t="n"/>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>2025020757</v>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="3" t="n"/>
-      <c r="F9" s="2" t="n"/>
-      <c r="G9" s="2" t="n"/>
-      <c r="H9" s="2" t="n"/>
-      <c r="I9" s="5" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J9" s="5" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="n"/>
-      <c r="M9" s="3" t="n"/>
-      <c r="N9" s="3" t="n"/>
-      <c r="O9" s="5" t="n"/>
-      <c r="P9" s="5" t="n"/>
-      <c r="Q9" s="3" t="n"/>
-      <c r="R9" s="2" t="n"/>
-      <c r="S9" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T9" s="2" t="n"/>
-      <c r="U9" s="5" t="n"/>
-      <c r="V9" s="2" t="n"/>
-      <c r="W9" s="5" t="n"/>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>2025020758</v>
-      </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>Meriläinen</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>-117</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>-106</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>8482447</v>
-      </c>
-      <c r="I10" s="5" t="inlineStr">
-        <is>
-          <t>OTT</t>
-        </is>
-      </c>
-      <c r="J10" s="5" t="inlineStr">
-        <is>
-          <t>MTL</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3" t="n">
-        <v>20.70000076293945</v>
-      </c>
-      <c r="M10" s="3" t="n">
-        <v>0.5429470539093018</v>
-      </c>
-      <c r="N10" s="3" t="n">
-        <v>8.589410781860352</v>
-      </c>
-      <c r="O10" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P10" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q10" s="3" t="n">
-        <v>0.00377655029296875</v>
-      </c>
-      <c r="R10" s="2" t="n"/>
-      <c r="S10" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="U10" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="5" t="n"/>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>2025020758</v>
-      </c>
-      <c r="C11" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>montembeault</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>-124</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>-106</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>8478470</v>
-      </c>
-      <c r="I11" s="5" t="inlineStr">
-        <is>
-          <t>MTL</t>
-        </is>
-      </c>
-      <c r="J11" s="5" t="inlineStr">
-        <is>
-          <t>OTT</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3" t="n">
-        <v>24.39999961853027</v>
-      </c>
-      <c r="M11" s="3" t="n">
-        <v>0.4824399650096893</v>
-      </c>
-      <c r="N11" s="3" t="n">
-        <v>3.512006998062134</v>
-      </c>
-      <c r="O11" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P11" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q11" s="3" t="n">
-        <v>0.002996921539307</v>
-      </c>
-      <c r="R11" s="2" t="n"/>
-      <c r="S11" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="U11" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" s="5" t="n"/>
-    </row>
-    <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>2025020759</v>
-      </c>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>markstrom</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>-130</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>8474593</v>
-      </c>
-      <c r="I12" s="5" t="inlineStr">
-        <is>
-          <t>NJD</t>
-        </is>
-      </c>
-      <c r="J12" s="5" t="inlineStr">
-        <is>
-          <t>CAR</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="3" t="n">
-        <v>25.29999923706055</v>
-      </c>
-      <c r="M12" s="3" t="n">
-        <v>0.4688402414321899</v>
-      </c>
-      <c r="N12" s="3" t="n">
-        <v>6.231951713562012</v>
-      </c>
-      <c r="O12" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P12" s="5" t="inlineStr">
-        <is>
-          <t>UNDER</t>
-        </is>
-      </c>
-      <c r="Q12" s="3" t="n">
-        <v>0.03115975856781006</v>
-      </c>
-      <c r="R12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" s="5" t="inlineStr">
-        <is>
-          <t>UNDER</t>
-        </is>
-      </c>
-      <c r="T12" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="U12" s="5" t="inlineStr">
-        <is>
-          <t>LOSS</t>
-        </is>
-      </c>
-      <c r="V12" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W12" s="5" t="n"/>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>2025020759</v>
-      </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>andersen</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>-115</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>-107</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>8475883</v>
-      </c>
-      <c r="I13" s="5" t="inlineStr">
-        <is>
-          <t>CAR</t>
-        </is>
-      </c>
-      <c r="J13" s="5" t="inlineStr">
-        <is>
-          <t>NJD</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3" t="n">
-        <v>22.60000038146973</v>
-      </c>
-      <c r="M13" s="3" t="n">
-        <v>0.5256665349006653</v>
-      </c>
-      <c r="N13" s="3" t="n">
-        <v>5.133306980133057</v>
-      </c>
-      <c r="O13" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P13" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q13" s="3" t="n">
-        <v>-0.009217202663421631</v>
-      </c>
-      <c r="R13" s="2" t="n"/>
-      <c r="S13" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T13" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="U13" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" s="5" t="n"/>
-    </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>2025020760</v>
-      </c>
-      <c r="C14" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>silovs</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>-107</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>-122</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>8481668</v>
-      </c>
-      <c r="I14" s="5" t="inlineStr">
-        <is>
-          <t>PIT</t>
-        </is>
-      </c>
-      <c r="J14" s="5" t="inlineStr">
-        <is>
-          <t>CBJ</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="3" t="n">
-        <v>24.39999961853027</v>
-      </c>
-      <c r="M14" s="3" t="n">
-        <v>0.4898678064346313</v>
-      </c>
-      <c r="N14" s="3" t="n">
-        <v>2.02643871307373</v>
-      </c>
-      <c r="O14" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P14" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q14" s="3" t="n">
-        <v>-0.02704042196273804</v>
-      </c>
-      <c r="R14" s="2" t="n"/>
-      <c r="S14" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T14" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="U14" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" s="5" t="n"/>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>2025020760</v>
-      </c>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>merzlikins</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>-104</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>-125</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>8478007</v>
-      </c>
-      <c r="I15" s="5" t="inlineStr">
-        <is>
-          <t>CBJ</t>
-        </is>
-      </c>
-      <c r="J15" s="5" t="inlineStr">
-        <is>
-          <t>PIT</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3" t="n">
-        <v>26.29999923706055</v>
-      </c>
-      <c r="M15" s="3" t="n">
-        <v>0.4607813954353333</v>
-      </c>
-      <c r="N15" s="3" t="n">
-        <v>7.84372091293335</v>
-      </c>
-      <c r="O15" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P15" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q15" s="3" t="n">
-        <v>-0.01633697748184204</v>
-      </c>
-      <c r="R15" s="2" t="n"/>
-      <c r="S15" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T15" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="U15" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" s="5" t="n"/>
-    </row>
-    <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>2025020761</v>
-      </c>
-      <c r="C16" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>thompson</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>-124</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>-106</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>8480313</v>
-      </c>
-      <c r="I16" s="5" t="inlineStr">
-        <is>
-          <t>WSH</t>
-        </is>
-      </c>
-      <c r="J16" s="5" t="inlineStr">
-        <is>
-          <t>FLA</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="3" t="n">
-        <v>24.39999961853027</v>
-      </c>
-      <c r="M16" s="3" t="n">
-        <v>0.484540194272995</v>
-      </c>
-      <c r="N16" s="3" t="n">
-        <v>3.091961145401001</v>
-      </c>
-      <c r="O16" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P16" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q16" s="3" t="n">
-        <v>0.0008966922760009766</v>
-      </c>
-      <c r="R16" s="2" t="n"/>
-      <c r="S16" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T16" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="U16" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" s="5" t="n"/>
-    </row>
-    <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>2025020761</v>
-      </c>
-      <c r="C17" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="n"/>
-      <c r="E17" s="3" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
-      <c r="I17" s="5" t="inlineStr">
-        <is>
-          <t>FLA</t>
-        </is>
-      </c>
-      <c r="J17" s="5" t="inlineStr">
-        <is>
-          <t>WSH</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="n"/>
-      <c r="M17" s="3" t="n"/>
-      <c r="N17" s="3" t="n"/>
-      <c r="O17" s="5" t="n"/>
-      <c r="P17" s="5" t="n"/>
-      <c r="Q17" s="3" t="n"/>
-      <c r="R17" s="2" t="n"/>
-      <c r="S17" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T17" s="2" t="n"/>
-      <c r="U17" s="5" t="n"/>
-      <c r="V17" s="2" t="n"/>
-      <c r="W17" s="5" t="n"/>
-    </row>
-    <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>2025020762</v>
-      </c>
-      <c r="C18" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>hellebuyck</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>-130</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>8476945</v>
-      </c>
-      <c r="I18" s="5" t="inlineStr">
-        <is>
-          <t>WPG</t>
-        </is>
-      </c>
-      <c r="J18" s="5" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" s="3" t="n">
-        <v>22.60000038146973</v>
-      </c>
-      <c r="M18" s="3" t="n">
-        <v>0.5289821028709412</v>
-      </c>
-      <c r="N18" s="3" t="n">
-        <v>5.796420574188232</v>
-      </c>
-      <c r="O18" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P18" s="5" t="inlineStr">
-        <is>
-          <t>OVER</t>
-        </is>
-      </c>
-      <c r="Q18" s="3" t="n">
-        <v>0.02898210287094116</v>
-      </c>
-      <c r="R18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S18" s="5" t="inlineStr">
-        <is>
-          <t>OVER</t>
-        </is>
-      </c>
-      <c r="T18" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="U18" s="5" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="V18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W18" s="5" t="n"/>
-    </row>
-    <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>2025020762</v>
-      </c>
-      <c r="C19" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>hildeby</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>-115</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>-107</v>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>8483710</v>
-      </c>
-      <c r="I19" s="5" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="J19" s="5" t="inlineStr">
-        <is>
-          <t>WPG</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3" t="n">
-        <v>25.29999923706055</v>
-      </c>
-      <c r="M19" s="3" t="n">
-        <v>0.4635265171527863</v>
-      </c>
-      <c r="N19" s="3" t="n">
-        <v>7.294696807861328</v>
-      </c>
-      <c r="O19" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P19" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q19" s="3" t="n">
-        <v>0.019565284252167</v>
-      </c>
-      <c r="R19" s="2" t="n"/>
-      <c r="S19" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T19" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="U19" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" s="5" t="n"/>
-    </row>
-    <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>2025020763</v>
-      </c>
-      <c r="C20" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
-          <t>soderblom</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>-124</v>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>-106</v>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>8482821</v>
-      </c>
-      <c r="I20" s="5" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="J20" s="5" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="3" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="M20" s="3" t="n">
-        <v>0.5075373649597168</v>
-      </c>
-      <c r="N20" s="3" t="n">
-        <v>1.507472991943359</v>
-      </c>
-      <c r="O20" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P20" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q20" s="3" t="n">
-        <v>-0.02210044860839844</v>
-      </c>
-      <c r="R20" s="2" t="n"/>
-      <c r="S20" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="U20" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" s="5" t="n"/>
-    </row>
-    <row r="21" ht="18.75" customHeight="1">
-      <c r="A21" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>2025020763</v>
-      </c>
-      <c r="C21" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>korpisalo</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>-125</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>-104</v>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>8476914</v>
-      </c>
-      <c r="I21" s="5" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="J21" s="5" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3" t="n">
-        <v>22.60000038146973</v>
-      </c>
-      <c r="M21" s="3" t="n">
-        <v>0.5244103670120239</v>
-      </c>
-      <c r="N21" s="3" t="n">
-        <v>4.882073402404785</v>
-      </c>
-      <c r="O21" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P21" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q21" s="3" t="n">
-        <v>-0.03114521503448486</v>
-      </c>
-      <c r="R21" s="2" t="n"/>
-      <c r="S21" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T21" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="U21" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" s="5" t="n"/>
-    </row>
-    <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>2025020764</v>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D22" s="5" t="inlineStr">
-        <is>
-          <t>lankinen</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>-106</v>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>-124</v>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>8480947</v>
-      </c>
-      <c r="I22" s="5" t="inlineStr">
-        <is>
-          <t>VAN</t>
-        </is>
-      </c>
-      <c r="J22" s="5" t="inlineStr">
-        <is>
-          <t>EDM</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" s="3" t="n">
-        <v>25.39999961853027</v>
-      </c>
-      <c r="M22" s="3" t="n">
-        <v>0.4826528131961823</v>
-      </c>
-      <c r="N22" s="3" t="n">
-        <v>3.46943736076355</v>
-      </c>
-      <c r="O22" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P22" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q22" s="3" t="n">
-        <v>-0.03191027045249939</v>
-      </c>
-      <c r="R22" s="2" t="n"/>
-      <c r="S22" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" s="5" t="n"/>
-    </row>
-    <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>2025020764</v>
-      </c>
-      <c r="C23" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D23" s="5" t="inlineStr">
-        <is>
-          <t>jarry</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>-107</v>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>-122</v>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>8477465</v>
-      </c>
-      <c r="I23" s="5" t="inlineStr">
-        <is>
-          <t>EDM</t>
-        </is>
-      </c>
-      <c r="J23" s="5" t="inlineStr">
-        <is>
-          <t>VAN</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3" t="n">
-        <v>23.60000038146973</v>
-      </c>
-      <c r="M23" s="3" t="n">
-        <v>0.5193759202957153</v>
-      </c>
-      <c r="N23" s="3" t="n">
-        <v>3.875184059143066</v>
-      </c>
-      <c r="O23" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P23" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q23" s="3" t="n">
-        <v>0.002467691898345947</v>
-      </c>
-      <c r="R23" s="2" t="n"/>
-      <c r="S23" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T23" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="U23" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" s="5" t="n"/>
-    </row>
-    <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>2025020765</v>
-      </c>
-      <c r="C24" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D24" s="5" t="inlineStr">
-        <is>
-          <t>schmid</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>-124</v>
-      </c>
-      <c r="G24" s="2" t="n"/>
-      <c r="H24" s="2" t="n">
-        <v>8481033</v>
-      </c>
-      <c r="I24" s="5" t="inlineStr">
-        <is>
-          <t>VGK</t>
-        </is>
-      </c>
-      <c r="J24" s="5" t="inlineStr">
-        <is>
-          <t>NSH</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" s="3" t="n">
-        <v>21.70000076293945</v>
-      </c>
-      <c r="M24" s="3" t="n">
-        <v>0.5330469012260437</v>
-      </c>
-      <c r="N24" s="3" t="n">
-        <v>6.60938024520874</v>
-      </c>
-      <c r="O24" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P24" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q24" s="3" t="n">
-        <v>-0.02052450180053711</v>
-      </c>
-      <c r="R24" s="2" t="n"/>
-      <c r="S24" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T24" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="U24" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" s="5" t="n"/>
-    </row>
-    <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>2025020765</v>
-      </c>
-      <c r="C25" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D25" s="5" t="n"/>
-      <c r="E25" s="3" t="n"/>
-      <c r="F25" s="2" t="n"/>
-      <c r="G25" s="2" t="n"/>
-      <c r="H25" s="2" t="n"/>
-      <c r="I25" s="5" t="inlineStr">
-        <is>
-          <t>NSH</t>
-        </is>
-      </c>
-      <c r="J25" s="5" t="inlineStr">
-        <is>
-          <t>VGK</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3" t="n"/>
-      <c r="M25" s="3" t="n"/>
-      <c r="N25" s="3" t="n"/>
-      <c r="O25" s="5" t="n"/>
-      <c r="P25" s="5" t="n"/>
-      <c r="Q25" s="3" t="n"/>
-      <c r="R25" s="2" t="n"/>
-      <c r="S25" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T25" s="2" t="n"/>
-      <c r="U25" s="5" t="n"/>
-      <c r="V25" s="2" t="n"/>
-      <c r="W25" s="5" t="n"/>
-    </row>
-    <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>2025020766</v>
-      </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D26" s="5" t="n"/>
-      <c r="E26" s="3" t="n"/>
-      <c r="F26" s="2" t="n"/>
-      <c r="G26" s="2" t="n"/>
-      <c r="H26" s="2" t="n"/>
-      <c r="I26" s="5" t="inlineStr">
-        <is>
-          <t>ANA</t>
-        </is>
-      </c>
-      <c r="J26" s="5" t="inlineStr">
-        <is>
-          <t>LAK</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" s="3" t="n"/>
-      <c r="M26" s="3" t="n"/>
-      <c r="N26" s="3" t="n"/>
-      <c r="O26" s="5" t="n"/>
-      <c r="P26" s="5" t="n"/>
-      <c r="Q26" s="3" t="n"/>
-      <c r="R26" s="2" t="n"/>
-      <c r="S26" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T26" s="2" t="n"/>
-      <c r="U26" s="5" t="n"/>
-      <c r="V26" s="2" t="n"/>
-      <c r="W26" s="5" t="n"/>
-    </row>
-    <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>2025020766</v>
-      </c>
-      <c r="C27" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D27" s="5" t="n"/>
-      <c r="E27" s="3" t="n"/>
-      <c r="F27" s="2" t="n"/>
-      <c r="G27" s="2" t="n"/>
-      <c r="H27" s="2" t="n"/>
-      <c r="I27" s="5" t="inlineStr">
-        <is>
-          <t>LAK</t>
-        </is>
-      </c>
-      <c r="J27" s="5" t="inlineStr">
-        <is>
-          <t>ANA</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3" t="n"/>
-      <c r="M27" s="3" t="n"/>
-      <c r="N27" s="3" t="n"/>
-      <c r="O27" s="5" t="n"/>
-      <c r="P27" s="5" t="n"/>
-      <c r="Q27" s="3" t="n"/>
-      <c r="R27" s="2" t="n"/>
-      <c r="S27" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T27" s="2" t="n"/>
-      <c r="U27" s="5" t="n"/>
-      <c r="V27" s="2" t="n"/>
-      <c r="W27" s="5" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -8226,7 +8226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8504,6 +8504,237 @@
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2025020812</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Swayman</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-122</v>
+      </c>
+      <c r="G4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8480280</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.5107691884040833</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.15383768081665</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.01076918840408325</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2025020813</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Reimer</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-114</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-108</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8473503</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>OTT</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.4940072000026703</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.198559999465942</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.01323801279067993</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2025020815</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Hellebuyck</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-118</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-105</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8476945</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>WPG</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5424509048461914</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8.490180969238281</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.00116652250289917</v>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -9,25 +9,26 @@
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Summary"/>
     <sheet r:id="rId2" sheetId="2" name="Settings"/>
-    <sheet r:id="rId3" sheetId="3" name="2026-01-24"/>
-    <sheet r:id="rId4" sheetId="4" name="2026-01-23"/>
-    <sheet r:id="rId5" sheetId="5" name="2026-01-22"/>
-    <sheet r:id="rId6" sheetId="6" name="2026-01-21"/>
-    <sheet r:id="rId7" sheetId="7" name="2026-01-20"/>
-    <sheet r:id="rId8" sheetId="8" name="2026-01-19"/>
-    <sheet r:id="rId9" sheetId="9" name="2026-01-18"/>
-    <sheet r:id="rId10" sheetId="10" name="2026-01-17"/>
-    <sheet r:id="rId11" sheetId="11" name="2026-01-16"/>
-    <sheet r:id="rId12" sheetId="12" name="2026-01-15"/>
-    <sheet r:id="rId13" sheetId="13" name="2026-01-14"/>
-    <sheet r:id="rId14" sheetId="14" name="2026-01-13"/>
+    <sheet r:id="rId3" sheetId="3" name="2026-01-25"/>
+    <sheet r:id="rId4" sheetId="4" name="2026-01-24"/>
+    <sheet r:id="rId5" sheetId="5" name="2026-01-23"/>
+    <sheet r:id="rId6" sheetId="6" name="2026-01-22"/>
+    <sheet r:id="rId7" sheetId="7" name="2026-01-21"/>
+    <sheet r:id="rId8" sheetId="8" name="2026-01-20"/>
+    <sheet r:id="rId9" sheetId="9" name="2026-01-19"/>
+    <sheet r:id="rId10" sheetId="10" name="2026-01-18"/>
+    <sheet r:id="rId11" sheetId="11" name="2026-01-17"/>
+    <sheet r:id="rId12" sheetId="12" name="2026-01-16"/>
+    <sheet r:id="rId13" sheetId="13" name="2026-01-15"/>
+    <sheet r:id="rId14" sheetId="14" name="2026-01-14"/>
+    <sheet r:id="rId15" sheetId="15" name="2026-01-13"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="212">
   <si>
     <t>game_date</t>
   </si>
@@ -542,6 +543,12 @@
     <t>Ingram</t>
   </si>
   <si>
+    <t>2026-01-25</t>
+  </si>
+  <si>
+    <t>Woll</t>
+  </si>
+  <si>
     <t>BETTING TRACKER SETTINGS</t>
   </si>
   <si>
@@ -587,7 +594,7 @@
     <t>Generated:</t>
   </si>
   <si>
-    <t>2026-01-23 08:13:04</t>
+    <t>2026-01-25 11:57:27</t>
   </si>
   <si>
     <t>OVERALL PERFORMANCE</t>
@@ -608,16 +615,19 @@
     <t>Win Rate</t>
   </si>
   <si>
-    <t>50.0%</t>
+    <t>52.0%</t>
   </si>
   <si>
     <t>Total Profit/Loss</t>
   </si>
   <si>
+    <t>+2.81</t>
+  </si>
+  <si>
     <t>ROI %</t>
   </si>
   <si>
-    <t>-1.40%</t>
+    <t>+8.25%</t>
   </si>
   <si>
     <t>PERFORMANCE BY CONFIDENCE LEVEL</t>
@@ -629,10 +639,10 @@
     <t>Bets</t>
   </si>
   <si>
-    <t>43.8%</t>
-  </si>
-  <si>
-    <t>-8.61%</t>
+    <t>47.8%</t>
+  </si>
+  <si>
+    <t>+3.45%</t>
   </si>
   <si>
     <t>100.0%</t>
@@ -757,7 +767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -792,28 +802,22 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -824,6 +828,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1148,17 +1155,17 @@
     <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="23"/>
+      <c r="A1" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
@@ -1170,10 +1177,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1187,8 +1194,8 @@
       <c r="E4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
-      <c r="A5" s="24" t="s">
-        <v>187</v>
+      <c r="A5" s="23" t="s">
+        <v>189</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1204,10 +1211,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B7" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1215,10 +1222,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B8" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1226,10 +1233,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B9" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1237,7 +1244,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -1248,10 +1255,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1259,10 +1266,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B12" s="2">
-        <v>-0.36</v>
+        <v>196</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1270,10 +1277,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1294,8 +1301,8 @@
       <c r="E15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
-      <c r="A16" s="24" t="s">
-        <v>197</v>
+      <c r="A16" s="23" t="s">
+        <v>200</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1303,20 +1310,20 @@
       <c r="E16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>195</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
@@ -1324,16 +1331,16 @@
         <v>28</v>
       </c>
       <c r="B18" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2">
-        <v>7</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>200</v>
+        <v>11</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>203</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
@@ -1346,16 +1353,16 @@
       <c r="C19" s="2">
         <v>2</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>202</v>
+      <c r="D19" s="24" t="s">
+        <v>205</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -1363,16 +1370,16 @@
       <c r="C20" s="2">
         <v>0</v>
       </c>
-      <c r="D20" s="25" t="s">
-        <v>205</v>
+      <c r="D20" s="24" t="s">
+        <v>208</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -1380,16 +1387,16 @@
       <c r="C21" s="2">
         <v>0</v>
       </c>
-      <c r="D21" s="25" t="s">
-        <v>205</v>
+      <c r="D21" s="24" t="s">
+        <v>208</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -1397,28 +1404,28 @@
       <c r="C22" s="2">
         <v>0</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>205</v>
+      <c r="D22" s="24" t="s">
+        <v>208</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="B23" s="2">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>205</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1430,6 +1437,352 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:W7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2025020767</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2025020767</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2025020768</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2025020768</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2025020769</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2025020769</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -3027,7 +3380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -3757,7 +4110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -4987,7 +5340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -5581,7 +5934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -6997,8 +7350,8 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="21" t="s">
-        <v>171</v>
+      <c r="A1" s="19" t="s">
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -7007,16 +7360,16 @@
       <c r="B2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="22" t="s">
-        <v>172</v>
+      <c r="A3" s="20" t="s">
+        <v>174</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -7024,7 +7377,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B5" s="2">
         <v>55</v>
@@ -7032,7 +7385,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B6" s="2">
         <v>65</v>
@@ -7040,7 +7393,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -7052,15 +7405,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B10" s="2">
         <v>-110</v>
@@ -7072,15 +7425,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B13" s="2">
         <v>89</v>
@@ -7096,7 +7449,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -7119,7 +7472,7 @@
     <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="19" max="19" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -7128,133 +7481,133 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="15">
-        <v>2025020813</v>
+        <v>171</v>
+      </c>
+      <c r="B2" s="12">
+        <v>2025020819</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" s="19">
-        <v>22.5</v>
-      </c>
-      <c r="F2" s="15">
-        <v>-103</v>
-      </c>
-      <c r="G2" s="15">
-        <v>-120</v>
-      </c>
-      <c r="H2" s="15">
-        <v>8483548</v>
+        <v>172</v>
+      </c>
+      <c r="E2" s="17">
+        <v>28.5</v>
+      </c>
+      <c r="F2" s="12">
+        <v>-125</v>
+      </c>
+      <c r="G2" s="12">
+        <v>102</v>
+      </c>
+      <c r="H2" s="12">
+        <v>8479361</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="15">
-        <v>0</v>
-      </c>
-      <c r="L2" s="19">
-        <v>22.70000076293945</v>
-      </c>
-      <c r="M2" s="19">
-        <v>0.5308861136436462</v>
-      </c>
-      <c r="N2" s="19">
-        <v>6.177222728729248</v>
+        <v>104</v>
+      </c>
+      <c r="K2" s="12">
+        <v>1</v>
+      </c>
+      <c r="L2" s="17">
+        <v>28.39999961853027</v>
+      </c>
+      <c r="M2" s="17">
+        <v>0.4716980457305908</v>
+      </c>
+      <c r="N2" s="17">
+        <v>5.660390853881836</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q2" s="19">
-        <v>0.02349692583084106</v>
-      </c>
-      <c r="R2" s="18">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>0.033252447843552</v>
+      </c>
+      <c r="R2" s="12">
+        <v>1</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -7263,59 +7616,61 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="15">
-        <v>2025020813</v>
+        <v>171</v>
+      </c>
+      <c r="B3" s="12">
+        <v>2025020820</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" s="19">
+        <v>160</v>
+      </c>
+      <c r="E3" s="17">
         <v>22.5</v>
       </c>
-      <c r="F3" s="15">
-        <v>-120</v>
-      </c>
-      <c r="G3" s="15">
-        <v>-120</v>
-      </c>
-      <c r="H3" s="15">
-        <v>8483548</v>
+      <c r="F3" s="12">
+        <v>-105</v>
+      </c>
+      <c r="G3" s="12">
+        <v>-118</v>
+      </c>
+      <c r="H3" s="12">
+        <v>8474593</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="15">
-        <v>0</v>
-      </c>
-      <c r="L3" s="19">
+        <v>72</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="17">
         <v>22.70000076293945</v>
       </c>
-      <c r="M3" s="19">
-        <v>0.5308861136436462</v>
-      </c>
-      <c r="N3" s="19">
-        <v>6.177222728729248</v>
+      <c r="M3" s="17">
+        <v>0.5359347462654114</v>
+      </c>
+      <c r="N3" s="17">
+        <v>7.186949253082275</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="19">
-        <v>-0.01456844806671143</v>
-      </c>
-      <c r="R3" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>0.02373963594436646</v>
+      </c>
+      <c r="R3" s="12">
+        <v>1</v>
+      </c>
       <c r="S3" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -7324,46 +7679,46 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4" s="15">
-        <v>2025020812</v>
+        <v>171</v>
+      </c>
+      <c r="B4" s="12">
+        <v>2025020823</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E4" s="19">
-        <v>23.5</v>
-      </c>
-      <c r="F4" s="15">
-        <v>-122</v>
-      </c>
-      <c r="G4" s="15">
-        <v>100</v>
-      </c>
-      <c r="H4" s="15">
-        <v>8480280</v>
+        <v>145</v>
+      </c>
+      <c r="E4" s="17">
+        <v>21.5</v>
+      </c>
+      <c r="F4" s="12">
+        <v>-103</v>
+      </c>
+      <c r="G4" s="12">
+        <v>-121</v>
+      </c>
+      <c r="H4" s="12">
+        <v>8480193</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="15">
-        <v>1</v>
-      </c>
-      <c r="L4" s="19">
-        <v>23.60000038146973</v>
-      </c>
-      <c r="M4" s="19">
-        <v>0.5107691884040833</v>
-      </c>
-      <c r="N4" s="19">
-        <v>2.15383768081665</v>
+        <v>96</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0</v>
+      </c>
+      <c r="L4" s="17">
+        <v>21.60000038146973</v>
+      </c>
+      <c r="M4" s="17">
+        <v>0.5226746797561646</v>
+      </c>
+      <c r="N4" s="17">
+        <v>4.53493595123291</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>28</v>
@@ -7371,10 +7726,10 @@
       <c r="P4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="19">
-        <v>-0.01076918840408325</v>
-      </c>
-      <c r="R4" s="1"/>
+      <c r="Q4" s="17">
+        <v>0.015285491943359</v>
+      </c>
+      <c r="R4" s="18"/>
       <c r="S4" s="1" t="s">
         <v>30</v>
       </c>
@@ -7385,46 +7740,46 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" s="15">
-        <v>2025020813</v>
+        <v>171</v>
+      </c>
+      <c r="B5" s="12">
+        <v>2025020823</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" s="19">
-        <v>24.5</v>
-      </c>
-      <c r="F5" s="15">
-        <v>-114</v>
-      </c>
-      <c r="G5" s="15">
-        <v>-108</v>
-      </c>
-      <c r="H5" s="15">
-        <v>8473503</v>
+        <v>141</v>
+      </c>
+      <c r="E5" s="17">
+        <v>25.5</v>
+      </c>
+      <c r="F5" s="12">
+        <v>-120</v>
+      </c>
+      <c r="G5" s="12">
+        <v>-104</v>
+      </c>
+      <c r="H5" s="12">
+        <v>8481519</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="15">
+        <v>101</v>
+      </c>
+      <c r="K5" s="12">
         <v>1</v>
       </c>
-      <c r="L5" s="19">
-        <v>24.5</v>
-      </c>
-      <c r="M5" s="19">
-        <v>0.4940072000026703</v>
-      </c>
-      <c r="N5" s="19">
-        <v>1.198559999465942</v>
+      <c r="L5" s="17">
+        <v>25.39999961853027</v>
+      </c>
+      <c r="M5" s="17">
+        <v>0.4776476323604584</v>
+      </c>
+      <c r="N5" s="17">
+        <v>4.470473289489746</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>28</v>
@@ -7432,10 +7787,10 @@
       <c r="P5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="19">
-        <v>-0.01323801279067993</v>
-      </c>
-      <c r="R5" s="1"/>
+      <c r="Q5" s="17">
+        <v>0.012548387050629</v>
+      </c>
+      <c r="R5" s="18"/>
       <c r="S5" s="1" t="s">
         <v>30</v>
       </c>
@@ -7446,46 +7801,46 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B6" s="15">
-        <v>2025020815</v>
+        <v>171</v>
+      </c>
+      <c r="B6" s="12">
+        <v>2025020824</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="19">
-        <v>22.5</v>
-      </c>
-      <c r="F6" s="15">
-        <v>-118</v>
-      </c>
-      <c r="G6" s="15">
-        <v>-105</v>
-      </c>
-      <c r="H6" s="15">
-        <v>8476945</v>
+        <v>133</v>
+      </c>
+      <c r="E6" s="17">
+        <v>24.5</v>
+      </c>
+      <c r="F6" s="12">
+        <v>-124</v>
+      </c>
+      <c r="G6" s="12">
+        <v>101</v>
+      </c>
+      <c r="H6" s="12">
+        <v>8481692</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="15">
+        <v>66</v>
+      </c>
+      <c r="K6" s="12">
         <v>1</v>
       </c>
-      <c r="L6" s="19">
-        <v>22.70000076293945</v>
-      </c>
-      <c r="M6" s="19">
-        <v>0.5424509048461914</v>
-      </c>
-      <c r="N6" s="19">
-        <v>8.490180969238281</v>
+      <c r="L6" s="17">
+        <v>24.5</v>
+      </c>
+      <c r="M6" s="17">
+        <v>0.4943341314792633</v>
+      </c>
+      <c r="N6" s="17">
+        <v>1.133173704147339</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>28</v>
@@ -7493,14 +7848,12 @@
       <c r="P6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="19">
-        <v>0.00116652250289917</v>
-      </c>
-      <c r="R6" s="18">
-        <v>1</v>
-      </c>
+      <c r="Q6" s="17">
+        <v>0.008153468370438</v>
+      </c>
+      <c r="R6" s="18"/>
       <c r="S6" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -7509,46 +7862,46 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" s="15">
-        <v>2025020812</v>
+        <v>171</v>
+      </c>
+      <c r="B7" s="12">
+        <v>2025020823</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7" s="19">
-        <v>23.5</v>
-      </c>
-      <c r="F7" s="15">
-        <v>-105</v>
-      </c>
-      <c r="G7" s="15">
-        <v>-118</v>
-      </c>
-      <c r="H7" s="15">
-        <v>8478470</v>
+        <v>141</v>
+      </c>
+      <c r="E7" s="17">
+        <v>25.5</v>
+      </c>
+      <c r="F7" s="12">
+        <v>-120</v>
+      </c>
+      <c r="G7" s="12">
+        <v>-120</v>
+      </c>
+      <c r="H7" s="12">
+        <v>8481519</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="15">
-        <v>0</v>
-      </c>
-      <c r="L7" s="19">
-        <v>23.60000038146973</v>
-      </c>
-      <c r="M7" s="19">
-        <v>0.5156139731407166</v>
-      </c>
-      <c r="N7" s="19">
-        <v>3.122794628143311</v>
+        <v>101</v>
+      </c>
+      <c r="K7" s="12">
+        <v>1</v>
+      </c>
+      <c r="L7" s="17">
+        <v>25.39999961853027</v>
+      </c>
+      <c r="M7" s="17">
+        <v>0.4776476323604584</v>
+      </c>
+      <c r="N7" s="17">
+        <v>4.470473289489746</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>28</v>
@@ -7556,10 +7909,10 @@
       <c r="P7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" s="19">
-        <v>0.003418862819671631</v>
-      </c>
-      <c r="R7" s="1"/>
+      <c r="Q7" s="17">
+        <v>-0.02310222387313843</v>
+      </c>
+      <c r="R7" s="18"/>
       <c r="S7" s="1" t="s">
         <v>30</v>
       </c>
@@ -7570,46 +7923,46 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="15">
-        <v>2025020813</v>
+        <v>171</v>
+      </c>
+      <c r="B8" s="12">
+        <v>2025020823</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" s="19">
-        <v>22.5</v>
-      </c>
-      <c r="F8" s="15">
-        <v>-108</v>
-      </c>
-      <c r="G8" s="15">
-        <v>-114</v>
-      </c>
-      <c r="H8" s="15">
-        <v>8483548</v>
+        <v>145</v>
+      </c>
+      <c r="E8" s="17">
+        <v>21.5</v>
+      </c>
+      <c r="F8" s="12">
+        <v>-120</v>
+      </c>
+      <c r="G8" s="12">
+        <v>-120</v>
+      </c>
+      <c r="H8" s="12">
+        <v>8480193</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="15">
-        <v>0</v>
-      </c>
-      <c r="L8" s="19">
-        <v>22.70000076293945</v>
-      </c>
-      <c r="M8" s="19">
-        <v>0.5308861136436462</v>
-      </c>
-      <c r="N8" s="19">
-        <v>6.177222728729248</v>
+        <v>96</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0</v>
+      </c>
+      <c r="L8" s="17">
+        <v>21.60000038146973</v>
+      </c>
+      <c r="M8" s="17">
+        <v>0.5226746797561646</v>
+      </c>
+      <c r="N8" s="17">
+        <v>4.53493595123291</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>28</v>
@@ -7617,10 +7970,10 @@
       <c r="P8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q8" s="19">
-        <v>0.01165533065795898</v>
-      </c>
-      <c r="R8" s="1"/>
+      <c r="Q8" s="17">
+        <v>-0.02277988195419312</v>
+      </c>
+      <c r="R8" s="18"/>
       <c r="S8" s="1" t="s">
         <v>30</v>
       </c>
@@ -7631,61 +7984,59 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B9" s="15">
-        <v>2025020813</v>
+        <v>171</v>
+      </c>
+      <c r="B9" s="12">
+        <v>2025020824</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="19">
+        <v>133</v>
+      </c>
+      <c r="E9" s="17">
         <v>24.5</v>
       </c>
-      <c r="F9" s="15">
-        <v>-132</v>
-      </c>
-      <c r="G9" s="15">
-        <v>107</v>
-      </c>
-      <c r="H9" s="15">
-        <v>8473503</v>
+      <c r="F9" s="12">
+        <v>-120</v>
+      </c>
+      <c r="G9" s="12">
+        <v>-120</v>
+      </c>
+      <c r="H9" s="12">
+        <v>8481692</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="15">
+        <v>66</v>
+      </c>
+      <c r="K9" s="12">
         <v>1</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="17">
         <v>24.5</v>
       </c>
-      <c r="M9" s="19">
-        <v>0.4940072000026703</v>
-      </c>
-      <c r="N9" s="19">
-        <v>1.198559999465942</v>
+      <c r="M9" s="17">
+        <v>0.4943341314792633</v>
+      </c>
+      <c r="N9" s="17">
+        <v>1.133173704147339</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="19">
-        <v>0.02290096879005432</v>
-      </c>
-      <c r="R9" s="18">
-        <v>1</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>-0.03978866338729858</v>
+      </c>
+      <c r="R9" s="18"/>
       <c r="S9" s="1" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -7694,61 +8045,61 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10" s="15">
-        <v>2025020815</v>
+        <v>171</v>
+      </c>
+      <c r="B10" s="12">
+        <v>2025020819</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="19">
-        <v>23.5</v>
-      </c>
-      <c r="F10" s="15">
-        <v>102</v>
-      </c>
-      <c r="G10" s="15">
-        <v>-125</v>
-      </c>
-      <c r="H10" s="15">
-        <v>8476945</v>
+        <v>172</v>
+      </c>
+      <c r="E10" s="17">
+        <v>28.5</v>
+      </c>
+      <c r="F10" s="12">
+        <v>-145</v>
+      </c>
+      <c r="G10" s="12">
+        <v>112</v>
+      </c>
+      <c r="H10" s="12">
+        <v>8479361</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="15">
+        <v>104</v>
+      </c>
+      <c r="K10" s="12">
         <v>1</v>
       </c>
-      <c r="L10" s="19">
-        <v>23.60000038146973</v>
-      </c>
-      <c r="M10" s="19">
-        <v>0.5290221571922302</v>
-      </c>
-      <c r="N10" s="19">
-        <v>5.804431438446045</v>
+      <c r="L10" s="17">
+        <v>28.39999961853027</v>
+      </c>
+      <c r="M10" s="17">
+        <v>0.4716980457305908</v>
+      </c>
+      <c r="N10" s="17">
+        <v>5.660390853881836</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="19">
-        <v>0.03397265076637268</v>
-      </c>
-      <c r="R10" s="18">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>0.05660384893417358</v>
+      </c>
+      <c r="R10" s="12">
         <v>2</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -7757,46 +8108,46 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" s="15">
-        <v>2025020815</v>
+        <v>171</v>
+      </c>
+      <c r="B11" s="12">
+        <v>2025020819</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" s="19">
-        <v>24.5</v>
-      </c>
-      <c r="F11" s="15">
-        <v>-107</v>
-      </c>
-      <c r="G11" s="15">
-        <v>-115</v>
-      </c>
-      <c r="H11" s="15">
-        <v>8476434</v>
+        <v>157</v>
+      </c>
+      <c r="E11" s="17">
+        <v>22.5</v>
+      </c>
+      <c r="F11" s="12">
+        <v>-106</v>
+      </c>
+      <c r="G11" s="12">
+        <v>-117</v>
+      </c>
+      <c r="H11" s="12">
+        <v>8478406</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="15">
-        <v>0</v>
-      </c>
-      <c r="L11" s="19">
-        <v>24.39999961853027</v>
-      </c>
-      <c r="M11" s="19">
-        <v>0.4825441241264343</v>
-      </c>
-      <c r="N11" s="19">
-        <v>3.491175174713135</v>
+        <v>63</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0</v>
+      </c>
+      <c r="L11" s="17">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="M11" s="17">
+        <v>0.5326666235923767</v>
+      </c>
+      <c r="N11" s="17">
+        <v>6.533324718475342</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>28</v>
@@ -7804,10 +8155,10 @@
       <c r="P11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q11" s="19">
-        <v>-0.01742786169052124</v>
-      </c>
-      <c r="R11" s="1"/>
+      <c r="Q11" s="17">
+        <v>0.018103539943695</v>
+      </c>
+      <c r="R11" s="18"/>
       <c r="S11" s="1" t="s">
         <v>30</v>
       </c>
@@ -7818,46 +8169,46 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B12" s="15">
-        <v>2025020816</v>
+        <v>171</v>
+      </c>
+      <c r="B12" s="12">
+        <v>2025020820</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E12" s="19">
-        <v>23.5</v>
-      </c>
-      <c r="F12" s="15">
-        <v>-118</v>
-      </c>
-      <c r="G12" s="15">
-        <v>-105</v>
-      </c>
-      <c r="H12" s="15">
-        <v>8480981</v>
+        <v>160</v>
+      </c>
+      <c r="E12" s="17">
+        <v>22.5</v>
+      </c>
+      <c r="F12" s="12">
+        <v>-120</v>
+      </c>
+      <c r="G12" s="12">
+        <v>-120</v>
+      </c>
+      <c r="H12" s="12">
+        <v>8474593</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K12" s="15">
-        <v>1</v>
-      </c>
-      <c r="L12" s="19">
-        <v>23.60000038146973</v>
-      </c>
-      <c r="M12" s="19">
-        <v>0.5150030851364136</v>
-      </c>
-      <c r="N12" s="19">
-        <v>3.000617027282715</v>
+        <v>72</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="17">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="M12" s="17">
+        <v>0.5359347462654114</v>
+      </c>
+      <c r="N12" s="17">
+        <v>7.186949253082275</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>28</v>
@@ -7865,10 +8216,10 @@
       <c r="P12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q12" s="19">
-        <v>-0.02628129720687866</v>
-      </c>
-      <c r="R12" s="1"/>
+      <c r="Q12" s="17">
+        <v>-0.009519815444946289</v>
+      </c>
+      <c r="R12" s="18"/>
       <c r="S12" s="1" t="s">
         <v>30</v>
       </c>
@@ -7876,799 +8227,6 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B13" s="15">
-        <v>2025020817</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E13" s="19">
-        <v>23.5</v>
-      </c>
-      <c r="F13" s="15">
-        <v>-125</v>
-      </c>
-      <c r="G13" s="15">
-        <v>102</v>
-      </c>
-      <c r="H13" s="15">
-        <v>8475683</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K13" s="15">
-        <v>0</v>
-      </c>
-      <c r="L13" s="19">
-        <v>23.5</v>
-      </c>
-      <c r="M13" s="19">
-        <v>0.5019099116325378</v>
-      </c>
-      <c r="N13" s="19">
-        <v>0.3819823265075684</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q13" s="19">
-        <v>0.003040581941604614</v>
-      </c>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14" s="15">
-        <v>2025020817</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" s="19">
-        <v>25.5</v>
-      </c>
-      <c r="F14" s="15">
-        <v>-125</v>
-      </c>
-      <c r="G14" s="15">
-        <v>102</v>
-      </c>
-      <c r="H14" s="15">
-        <v>8479406</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K14" s="15">
-        <v>1</v>
-      </c>
-      <c r="L14" s="19">
-        <v>25.5</v>
-      </c>
-      <c r="M14" s="19">
-        <v>0.4991466104984283</v>
-      </c>
-      <c r="N14" s="19">
-        <v>0.1706779003143311</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q14" s="19">
-        <v>0.005803912878036499</v>
-      </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B15" s="15">
-        <v>2025020818</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E15" s="19">
-        <v>26.5</v>
-      </c>
-      <c r="F15" s="15">
-        <v>101</v>
-      </c>
-      <c r="G15" s="15">
-        <v>-124</v>
-      </c>
-      <c r="H15" s="15">
-        <v>8479292</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="19">
-        <v>26.39999961853027</v>
-      </c>
-      <c r="M15" s="19">
-        <v>0.4751169681549072</v>
-      </c>
-      <c r="N15" s="19">
-        <v>4.976606369018555</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q15" s="19">
-        <v>-0.02239546179771423</v>
-      </c>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B16" s="15">
-        <v>2025020818</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E16" s="19">
-        <v>23.5</v>
-      </c>
-      <c r="F16" s="15">
-        <v>-105</v>
-      </c>
-      <c r="G16" s="15">
-        <v>-118</v>
-      </c>
-      <c r="H16" s="15">
-        <v>8478971</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" s="15">
-        <v>1</v>
-      </c>
-      <c r="L16" s="19">
-        <v>23.5</v>
-      </c>
-      <c r="M16" s="19">
-        <v>0.4998636543750763</v>
-      </c>
-      <c r="N16" s="19">
-        <v>0.02726912498474121</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q16" s="19">
-        <v>-0.01233145594596863</v>
-      </c>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B17" s="15">
-        <v>2025020813</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" s="15">
-        <v>25</v>
-      </c>
-      <c r="F17" s="15">
-        <v>-120</v>
-      </c>
-      <c r="G17" s="15">
-        <v>-120</v>
-      </c>
-      <c r="H17" s="15">
-        <v>8473503</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" s="15">
-        <v>1</v>
-      </c>
-      <c r="L17" s="15">
-        <v>25</v>
-      </c>
-      <c r="M17" s="19">
-        <v>0.4939164519309998</v>
-      </c>
-      <c r="N17" s="19">
-        <v>1.216709613800049</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q17" s="19">
-        <v>-0.03937101364135742</v>
-      </c>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B18" s="15">
-        <v>2025020815</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E18" s="19">
-        <v>24.5</v>
-      </c>
-      <c r="F18" s="15">
-        <v>-120</v>
-      </c>
-      <c r="G18" s="15">
-        <v>-120</v>
-      </c>
-      <c r="H18" s="15">
-        <v>8476434</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K18" s="15">
-        <v>0</v>
-      </c>
-      <c r="L18" s="19">
-        <v>24.39999961853027</v>
-      </c>
-      <c r="M18" s="19">
-        <v>0.4825441241264343</v>
-      </c>
-      <c r="N18" s="19">
-        <v>3.491175174713135</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q18" s="19">
-        <v>-0.02799868583679199</v>
-      </c>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B19" s="15">
-        <v>2025020815</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" s="19">
-        <v>23.5</v>
-      </c>
-      <c r="F19" s="15">
-        <v>-120</v>
-      </c>
-      <c r="G19" s="15">
-        <v>-120</v>
-      </c>
-      <c r="H19" s="15">
-        <v>8476945</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="15">
-        <v>1</v>
-      </c>
-      <c r="L19" s="19">
-        <v>23.60000038146973</v>
-      </c>
-      <c r="M19" s="19">
-        <v>0.5290221571922302</v>
-      </c>
-      <c r="N19" s="19">
-        <v>5.804431438446045</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q19" s="19">
-        <v>-0.01643240451812744</v>
-      </c>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B20" s="15">
-        <v>2025020812</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E20" s="15">
-        <v>24</v>
-      </c>
-      <c r="F20" s="15">
-        <v>-120</v>
-      </c>
-      <c r="G20" s="15">
-        <v>-120</v>
-      </c>
-      <c r="H20" s="15">
-        <v>8480280</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K20" s="15">
-        <v>1</v>
-      </c>
-      <c r="L20" s="19">
-        <v>23.89999961853027</v>
-      </c>
-      <c r="M20" s="19">
-        <v>0.4763854146003723</v>
-      </c>
-      <c r="N20" s="19">
-        <v>4.722917079925537</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q20" s="19">
-        <v>-0.02183997631072998</v>
-      </c>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B21" s="15">
-        <v>2025020816</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E21" s="19">
-        <v>23.5</v>
-      </c>
-      <c r="F21" s="15">
-        <v>-120</v>
-      </c>
-      <c r="G21" s="15">
-        <v>-120</v>
-      </c>
-      <c r="H21" s="15">
-        <v>8480981</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K21" s="15">
-        <v>1</v>
-      </c>
-      <c r="L21" s="19">
-        <v>23.60000038146973</v>
-      </c>
-      <c r="M21" s="19">
-        <v>0.5150030851364136</v>
-      </c>
-      <c r="N21" s="19">
-        <v>3.000617027282715</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q21" s="19">
-        <v>-0.03045147657394409</v>
-      </c>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B22" s="15">
-        <v>2025020817</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="15">
-        <v>26</v>
-      </c>
-      <c r="F22" s="15">
-        <v>-120</v>
-      </c>
-      <c r="G22" s="15">
-        <v>-120</v>
-      </c>
-      <c r="H22" s="15">
-        <v>8479406</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K22" s="15">
-        <v>1</v>
-      </c>
-      <c r="L22" s="15">
-        <v>26</v>
-      </c>
-      <c r="M22" s="19">
-        <v>0.4992042481899261</v>
-      </c>
-      <c r="N22" s="19">
-        <v>0.1591503620147705</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q22" s="19">
-        <v>-0.0446588397026062</v>
-      </c>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B23" s="15">
-        <v>2025020817</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E23" s="19">
-        <v>23.5</v>
-      </c>
-      <c r="F23" s="15">
-        <v>-120</v>
-      </c>
-      <c r="G23" s="15">
-        <v>-120</v>
-      </c>
-      <c r="H23" s="15">
-        <v>8475683</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K23" s="15">
-        <v>0</v>
-      </c>
-      <c r="L23" s="19">
-        <v>23.5</v>
-      </c>
-      <c r="M23" s="19">
-        <v>0.5019099116325378</v>
-      </c>
-      <c r="N23" s="19">
-        <v>0.3819823265075684</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q23" s="19">
-        <v>-0.04354465007781982</v>
-      </c>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B24" s="15">
-        <v>2025020818</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E24" s="19">
-        <v>26.5</v>
-      </c>
-      <c r="F24" s="15">
-        <v>-120</v>
-      </c>
-      <c r="G24" s="15">
-        <v>-120</v>
-      </c>
-      <c r="H24" s="15">
-        <v>8479292</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K24" s="15">
-        <v>0</v>
-      </c>
-      <c r="L24" s="19">
-        <v>26.39999961853027</v>
-      </c>
-      <c r="M24" s="19">
-        <v>0.4751169681549072</v>
-      </c>
-      <c r="N24" s="19">
-        <v>4.976606369018555</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q24" s="19">
-        <v>-0.02057152986526489</v>
-      </c>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B25" s="15">
-        <v>2025020818</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E25" s="19">
-        <v>23.5</v>
-      </c>
-      <c r="F25" s="15">
-        <v>-120</v>
-      </c>
-      <c r="G25" s="15">
-        <v>-120</v>
-      </c>
-      <c r="H25" s="15">
-        <v>8478971</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K25" s="15">
-        <v>1</v>
-      </c>
-      <c r="L25" s="19">
-        <v>23.5</v>
-      </c>
-      <c r="M25" s="19">
-        <v>0.4998636543750763</v>
-      </c>
-      <c r="N25" s="19">
-        <v>0.02726912498474121</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q25" s="19">
-        <v>-0.04531818628311157</v>
-      </c>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8676,6 +8234,1734 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2025020813</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-103</v>
+      </c>
+      <c r="G2" s="2">
+        <v>-120</v>
+      </c>
+      <c r="H2" s="2">
+        <v>8483548</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.5308861136436462</v>
+      </c>
+      <c r="N2" s="3">
+        <v>6.177222728729248</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0.02349692583084106</v>
+      </c>
+      <c r="R2" s="2">
+        <v>2</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="2">
+        <v>35</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2025020813</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-120</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-120</v>
+      </c>
+      <c r="H3" s="2">
+        <v>8483548</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.5308861136436462</v>
+      </c>
+      <c r="N3" s="3">
+        <v>6.177222728729248</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>-0.01456844806671143</v>
+      </c>
+      <c r="R3" s="12"/>
+      <c r="S3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="2">
+        <v>35</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2025020812</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-122</v>
+      </c>
+      <c r="G4" s="2">
+        <v>100</v>
+      </c>
+      <c r="H4" s="2">
+        <v>8480280</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.5107691884040833</v>
+      </c>
+      <c r="N4" s="3">
+        <v>2.15383768081665</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>-0.01076918840408325</v>
+      </c>
+      <c r="R4" s="12"/>
+      <c r="S4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="2">
+        <v>22</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2025020813</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-114</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-108</v>
+      </c>
+      <c r="H5" s="2">
+        <v>8473503</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.4940072000026703</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1.198559999465942</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>-0.01323801279067993</v>
+      </c>
+      <c r="R5" s="12"/>
+      <c r="S5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="2">
+        <v>15</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V5" s="3">
+        <v>1.07</v>
+      </c>
+      <c r="W5" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2025020815</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-118</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-105</v>
+      </c>
+      <c r="H6" s="2">
+        <v>8476945</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.5424509048461914</v>
+      </c>
+      <c r="N6" s="3">
+        <v>8.490180969238281</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0.00116652250289917</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" s="2">
+        <v>26</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V6" s="3">
+        <v>2.04</v>
+      </c>
+      <c r="W6" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2025020812</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-105</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-118</v>
+      </c>
+      <c r="H7" s="2">
+        <v>8478470</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.5156139731407166</v>
+      </c>
+      <c r="N7" s="3">
+        <v>3.122794628143311</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0.003418862819671631</v>
+      </c>
+      <c r="R7" s="12"/>
+      <c r="S7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" s="2">
+        <v>17</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2025020813</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-108</v>
+      </c>
+      <c r="G8" s="2">
+        <v>-114</v>
+      </c>
+      <c r="H8" s="2">
+        <v>8483548</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.5308861136436462</v>
+      </c>
+      <c r="N8" s="3">
+        <v>6.177222728729248</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0.01165533065795898</v>
+      </c>
+      <c r="R8" s="12"/>
+      <c r="S8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" s="2">
+        <v>35</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2025020813</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-132</v>
+      </c>
+      <c r="G9" s="2">
+        <v>107</v>
+      </c>
+      <c r="H9" s="2">
+        <v>8473503</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.4940072000026703</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1.198559999465942</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0.02290096879005432</v>
+      </c>
+      <c r="R9" s="2">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T9" s="2">
+        <v>15</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V9" s="3">
+        <v>1.07</v>
+      </c>
+      <c r="W9" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2025020815</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>102</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-125</v>
+      </c>
+      <c r="H10" s="2">
+        <v>8476945</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.5290221571922302</v>
+      </c>
+      <c r="N10" s="3">
+        <v>5.804431438446045</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0.03397265076637268</v>
+      </c>
+      <c r="R10" s="2">
+        <v>2</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T10" s="2">
+        <v>26</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V10" s="3">
+        <v>2.04</v>
+      </c>
+      <c r="W10" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2025020815</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-107</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-115</v>
+      </c>
+      <c r="H11" s="2">
+        <v>8476434</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.4825441241264343</v>
+      </c>
+      <c r="N11" s="3">
+        <v>3.491175174713135</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>-0.01742786169052124</v>
+      </c>
+      <c r="R11" s="12"/>
+      <c r="S11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T11" s="2">
+        <v>26</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2025020816</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-118</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-105</v>
+      </c>
+      <c r="H12" s="2">
+        <v>8480981</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.5150030851364136</v>
+      </c>
+      <c r="N12" s="3">
+        <v>3.000617027282715</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>-0.02628129720687866</v>
+      </c>
+      <c r="R12" s="12"/>
+      <c r="S12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T12" s="2">
+        <v>24</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2025020817</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-125</v>
+      </c>
+      <c r="G13" s="2">
+        <v>102</v>
+      </c>
+      <c r="H13" s="2">
+        <v>8475683</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.5019099116325378</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.3819823265075684</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0.003040581941604614</v>
+      </c>
+      <c r="R13" s="12"/>
+      <c r="S13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T13" s="2">
+        <v>18</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2025020817</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="3">
+        <v>25.5</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-125</v>
+      </c>
+      <c r="G14" s="2">
+        <v>102</v>
+      </c>
+      <c r="H14" s="2">
+        <v>8479406</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
+        <v>25.5</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.4991466104984283</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.1706779003143311</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0.005803912878036499</v>
+      </c>
+      <c r="R14" s="12"/>
+      <c r="S14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T14" s="2">
+        <v>30</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2025020818</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="F15" s="2">
+        <v>101</v>
+      </c>
+      <c r="G15" s="2">
+        <v>-124</v>
+      </c>
+      <c r="H15" s="2">
+        <v>8479292</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>26.39999961853027</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.4751169681549072</v>
+      </c>
+      <c r="N15" s="3">
+        <v>4.976606369018555</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>-0.02239546179771423</v>
+      </c>
+      <c r="R15" s="12"/>
+      <c r="S15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T15" s="2">
+        <v>34</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2025020818</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="F16" s="2">
+        <v>-105</v>
+      </c>
+      <c r="G16" s="2">
+        <v>-118</v>
+      </c>
+      <c r="H16" s="2">
+        <v>8478971</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.4998636543750763</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.02726912498474121</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>-0.01233145594596863</v>
+      </c>
+      <c r="R16" s="12"/>
+      <c r="S16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T16" s="2">
+        <v>9</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2025020813</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="2">
+        <v>25</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-120</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-120</v>
+      </c>
+      <c r="H17" s="2">
+        <v>8473503</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>25</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.4939164519309998</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1.216709613800049</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>-0.03937101364135742</v>
+      </c>
+      <c r="R17" s="12"/>
+      <c r="S17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T17" s="2">
+        <v>15</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2025020815</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-120</v>
+      </c>
+      <c r="G18" s="2">
+        <v>-120</v>
+      </c>
+      <c r="H18" s="2">
+        <v>8476434</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.4825441241264343</v>
+      </c>
+      <c r="N18" s="3">
+        <v>3.491175174713135</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-0.02799868583679199</v>
+      </c>
+      <c r="R18" s="12"/>
+      <c r="S18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T18" s="2">
+        <v>26</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2025020815</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-120</v>
+      </c>
+      <c r="G19" s="2">
+        <v>-120</v>
+      </c>
+      <c r="H19" s="2">
+        <v>8476945</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.5290221571922302</v>
+      </c>
+      <c r="N19" s="3">
+        <v>5.804431438446045</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>-0.01643240451812744</v>
+      </c>
+      <c r="R19" s="12"/>
+      <c r="S19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T19" s="2">
+        <v>26</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2025020812</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="2">
+        <v>24</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-120</v>
+      </c>
+      <c r="G20" s="2">
+        <v>-120</v>
+      </c>
+      <c r="H20" s="2">
+        <v>8480280</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3">
+        <v>23.89999961853027</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.4763854146003723</v>
+      </c>
+      <c r="N20" s="3">
+        <v>4.722917079925537</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-0.02183997631072998</v>
+      </c>
+      <c r="R20" s="12"/>
+      <c r="S20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T20" s="2">
+        <v>22</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2025020816</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="F21" s="2">
+        <v>-120</v>
+      </c>
+      <c r="G21" s="2">
+        <v>-120</v>
+      </c>
+      <c r="H21" s="2">
+        <v>8480981</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0.5150030851364136</v>
+      </c>
+      <c r="N21" s="3">
+        <v>3.000617027282715</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-0.03045147657394409</v>
+      </c>
+      <c r="R21" s="12"/>
+      <c r="S21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T21" s="2">
+        <v>24</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V21" s="2">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2025020817</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="2">
+        <v>26</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-120</v>
+      </c>
+      <c r="G22" s="2">
+        <v>-120</v>
+      </c>
+      <c r="H22" s="2">
+        <v>8479406</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>26</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0.4992042481899261</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.1591503620147705</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>-0.0446588397026062</v>
+      </c>
+      <c r="R22" s="12"/>
+      <c r="S22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T22" s="2">
+        <v>30</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2025020817</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-120</v>
+      </c>
+      <c r="G23" s="2">
+        <v>-120</v>
+      </c>
+      <c r="H23" s="2">
+        <v>8475683</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.5019099116325378</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0.3819823265075684</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-0.04354465007781982</v>
+      </c>
+      <c r="R23" s="12"/>
+      <c r="S23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T23" s="2">
+        <v>18</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2025020818</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-120</v>
+      </c>
+      <c r="G24" s="2">
+        <v>-120</v>
+      </c>
+      <c r="H24" s="2">
+        <v>8479292</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>26.39999961853027</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0.4751169681549072</v>
+      </c>
+      <c r="N24" s="3">
+        <v>4.976606369018555</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>-0.02057152986526489</v>
+      </c>
+      <c r="R24" s="12"/>
+      <c r="S24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T24" s="2">
+        <v>34</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V24" s="2">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2025020818</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-120</v>
+      </c>
+      <c r="G25" s="2">
+        <v>-120</v>
+      </c>
+      <c r="H25" s="2">
+        <v>8478971</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+      <c r="L25" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0.4998636543750763</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0.02726912498474121</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>-0.04531818628311157</v>
+      </c>
+      <c r="R25" s="12"/>
+      <c r="S25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T25" s="2">
+        <v>9</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V25" s="2">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -8703,7 +9989,7 @@
     <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="19" max="19" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -8712,73 +9998,73 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8786,155 +10072,155 @@
       <c r="A2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="2">
         <v>2025020802</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
       <c r="I2" s="1" t="s">
         <v>63</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="2">
         <v>1</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="18"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="2"/>
       <c r="S2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="17"/>
+      <c r="T2" s="2"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="17"/>
+      <c r="V2" s="2"/>
       <c r="W2" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="2">
         <v>2025020802</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
       <c r="I3" s="1" t="s">
         <v>82</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="15">
-        <v>0</v>
-      </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="18"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="2"/>
       <c r="S3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="17"/>
+      <c r="T3" s="2"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="17"/>
+      <c r="V3" s="2"/>
       <c r="W3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="2">
         <v>2025020803</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="1" t="s">
         <v>96</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="2">
         <v>1</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="18"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="2"/>
       <c r="S4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T4" s="17"/>
+      <c r="T4" s="2"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="17"/>
+      <c r="V4" s="2"/>
       <c r="W4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="2">
         <v>2025020803</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="18"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="2"/>
       <c r="S5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="17"/>
+      <c r="T5" s="2"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="17"/>
+      <c r="V5" s="2"/>
       <c r="W5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="2">
         <v>2025020804</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -8943,16 +10229,16 @@
       <c r="D6" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="3">
         <v>21.5</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="2">
         <v>-107</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="2">
         <v>-122</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="2">
         <v>8479979</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -8961,16 +10247,16 @@
       <c r="J6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="2">
         <v>1</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="3">
         <v>21.70000076293945</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="3">
         <v>0.5429968237876892</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="3">
         <v>8.599365234375</v>
       </c>
       <c r="O6" s="1" t="s">
@@ -8979,22 +10265,22 @@
       <c r="P6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="3">
         <v>0.02608859539031982</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6" s="2">
         <v>1</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T6" s="15">
+      <c r="T6" s="2">
         <v>20</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V6" s="15">
+      <c r="V6" s="2">
         <v>-1</v>
       </c>
       <c r="W6" s="1"/>
@@ -9003,414 +10289,414 @@
       <c r="A7" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="2">
         <v>2025020804</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="1" t="s">
         <v>48</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="15">
-        <v>0</v>
-      </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="18"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="2"/>
       <c r="S7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T7" s="17"/>
+      <c r="T7" s="2"/>
       <c r="U7" s="1"/>
-      <c r="V7" s="17"/>
+      <c r="V7" s="2"/>
       <c r="W7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="2">
         <v>2025020805</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="1" t="s">
         <v>104</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="2">
         <v>1</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="18"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="2"/>
       <c r="S8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T8" s="17"/>
+      <c r="T8" s="2"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="17"/>
+      <c r="V8" s="2"/>
       <c r="W8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="2">
         <v>2025020805</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="1" t="s">
         <v>76</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K9" s="15">
-        <v>0</v>
-      </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="18"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="2"/>
       <c r="S9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="17"/>
+      <c r="T9" s="2"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="17"/>
+      <c r="V9" s="2"/>
       <c r="W9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="2">
         <v>2025020806</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="2">
         <v>1</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="18"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="2"/>
       <c r="S10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T10" s="17"/>
+      <c r="T10" s="2"/>
       <c r="U10" s="1"/>
-      <c r="V10" s="17"/>
+      <c r="V10" s="2"/>
       <c r="W10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="2">
         <v>2025020806</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="15">
-        <v>0</v>
-      </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="18"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="2"/>
       <c r="S11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T11" s="17"/>
+      <c r="T11" s="2"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="17"/>
+      <c r="V11" s="2"/>
       <c r="W11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="2">
         <v>2025020807</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="2">
         <v>1</v>
       </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="18"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="2"/>
       <c r="S12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T12" s="17"/>
+      <c r="T12" s="2"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="17"/>
+      <c r="V12" s="2"/>
       <c r="W12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="2">
         <v>2025020807</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="1" t="s">
         <v>71</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="15">
-        <v>0</v>
-      </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="18"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="2"/>
       <c r="S13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T13" s="17"/>
+      <c r="T13" s="2"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="17"/>
+      <c r="V13" s="2"/>
       <c r="W13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="2">
         <v>2025020808</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="1" t="s">
         <v>89</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="2">
         <v>1</v>
       </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="18"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="2"/>
       <c r="S14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T14" s="17"/>
+      <c r="T14" s="2"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="17"/>
+      <c r="V14" s="2"/>
       <c r="W14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="2">
         <v>2025020808</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="1" t="s">
         <v>79</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K15" s="15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="18"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="2"/>
       <c r="S15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T15" s="17"/>
+      <c r="T15" s="2"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="17"/>
+      <c r="V15" s="2"/>
       <c r="W15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="2">
         <v>2025020809</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="1" t="s">
         <v>72</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="2">
         <v>1</v>
       </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="18"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="2"/>
       <c r="S16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T16" s="17"/>
+      <c r="T16" s="2"/>
       <c r="U16" s="1"/>
-      <c r="V16" s="17"/>
+      <c r="V16" s="2"/>
       <c r="W16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="2">
         <v>2025020809</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
       <c r="I17" s="1" t="s">
         <v>66</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K17" s="15">
-        <v>0</v>
-      </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="18"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="2"/>
       <c r="S17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T17" s="17"/>
+      <c r="T17" s="2"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="17"/>
+      <c r="V17" s="2"/>
       <c r="W17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="2">
         <v>2025020802</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -9419,16 +10705,16 @@
       <c r="D18" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="3">
         <v>25.5</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="2">
         <v>-118</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="2">
         <v>-104</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="2">
         <v>8476932</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -9437,16 +10723,16 @@
       <c r="J18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="2">
         <v>1</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="3">
         <v>25.39999961853027</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="3">
         <v>0.4886266887187958</v>
       </c>
-      <c r="N18" s="19">
+      <c r="N18" s="3">
         <v>2.274662256240845</v>
       </c>
       <c r="O18" s="1" t="s">
@@ -9455,20 +10741,20 @@
       <c r="P18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q18" s="19">
+      <c r="Q18" s="3">
         <v>0.00156933069229126</v>
       </c>
-      <c r="R18" s="18"/>
+      <c r="R18" s="2"/>
       <c r="S18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T18" s="15">
+      <c r="T18" s="2">
         <v>25</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="V18" s="19">
+      <c r="V18" s="3">
         <v>1.02</v>
       </c>
       <c r="W18" s="1"/>
@@ -9477,7 +10763,7 @@
       <c r="A19" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="2">
         <v>2025020802</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -9486,16 +10772,16 @@
       <c r="D19" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="3">
         <v>25.5</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="2">
         <v>-120</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="2">
         <v>-120</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="2">
         <v>8476932</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -9504,16 +10790,16 @@
       <c r="J19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="2">
         <v>1</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="3">
         <v>25.39999961853027</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="3">
         <v>0.4886266887187958</v>
       </c>
-      <c r="N19" s="19">
+      <c r="N19" s="3">
         <v>2.274662256240845</v>
       </c>
       <c r="O19" s="1" t="s">
@@ -9522,20 +10808,20 @@
       <c r="P19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q19" s="19">
+      <c r="Q19" s="3">
         <v>-0.03408128023147583</v>
       </c>
-      <c r="R19" s="18"/>
+      <c r="R19" s="2"/>
       <c r="S19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T19" s="15">
+      <c r="T19" s="2">
         <v>25</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V19" s="15">
+      <c r="V19" s="2">
         <v>0</v>
       </c>
       <c r="W19" s="1"/>
@@ -9544,7 +10830,7 @@
       <c r="A20" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="2">
         <v>2025020806</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -9553,16 +10839,16 @@
       <c r="D20" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="3">
         <v>24.5</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="2">
         <v>-117</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="2">
         <v>-106</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="2">
         <v>8481692</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -9571,16 +10857,16 @@
       <c r="J20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="2">
         <v>1</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="3">
         <v>24.5</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M20" s="3">
         <v>0.4943341314792633</v>
       </c>
-      <c r="N20" s="19">
+      <c r="N20" s="3">
         <v>1.133173704147339</v>
       </c>
       <c r="O20" s="1" t="s">
@@ -9589,20 +10875,20 @@
       <c r="P20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q20" s="19">
+      <c r="Q20" s="3">
         <v>-0.008897185325622559</v>
       </c>
-      <c r="R20" s="18"/>
+      <c r="R20" s="2"/>
       <c r="S20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T20" s="15">
+      <c r="T20" s="2">
         <v>0</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V20" s="15">
+      <c r="V20" s="2">
         <v>0</v>
       </c>
       <c r="W20" s="1"/>
@@ -9611,7 +10897,7 @@
       <c r="A21" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="2">
         <v>2025020805</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -9620,16 +10906,16 @@
       <c r="D21" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="3">
         <v>21.5</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="2">
         <v>-122</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="2">
         <v>100</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="2">
         <v>8478406</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -9638,16 +10924,16 @@
       <c r="J21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="2">
         <v>1</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L21" s="3">
         <v>21.70000076293945</v>
       </c>
-      <c r="M21" s="19">
+      <c r="M21" s="3">
         <v>0.5438613891601562</v>
       </c>
-      <c r="N21" s="19">
+      <c r="N21" s="3">
         <v>8.77227783203125</v>
       </c>
       <c r="O21" s="1" t="s">
@@ -9656,20 +10942,20 @@
       <c r="P21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q21" s="19">
+      <c r="Q21" s="3">
         <v>-0.005688130855560303</v>
       </c>
-      <c r="R21" s="18"/>
+      <c r="R21" s="2"/>
       <c r="S21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T21" s="15">
+      <c r="T21" s="2">
         <v>13</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V21" s="15">
+      <c r="V21" s="2">
         <v>0</v>
       </c>
       <c r="W21" s="1"/>
@@ -9678,7 +10964,7 @@
       <c r="A22" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="2">
         <v>2025020806</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -9687,16 +10973,16 @@
       <c r="D22" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="3">
         <v>24.5</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="2">
         <v>-120</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="2">
         <v>-120</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="2">
         <v>8481692</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -9705,16 +10991,16 @@
       <c r="J22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="2">
         <v>1</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L22" s="3">
         <v>24.5</v>
       </c>
-      <c r="M22" s="19">
+      <c r="M22" s="3">
         <v>0.4943341314792633</v>
       </c>
-      <c r="N22" s="19">
+      <c r="N22" s="3">
         <v>1.133173704147339</v>
       </c>
       <c r="O22" s="1" t="s">
@@ -9723,20 +11009,20 @@
       <c r="P22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q22" s="19">
+      <c r="Q22" s="3">
         <v>-0.03978866338729858</v>
       </c>
-      <c r="R22" s="18"/>
+      <c r="R22" s="2"/>
       <c r="S22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T22" s="15">
+      <c r="T22" s="2">
         <v>0</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V22" s="15">
+      <c r="V22" s="2">
         <v>0</v>
       </c>
       <c r="W22" s="1"/>
@@ -9745,7 +11031,7 @@
       <c r="A23" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="2">
         <v>2025020805</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -9754,16 +11040,16 @@
       <c r="D23" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="3">
         <v>21.5</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="2">
         <v>-120</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="2">
         <v>-120</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="2">
         <v>8478406</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -9772,16 +11058,16 @@
       <c r="J23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K23" s="2">
         <v>1</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L23" s="3">
         <v>21.70000076293945</v>
       </c>
-      <c r="M23" s="19">
+      <c r="M23" s="3">
         <v>0.5438613891601562</v>
       </c>
-      <c r="N23" s="19">
+      <c r="N23" s="3">
         <v>8.77227783203125</v>
       </c>
       <c r="O23" s="1" t="s">
@@ -9790,20 +11076,20 @@
       <c r="P23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q23" s="19">
+      <c r="Q23" s="3">
         <v>-0.001593172550201416</v>
       </c>
-      <c r="R23" s="18"/>
+      <c r="R23" s="2"/>
       <c r="S23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T23" s="15">
+      <c r="T23" s="2">
         <v>13</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V23" s="15">
+      <c r="V23" s="2">
         <v>0</v>
       </c>
       <c r="W23" s="1"/>
@@ -9812,7 +11098,7 @@
       <c r="A24" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="2">
         <v>2025020805</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -9821,16 +11107,16 @@
       <c r="D24" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="3">
         <v>26.5</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="2">
         <v>-103</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="2">
         <v>-120</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="2">
         <v>8481035</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -9839,16 +11125,16 @@
       <c r="J24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K24" s="15">
-        <v>0</v>
-      </c>
-      <c r="L24" s="19">
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>26.29999923706055</v>
       </c>
-      <c r="M24" s="19">
+      <c r="M24" s="3">
         <v>0.4657920897006989</v>
       </c>
-      <c r="N24" s="19">
+      <c r="N24" s="3">
         <v>6.841582298278809</v>
       </c>
       <c r="O24" s="1" t="s">
@@ -9857,20 +11143,20 @@
       <c r="P24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q24" s="19">
+      <c r="Q24" s="3">
         <v>-0.01124662160873413</v>
       </c>
-      <c r="R24" s="18"/>
+      <c r="R24" s="2"/>
       <c r="S24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T24" s="15">
+      <c r="T24" s="2">
         <v>32</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V24" s="15">
+      <c r="V24" s="2">
         <v>0</v>
       </c>
       <c r="W24" s="1"/>
@@ -9879,7 +11165,7 @@
       <c r="A25" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="2">
         <v>2025020806</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -9888,16 +11174,16 @@
       <c r="D25" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="3">
         <v>24.5</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="2">
         <v>-113</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="2">
         <v>-109</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="2">
         <v>8482445</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -9906,16 +11192,16 @@
       <c r="J25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="2">
         <v>1</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L25" s="3">
         <v>24.39999961853027</v>
       </c>
-      <c r="M25" s="19">
+      <c r="M25" s="3">
         <v>0.4742054045200348</v>
       </c>
-      <c r="N25" s="19">
+      <c r="N25" s="3">
         <v>5.158919334411621</v>
       </c>
       <c r="O25" s="1" t="s">
@@ -9924,20 +11210,20 @@
       <c r="P25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q25" s="19">
+      <c r="Q25" s="3">
         <v>0.004263520240783691</v>
       </c>
-      <c r="R25" s="18"/>
+      <c r="R25" s="2"/>
       <c r="S25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T25" s="15">
+      <c r="T25" s="2">
         <v>35</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V25" s="15">
+      <c r="V25" s="2">
         <v>-1</v>
       </c>
       <c r="W25" s="1"/>
@@ -9946,7 +11232,7 @@
       <c r="A26" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="2">
         <v>2025020809</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -9955,16 +11241,16 @@
       <c r="D26" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="3">
         <v>24.5</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="2">
         <v>-102</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="2">
         <v>-121</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="2">
         <v>8475831</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -9973,16 +11259,16 @@
       <c r="J26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="2">
         <v>1</v>
       </c>
-      <c r="L26" s="19">
+      <c r="L26" s="3">
         <v>24.5</v>
       </c>
-      <c r="M26" s="19">
+      <c r="M26" s="3">
         <v>0.5015108585357666</v>
       </c>
-      <c r="N26" s="19">
+      <c r="N26" s="3">
         <v>0.3021717071533203</v>
       </c>
       <c r="O26" s="1" t="s">
@@ -9991,20 +11277,20 @@
       <c r="P26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q26" s="19">
+      <c r="Q26" s="3">
         <v>-0.003439664840698242</v>
       </c>
-      <c r="R26" s="18"/>
+      <c r="R26" s="2"/>
       <c r="S26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T26" s="15">
+      <c r="T26" s="2">
         <v>27</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V26" s="15">
+      <c r="V26" s="2">
         <v>0</v>
       </c>
       <c r="W26" s="1"/>
@@ -10013,7 +11299,7 @@
       <c r="A27" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="2">
         <v>2025020809</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -10022,16 +11308,16 @@
       <c r="D27" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="3">
         <v>24.5</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="2">
         <v>-120</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="2">
         <v>-120</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="2">
         <v>8475831</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -10040,16 +11326,16 @@
       <c r="J27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K27" s="2">
         <v>1</v>
       </c>
-      <c r="L27" s="19">
+      <c r="L27" s="3">
         <v>24.5</v>
       </c>
-      <c r="M27" s="19">
+      <c r="M27" s="3">
         <v>0.5015108585357666</v>
       </c>
-      <c r="N27" s="19">
+      <c r="N27" s="3">
         <v>0.3021717071533203</v>
       </c>
       <c r="O27" s="1" t="s">
@@ -10058,20 +11344,20 @@
       <c r="P27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q27" s="19">
+      <c r="Q27" s="3">
         <v>-0.04394370317459106</v>
       </c>
-      <c r="R27" s="18"/>
+      <c r="R27" s="2"/>
       <c r="S27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T27" s="15">
+      <c r="T27" s="2">
         <v>27</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V27" s="15">
+      <c r="V27" s="2">
         <v>0</v>
       </c>
       <c r="W27" s="1"/>
@@ -10080,7 +11366,7 @@
       <c r="A28" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="2">
         <v>2025020802</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -10089,16 +11375,16 @@
       <c r="D28" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="3">
         <v>25.5</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="2">
         <v>-125</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="2">
         <v>102</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="2">
         <v>8476932</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -10107,16 +11393,16 @@
       <c r="J28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K28" s="2">
         <v>1</v>
       </c>
-      <c r="L28" s="19">
+      <c r="L28" s="3">
         <v>25.39999961853027</v>
       </c>
-      <c r="M28" s="19">
+      <c r="M28" s="3">
         <v>0.4886266887187958</v>
       </c>
-      <c r="N28" s="19">
+      <c r="N28" s="3">
         <v>2.274662256240845</v>
       </c>
       <c r="O28" s="1" t="s">
@@ -10125,22 +11411,22 @@
       <c r="P28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q28" s="19">
+      <c r="Q28" s="3">
         <v>0.016323775053024</v>
       </c>
-      <c r="R28" s="15">
+      <c r="R28" s="2">
         <v>1</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="T28" s="15">
+      <c r="T28" s="2">
         <v>25</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="V28" s="19">
+      <c r="V28" s="3">
         <v>1.02</v>
       </c>
       <c r="W28" s="1"/>
@@ -10149,7 +11435,7 @@
       <c r="A29" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="2">
         <v>2025020804</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -10158,16 +11444,16 @@
       <c r="D29" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="3">
         <v>23.5</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="2">
         <v>-103</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="2">
         <v>-120</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="2">
         <v>8476412</v>
       </c>
       <c r="I29" s="1" t="s">
@@ -10176,16 +11462,16 @@
       <c r="J29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K29" s="15">
-        <v>0</v>
-      </c>
-      <c r="L29" s="19">
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>23.5</v>
       </c>
-      <c r="M29" s="19">
+      <c r="M29" s="3">
         <v>0.5042712092399597</v>
       </c>
-      <c r="N29" s="19">
+      <c r="N29" s="3">
         <v>0.8542418479919434</v>
       </c>
       <c r="O29" s="1" t="s">
@@ -10194,20 +11480,20 @@
       <c r="P29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q29" s="19">
+      <c r="Q29" s="3">
         <v>-0.003117978572845459</v>
       </c>
-      <c r="R29" s="18"/>
+      <c r="R29" s="2"/>
       <c r="S29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T29" s="15">
+      <c r="T29" s="2">
         <v>16</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V29" s="15">
+      <c r="V29" s="2">
         <v>0</v>
       </c>
       <c r="W29" s="1"/>
@@ -10216,7 +11502,7 @@
       <c r="A30" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="2">
         <v>2025020805</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -10225,16 +11511,16 @@
       <c r="D30" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="3">
         <v>21.5</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="2">
         <v>-124</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="2">
         <v>100</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="2">
         <v>8478406</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -10243,16 +11529,16 @@
       <c r="J30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K30" s="2">
         <v>1</v>
       </c>
-      <c r="L30" s="19">
+      <c r="L30" s="3">
         <v>21.70000076293945</v>
       </c>
-      <c r="M30" s="19">
+      <c r="M30" s="3">
         <v>0.5438613891601562</v>
       </c>
-      <c r="N30" s="19">
+      <c r="N30" s="3">
         <v>8.77227783203125</v>
       </c>
       <c r="O30" s="1" t="s">
@@ -10261,20 +11547,20 @@
       <c r="P30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q30" s="19">
+      <c r="Q30" s="3">
         <v>-0.00971001386642456</v>
       </c>
-      <c r="R30" s="18"/>
+      <c r="R30" s="2"/>
       <c r="S30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T30" s="15">
+      <c r="T30" s="2">
         <v>13</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V30" s="15">
+      <c r="V30" s="2">
         <v>0</v>
       </c>
       <c r="W30" s="1"/>
@@ -10283,7 +11569,7 @@
       <c r="A31" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="2">
         <v>2025020808</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -10292,16 +11578,16 @@
       <c r="D31" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="3">
         <v>23.5</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="2">
         <v>-124</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="2">
         <v>101</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="2">
         <v>8477968</v>
       </c>
       <c r="I31" s="1" t="s">
@@ -10310,16 +11596,16 @@
       <c r="J31" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K31" s="2">
         <v>1</v>
       </c>
-      <c r="L31" s="19">
+      <c r="L31" s="3">
         <v>23.60000038146973</v>
       </c>
-      <c r="M31" s="19">
+      <c r="M31" s="3">
         <v>0.5266153216362</v>
       </c>
-      <c r="N31" s="19">
+      <c r="N31" s="3">
         <v>5.32306432723999</v>
       </c>
       <c r="O31" s="1" t="s">
@@ -10328,20 +11614,20 @@
       <c r="P31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q31" s="19">
+      <c r="Q31" s="3">
         <v>-0.02412775158882141</v>
       </c>
-      <c r="R31" s="18"/>
+      <c r="R31" s="2"/>
       <c r="S31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T31" s="15">
+      <c r="T31" s="2">
         <v>28</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V31" s="15">
+      <c r="V31" s="2">
         <v>0</v>
       </c>
       <c r="W31" s="1"/>
@@ -10350,7 +11636,7 @@
       <c r="A32" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="2">
         <v>2025020806</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -10359,16 +11645,16 @@
       <c r="D32" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="3">
         <v>24.5</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="2">
         <v>-120</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="2">
         <v>-120</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="2">
         <v>8482445</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -10377,16 +11663,16 @@
       <c r="J32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K32" s="2">
         <v>1</v>
       </c>
-      <c r="L32" s="19">
+      <c r="L32" s="3">
         <v>24.39999961853027</v>
       </c>
-      <c r="M32" s="19">
+      <c r="M32" s="3">
         <v>0.4742054045200348</v>
       </c>
-      <c r="N32" s="19">
+      <c r="N32" s="3">
         <v>5.158919334411621</v>
       </c>
       <c r="O32" s="1" t="s">
@@ -10395,20 +11681,20 @@
       <c r="P32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q32" s="19">
+      <c r="Q32" s="3">
         <v>-0.01965993642807007</v>
       </c>
-      <c r="R32" s="18"/>
+      <c r="R32" s="2"/>
       <c r="S32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T32" s="15">
+      <c r="T32" s="2">
         <v>35</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V32" s="15">
+      <c r="V32" s="2">
         <v>0</v>
       </c>
       <c r="W32" s="1"/>
@@ -10417,7 +11703,7 @@
       <c r="A33" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="2">
         <v>2025020805</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -10426,16 +11712,16 @@
       <c r="D33" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="3">
         <v>26.5</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="2">
         <v>-120</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="2">
         <v>-120</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="2">
         <v>8481035</v>
       </c>
       <c r="I33" s="1" t="s">
@@ -10444,16 +11730,16 @@
       <c r="J33" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K33" s="15">
-        <v>0</v>
-      </c>
-      <c r="L33" s="19">
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>26.29999923706055</v>
       </c>
-      <c r="M33" s="19">
+      <c r="M33" s="3">
         <v>0.4657920897006989</v>
       </c>
-      <c r="N33" s="19">
+      <c r="N33" s="3">
         <v>6.841582298278809</v>
       </c>
       <c r="O33" s="1" t="s">
@@ -10462,20 +11748,20 @@
       <c r="P33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q33" s="19">
+      <c r="Q33" s="3">
         <v>-0.01124662160873413</v>
       </c>
-      <c r="R33" s="18"/>
+      <c r="R33" s="2"/>
       <c r="S33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T33" s="15">
+      <c r="T33" s="2">
         <v>32</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V33" s="15">
+      <c r="V33" s="2">
         <v>0</v>
       </c>
       <c r="W33" s="1"/>
@@ -10484,7 +11770,7 @@
       <c r="A34" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="2">
         <v>2025020808</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -10493,16 +11779,16 @@
       <c r="D34" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="3">
         <v>23.5</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="2">
         <v>-120</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="2">
         <v>-120</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="2">
         <v>8477968</v>
       </c>
       <c r="I34" s="1" t="s">
@@ -10511,16 +11797,16 @@
       <c r="J34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K34" s="15">
+      <c r="K34" s="2">
         <v>1</v>
       </c>
-      <c r="L34" s="19">
+      <c r="L34" s="3">
         <v>23.60000038146973</v>
       </c>
-      <c r="M34" s="19">
+      <c r="M34" s="3">
         <v>0.5266153216362</v>
       </c>
-      <c r="N34" s="19">
+      <c r="N34" s="3">
         <v>5.32306432723999</v>
       </c>
       <c r="O34" s="1" t="s">
@@ -10529,20 +11815,20 @@
       <c r="P34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q34" s="19">
+      <c r="Q34" s="3">
         <v>-0.01883924007415771</v>
       </c>
-      <c r="R34" s="18"/>
+      <c r="R34" s="2"/>
       <c r="S34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T34" s="15">
+      <c r="T34" s="2">
         <v>28</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V34" s="15">
+      <c r="V34" s="2">
         <v>0</v>
       </c>
       <c r="W34" s="1"/>
@@ -10551,7 +11837,7 @@
       <c r="A35" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="2">
         <v>2025020804</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -10560,16 +11846,16 @@
       <c r="D35" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="3">
         <v>23.5</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="2">
         <v>-120</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="2">
         <v>-120</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="2">
         <v>8476412</v>
       </c>
       <c r="I35" s="1" t="s">
@@ -10578,16 +11864,16 @@
       <c r="J35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K35" s="15">
-        <v>0</v>
-      </c>
-      <c r="L35" s="19">
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>23.5</v>
       </c>
-      <c r="M35" s="19">
+      <c r="M35" s="3">
         <v>0.5042712092399597</v>
       </c>
-      <c r="N35" s="19">
+      <c r="N35" s="3">
         <v>0.8542418479919434</v>
       </c>
       <c r="O35" s="1" t="s">
@@ -10596,20 +11882,20 @@
       <c r="P35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q35" s="19">
+      <c r="Q35" s="3">
         <v>-0.04118335247039795</v>
       </c>
-      <c r="R35" s="18"/>
+      <c r="R35" s="2"/>
       <c r="S35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T35" s="15">
+      <c r="T35" s="2">
         <v>16</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V35" s="15">
+      <c r="V35" s="2">
         <v>0</v>
       </c>
       <c r="W35" s="1"/>
@@ -10618,7 +11904,7 @@
       <c r="A36" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="2">
         <v>2025020807</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -10627,16 +11913,16 @@
       <c r="D36" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="3">
         <v>23.5</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="2">
         <v>-102</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="2">
         <v>-121</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36" s="2">
         <v>8474593</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -10645,16 +11931,16 @@
       <c r="J36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K36" s="15">
-        <v>0</v>
-      </c>
-      <c r="L36" s="19">
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3">
         <v>23.5</v>
       </c>
-      <c r="M36" s="19">
+      <c r="M36" s="3">
         <v>0.4985940754413605</v>
       </c>
-      <c r="N36" s="19">
+      <c r="N36" s="3">
         <v>0.2811849117279053</v>
       </c>
       <c r="O36" s="1" t="s">
@@ -10663,20 +11949,20 @@
       <c r="P36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q36" s="19">
+      <c r="Q36" s="3">
         <v>-0.00635644793510437</v>
       </c>
-      <c r="R36" s="18"/>
+      <c r="R36" s="2"/>
       <c r="S36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T36" s="15">
+      <c r="T36" s="2">
         <v>21</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V36" s="15">
+      <c r="V36" s="2">
         <v>0</v>
       </c>
       <c r="W36" s="1"/>
@@ -10685,7 +11971,7 @@
       <c r="A37" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37" s="2">
         <v>2025020807</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -10694,16 +11980,16 @@
       <c r="D37" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="3">
         <v>23.5</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F37" s="2">
         <v>-120</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="2">
         <v>-120</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H37" s="2">
         <v>8474593</v>
       </c>
       <c r="I37" s="1" t="s">
@@ -10712,16 +11998,16 @@
       <c r="J37" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K37" s="15">
-        <v>0</v>
-      </c>
-      <c r="L37" s="19">
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3">
         <v>23.5</v>
       </c>
-      <c r="M37" s="19">
+      <c r="M37" s="3">
         <v>0.4985940754413605</v>
       </c>
-      <c r="N37" s="19">
+      <c r="N37" s="3">
         <v>0.2811849117279053</v>
       </c>
       <c r="O37" s="1" t="s">
@@ -10730,20 +12016,20 @@
       <c r="P37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="19">
+      <c r="Q37" s="3">
         <v>-0.04404860734939575</v>
       </c>
-      <c r="R37" s="18"/>
+      <c r="R37" s="2"/>
       <c r="S37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T37" s="15">
+      <c r="T37" s="2">
         <v>21</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V37" s="15">
+      <c r="V37" s="2">
         <v>0</v>
       </c>
       <c r="W37" s="1"/>
@@ -10752,7 +12038,7 @@
       <c r="A38" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="2">
         <v>2025020808</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -10761,16 +12047,16 @@
       <c r="D38" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="3">
         <v>22.5</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F38" s="2">
         <v>-114</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="2">
         <v>-108</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H38" s="2">
         <v>8477484</v>
       </c>
       <c r="I38" s="1" t="s">
@@ -10779,16 +12065,16 @@
       <c r="J38" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K38" s="15">
-        <v>0</v>
-      </c>
-      <c r="L38" s="19">
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3">
         <v>22.70000076293945</v>
       </c>
-      <c r="M38" s="19">
+      <c r="M38" s="3">
         <v>0.5345428586006165</v>
       </c>
-      <c r="N38" s="19">
+      <c r="N38" s="3">
         <v>6.908571720123291</v>
       </c>
       <c r="O38" s="1" t="s">
@@ -10797,20 +12083,20 @@
       <c r="P38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q38" s="19">
+      <c r="Q38" s="3">
         <v>0.00183260440826416</v>
       </c>
-      <c r="R38" s="18"/>
+      <c r="R38" s="2"/>
       <c r="S38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T38" s="15">
+      <c r="T38" s="2">
         <v>28</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V38" s="15">
+      <c r="V38" s="2">
         <v>0</v>
       </c>
       <c r="W38" s="1"/>
@@ -10819,7 +12105,7 @@
       <c r="A39" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B39" s="2">
         <v>2025020805</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -10828,16 +12114,16 @@
       <c r="D39" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="3">
         <v>21.5</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F39" s="2">
         <v>-127</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="2">
         <v>104</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H39" s="2">
         <v>8478406</v>
       </c>
       <c r="I39" s="1" t="s">
@@ -10846,16 +12132,16 @@
       <c r="J39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K39" s="15">
+      <c r="K39" s="2">
         <v>1</v>
       </c>
-      <c r="L39" s="19">
+      <c r="L39" s="3">
         <v>21.70000076293945</v>
       </c>
-      <c r="M39" s="19">
+      <c r="M39" s="3">
         <v>0.5438613891601562</v>
       </c>
-      <c r="N39" s="19">
+      <c r="N39" s="3">
         <v>8.77227783203125</v>
       </c>
       <c r="O39" s="1" t="s">
@@ -10864,20 +12150,20 @@
       <c r="P39" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q39" s="19">
+      <c r="Q39" s="3">
         <v>-0.0156099796295166</v>
       </c>
-      <c r="R39" s="18"/>
+      <c r="R39" s="2"/>
       <c r="S39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T39" s="15">
+      <c r="T39" s="2">
         <v>13</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V39" s="15">
+      <c r="V39" s="2">
         <v>0</v>
       </c>
       <c r="W39" s="1"/>
@@ -10886,7 +12172,7 @@
       <c r="A40" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B40" s="2">
         <v>2025020809</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -10895,16 +12181,16 @@
       <c r="D40" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="3">
         <v>23.5</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F40" s="2">
         <v>-117</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="2">
         <v>-106</v>
       </c>
-      <c r="H40" s="15">
+      <c r="H40" s="2">
         <v>8480843</v>
       </c>
       <c r="I40" s="1" t="s">
@@ -10913,16 +12199,16 @@
       <c r="J40" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K40" s="15">
-        <v>0</v>
-      </c>
-      <c r="L40" s="19">
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
         <v>23.60000038146973</v>
       </c>
-      <c r="M40" s="19">
+      <c r="M40" s="3">
         <v>0.5117775201797485</v>
       </c>
-      <c r="N40" s="19">
+      <c r="N40" s="3">
         <v>2.355504035949707</v>
       </c>
       <c r="O40" s="1" t="s">
@@ -10931,20 +12217,20 @@
       <c r="P40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q40" s="19">
+      <c r="Q40" s="3">
         <v>-0.02634060382843018</v>
       </c>
-      <c r="R40" s="18"/>
+      <c r="R40" s="2"/>
       <c r="S40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T40" s="15">
+      <c r="T40" s="2">
         <v>20</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V40" s="15">
+      <c r="V40" s="2">
         <v>0</v>
       </c>
       <c r="W40" s="1"/>
@@ -10953,7 +12239,7 @@
       <c r="A41" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B41" s="15">
+      <c r="B41" s="2">
         <v>2025020808</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -10962,16 +12248,16 @@
       <c r="D41" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="3">
         <v>22.5</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="2">
         <v>-120</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="2">
         <v>-120</v>
       </c>
-      <c r="H41" s="15">
+      <c r="H41" s="2">
         <v>8477484</v>
       </c>
       <c r="I41" s="1" t="s">
@@ -10980,16 +12266,16 @@
       <c r="J41" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K41" s="15">
-        <v>0</v>
-      </c>
-      <c r="L41" s="19">
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>22.70000076293945</v>
       </c>
-      <c r="M41" s="19">
+      <c r="M41" s="3">
         <v>0.5345428586006165</v>
       </c>
-      <c r="N41" s="19">
+      <c r="N41" s="3">
         <v>6.908571720123291</v>
       </c>
       <c r="O41" s="1" t="s">
@@ -10998,20 +12284,20 @@
       <c r="P41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q41" s="19">
+      <c r="Q41" s="3">
         <v>-0.01091170310974121</v>
       </c>
-      <c r="R41" s="18"/>
+      <c r="R41" s="2"/>
       <c r="S41" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T41" s="15">
+      <c r="T41" s="2">
         <v>28</v>
       </c>
       <c r="U41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V41" s="15">
+      <c r="V41" s="2">
         <v>0</v>
       </c>
       <c r="W41" s="1"/>
@@ -11020,7 +12306,7 @@
       <c r="A42" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B42" s="15">
+      <c r="B42" s="2">
         <v>2025020809</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -11029,16 +12315,16 @@
       <c r="D42" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="3">
         <v>23.5</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F42" s="2">
         <v>-120</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="2">
         <v>-120</v>
       </c>
-      <c r="H42" s="15">
+      <c r="H42" s="2">
         <v>8480843</v>
       </c>
       <c r="I42" s="1" t="s">
@@ -11047,16 +12333,16 @@
       <c r="J42" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K42" s="15">
-        <v>0</v>
-      </c>
-      <c r="L42" s="19">
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>23.60000038146973</v>
       </c>
-      <c r="M42" s="19">
+      <c r="M42" s="3">
         <v>0.5117775201797485</v>
       </c>
-      <c r="N42" s="19">
+      <c r="N42" s="3">
         <v>2.355504035949707</v>
       </c>
       <c r="O42" s="1" t="s">
@@ -11065,20 +12351,20 @@
       <c r="P42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q42" s="19">
+      <c r="Q42" s="3">
         <v>-0.03367704153060913</v>
       </c>
-      <c r="R42" s="18"/>
+      <c r="R42" s="2"/>
       <c r="S42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T42" s="15">
+      <c r="T42" s="2">
         <v>20</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V42" s="15">
+      <c r="V42" s="2">
         <v>0</v>
       </c>
       <c r="W42" s="1"/>
@@ -11087,7 +12373,7 @@
       <c r="A43" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B43" s="15">
+      <c r="B43" s="2">
         <v>2025020809</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -11096,16 +12382,16 @@
       <c r="D43" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="3">
         <v>23.5</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="2">
         <v>-122</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G43" s="2">
         <v>-102</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H43" s="2">
         <v>8480843</v>
       </c>
       <c r="I43" s="1" t="s">
@@ -11114,16 +12400,16 @@
       <c r="J43" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K43" s="15">
-        <v>0</v>
-      </c>
-      <c r="L43" s="19">
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>23.60000038146973</v>
       </c>
-      <c r="M43" s="19">
+      <c r="M43" s="3">
         <v>0.5117775201797485</v>
       </c>
-      <c r="N43" s="19">
+      <c r="N43" s="3">
         <v>2.355504035949707</v>
       </c>
       <c r="O43" s="1" t="s">
@@ -11132,20 +12418,20 @@
       <c r="P43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q43" s="19">
+      <c r="Q43" s="3">
         <v>-0.01672804355621338</v>
       </c>
-      <c r="R43" s="18"/>
+      <c r="R43" s="2"/>
       <c r="S43" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T43" s="15">
+      <c r="T43" s="2">
         <v>20</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V43" s="15">
+      <c r="V43" s="2">
         <v>0</v>
       </c>
       <c r="W43" s="1"/>
@@ -11154,7 +12440,7 @@
       <c r="A44" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B44" s="15">
+      <c r="B44" s="2">
         <v>2025020806</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -11163,16 +12449,16 @@
       <c r="D44" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="2">
         <v>25</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F44" s="2">
         <v>-120</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="2">
         <v>-120</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H44" s="2">
         <v>8482445</v>
       </c>
       <c r="I44" s="1" t="s">
@@ -11181,16 +12467,16 @@
       <c r="J44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K44" s="15">
+      <c r="K44" s="2">
         <v>1</v>
       </c>
-      <c r="L44" s="19">
+      <c r="L44" s="3">
         <v>24.89999961853027</v>
       </c>
-      <c r="M44" s="19">
+      <c r="M44" s="3">
         <v>0.474114865064621</v>
       </c>
-      <c r="N44" s="19">
+      <c r="N44" s="3">
         <v>5.177026748657227</v>
       </c>
       <c r="O44" s="1" t="s">
@@ -11199,20 +12485,20 @@
       <c r="P44" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q44" s="19">
+      <c r="Q44" s="3">
         <v>-0.01956945657730103</v>
       </c>
-      <c r="R44" s="18"/>
+      <c r="R44" s="2"/>
       <c r="S44" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T44" s="15">
+      <c r="T44" s="2">
         <v>35</v>
       </c>
       <c r="U44" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V44" s="15">
+      <c r="V44" s="2">
         <v>0</v>
       </c>
       <c r="W44" s="1"/>
@@ -11221,7 +12507,7 @@
       <c r="A45" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B45" s="2">
         <v>2025020802</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -11230,16 +12516,16 @@
       <c r="D45" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="3">
         <v>21.5</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="2">
         <v>-124</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="2">
         <v>101</v>
       </c>
-      <c r="H45" s="15">
+      <c r="H45" s="2">
         <v>8478499</v>
       </c>
       <c r="I45" s="1" t="s">
@@ -11248,16 +12534,16 @@
       <c r="J45" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K45" s="15">
-        <v>0</v>
-      </c>
-      <c r="L45" s="19">
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>21.60000038146973</v>
       </c>
-      <c r="M45" s="19">
+      <c r="M45" s="3">
         <v>0.529316246509552</v>
       </c>
-      <c r="N45" s="19">
+      <c r="N45" s="3">
         <v>5.8632493019104</v>
       </c>
       <c r="O45" s="1" t="s">
@@ -11266,20 +12552,20 @@
       <c r="P45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q45" s="19">
+      <c r="Q45" s="3">
         <v>-0.02425515651702881</v>
       </c>
-      <c r="R45" s="18"/>
+      <c r="R45" s="2"/>
       <c r="S45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T45" s="15">
+      <c r="T45" s="2">
         <v>18</v>
       </c>
       <c r="U45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V45" s="15">
+      <c r="V45" s="2">
         <v>0</v>
       </c>
       <c r="W45" s="1"/>
@@ -11288,7 +12574,7 @@
       <c r="A46" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B46" s="15">
+      <c r="B46" s="2">
         <v>2025020804</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -11297,16 +12583,16 @@
       <c r="D46" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="3">
         <v>21.5</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F46" s="2">
         <v>-102</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="2">
         <v>-121</v>
       </c>
-      <c r="H46" s="15">
+      <c r="H46" s="2">
         <v>8479979</v>
       </c>
       <c r="I46" s="1" t="s">
@@ -11315,16 +12601,16 @@
       <c r="J46" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K46" s="15">
+      <c r="K46" s="2">
         <v>1</v>
       </c>
-      <c r="L46" s="19">
+      <c r="L46" s="3">
         <v>21.70000076293945</v>
       </c>
-      <c r="M46" s="19">
+      <c r="M46" s="3">
         <v>0.5429968237876892</v>
       </c>
-      <c r="N46" s="19">
+      <c r="N46" s="3">
         <v>8.599365234375</v>
       </c>
       <c r="O46" s="1" t="s">
@@ -11333,22 +12619,22 @@
       <c r="P46" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Q46" s="19">
+      <c r="Q46" s="3">
         <v>0.02608859539031982</v>
       </c>
-      <c r="R46" s="15">
+      <c r="R46" s="2">
         <v>1</v>
       </c>
       <c r="S46" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T46" s="15">
+      <c r="T46" s="2">
         <v>20</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V46" s="15">
+      <c r="V46" s="2">
         <v>-1</v>
       </c>
       <c r="W46" s="1"/>
@@ -11357,7 +12643,7 @@
       <c r="A47" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B47" s="15">
+      <c r="B47" s="2">
         <v>2025020806</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -11366,16 +12652,16 @@
       <c r="D47" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47" s="3">
         <v>24.5</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F47" s="2">
         <v>-118</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G47" s="2">
         <v>-104</v>
       </c>
-      <c r="H47" s="15">
+      <c r="H47" s="2">
         <v>8482445</v>
       </c>
       <c r="I47" s="1" t="s">
@@ -11384,16 +12670,16 @@
       <c r="J47" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K47" s="15">
+      <c r="K47" s="2">
         <v>1</v>
       </c>
-      <c r="L47" s="19">
+      <c r="L47" s="3">
         <v>24.39999961853027</v>
       </c>
-      <c r="M47" s="19">
+      <c r="M47" s="3">
         <v>0.474205404520035</v>
       </c>
-      <c r="N47" s="19">
+      <c r="N47" s="3">
         <v>5.158919334411621</v>
       </c>
       <c r="O47" s="1" t="s">
@@ -11402,22 +12688,22 @@
       <c r="P47" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q47" s="19">
+      <c r="Q47" s="3">
         <v>0.015990674495697</v>
       </c>
-      <c r="R47" s="15">
+      <c r="R47" s="2">
         <v>1</v>
       </c>
       <c r="S47" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="T47" s="15">
+      <c r="T47" s="2">
         <v>35</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V47" s="15">
+      <c r="V47" s="2">
         <v>-1</v>
       </c>
       <c r="W47" s="1"/>
@@ -11426,7 +12712,7 @@
       <c r="A48" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B48" s="15">
+      <c r="B48" s="2">
         <v>2025020802</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -11435,16 +12721,16 @@
       <c r="D48" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="2">
         <v>26</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F48" s="2">
         <v>-120</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G48" s="2">
         <v>-120</v>
       </c>
-      <c r="H48" s="15">
+      <c r="H48" s="2">
         <v>8476932</v>
       </c>
       <c r="I48" s="1" t="s">
@@ -11453,16 +12739,16 @@
       <c r="J48" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K48" s="15">
+      <c r="K48" s="2">
         <v>1</v>
       </c>
-      <c r="L48" s="19">
+      <c r="L48" s="3">
         <v>25.89999961853027</v>
       </c>
-      <c r="M48" s="19">
+      <c r="M48" s="3">
         <v>0.4886842966079712</v>
       </c>
-      <c r="N48" s="19">
+      <c r="N48" s="3">
         <v>2.263140678405762</v>
       </c>
       <c r="O48" s="1" t="s">
@@ -11471,20 +12757,20 @@
       <c r="P48" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q48" s="19">
+      <c r="Q48" s="3">
         <v>-0.03413885831832886</v>
       </c>
-      <c r="R48" s="18"/>
+      <c r="R48" s="2"/>
       <c r="S48" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T48" s="15">
+      <c r="T48" s="2">
         <v>25</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V48" s="15">
+      <c r="V48" s="2">
         <v>0</v>
       </c>
       <c r="W48" s="1"/>
@@ -11493,7 +12779,7 @@
       <c r="A49" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B49" s="15">
+      <c r="B49" s="2">
         <v>2025020802</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -11502,16 +12788,16 @@
       <c r="D49" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E49" s="3">
         <v>21.5</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F49" s="2">
         <v>-120</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G49" s="2">
         <v>-120</v>
       </c>
-      <c r="H49" s="15">
+      <c r="H49" s="2">
         <v>8478499</v>
       </c>
       <c r="I49" s="1" t="s">
@@ -11520,16 +12806,16 @@
       <c r="J49" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K49" s="15">
-        <v>0</v>
-      </c>
-      <c r="L49" s="19">
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <v>21.60000038146973</v>
       </c>
-      <c r="M49" s="19">
+      <c r="M49" s="3">
         <v>0.529316246509552</v>
       </c>
-      <c r="N49" s="19">
+      <c r="N49" s="3">
         <v>5.8632493019104</v>
       </c>
       <c r="O49" s="1" t="s">
@@ -11538,20 +12824,20 @@
       <c r="P49" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q49" s="19">
+      <c r="Q49" s="3">
         <v>-0.01613831520080566</v>
       </c>
-      <c r="R49" s="18"/>
+      <c r="R49" s="2"/>
       <c r="S49" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T49" s="15">
+      <c r="T49" s="2">
         <v>18</v>
       </c>
       <c r="U49" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V49" s="15">
+      <c r="V49" s="2">
         <v>0</v>
       </c>
       <c r="W49" s="1"/>
@@ -11560,7 +12846,7 @@
       <c r="A50" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B50" s="15">
+      <c r="B50" s="2">
         <v>2025020804</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -11569,16 +12855,16 @@
       <c r="D50" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50" s="3">
         <v>21.5</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F50" s="2">
         <v>-120</v>
       </c>
-      <c r="G50" s="15">
+      <c r="G50" s="2">
         <v>-120</v>
       </c>
-      <c r="H50" s="15">
+      <c r="H50" s="2">
         <v>8479979</v>
       </c>
       <c r="I50" s="1" t="s">
@@ -11587,16 +12873,16 @@
       <c r="J50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K50" s="15">
+      <c r="K50" s="2">
         <v>1</v>
       </c>
-      <c r="L50" s="19">
+      <c r="L50" s="3">
         <v>21.70000076293945</v>
       </c>
-      <c r="M50" s="19">
+      <c r="M50" s="3">
         <v>0.5429968237876892</v>
       </c>
-      <c r="N50" s="19">
+      <c r="N50" s="3">
         <v>8.599365234375</v>
       </c>
       <c r="O50" s="1" t="s">
@@ -11605,20 +12891,20 @@
       <c r="P50" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Q50" s="19">
+      <c r="Q50" s="3">
         <v>0.02608859539031982</v>
       </c>
-      <c r="R50" s="18"/>
+      <c r="R50" s="2"/>
       <c r="S50" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T50" s="15">
+      <c r="T50" s="2">
         <v>20</v>
       </c>
       <c r="U50" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V50" s="15">
+      <c r="V50" s="2">
         <v>0</v>
       </c>
       <c r="W50" s="1"/>
@@ -11627,7 +12913,7 @@
       <c r="A51" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B51" s="15">
+      <c r="B51" s="2">
         <v>2025020809</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -11636,16 +12922,16 @@
       <c r="D51" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E51" s="3">
         <v>24.5</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F51" s="2">
         <v>-110</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="2">
         <v>-112</v>
       </c>
-      <c r="H51" s="15">
+      <c r="H51" s="2">
         <v>8475831</v>
       </c>
       <c r="I51" s="1" t="s">
@@ -11654,16 +12940,16 @@
       <c r="J51" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K51" s="15">
+      <c r="K51" s="2">
         <v>1</v>
       </c>
-      <c r="L51" s="19">
+      <c r="L51" s="3">
         <v>24.5</v>
       </c>
-      <c r="M51" s="19">
+      <c r="M51" s="3">
         <v>0.5015108585357666</v>
       </c>
-      <c r="N51" s="19">
+      <c r="N51" s="3">
         <v>0.3021717071533203</v>
       </c>
       <c r="O51" s="1" t="s">
@@ -11672,20 +12958,20 @@
       <c r="P51" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q51" s="19">
+      <c r="Q51" s="3">
         <v>-0.02229869365692139</v>
       </c>
-      <c r="R51" s="18"/>
+      <c r="R51" s="2"/>
       <c r="S51" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T51" s="15">
+      <c r="T51" s="2">
         <v>27</v>
       </c>
       <c r="U51" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V51" s="15">
+      <c r="V51" s="2">
         <v>0</v>
       </c>
       <c r="W51" s="1"/>
@@ -11694,7 +12980,7 @@
       <c r="A52" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B52" s="15">
+      <c r="B52" s="2">
         <v>2025020806</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -11703,16 +12989,16 @@
       <c r="D52" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E52" s="3">
         <v>25.5</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F52" s="2">
         <v>-104</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G52" s="2">
         <v>-118</v>
       </c>
-      <c r="H52" s="15">
+      <c r="H52" s="2">
         <v>8480313</v>
       </c>
       <c r="I52" s="1" t="s">
@@ -11721,16 +13007,16 @@
       <c r="J52" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K52" s="15">
-        <v>0</v>
-      </c>
-      <c r="L52" s="19">
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>25.5</v>
       </c>
-      <c r="M52" s="19">
+      <c r="M52" s="3">
         <v>0.496455579996109</v>
       </c>
-      <c r="N52" s="19">
+      <c r="N52" s="3">
         <v>0.7088840007781982</v>
       </c>
       <c r="O52" s="1" t="s">
@@ -11739,20 +13025,20 @@
       <c r="P52" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q52" s="19">
+      <c r="Q52" s="3">
         <v>-0.01334837079048157</v>
       </c>
-      <c r="R52" s="18"/>
+      <c r="R52" s="2"/>
       <c r="S52" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T52" s="15">
+      <c r="T52" s="2">
         <v>25</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V52" s="15">
+      <c r="V52" s="2">
         <v>0</v>
       </c>
       <c r="W52" s="1"/>
@@ -11761,7 +13047,7 @@
       <c r="A53" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B53" s="2">
         <v>2025020807</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -11770,16 +13056,16 @@
       <c r="D53" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E53" s="3">
         <v>22.5</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F53" s="2">
         <v>-121</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G53" s="2">
         <v>-102</v>
       </c>
-      <c r="H53" s="15">
+      <c r="H53" s="2">
         <v>8474593</v>
       </c>
       <c r="I53" s="1" t="s">
@@ -11788,16 +13074,16 @@
       <c r="J53" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K53" s="15">
-        <v>0</v>
-      </c>
-      <c r="L53" s="19">
+      <c r="K53" s="2">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3">
         <v>22.60000038146973</v>
       </c>
-      <c r="M53" s="19">
+      <c r="M53" s="3">
         <v>0.5192741751670837</v>
       </c>
-      <c r="N53" s="19">
+      <c r="N53" s="3">
         <v>3.854835033416748</v>
       </c>
       <c r="O53" s="1" t="s">
@@ -11806,20 +13092,20 @@
       <c r="P53" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q53" s="19">
+      <c r="Q53" s="3">
         <v>-0.02422469854354858</v>
       </c>
-      <c r="R53" s="18"/>
+      <c r="R53" s="2"/>
       <c r="S53" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T53" s="15">
+      <c r="T53" s="2">
         <v>21</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V53" s="15">
+      <c r="V53" s="2">
         <v>0</v>
       </c>
       <c r="W53" s="1"/>
@@ -11828,7 +13114,7 @@
       <c r="A54" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="15">
+      <c r="B54" s="2">
         <v>2025020807</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -11837,16 +13123,16 @@
       <c r="D54" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E54" s="3">
         <v>24.5</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F54" s="2">
         <v>-122</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G54" s="2">
         <v>100</v>
       </c>
-      <c r="H54" s="15">
+      <c r="H54" s="2">
         <v>8480947</v>
       </c>
       <c r="I54" s="1" t="s">
@@ -11855,16 +13141,16 @@
       <c r="J54" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K54" s="15">
+      <c r="K54" s="2">
         <v>1</v>
       </c>
-      <c r="L54" s="19">
+      <c r="L54" s="3">
         <v>24.5</v>
       </c>
-      <c r="M54" s="19">
+      <c r="M54" s="3">
         <v>0.4907509386539459</v>
       </c>
-      <c r="N54" s="19">
+      <c r="N54" s="3">
         <v>1.849812269210815</v>
       </c>
       <c r="O54" s="1" t="s">
@@ -11873,20 +13159,20 @@
       <c r="P54" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q54" s="19">
+      <c r="Q54" s="3">
         <v>0.009249091148376465</v>
       </c>
-      <c r="R54" s="18"/>
+      <c r="R54" s="2"/>
       <c r="S54" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T54" s="15">
+      <c r="T54" s="2">
         <v>19</v>
       </c>
       <c r="U54" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V54" s="15">
+      <c r="V54" s="2">
         <v>0</v>
       </c>
       <c r="W54" s="1"/>
@@ -11895,7 +13181,7 @@
       <c r="A55" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B55" s="15">
+      <c r="B55" s="2">
         <v>2025020807</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -11904,16 +13190,16 @@
       <c r="D55" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E55" s="3">
         <v>22.5</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F55" s="2">
         <v>-120</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G55" s="2">
         <v>-120</v>
       </c>
-      <c r="H55" s="15">
+      <c r="H55" s="2">
         <v>8474593</v>
       </c>
       <c r="I55" s="1" t="s">
@@ -11922,16 +13208,16 @@
       <c r="J55" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K55" s="15">
-        <v>0</v>
-      </c>
-      <c r="L55" s="19">
+      <c r="K55" s="2">
+        <v>0</v>
+      </c>
+      <c r="L55" s="3">
         <v>22.60000038146973</v>
       </c>
-      <c r="M55" s="19">
+      <c r="M55" s="3">
         <v>0.5192741751670837</v>
       </c>
-      <c r="N55" s="19">
+      <c r="N55" s="3">
         <v>3.854835033416748</v>
       </c>
       <c r="O55" s="1" t="s">
@@ -11940,20 +13226,20 @@
       <c r="P55" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q55" s="19">
+      <c r="Q55" s="3">
         <v>-0.02618038654327393</v>
       </c>
-      <c r="R55" s="18"/>
+      <c r="R55" s="2"/>
       <c r="S55" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T55" s="15">
+      <c r="T55" s="2">
         <v>21</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V55" s="15">
+      <c r="V55" s="2">
         <v>0</v>
       </c>
       <c r="W55" s="1"/>
@@ -11963,7 +13249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -14093,7 +15379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -15253,7 +16539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -16456,7 +17742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -17714,350 +19000,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:W7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2025020767</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2025020767</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2025020768</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2025020768</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2025020769</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2025020769</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="212">
   <si>
     <t>game_date</t>
   </si>
@@ -802,23 +802,23 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -7449,7 +7449,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -7472,7 +7472,7 @@
     <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="19" max="19" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -7481,73 +7481,73 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="W1" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7555,7 +7555,7 @@
       <c r="A2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="15">
         <v>2025020819</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -7564,16 +7564,16 @@
       <c r="D2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>28.5</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="15">
         <v>-125</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="15">
         <v>102</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="15">
         <v>8479361</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -7582,16 +7582,16 @@
       <c r="J2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="15">
         <v>1</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="16">
         <v>28.39999961853027</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="16">
         <v>0.4716980457305908</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="16">
         <v>5.660390853881836</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -7600,10 +7600,10 @@
       <c r="P2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Q2" s="17">
+      <c r="Q2" s="16">
         <v>0.033252447843552</v>
       </c>
-      <c r="R2" s="12">
+      <c r="R2" s="15">
         <v>1</v>
       </c>
       <c r="S2" s="1" t="s">
@@ -7618,7 +7618,7 @@
       <c r="A3" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="15">
         <v>2025020820</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -7627,16 +7627,16 @@
       <c r="D3" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <v>22.5</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="15">
         <v>-105</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="15">
         <v>-118</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="15">
         <v>8474593</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -7645,16 +7645,16 @@
       <c r="J3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K3" s="12">
-        <v>0</v>
-      </c>
-      <c r="L3" s="17">
+      <c r="K3" s="15">
+        <v>0</v>
+      </c>
+      <c r="L3" s="16">
         <v>22.70000076293945</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="16">
         <v>0.5359347462654114</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="16">
         <v>7.186949253082275</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -7663,10 +7663,10 @@
       <c r="P3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3" s="16">
         <v>0.02373963594436646</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="15">
         <v>1</v>
       </c>
       <c r="S3" s="1" t="s">
@@ -7681,7 +7681,7 @@
       <c r="A4" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="15">
         <v>2025020823</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -7690,16 +7690,16 @@
       <c r="D4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>21.5</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="15">
         <v>-103</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="15">
         <v>-121</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="15">
         <v>8480193</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -7708,16 +7708,16 @@
       <c r="J4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K4" s="12">
-        <v>0</v>
-      </c>
-      <c r="L4" s="17">
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+      <c r="L4" s="16">
         <v>21.60000038146973</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="16">
         <v>0.5226746797561646</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="16">
         <v>4.53493595123291</v>
       </c>
       <c r="O4" s="1" t="s">
@@ -7726,10 +7726,10 @@
       <c r="P4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="Q4" s="16">
         <v>0.015285491943359</v>
       </c>
-      <c r="R4" s="18"/>
+      <c r="R4" s="17"/>
       <c r="S4" s="1" t="s">
         <v>30</v>
       </c>
@@ -7742,7 +7742,7 @@
       <c r="A5" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="15">
         <v>2025020823</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -7751,16 +7751,16 @@
       <c r="D5" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>25.5</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="15">
         <v>-120</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="15">
         <v>-104</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="15">
         <v>8481519</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -7769,16 +7769,16 @@
       <c r="J5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="15">
         <v>1</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="16">
         <v>25.39999961853027</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="16">
         <v>0.4776476323604584</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="16">
         <v>4.470473289489746</v>
       </c>
       <c r="O5" s="1" t="s">
@@ -7787,10 +7787,10 @@
       <c r="P5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="16">
         <v>0.012548387050629</v>
       </c>
-      <c r="R5" s="18"/>
+      <c r="R5" s="17"/>
       <c r="S5" s="1" t="s">
         <v>30</v>
       </c>
@@ -7803,7 +7803,7 @@
       <c r="A6" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="15">
         <v>2025020824</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -7812,16 +7812,16 @@
       <c r="D6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>24.5</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="15">
         <v>-124</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="15">
         <v>101</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="15">
         <v>8481692</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -7830,16 +7830,16 @@
       <c r="J6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="15">
         <v>1</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="16">
         <v>24.5</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="16">
         <v>0.4943341314792633</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="16">
         <v>1.133173704147339</v>
       </c>
       <c r="O6" s="1" t="s">
@@ -7848,10 +7848,10 @@
       <c r="P6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="16">
         <v>0.008153468370438</v>
       </c>
-      <c r="R6" s="18"/>
+      <c r="R6" s="17"/>
       <c r="S6" s="1" t="s">
         <v>30</v>
       </c>
@@ -7864,7 +7864,7 @@
       <c r="A7" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="15">
         <v>2025020823</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -7873,16 +7873,16 @@
       <c r="D7" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>25.5</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="15">
         <v>-120</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="15">
         <v>-120</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="15">
         <v>8481519</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -7891,16 +7891,16 @@
       <c r="J7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="15">
         <v>1</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="16">
         <v>25.39999961853027</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="16">
         <v>0.4776476323604584</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="16">
         <v>4.470473289489746</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -7909,10 +7909,10 @@
       <c r="P7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="16">
         <v>-0.02310222387313843</v>
       </c>
-      <c r="R7" s="18"/>
+      <c r="R7" s="17"/>
       <c r="S7" s="1" t="s">
         <v>30</v>
       </c>
@@ -7925,7 +7925,7 @@
       <c r="A8" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="15">
         <v>2025020823</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -7934,16 +7934,16 @@
       <c r="D8" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>21.5</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="15">
         <v>-120</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="15">
         <v>-120</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="15">
         <v>8480193</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -7952,16 +7952,16 @@
       <c r="J8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K8" s="12">
-        <v>0</v>
-      </c>
-      <c r="L8" s="17">
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16">
         <v>21.60000038146973</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="16">
         <v>0.5226746797561646</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="16">
         <v>4.53493595123291</v>
       </c>
       <c r="O8" s="1" t="s">
@@ -7970,10 +7970,10 @@
       <c r="P8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="16">
         <v>-0.02277988195419312</v>
       </c>
-      <c r="R8" s="18"/>
+      <c r="R8" s="17"/>
       <c r="S8" s="1" t="s">
         <v>30</v>
       </c>
@@ -7986,7 +7986,7 @@
       <c r="A9" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="15">
         <v>2025020824</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -7995,16 +7995,16 @@
       <c r="D9" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <v>24.5</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="15">
         <v>-120</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="15">
         <v>-120</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="15">
         <v>8481692</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -8013,16 +8013,16 @@
       <c r="J9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="15">
         <v>1</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="16">
         <v>24.5</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="16">
         <v>0.4943341314792633</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="16">
         <v>1.133173704147339</v>
       </c>
       <c r="O9" s="1" t="s">
@@ -8031,10 +8031,10 @@
       <c r="P9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="16">
         <v>-0.03978866338729858</v>
       </c>
-      <c r="R9" s="18"/>
+      <c r="R9" s="17"/>
       <c r="S9" s="1" t="s">
         <v>30</v>
       </c>
@@ -8047,7 +8047,7 @@
       <c r="A10" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="15">
         <v>2025020819</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -8056,16 +8056,16 @@
       <c r="D10" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>28.5</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="15">
         <v>-145</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="15">
         <v>112</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="15">
         <v>8479361</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -8074,16 +8074,16 @@
       <c r="J10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="15">
         <v>1</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="16">
         <v>28.39999961853027</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="16">
         <v>0.4716980457305908</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="16">
         <v>5.660390853881836</v>
       </c>
       <c r="O10" s="1" t="s">
@@ -8092,10 +8092,10 @@
       <c r="P10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="Q10" s="16">
         <v>0.05660384893417358</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R10" s="15">
         <v>2</v>
       </c>
       <c r="S10" s="1" t="s">
@@ -8110,7 +8110,7 @@
       <c r="A11" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="15">
         <v>2025020819</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -8119,16 +8119,16 @@
       <c r="D11" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="16">
         <v>22.5</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="15">
         <v>-106</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="15">
         <v>-117</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="15">
         <v>8478406</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -8137,16 +8137,16 @@
       <c r="J11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="12">
-        <v>0</v>
-      </c>
-      <c r="L11" s="17">
+      <c r="K11" s="15">
+        <v>0</v>
+      </c>
+      <c r="L11" s="16">
         <v>22.70000076293945</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="16">
         <v>0.5326666235923767</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="16">
         <v>6.533324718475342</v>
       </c>
       <c r="O11" s="1" t="s">
@@ -8155,10 +8155,10 @@
       <c r="P11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="Q11" s="16">
         <v>0.018103539943695</v>
       </c>
-      <c r="R11" s="18"/>
+      <c r="R11" s="17"/>
       <c r="S11" s="1" t="s">
         <v>30</v>
       </c>
@@ -8171,7 +8171,7 @@
       <c r="A12" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="15">
         <v>2025020820</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -8180,16 +8180,16 @@
       <c r="D12" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>22.5</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="15">
         <v>-120</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="15">
         <v>-120</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="15">
         <v>8474593</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -8198,16 +8198,16 @@
       <c r="J12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="17">
+      <c r="K12" s="15">
+        <v>0</v>
+      </c>
+      <c r="L12" s="16">
         <v>22.70000076293945</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="16">
         <v>0.5359347462654114</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="16">
         <v>7.186949253082275</v>
       </c>
       <c r="O12" s="1" t="s">
@@ -8216,10 +8216,10 @@
       <c r="P12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q12" s="17">
-        <v>-0.009519815444946289</v>
-      </c>
-      <c r="R12" s="18"/>
+      <c r="Q12" s="16">
+        <v>-0.009519815444946</v>
+      </c>
+      <c r="R12" s="17"/>
       <c r="S12" s="1" t="s">
         <v>30</v>
       </c>
@@ -8227,6 +8227,191 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="15">
+        <v>2025020819</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="16">
+        <v>22.5</v>
+      </c>
+      <c r="F13" s="15">
+        <v>-120</v>
+      </c>
+      <c r="G13" s="15">
+        <v>-120</v>
+      </c>
+      <c r="H13" s="15">
+        <v>8478406</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="15">
+        <v>0</v>
+      </c>
+      <c r="L13" s="16">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="M13" s="16">
+        <v>0.5326666235923767</v>
+      </c>
+      <c r="N13" s="16">
+        <v>6.533324718475342</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>-0.012787938117981</v>
+      </c>
+      <c r="R13" s="17"/>
+      <c r="S13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="15">
+        <v>2025020819</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="16">
+        <v>22.5</v>
+      </c>
+      <c r="F14" s="15">
+        <v>-109</v>
+      </c>
+      <c r="G14" s="15">
+        <v>-119</v>
+      </c>
+      <c r="H14" s="15">
+        <v>8478406</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0</v>
+      </c>
+      <c r="L14" s="16">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="M14" s="16">
+        <v>0.5326666235923767</v>
+      </c>
+      <c r="N14" s="16">
+        <v>6.533324718475342</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>0.0111355185508728</v>
+      </c>
+      <c r="R14" s="17"/>
+      <c r="S14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="15">
+        <v>2025020820</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="16">
+        <v>22.5</v>
+      </c>
+      <c r="F15" s="15">
+        <v>-108</v>
+      </c>
+      <c r="G15" s="15">
+        <v>-120</v>
+      </c>
+      <c r="H15" s="15">
+        <v>8474593</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="16">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="M15" s="16">
+        <v>0.5359347462654114</v>
+      </c>
+      <c r="N15" s="16">
+        <v>7.186949253082275</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>0.016703963279724</v>
+      </c>
+      <c r="R15" s="17">
+        <v>1</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8261,7 +8446,7 @@
     <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="19" max="19" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -8461,7 +8646,7 @@
       <c r="Q3" s="3">
         <v>-0.01456844806671143</v>
       </c>
-      <c r="R3" s="12"/>
+      <c r="R3" s="2"/>
       <c r="S3" s="1" t="s">
         <v>30</v>
       </c>
@@ -8528,7 +8713,7 @@
       <c r="Q4" s="3">
         <v>-0.01076918840408325</v>
       </c>
-      <c r="R4" s="12"/>
+      <c r="R4" s="2"/>
       <c r="S4" s="1" t="s">
         <v>30</v>
       </c>
@@ -8595,7 +8780,7 @@
       <c r="Q5" s="3">
         <v>-0.01323801279067993</v>
       </c>
-      <c r="R5" s="12"/>
+      <c r="R5" s="2"/>
       <c r="S5" s="1" t="s">
         <v>30</v>
       </c>
@@ -8731,7 +8916,7 @@
       <c r="Q7" s="3">
         <v>0.003418862819671631</v>
       </c>
-      <c r="R7" s="12"/>
+      <c r="R7" s="2"/>
       <c r="S7" s="1" t="s">
         <v>30</v>
       </c>
@@ -8798,7 +8983,7 @@
       <c r="Q8" s="3">
         <v>0.01165533065795898</v>
       </c>
-      <c r="R8" s="12"/>
+      <c r="R8" s="2"/>
       <c r="S8" s="1" t="s">
         <v>30</v>
       </c>
@@ -9003,7 +9188,7 @@
       <c r="Q11" s="3">
         <v>-0.01742786169052124</v>
       </c>
-      <c r="R11" s="12"/>
+      <c r="R11" s="2"/>
       <c r="S11" s="1" t="s">
         <v>30</v>
       </c>
@@ -9070,7 +9255,7 @@
       <c r="Q12" s="3">
         <v>-0.02628129720687866</v>
       </c>
-      <c r="R12" s="12"/>
+      <c r="R12" s="2"/>
       <c r="S12" s="1" t="s">
         <v>30</v>
       </c>
@@ -9137,7 +9322,7 @@
       <c r="Q13" s="3">
         <v>0.003040581941604614</v>
       </c>
-      <c r="R13" s="12"/>
+      <c r="R13" s="2"/>
       <c r="S13" s="1" t="s">
         <v>30</v>
       </c>
@@ -9204,7 +9389,7 @@
       <c r="Q14" s="3">
         <v>0.005803912878036499</v>
       </c>
-      <c r="R14" s="12"/>
+      <c r="R14" s="2"/>
       <c r="S14" s="1" t="s">
         <v>30</v>
       </c>
@@ -9271,7 +9456,7 @@
       <c r="Q15" s="3">
         <v>-0.02239546179771423</v>
       </c>
-      <c r="R15" s="12"/>
+      <c r="R15" s="2"/>
       <c r="S15" s="1" t="s">
         <v>30</v>
       </c>
@@ -9338,7 +9523,7 @@
       <c r="Q16" s="3">
         <v>-0.01233145594596863</v>
       </c>
-      <c r="R16" s="12"/>
+      <c r="R16" s="2"/>
       <c r="S16" s="1" t="s">
         <v>30</v>
       </c>
@@ -9405,7 +9590,7 @@
       <c r="Q17" s="3">
         <v>-0.03937101364135742</v>
       </c>
-      <c r="R17" s="12"/>
+      <c r="R17" s="2"/>
       <c r="S17" s="1" t="s">
         <v>30</v>
       </c>
@@ -9472,7 +9657,7 @@
       <c r="Q18" s="3">
         <v>-0.02799868583679199</v>
       </c>
-      <c r="R18" s="12"/>
+      <c r="R18" s="2"/>
       <c r="S18" s="1" t="s">
         <v>30</v>
       </c>
@@ -9539,7 +9724,7 @@
       <c r="Q19" s="3">
         <v>-0.01643240451812744</v>
       </c>
-      <c r="R19" s="12"/>
+      <c r="R19" s="2"/>
       <c r="S19" s="1" t="s">
         <v>30</v>
       </c>
@@ -9606,7 +9791,7 @@
       <c r="Q20" s="3">
         <v>-0.02183997631072998</v>
       </c>
-      <c r="R20" s="12"/>
+      <c r="R20" s="2"/>
       <c r="S20" s="1" t="s">
         <v>30</v>
       </c>
@@ -9673,7 +9858,7 @@
       <c r="Q21" s="3">
         <v>-0.03045147657394409</v>
       </c>
-      <c r="R21" s="12"/>
+      <c r="R21" s="2"/>
       <c r="S21" s="1" t="s">
         <v>30</v>
       </c>
@@ -9740,7 +9925,7 @@
       <c r="Q22" s="3">
         <v>-0.0446588397026062</v>
       </c>
-      <c r="R22" s="12"/>
+      <c r="R22" s="2"/>
       <c r="S22" s="1" t="s">
         <v>30</v>
       </c>
@@ -9807,7 +9992,7 @@
       <c r="Q23" s="3">
         <v>-0.04354465007781982</v>
       </c>
-      <c r="R23" s="12"/>
+      <c r="R23" s="2"/>
       <c r="S23" s="1" t="s">
         <v>30</v>
       </c>
@@ -9874,7 +10059,7 @@
       <c r="Q24" s="3">
         <v>-0.02057152986526489</v>
       </c>
-      <c r="R24" s="12"/>
+      <c r="R24" s="2"/>
       <c r="S24" s="1" t="s">
         <v>30</v>
       </c>
@@ -9941,7 +10126,7 @@
       <c r="Q25" s="3">
         <v>-0.04531818628311157</v>
       </c>
-      <c r="R25" s="12"/>
+      <c r="R25" s="2"/>
       <c r="S25" s="1" t="s">
         <v>30</v>
       </c>

--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -8339,7 +8339,7 @@
         <v>29</v>
       </c>
       <c r="Q14" s="16">
-        <v>0.0111355185508728</v>
+        <v>0.011135518550873</v>
       </c>
       <c r="R14" s="17"/>
       <c r="S14" s="1" t="s">
@@ -8406,7 +8406,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>

--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -8,19 +8,20 @@
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Settings" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2026-01-25" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2026-01-24" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="2026-01-23" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="2026-01-22" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="2026-01-21" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="2026-01-20" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="2026-01-19" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="2026-01-18" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="2026-01-17" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="2026-01-16" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="2026-01-15" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="2026-01-14" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="2026-01-13" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="2026-01-26" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2026-01-25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2026-01-24" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2026-01-23" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2026-01-22" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="2026-01-21" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="2026-01-20" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="2026-01-19" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="2026-01-18" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="2026-01-17" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="2026-01-16" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="2026-01-15" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="2026-01-14" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="2026-01-13" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -30,7 +31,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -71,13 +72,23 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004472C4"/>
+        <bgColor rgb="004472C4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -135,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
@@ -214,6 +225,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -951,6 +965,1619 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:W21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="12" max="12"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="13" max="13"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="19" max="19"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="21" max="21"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="22" max="22"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>game_date</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>game_id</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>goalie_name</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>betting_line</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>line_over</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>line_under</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>goalie_id</t>
+        </is>
+      </c>
+      <c r="I1" s="5" t="inlineStr">
+        <is>
+          <t>team_abbrev</t>
+        </is>
+      </c>
+      <c r="J1" s="5" t="inlineStr">
+        <is>
+          <t>opponent_team</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>is_home</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>predicted_saves</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>prob_over</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
+        <is>
+          <t>confidence_pct</t>
+        </is>
+      </c>
+      <c r="O1" s="5" t="inlineStr">
+        <is>
+          <t>confidence_bucket</t>
+        </is>
+      </c>
+      <c r="P1" s="5" t="inlineStr">
+        <is>
+          <t>recommendation</t>
+        </is>
+      </c>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>ev</t>
+        </is>
+      </c>
+      <c r="R1" s="4" t="inlineStr">
+        <is>
+          <t>bet_amount</t>
+        </is>
+      </c>
+      <c r="S1" s="5" t="inlineStr">
+        <is>
+          <t>bet_selection</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>actual_saves</t>
+        </is>
+      </c>
+      <c r="U1" s="5" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>profit_loss</t>
+        </is>
+      </c>
+      <c r="W1" s="5" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>2025020770</v>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="n"/>
+      <c r="E2" s="3" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="5" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="J2" s="5" t="inlineStr">
+        <is>
+          <t>BUF</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3" t="n"/>
+      <c r="M2" s="3" t="n"/>
+      <c r="N2" s="3" t="n"/>
+      <c r="O2" s="5" t="n"/>
+      <c r="P2" s="5" t="n"/>
+      <c r="Q2" s="3" t="n"/>
+      <c r="R2" s="2" t="n"/>
+      <c r="S2" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="n"/>
+      <c r="U2" s="5" t="n"/>
+      <c r="V2" s="2" t="n"/>
+      <c r="W2" s="5" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2025020770</v>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>Luukkonen</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>-112</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>-117</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>8480045</v>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>BUF</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>27.39999961853027</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>0.4749084413051605</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>5.018311500549316</v>
+      </c>
+      <c r="O3" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P3" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>-0.01407897472381592</v>
+      </c>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="U3" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="5" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>2025020771</v>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>COL</t>
+        </is>
+      </c>
+      <c r="J4" s="5" t="inlineStr">
+        <is>
+          <t>WSH</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="n"/>
+      <c r="M4" s="3" t="n"/>
+      <c r="N4" s="3" t="n"/>
+      <c r="O4" s="5" t="n"/>
+      <c r="P4" s="5" t="n"/>
+      <c r="Q4" s="3" t="n"/>
+      <c r="R4" s="2" t="n"/>
+      <c r="S4" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="n"/>
+      <c r="U4" s="5" t="n"/>
+      <c r="V4" s="2" t="n"/>
+      <c r="W4" s="5" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>2025020771</v>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>WSH</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>COL</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3" t="n"/>
+      <c r="M5" s="3" t="n"/>
+      <c r="N5" s="3" t="n"/>
+      <c r="O5" s="5" t="n"/>
+      <c r="P5" s="5" t="n"/>
+      <c r="Q5" s="3" t="n"/>
+      <c r="R5" s="2" t="n"/>
+      <c r="S5" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="n"/>
+      <c r="U5" s="5" t="n"/>
+      <c r="V5" s="2" t="n"/>
+      <c r="W5" s="5" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>2025020772</v>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>PIT</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3" t="n"/>
+      <c r="M6" s="3" t="n"/>
+      <c r="N6" s="3" t="n"/>
+      <c r="O6" s="5" t="n"/>
+      <c r="P6" s="5" t="n"/>
+      <c r="Q6" s="3" t="n"/>
+      <c r="R6" s="2" t="n"/>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="n"/>
+      <c r="U6" s="5" t="n"/>
+      <c r="V6" s="2" t="n"/>
+      <c r="W6" s="5" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>2025020772</v>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>PIT</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="n"/>
+      <c r="M7" s="3" t="n"/>
+      <c r="N7" s="3" t="n"/>
+      <c r="O7" s="5" t="n"/>
+      <c r="P7" s="5" t="n"/>
+      <c r="Q7" s="3" t="n"/>
+      <c r="R7" s="2" t="n"/>
+      <c r="S7" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="n"/>
+      <c r="U7" s="5" t="n"/>
+      <c r="V7" s="2" t="n"/>
+      <c r="W7" s="5" t="n"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>2025020773</v>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>bobrovsky</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>-109</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>8475683</v>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="J8" s="5" t="inlineStr">
+        <is>
+          <t>SJS</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>0.52213054895401</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>4.426109790802002</v>
+      </c>
+      <c r="O8" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P8" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>0.0005994439125061035</v>
+      </c>
+      <c r="R8" s="2" t="n"/>
+      <c r="S8" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="U8" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="5" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>2025020773</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>Nedeljkovic</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>-124</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>-106</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>8477968</v>
+      </c>
+      <c r="I9" s="5" t="inlineStr">
+        <is>
+          <t>SJS</t>
+        </is>
+      </c>
+      <c r="J9" s="5" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>26.39999961853027</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>0.475313812494278</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>4.937237739562988</v>
+      </c>
+      <c r="O9" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P9" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>0.01012313365936279</v>
+      </c>
+      <c r="R9" s="2" t="n"/>
+      <c r="S9" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="U9" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="5" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>2025020774</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>woll</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>-124</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>8479361</v>
+      </c>
+      <c r="I10" s="5" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="J10" s="5" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>25.39999961853027</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>0.4739620089530945</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>5.207598209381104</v>
+      </c>
+      <c r="O10" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P10" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q10" s="3" t="n">
+        <v>-0.02355042099952698</v>
+      </c>
+      <c r="R10" s="2" t="n"/>
+      <c r="S10" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="U10" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="5" t="n"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>2025020774</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>Gustavsson</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>-124</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>8479406</v>
+      </c>
+      <c r="I11" s="5" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="J11" s="5" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>0.5010139346122742</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>0.202786922454834</v>
+      </c>
+      <c r="O11" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P11" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q11" s="3" t="n">
+        <v>0.00101393461227417</v>
+      </c>
+      <c r="R11" s="2" t="n"/>
+      <c r="S11" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="U11" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="5" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>2025020775</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="2" t="n"/>
+      <c r="I12" s="5" t="inlineStr">
+        <is>
+          <t>VGK</t>
+        </is>
+      </c>
+      <c r="J12" s="5" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3" t="n"/>
+      <c r="M12" s="3" t="n"/>
+      <c r="N12" s="3" t="n"/>
+      <c r="O12" s="5" t="n"/>
+      <c r="P12" s="5" t="n"/>
+      <c r="Q12" s="3" t="n"/>
+      <c r="R12" s="2" t="n"/>
+      <c r="S12" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="n"/>
+      <c r="U12" s="5" t="n"/>
+      <c r="V12" s="2" t="n"/>
+      <c r="W12" s="5" t="n"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>2025020775</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>ersson</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>-103</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>-127</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>8481035</v>
+      </c>
+      <c r="I13" s="5" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="J13" s="5" t="inlineStr">
+        <is>
+          <t>VGK</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>0.5105539560317993</v>
+      </c>
+      <c r="N13" s="3" t="n">
+        <v>2.110791206359863</v>
+      </c>
+      <c r="O13" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P13" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q13" s="3" t="n">
+        <v>0.003164768218994141</v>
+      </c>
+      <c r="R13" s="2" t="n"/>
+      <c r="S13" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="U13" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="5" t="n"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>2025020776</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>knight</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>-130</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>8481519</v>
+      </c>
+      <c r="I14" s="5" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="J14" s="5" t="inlineStr">
+        <is>
+          <t>WPG</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M14" s="3" t="n">
+        <v>0.5219337344169617</v>
+      </c>
+      <c r="N14" s="3" t="n">
+        <v>4.386746883392334</v>
+      </c>
+      <c r="O14" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P14" s="5" t="inlineStr">
+        <is>
+          <t>OVER</t>
+        </is>
+      </c>
+      <c r="Q14" s="3" t="n">
+        <v>0.02193373441696167</v>
+      </c>
+      <c r="R14" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" s="5" t="inlineStr">
+        <is>
+          <t>OVER</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="U14" s="5" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W14" s="5" t="n"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>2025020776</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>hellebuyck</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>-134</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>8476945</v>
+      </c>
+      <c r="I15" s="5" t="inlineStr">
+        <is>
+          <t>WPG</t>
+        </is>
+      </c>
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>22.60000038146973</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <v>0.5249274969100952</v>
+      </c>
+      <c r="N15" s="3" t="n">
+        <v>4.985499382019043</v>
+      </c>
+      <c r="O15" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P15" s="5" t="inlineStr">
+        <is>
+          <t>OVER</t>
+        </is>
+      </c>
+      <c r="Q15" s="3" t="n">
+        <v>0.02987799048423767</v>
+      </c>
+      <c r="R15" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" s="5" t="inlineStr">
+        <is>
+          <t>OVER</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="U15" s="5" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="W15" s="5" t="n"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>2025020777</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>cooley</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>-103</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>-121</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>8482445</v>
+      </c>
+      <c r="I16" s="5" t="inlineStr">
+        <is>
+          <t>CGY</t>
+        </is>
+      </c>
+      <c r="J16" s="5" t="inlineStr">
+        <is>
+          <t>NJD</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3" t="n">
+        <v>25.39999961853027</v>
+      </c>
+      <c r="M16" s="3" t="n">
+        <v>0.4782617092132568</v>
+      </c>
+      <c r="N16" s="3" t="n">
+        <v>4.347658157348633</v>
+      </c>
+      <c r="O16" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P16" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q16" s="3" t="n">
+        <v>-0.02577304840087891</v>
+      </c>
+      <c r="R16" s="2" t="n"/>
+      <c r="S16" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="U16" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="5" t="n"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>2025020777</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>markstrom</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>-106</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>-117</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>8474593</v>
+      </c>
+      <c r="I17" s="5" t="inlineStr">
+        <is>
+          <t>NJD</t>
+        </is>
+      </c>
+      <c r="J17" s="5" t="inlineStr">
+        <is>
+          <t>CGY</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>24.29999923706055</v>
+      </c>
+      <c r="M17" s="3" t="n">
+        <v>0.4586157202720642</v>
+      </c>
+      <c r="N17" s="3" t="n">
+        <v>8.27685546875</v>
+      </c>
+      <c r="O17" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P17" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q17" s="3" t="n">
+        <v>0.002213776111602783</v>
+      </c>
+      <c r="R17" s="2" t="n"/>
+      <c r="S17" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="U17" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="5" t="n"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>2025020778</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>lankinen</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>-109</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>8480947</v>
+      </c>
+      <c r="I18" s="5" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="J18" s="5" t="inlineStr">
+        <is>
+          <t>NYI</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M18" s="3" t="n">
+        <v>0.5218880176544189</v>
+      </c>
+      <c r="N18" s="3" t="n">
+        <v>4.377603530883789</v>
+      </c>
+      <c r="O18" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P18" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q18" s="3" t="n">
+        <v>0.008628427982330322</v>
+      </c>
+      <c r="R18" s="2" t="n"/>
+      <c r="S18" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="U18" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="5" t="n"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>2025020778</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>sorokin</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>-115</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>-107</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>8478009</v>
+      </c>
+      <c r="I19" s="5" t="inlineStr">
+        <is>
+          <t>NYI</t>
+        </is>
+      </c>
+      <c r="J19" s="5" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3" t="n">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="M19" s="3" t="n">
+        <v>0.4772519469261169</v>
+      </c>
+      <c r="N19" s="3" t="n">
+        <v>4.549610614776611</v>
+      </c>
+      <c r="O19" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P19" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q19" s="3" t="n">
+        <v>0.005839824676513672</v>
+      </c>
+      <c r="R19" s="2" t="n"/>
+      <c r="S19" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="U19" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="5" t="n"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>2025020779</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n"/>
+      <c r="E20" s="3" t="n"/>
+      <c r="F20" s="2" t="n"/>
+      <c r="G20" s="2" t="n"/>
+      <c r="H20" s="2" t="n"/>
+      <c r="I20" s="5" t="inlineStr">
+        <is>
+          <t>ANA</t>
+        </is>
+      </c>
+      <c r="J20" s="5" t="inlineStr">
+        <is>
+          <t>NYR</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3" t="n"/>
+      <c r="M20" s="3" t="n"/>
+      <c r="N20" s="3" t="n"/>
+      <c r="O20" s="5" t="n"/>
+      <c r="P20" s="5" t="n"/>
+      <c r="Q20" s="3" t="n"/>
+      <c r="R20" s="2" t="n"/>
+      <c r="S20" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="n"/>
+      <c r="U20" s="5" t="n"/>
+      <c r="V20" s="2" t="n"/>
+      <c r="W20" s="5" t="n"/>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>2025020779</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>martin</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>-115</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>-107</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>8477484</v>
+      </c>
+      <c r="I21" s="5" t="inlineStr">
+        <is>
+          <t>NYR</t>
+        </is>
+      </c>
+      <c r="J21" s="5" t="inlineStr">
+        <is>
+          <t>ANA</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="M21" s="3" t="n">
+        <v>0.4865398108959198</v>
+      </c>
+      <c r="N21" s="3" t="n">
+        <v>2.69203782081604</v>
+      </c>
+      <c r="O21" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P21" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q21" s="3" t="n">
+        <v>-0.003448069095611572</v>
+      </c>
+      <c r="R21" s="2" t="n"/>
+      <c r="S21" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="U21" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="5" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1400,7 +3027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -3441,7 +5068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -4384,7 +6011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -5959,7 +7586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -6730,7 +8357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -8668,6 +10295,912 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:W11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="26" t="inlineStr">
+        <is>
+          <t>game_date</t>
+        </is>
+      </c>
+      <c r="B1" s="26" t="inlineStr">
+        <is>
+          <t>game_id</t>
+        </is>
+      </c>
+      <c r="C1" s="26" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="D1" s="26" t="inlineStr">
+        <is>
+          <t>goalie_name</t>
+        </is>
+      </c>
+      <c r="E1" s="26" t="inlineStr">
+        <is>
+          <t>betting_line</t>
+        </is>
+      </c>
+      <c r="F1" s="26" t="inlineStr">
+        <is>
+          <t>line_over</t>
+        </is>
+      </c>
+      <c r="G1" s="26" t="inlineStr">
+        <is>
+          <t>line_under</t>
+        </is>
+      </c>
+      <c r="H1" s="26" t="inlineStr">
+        <is>
+          <t>goalie_id</t>
+        </is>
+      </c>
+      <c r="I1" s="26" t="inlineStr">
+        <is>
+          <t>team_abbrev</t>
+        </is>
+      </c>
+      <c r="J1" s="26" t="inlineStr">
+        <is>
+          <t>opponent_team</t>
+        </is>
+      </c>
+      <c r="K1" s="26" t="inlineStr">
+        <is>
+          <t>is_home</t>
+        </is>
+      </c>
+      <c r="L1" s="26" t="inlineStr">
+        <is>
+          <t>predicted_saves</t>
+        </is>
+      </c>
+      <c r="M1" s="26" t="inlineStr">
+        <is>
+          <t>prob_over</t>
+        </is>
+      </c>
+      <c r="N1" s="26" t="inlineStr">
+        <is>
+          <t>confidence_pct</t>
+        </is>
+      </c>
+      <c r="O1" s="26" t="inlineStr">
+        <is>
+          <t>confidence_bucket</t>
+        </is>
+      </c>
+      <c r="P1" s="26" t="inlineStr">
+        <is>
+          <t>recommendation</t>
+        </is>
+      </c>
+      <c r="Q1" s="26" t="inlineStr">
+        <is>
+          <t>ev</t>
+        </is>
+      </c>
+      <c r="R1" s="26" t="inlineStr">
+        <is>
+          <t>bet_amount</t>
+        </is>
+      </c>
+      <c r="S1" s="26" t="inlineStr">
+        <is>
+          <t>bet_selection</t>
+        </is>
+      </c>
+      <c r="T1" s="26" t="inlineStr">
+        <is>
+          <t>actual_saves</t>
+        </is>
+      </c>
+      <c r="U1" s="26" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="V1" s="26" t="inlineStr">
+        <is>
+          <t>profit_loss</t>
+        </is>
+      </c>
+      <c r="W1" s="26" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2025020826</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Korpisalo</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-110</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-112</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8476914</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>NYR</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.4952241480350494</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.9551703929901123</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.02352601289749146</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2025020827</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Ersson</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-108</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-114</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8481035</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>NYI</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>22.60000038146973</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.5245903730392456</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.918074607849121</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.00535959005355835</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2025020827</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Sorokin</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-108</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-114</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8478009</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>NYI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.4777428805828094</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.451423645019531</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.01045316457748413</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2025020829</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Jarry</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-110</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-112</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8477465</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>EDM</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ANA</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.5345092415809631</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6.901848316192627</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.01069968938827515</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2025020829</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Husso</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-109</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-113</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8478024</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>ANA</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>EDM</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>26.39999961853027</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.4725062847137451</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5.498743057250977</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.003022730350494385</v>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2025020827</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Sorokin</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8478009</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>NYI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.4777428805828094</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.451423645019531</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.0231974720954895</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2025020827</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Ersson</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8481035</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>NYI</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>22.60000038146973</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.5245903730392456</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.918074607849121</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.02086418867111206</v>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2025020826</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Korpisalo</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8476914</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>NYR</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.4952241480350494</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.9551703929901123</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.04067867994308472</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2025020829</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Husso</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8478024</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>ANA</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>EDM</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>26.39999961853027</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.4725062847137451</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5.498743057250977</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.01796084642410278</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2025020829</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Jarry</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8477465</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>EDM</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ANA</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.5345092415809631</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6.901848316192627</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.01094532012939453</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8867,10 +11400,6 @@
           <t>UNDER</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -8946,10 +11475,6 @@
           <t>OVER</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9017,16 +11542,11 @@
       <c r="Q4" t="n">
         <v>0.015285491943359</v>
       </c>
-      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9094,16 +11614,11 @@
       <c r="Q5" t="n">
         <v>0.012548387050629</v>
       </c>
-      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9171,16 +11686,11 @@
       <c r="Q6" t="n">
         <v>0.008153468370438</v>
       </c>
-      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9248,16 +11758,11 @@
       <c r="Q7" t="n">
         <v>-0.02310222387313843</v>
       </c>
-      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9325,16 +11830,11 @@
       <c r="Q8" t="n">
         <v>-0.02277988195419312</v>
       </c>
-      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9402,16 +11902,11 @@
       <c r="Q9" t="n">
         <v>-0.03978866338729858</v>
       </c>
-      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9487,10 +11982,6 @@
           <t>UNDER</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9558,16 +12049,11 @@
       <c r="Q11" t="n">
         <v>0.018103539943695</v>
       </c>
-      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9635,16 +12121,11 @@
       <c r="Q12" t="n">
         <v>-0.009519815444945999</v>
       </c>
-      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9712,16 +12193,11 @@
       <c r="Q13" t="n">
         <v>-0.012787938117981</v>
       </c>
-      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9789,16 +12265,11 @@
       <c r="Q14" t="n">
         <v>0.011135518550873</v>
       </c>
-      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9866,16 +12337,11 @@
       <c r="Q15" t="n">
         <v>0.016703963279724</v>
       </c>
-      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9943,16 +12409,11 @@
       <c r="Q16" t="n">
         <v>0.01343584060668945</v>
       </c>
-      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10028,10 +12489,6 @@
           <t>OVER</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10099,16 +12556,11 @@
       <c r="Q18" t="n">
         <v>0.008857071399689</v>
       </c>
-      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -10176,16 +12628,11 @@
       <c r="Q19" t="n">
         <v>0.010816544294357</v>
       </c>
-      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -10253,16 +12700,11 @@
       <c r="Q20" t="n">
         <v>0.003378510475158691</v>
       </c>
-      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10330,16 +12772,11 @@
       <c r="Q21" t="n">
         <v>0.005866050720215</v>
       </c>
-      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -10407,16 +12844,11 @@
       <c r="Q22" t="n">
         <v>-0.02019384503364563</v>
       </c>
-      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -10484,16 +12916,11 @@
       <c r="Q23" t="n">
         <v>-0.02315980195999146</v>
       </c>
-      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -10561,16 +12988,11 @@
       <c r="Q24" t="n">
         <v>-0.03969794511795044</v>
       </c>
-      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -10638,16 +13060,11 @@
       <c r="Q25" t="n">
         <v>0.01273497939109802</v>
       </c>
-      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -10715,16 +13132,11 @@
       <c r="Q26" t="n">
         <v>-0.03520715236663818</v>
       </c>
-      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -10792,16 +13204,11 @@
       <c r="Q27" t="n">
         <v>0.003795504570007324</v>
       </c>
-      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -10869,16 +13276,11 @@
       <c r="Q28" t="n">
         <v>0.002858221530914307</v>
       </c>
-      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -10946,16 +13348,11 @@
       <c r="Q29" t="n">
         <v>-0.03185510635375977</v>
       </c>
-      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -11023,16 +13420,11 @@
       <c r="Q30" t="n">
         <v>0.007759869098663</v>
       </c>
-      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -11100,16 +13492,11 @@
       <c r="Q31" t="n">
         <v>-0.03184890747070312</v>
       </c>
-      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -11177,16 +13564,11 @@
       <c r="Q32" t="n">
         <v>-0.02763187885284424</v>
       </c>
-      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -11254,16 +13636,11 @@
       <c r="Q33" t="n">
         <v>0.003795504570007324</v>
       </c>
-      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -11331,23 +13708,18 @@
       <c r="Q34" t="n">
         <v>-0.03009486198425293</v>
       </c>
-      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -13556,7 +15928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -17715,7 +20087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -20434,7 +22806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -21931,7 +24303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -23473,1617 +25845,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:W21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="8" max="8"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="11" max="11"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="12" max="12"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="13" max="13"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="18" max="18"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="20" max="20"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="21" max="21"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="22" max="22"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="23" max="23"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>game_date</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>game_id</t>
-        </is>
-      </c>
-      <c r="C1" s="5" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="D1" s="5" t="inlineStr">
-        <is>
-          <t>goalie_name</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>betting_line</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>line_over</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>line_under</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>goalie_id</t>
-        </is>
-      </c>
-      <c r="I1" s="5" t="inlineStr">
-        <is>
-          <t>team_abbrev</t>
-        </is>
-      </c>
-      <c r="J1" s="5" t="inlineStr">
-        <is>
-          <t>opponent_team</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>is_home</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="inlineStr">
-        <is>
-          <t>predicted_saves</t>
-        </is>
-      </c>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>prob_over</t>
-        </is>
-      </c>
-      <c r="N1" s="3" t="inlineStr">
-        <is>
-          <t>confidence_pct</t>
-        </is>
-      </c>
-      <c r="O1" s="5" t="inlineStr">
-        <is>
-          <t>confidence_bucket</t>
-        </is>
-      </c>
-      <c r="P1" s="5" t="inlineStr">
-        <is>
-          <t>recommendation</t>
-        </is>
-      </c>
-      <c r="Q1" s="3" t="inlineStr">
-        <is>
-          <t>ev</t>
-        </is>
-      </c>
-      <c r="R1" s="4" t="inlineStr">
-        <is>
-          <t>bet_amount</t>
-        </is>
-      </c>
-      <c r="S1" s="5" t="inlineStr">
-        <is>
-          <t>bet_selection</t>
-        </is>
-      </c>
-      <c r="T1" s="2" t="inlineStr">
-        <is>
-          <t>actual_saves</t>
-        </is>
-      </c>
-      <c r="U1" s="5" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="V1" s="2" t="inlineStr">
-        <is>
-          <t>profit_loss</t>
-        </is>
-      </c>
-      <c r="W1" s="5" t="inlineStr">
-        <is>
-          <t>notes</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>2025020770</v>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="n"/>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="5" t="inlineStr">
-        <is>
-          <t>CAR</t>
-        </is>
-      </c>
-      <c r="J2" s="5" t="inlineStr">
-        <is>
-          <t>BUF</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3" t="n"/>
-      <c r="M2" s="3" t="n"/>
-      <c r="N2" s="3" t="n"/>
-      <c r="O2" s="5" t="n"/>
-      <c r="P2" s="5" t="n"/>
-      <c r="Q2" s="3" t="n"/>
-      <c r="R2" s="2" t="n"/>
-      <c r="S2" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T2" s="2" t="n"/>
-      <c r="U2" s="5" t="n"/>
-      <c r="V2" s="2" t="n"/>
-      <c r="W2" s="5" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>2025020770</v>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>Luukkonen</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>-112</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>-117</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>8480045</v>
-      </c>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>BUF</t>
-        </is>
-      </c>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>CAR</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>27.39999961853027</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>0.4749084413051605</v>
-      </c>
-      <c r="N3" s="3" t="n">
-        <v>5.018311500549316</v>
-      </c>
-      <c r="O3" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P3" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q3" s="3" t="n">
-        <v>-0.01407897472381592</v>
-      </c>
-      <c r="R3" s="2" t="n"/>
-      <c r="S3" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T3" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="U3" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="5" t="n"/>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>2025020771</v>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="n"/>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="5" t="inlineStr">
-        <is>
-          <t>COL</t>
-        </is>
-      </c>
-      <c r="J4" s="5" t="inlineStr">
-        <is>
-          <t>WSH</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3" t="n"/>
-      <c r="M4" s="3" t="n"/>
-      <c r="N4" s="3" t="n"/>
-      <c r="O4" s="5" t="n"/>
-      <c r="P4" s="5" t="n"/>
-      <c r="Q4" s="3" t="n"/>
-      <c r="R4" s="2" t="n"/>
-      <c r="S4" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="n"/>
-      <c r="U4" s="5" t="n"/>
-      <c r="V4" s="2" t="n"/>
-      <c r="W4" s="5" t="n"/>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>2025020771</v>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="n"/>
-      <c r="E5" s="3" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
-          <t>WSH</t>
-        </is>
-      </c>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
-          <t>COL</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3" t="n"/>
-      <c r="M5" s="3" t="n"/>
-      <c r="N5" s="3" t="n"/>
-      <c r="O5" s="5" t="n"/>
-      <c r="P5" s="5" t="n"/>
-      <c r="Q5" s="3" t="n"/>
-      <c r="R5" s="2" t="n"/>
-      <c r="S5" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="n"/>
-      <c r="U5" s="5" t="n"/>
-      <c r="V5" s="2" t="n"/>
-      <c r="W5" s="5" t="n"/>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>2025020772</v>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="n"/>
-      <c r="E6" s="3" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="5" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J6" s="5" t="inlineStr">
-        <is>
-          <t>PIT</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3" t="n"/>
-      <c r="M6" s="3" t="n"/>
-      <c r="N6" s="3" t="n"/>
-      <c r="O6" s="5" t="n"/>
-      <c r="P6" s="5" t="n"/>
-      <c r="Q6" s="3" t="n"/>
-      <c r="R6" s="2" t="n"/>
-      <c r="S6" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T6" s="2" t="n"/>
-      <c r="U6" s="5" t="n"/>
-      <c r="V6" s="2" t="n"/>
-      <c r="W6" s="5" t="n"/>
-    </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>2025020772</v>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="3" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>PIT</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3" t="n"/>
-      <c r="M7" s="3" t="n"/>
-      <c r="N7" s="3" t="n"/>
-      <c r="O7" s="5" t="n"/>
-      <c r="P7" s="5" t="n"/>
-      <c r="Q7" s="3" t="n"/>
-      <c r="R7" s="2" t="n"/>
-      <c r="S7" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T7" s="2" t="n"/>
-      <c r="U7" s="5" t="n"/>
-      <c r="V7" s="2" t="n"/>
-      <c r="W7" s="5" t="n"/>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>2025020773</v>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>bobrovsky</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>-109</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>-120</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>8475683</v>
-      </c>
-      <c r="I8" s="5" t="inlineStr">
-        <is>
-          <t>FLA</t>
-        </is>
-      </c>
-      <c r="J8" s="5" t="inlineStr">
-        <is>
-          <t>SJS</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3" t="n">
-        <v>20.60000038146973</v>
-      </c>
-      <c r="M8" s="3" t="n">
-        <v>0.52213054895401</v>
-      </c>
-      <c r="N8" s="3" t="n">
-        <v>4.426109790802002</v>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q8" s="3" t="n">
-        <v>0.0005994439125061035</v>
-      </c>
-      <c r="R8" s="2" t="n"/>
-      <c r="S8" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T8" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="U8" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" s="5" t="n"/>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>2025020773</v>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>Nedeljkovic</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>-124</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>-106</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>8477968</v>
-      </c>
-      <c r="I9" s="5" t="inlineStr">
-        <is>
-          <t>SJS</t>
-        </is>
-      </c>
-      <c r="J9" s="5" t="inlineStr">
-        <is>
-          <t>FLA</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="n">
-        <v>26.39999961853027</v>
-      </c>
-      <c r="M9" s="3" t="n">
-        <v>0.475313812494278</v>
-      </c>
-      <c r="N9" s="3" t="n">
-        <v>4.937237739562988</v>
-      </c>
-      <c r="O9" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P9" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q9" s="3" t="n">
-        <v>0.01012313365936279</v>
-      </c>
-      <c r="R9" s="2" t="n"/>
-      <c r="S9" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T9" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="U9" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="5" t="n"/>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>2025020774</v>
-      </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>woll</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>101</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>-124</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>8479361</v>
-      </c>
-      <c r="I10" s="5" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="J10" s="5" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3" t="n">
-        <v>25.39999961853027</v>
-      </c>
-      <c r="M10" s="3" t="n">
-        <v>0.4739620089530945</v>
-      </c>
-      <c r="N10" s="3" t="n">
-        <v>5.207598209381104</v>
-      </c>
-      <c r="O10" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P10" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q10" s="3" t="n">
-        <v>-0.02355042099952698</v>
-      </c>
-      <c r="R10" s="2" t="n"/>
-      <c r="S10" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="U10" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="5" t="n"/>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>2025020774</v>
-      </c>
-      <c r="C11" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>Gustavsson</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>-124</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>8479406</v>
-      </c>
-      <c r="I11" s="5" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="J11" s="5" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="M11" s="3" t="n">
-        <v>0.5010139346122742</v>
-      </c>
-      <c r="N11" s="3" t="n">
-        <v>0.202786922454834</v>
-      </c>
-      <c r="O11" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P11" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q11" s="3" t="n">
-        <v>0.00101393461227417</v>
-      </c>
-      <c r="R11" s="2" t="n"/>
-      <c r="S11" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="U11" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" s="5" t="n"/>
-    </row>
-    <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>2025020775</v>
-      </c>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="n"/>
-      <c r="E12" s="3" t="n"/>
-      <c r="F12" s="2" t="n"/>
-      <c r="G12" s="2" t="n"/>
-      <c r="H12" s="2" t="n"/>
-      <c r="I12" s="5" t="inlineStr">
-        <is>
-          <t>VGK</t>
-        </is>
-      </c>
-      <c r="J12" s="5" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="3" t="n"/>
-      <c r="M12" s="3" t="n"/>
-      <c r="N12" s="3" t="n"/>
-      <c r="O12" s="5" t="n"/>
-      <c r="P12" s="5" t="n"/>
-      <c r="Q12" s="3" t="n"/>
-      <c r="R12" s="2" t="n"/>
-      <c r="S12" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T12" s="2" t="n"/>
-      <c r="U12" s="5" t="n"/>
-      <c r="V12" s="2" t="n"/>
-      <c r="W12" s="5" t="n"/>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>2025020775</v>
-      </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>ersson</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>-103</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>-127</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>8481035</v>
-      </c>
-      <c r="I13" s="5" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="J13" s="5" t="inlineStr">
-        <is>
-          <t>VGK</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3" t="n">
-        <v>23.60000038146973</v>
-      </c>
-      <c r="M13" s="3" t="n">
-        <v>0.5105539560317993</v>
-      </c>
-      <c r="N13" s="3" t="n">
-        <v>2.110791206359863</v>
-      </c>
-      <c r="O13" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P13" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q13" s="3" t="n">
-        <v>0.003164768218994141</v>
-      </c>
-      <c r="R13" s="2" t="n"/>
-      <c r="S13" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T13" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="U13" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" s="5" t="n"/>
-    </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>2025020776</v>
-      </c>
-      <c r="C14" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>knight</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>-130</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>8481519</v>
-      </c>
-      <c r="I14" s="5" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="J14" s="5" t="inlineStr">
-        <is>
-          <t>WPG</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="3" t="n">
-        <v>23.60000038146973</v>
-      </c>
-      <c r="M14" s="3" t="n">
-        <v>0.5219337344169617</v>
-      </c>
-      <c r="N14" s="3" t="n">
-        <v>4.386746883392334</v>
-      </c>
-      <c r="O14" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P14" s="5" t="inlineStr">
-        <is>
-          <t>OVER</t>
-        </is>
-      </c>
-      <c r="Q14" s="3" t="n">
-        <v>0.02193373441696167</v>
-      </c>
-      <c r="R14" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S14" s="5" t="inlineStr">
-        <is>
-          <t>OVER</t>
-        </is>
-      </c>
-      <c r="T14" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="U14" s="5" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="V14" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="W14" s="5" t="n"/>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>2025020776</v>
-      </c>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>hellebuyck</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>102</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>-134</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>8476945</v>
-      </c>
-      <c r="I15" s="5" t="inlineStr">
-        <is>
-          <t>WPG</t>
-        </is>
-      </c>
-      <c r="J15" s="5" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3" t="n">
-        <v>22.60000038146973</v>
-      </c>
-      <c r="M15" s="3" t="n">
-        <v>0.5249274969100952</v>
-      </c>
-      <c r="N15" s="3" t="n">
-        <v>4.985499382019043</v>
-      </c>
-      <c r="O15" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P15" s="5" t="inlineStr">
-        <is>
-          <t>OVER</t>
-        </is>
-      </c>
-      <c r="Q15" s="3" t="n">
-        <v>0.02987799048423767</v>
-      </c>
-      <c r="R15" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S15" s="5" t="inlineStr">
-        <is>
-          <t>OVER</t>
-        </is>
-      </c>
-      <c r="T15" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="U15" s="5" t="inlineStr">
-        <is>
-          <t>LOSS</t>
-        </is>
-      </c>
-      <c r="V15" s="2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="W15" s="5" t="n"/>
-    </row>
-    <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>2025020777</v>
-      </c>
-      <c r="C16" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>cooley</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>-103</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>-121</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>8482445</v>
-      </c>
-      <c r="I16" s="5" t="inlineStr">
-        <is>
-          <t>CGY</t>
-        </is>
-      </c>
-      <c r="J16" s="5" t="inlineStr">
-        <is>
-          <t>NJD</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="3" t="n">
-        <v>25.39999961853027</v>
-      </c>
-      <c r="M16" s="3" t="n">
-        <v>0.4782617092132568</v>
-      </c>
-      <c r="N16" s="3" t="n">
-        <v>4.347658157348633</v>
-      </c>
-      <c r="O16" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P16" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q16" s="3" t="n">
-        <v>-0.02577304840087891</v>
-      </c>
-      <c r="R16" s="2" t="n"/>
-      <c r="S16" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T16" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="U16" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" s="5" t="n"/>
-    </row>
-    <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>2025020777</v>
-      </c>
-      <c r="C17" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>markstrom</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>-106</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>-117</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>8474593</v>
-      </c>
-      <c r="I17" s="5" t="inlineStr">
-        <is>
-          <t>NJD</t>
-        </is>
-      </c>
-      <c r="J17" s="5" t="inlineStr">
-        <is>
-          <t>CGY</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="n">
-        <v>24.29999923706055</v>
-      </c>
-      <c r="M17" s="3" t="n">
-        <v>0.4586157202720642</v>
-      </c>
-      <c r="N17" s="3" t="n">
-        <v>8.27685546875</v>
-      </c>
-      <c r="O17" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P17" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q17" s="3" t="n">
-        <v>0.002213776111602783</v>
-      </c>
-      <c r="R17" s="2" t="n"/>
-      <c r="S17" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T17" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="U17" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" s="5" t="n"/>
-    </row>
-    <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>2025020778</v>
-      </c>
-      <c r="C18" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>lankinen</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>-109</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>113</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>8480947</v>
-      </c>
-      <c r="I18" s="5" t="inlineStr">
-        <is>
-          <t>VAN</t>
-        </is>
-      </c>
-      <c r="J18" s="5" t="inlineStr">
-        <is>
-          <t>NYI</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" s="3" t="n">
-        <v>23.60000038146973</v>
-      </c>
-      <c r="M18" s="3" t="n">
-        <v>0.5218880176544189</v>
-      </c>
-      <c r="N18" s="3" t="n">
-        <v>4.377603530883789</v>
-      </c>
-      <c r="O18" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P18" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q18" s="3" t="n">
-        <v>0.008628427982330322</v>
-      </c>
-      <c r="R18" s="2" t="n"/>
-      <c r="S18" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T18" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="U18" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" s="5" t="n"/>
-    </row>
-    <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>2025020778</v>
-      </c>
-      <c r="C19" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>sorokin</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>-115</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>-107</v>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>8478009</v>
-      </c>
-      <c r="I19" s="5" t="inlineStr">
-        <is>
-          <t>NYI</t>
-        </is>
-      </c>
-      <c r="J19" s="5" t="inlineStr">
-        <is>
-          <t>VAN</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3" t="n">
-        <v>24.39999961853027</v>
-      </c>
-      <c r="M19" s="3" t="n">
-        <v>0.4772519469261169</v>
-      </c>
-      <c r="N19" s="3" t="n">
-        <v>4.549610614776611</v>
-      </c>
-      <c r="O19" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P19" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q19" s="3" t="n">
-        <v>0.005839824676513672</v>
-      </c>
-      <c r="R19" s="2" t="n"/>
-      <c r="S19" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T19" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="U19" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" s="5" t="n"/>
-    </row>
-    <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>2025020779</v>
-      </c>
-      <c r="C20" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="3" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
-      <c r="I20" s="5" t="inlineStr">
-        <is>
-          <t>ANA</t>
-        </is>
-      </c>
-      <c r="J20" s="5" t="inlineStr">
-        <is>
-          <t>NYR</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="3" t="n"/>
-      <c r="M20" s="3" t="n"/>
-      <c r="N20" s="3" t="n"/>
-      <c r="O20" s="5" t="n"/>
-      <c r="P20" s="5" t="n"/>
-      <c r="Q20" s="3" t="n"/>
-      <c r="R20" s="2" t="n"/>
-      <c r="S20" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T20" s="2" t="n"/>
-      <c r="U20" s="5" t="n"/>
-      <c r="V20" s="2" t="n"/>
-      <c r="W20" s="5" t="n"/>
-    </row>
-    <row r="21" ht="18.75" customHeight="1">
-      <c r="A21" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>2025020779</v>
-      </c>
-      <c r="C21" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>martin</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>-115</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>-107</v>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>8477484</v>
-      </c>
-      <c r="I21" s="5" t="inlineStr">
-        <is>
-          <t>NYR</t>
-        </is>
-      </c>
-      <c r="J21" s="5" t="inlineStr">
-        <is>
-          <t>ANA</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3" t="n">
-        <v>24.39999961853027</v>
-      </c>
-      <c r="M21" s="3" t="n">
-        <v>0.4865398108959198</v>
-      </c>
-      <c r="N21" s="3" t="n">
-        <v>2.69203782081604</v>
-      </c>
-      <c r="O21" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P21" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q21" s="3" t="n">
-        <v>-0.003448069095611572</v>
-      </c>
-      <c r="R21" s="2" t="n"/>
-      <c r="S21" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T21" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="U21" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" s="5" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -31,7 +31,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -72,23 +72,13 @@
     <font>
       <b val="1"/>
     </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004472C4"/>
-        <bgColor rgb="004472C4"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -146,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
@@ -199,6 +189,12 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
@@ -225,9 +221,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,14 +596,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="25" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="27" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="19" t="inlineStr">
+      <c r="A1" s="21" t="inlineStr">
         <is>
           <t>BETTING PERFORMANCE SUMMARY</t>
         </is>
@@ -647,7 +640,7 @@
       <c r="E4" s="2" t="n"/>
     </row>
     <row r="5" ht="20.25" customHeight="1">
-      <c r="A5" s="23" t="inlineStr">
+      <c r="A5" s="25" t="inlineStr">
         <is>
           <t>OVERALL PERFORMANCE</t>
         </is>
@@ -776,7 +769,7 @@
       <c r="E15" s="2" t="n"/>
     </row>
     <row r="16" ht="20.25" customHeight="1">
-      <c r="A16" s="23" t="inlineStr">
+      <c r="A16" s="25" t="inlineStr">
         <is>
           <t>PERFORMANCE BY CONFIDENCE LEVEL</t>
         </is>
@@ -787,7 +780,7 @@
       <c r="E16" s="2" t="n"/>
     </row>
     <row r="17" ht="19.5" customHeight="1">
-      <c r="A17" s="20" t="inlineStr">
+      <c r="A17" s="22" t="inlineStr">
         <is>
           <t>Confidence</t>
         </is>
@@ -802,7 +795,7 @@
           <t>Wins</t>
         </is>
       </c>
-      <c r="D17" s="20" t="inlineStr">
+      <c r="D17" s="22" t="inlineStr">
         <is>
           <t>Win Rate</t>
         </is>
@@ -825,7 +818,7 @@
       <c r="C18" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="D18" s="24" t="inlineStr">
+      <c r="D18" s="26" t="inlineStr">
         <is>
           <t>47.8%</t>
         </is>
@@ -848,7 +841,7 @@
       <c r="C19" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D19" s="24" t="inlineStr">
+      <c r="D19" s="26" t="inlineStr">
         <is>
           <t>100.0%</t>
         </is>
@@ -871,7 +864,7 @@
       <c r="C20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="24" t="inlineStr">
+      <c r="D20" s="26" t="inlineStr">
         <is>
           <t>0.0%</t>
         </is>
@@ -894,7 +887,7 @@
       <c r="C21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D21" s="24" t="inlineStr">
+      <c r="D21" s="26" t="inlineStr">
         <is>
           <t>0.0%</t>
         </is>
@@ -917,7 +910,7 @@
       <c r="C22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D22" s="24" t="inlineStr">
+      <c r="D22" s="26" t="inlineStr">
         <is>
           <t>0.0%</t>
         </is>
@@ -940,7 +933,7 @@
       <c r="C23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D23" s="24" t="inlineStr">
+      <c r="D23" s="26" t="inlineStr">
         <is>
           <t>0.0%</t>
         </is>
@@ -974,27 +967,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="8" max="8"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="11" max="11"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="12" max="12"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="13" max="13"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="18" max="18"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="20" max="20"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="21" max="21"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="22" max="22"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="22" max="22"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="23" max="23"/>
   </cols>
   <sheetData>
@@ -2587,7 +2580,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
@@ -2596,7 +2589,7 @@
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="8" max="8"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="11" max="11"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="12" max="12"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="13" max="13"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="14" max="14"/>
@@ -3042,27 +3035,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="8" max="8"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="11" max="11"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="12" max="12"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="13" max="13"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="18" max="18"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="20" max="20"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="21" max="21"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="22" max="22"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="22" max="22"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="23" max="23"/>
   </cols>
   <sheetData>
@@ -5083,27 +5076,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="8" max="8"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="11" max="11"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="12" max="12"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="13" max="13"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="18" max="18"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="20" max="20"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="21" max="21"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="22" max="22"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="22" max="22"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="23" max="23"/>
   </cols>
   <sheetData>
@@ -6026,27 +6019,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="8" max="8"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="11" max="11"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="12" max="12"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="13" max="13"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="18" max="18"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="20" max="20"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="21" max="21"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="22" max="22"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="22" max="22"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="23" max="23"/>
   </cols>
   <sheetData>
@@ -7601,27 +7594,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="8" max="8"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="11" max="11"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="12" max="12"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="13" max="13"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="18" max="18"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="20" max="20"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="21" max="21"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="22" max="22"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="22" max="22"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="23" max="23"/>
   </cols>
   <sheetData>
@@ -8372,27 +8365,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="8" max="8"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="11" max="11"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="12" max="12"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="13" max="13"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="18" max="18"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="20" max="20"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="21" max="21"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="22" max="22"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="22" max="22"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="23" max="23"/>
   </cols>
   <sheetData>
@@ -10165,11 +10158,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30.005" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="20.005" bestFit="1" customWidth="1" style="21" min="2" max="2"/>
+    <col width="20.005" bestFit="1" customWidth="1" style="23" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="19" t="inlineStr">
+      <c r="A1" s="21" t="inlineStr">
         <is>
           <t>BETTING TRACKER SETTINGS</t>
         </is>
@@ -10181,7 +10174,7 @@
       <c r="B2" s="2" t="n"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="20" t="inlineStr">
+      <c r="A3" s="22" t="inlineStr">
         <is>
           <t>Setting</t>
         </is>
@@ -10292,906 +10285,1680 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="20" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="20" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="20" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="12" max="12"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="13" max="13"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="14" max="14"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="17" max="17"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="19" max="19"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="21" max="21"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="22" max="22"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="23" max="23"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="26" t="inlineStr">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="12" t="inlineStr">
         <is>
           <t>game_date</t>
         </is>
       </c>
-      <c r="B1" s="26" t="inlineStr">
+      <c r="B1" s="13" t="inlineStr">
         <is>
           <t>game_id</t>
         </is>
       </c>
-      <c r="C1" s="26" t="inlineStr">
+      <c r="C1" s="12" t="inlineStr">
         <is>
           <t>book</t>
         </is>
       </c>
-      <c r="D1" s="26" t="inlineStr">
+      <c r="D1" s="12" t="inlineStr">
         <is>
           <t>goalie_name</t>
         </is>
       </c>
-      <c r="E1" s="26" t="inlineStr">
+      <c r="E1" s="14" t="inlineStr">
         <is>
           <t>betting_line</t>
         </is>
       </c>
-      <c r="F1" s="26" t="inlineStr">
+      <c r="F1" s="13" t="inlineStr">
         <is>
           <t>line_over</t>
         </is>
       </c>
-      <c r="G1" s="26" t="inlineStr">
+      <c r="G1" s="13" t="inlineStr">
         <is>
           <t>line_under</t>
         </is>
       </c>
-      <c r="H1" s="26" t="inlineStr">
+      <c r="H1" s="13" t="inlineStr">
         <is>
           <t>goalie_id</t>
         </is>
       </c>
-      <c r="I1" s="26" t="inlineStr">
+      <c r="I1" s="12" t="inlineStr">
         <is>
           <t>team_abbrev</t>
         </is>
       </c>
-      <c r="J1" s="26" t="inlineStr">
+      <c r="J1" s="12" t="inlineStr">
         <is>
           <t>opponent_team</t>
         </is>
       </c>
-      <c r="K1" s="26" t="inlineStr">
+      <c r="K1" s="13" t="inlineStr">
         <is>
           <t>is_home</t>
         </is>
       </c>
-      <c r="L1" s="26" t="inlineStr">
+      <c r="L1" s="14" t="inlineStr">
         <is>
           <t>predicted_saves</t>
         </is>
       </c>
-      <c r="M1" s="26" t="inlineStr">
+      <c r="M1" s="14" t="inlineStr">
         <is>
           <t>prob_over</t>
         </is>
       </c>
-      <c r="N1" s="26" t="inlineStr">
+      <c r="N1" s="14" t="inlineStr">
         <is>
           <t>confidence_pct</t>
         </is>
       </c>
-      <c r="O1" s="26" t="inlineStr">
+      <c r="O1" s="12" t="inlineStr">
         <is>
           <t>confidence_bucket</t>
         </is>
       </c>
-      <c r="P1" s="26" t="inlineStr">
+      <c r="P1" s="12" t="inlineStr">
         <is>
           <t>recommendation</t>
         </is>
       </c>
-      <c r="Q1" s="26" t="inlineStr">
+      <c r="Q1" s="14" t="inlineStr">
         <is>
           <t>ev</t>
         </is>
       </c>
-      <c r="R1" s="26" t="inlineStr">
+      <c r="R1" s="12" t="inlineStr">
         <is>
           <t>bet_amount</t>
         </is>
       </c>
-      <c r="S1" s="26" t="inlineStr">
+      <c r="S1" s="12" t="inlineStr">
         <is>
           <t>bet_selection</t>
         </is>
       </c>
-      <c r="T1" s="26" t="inlineStr">
+      <c r="T1" s="12" t="inlineStr">
         <is>
           <t>actual_saves</t>
         </is>
       </c>
-      <c r="U1" s="26" t="inlineStr">
+      <c r="U1" s="12" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="V1" s="26" t="inlineStr">
+      <c r="V1" s="12" t="inlineStr">
         <is>
           <t>profit_loss</t>
         </is>
       </c>
-      <c r="W1" s="26" t="inlineStr">
+      <c r="W1" s="12" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="15" t="n">
         <v>2025020826</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Korpisalo</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="16" t="n">
         <v>23.5</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="15" t="n">
         <v>-110</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="15" t="n">
         <v>-112</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="15" t="n">
         <v>8476914</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>BOS</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>NYR</t>
         </is>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="K2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="16" t="n">
         <v>23.5</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="16" t="n">
         <v>0.4952241480350494</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2" s="16" t="n">
         <v>0.9551703929901123</v>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q2" t="n">
+      <c r="P2" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q2" s="16" t="n">
         <v>-0.02352601289749146</v>
       </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="R2" s="5" t="n"/>
+      <c r="S2" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T2" s="5" t="n"/>
+      <c r="U2" s="5" t="n"/>
+      <c r="V2" s="5" t="n"/>
+      <c r="W2" s="5" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="15" t="n">
         <v>2025020827</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Ersson</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="16" t="n">
         <v>22.5</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="15" t="n">
         <v>-108</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="15" t="n">
         <v>-114</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="15" t="n">
         <v>8481035</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" s="5" t="inlineStr">
         <is>
           <t>PHI</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t>NYI</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="16" t="n">
         <v>22.60000038146973</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="16" t="n">
         <v>0.5245903730392456</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="16" t="n">
         <v>4.918074607849121</v>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
+      <c r="P3" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q3" s="16" t="n">
         <v>0.00535959005355835</v>
       </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="R3" s="5" t="n"/>
+      <c r="S3" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T3" s="5" t="n"/>
+      <c r="U3" s="5" t="n"/>
+      <c r="V3" s="5" t="n"/>
+      <c r="W3" s="5" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="15" t="n">
         <v>2025020827</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Sorokin</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="16" t="n">
         <v>24.5</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="15" t="n">
         <v>-108</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="15" t="n">
         <v>-114</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="15" t="n">
         <v>8478009</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" s="5" t="inlineStr">
         <is>
           <t>NYI</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t>PHI</t>
         </is>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="K4" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="16" t="n">
         <v>24.39999961853027</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="16" t="n">
         <v>0.4777428805828094</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="16" t="n">
         <v>4.451423645019531</v>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q4" t="n">
+      <c r="P4" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q4" s="16" t="n">
         <v>-0.01045316457748413</v>
       </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="R4" s="5" t="n"/>
+      <c r="S4" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T4" s="5" t="n"/>
+      <c r="U4" s="5" t="n"/>
+      <c r="V4" s="5" t="n"/>
+      <c r="W4" s="5" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="15" t="n">
         <v>2025020829</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>Jarry</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="16" t="n">
         <v>22.5</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="15" t="n">
         <v>-110</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="15" t="n">
         <v>-112</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="15" t="n">
         <v>8477465</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5" s="5" t="inlineStr">
         <is>
           <t>EDM</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="5" t="inlineStr">
         <is>
           <t>ANA</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" s="16" t="n">
         <v>22.70000076293945</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="16" t="n">
         <v>0.5345092415809631</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5" s="16" t="n">
         <v>6.901848316192627</v>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q5" t="n">
+      <c r="P5" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q5" s="16" t="n">
         <v>0.01069968938827515</v>
       </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="R5" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="5" t="inlineStr">
+        <is>
+          <t>OVER</t>
+        </is>
+      </c>
+      <c r="T5" s="5" t="n"/>
+      <c r="U5" s="5" t="n"/>
+      <c r="V5" s="5" t="n"/>
+      <c r="W5" s="5" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="15" t="n">
         <v>2025020829</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Husso</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="16" t="n">
         <v>26.5</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="15" t="n">
         <v>-109</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="15" t="n">
         <v>-113</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="15" t="n">
         <v>8478024</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I6" s="5" t="inlineStr">
         <is>
           <t>ANA</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" s="5" t="inlineStr">
         <is>
           <t>EDM</t>
         </is>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="K6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="16" t="n">
         <v>26.39999961853027</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="16" t="n">
         <v>0.4725062847137451</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6" s="16" t="n">
         <v>5.498743057250977</v>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O6" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q6" s="16" t="n">
         <v>-0.003022730350494385</v>
       </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="R6" s="5" t="n"/>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="n"/>
+      <c r="U6" s="5" t="n"/>
+      <c r="V6" s="5" t="n"/>
+      <c r="W6" s="5" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="15" t="n">
         <v>2025020827</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>PrizePicks</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Sorokin</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="16" t="n">
         <v>24.5</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="15" t="n">
         <v>-120</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="15" t="n">
         <v>-120</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="15" t="n">
         <v>8478009</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I7" s="5" t="inlineStr">
         <is>
           <t>NYI</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" s="5" t="inlineStr">
         <is>
           <t>PHI</t>
         </is>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="K7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="16" t="n">
         <v>24.39999961853027</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="16" t="n">
         <v>0.4777428805828094</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7" s="16" t="n">
         <v>4.451423645019531</v>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O7" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P7" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q7" s="16" t="n">
         <v>-0.0231974720954895</v>
       </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="R7" s="5" t="n"/>
+      <c r="S7" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T7" s="5" t="n"/>
+      <c r="U7" s="5" t="n"/>
+      <c r="V7" s="5" t="n"/>
+      <c r="W7" s="5" t="n"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="15" t="n">
         <v>2025020827</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>PrizePicks</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>Ersson</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="16" t="n">
         <v>22.5</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="15" t="n">
         <v>-120</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="15" t="n">
         <v>-120</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="15" t="n">
         <v>8481035</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I8" s="5" t="inlineStr">
         <is>
           <t>PHI</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" s="5" t="inlineStr">
         <is>
           <t>NYI</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" s="16" t="n">
         <v>22.60000038146973</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="16" t="n">
         <v>0.5245903730392456</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8" s="16" t="n">
         <v>4.918074607849121</v>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q8" t="n">
+      <c r="P8" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q8" s="16" t="n">
         <v>-0.02086418867111206</v>
       </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="R8" s="5" t="n"/>
+      <c r="S8" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T8" s="5" t="n"/>
+      <c r="U8" s="5" t="n"/>
+      <c r="V8" s="5" t="n"/>
+      <c r="W8" s="5" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="15" t="n">
         <v>2025020826</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>PrizePicks</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>Korpisalo</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="16" t="n">
         <v>23.5</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="15" t="n">
         <v>-120</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="15" t="n">
         <v>-120</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="15" t="n">
         <v>8476914</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I9" s="5" t="inlineStr">
         <is>
           <t>BOS</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" s="5" t="inlineStr">
         <is>
           <t>NYR</t>
         </is>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="K9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="16" t="n">
         <v>23.5</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="16" t="n">
         <v>0.4952241480350494</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9" s="16" t="n">
         <v>0.9551703929901123</v>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="O9" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P9" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q9" s="16" t="n">
         <v>-0.04067867994308472</v>
       </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="R9" s="5" t="n"/>
+      <c r="S9" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T9" s="5" t="n"/>
+      <c r="U9" s="5" t="n"/>
+      <c r="V9" s="5" t="n"/>
+      <c r="W9" s="5" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="15" t="n">
         <v>2025020829</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>PrizePicks</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>Husso</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="16" t="n">
         <v>26.5</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="15" t="n">
         <v>-120</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="15" t="n">
         <v>-120</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="15" t="n">
         <v>8478024</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I10" s="5" t="inlineStr">
         <is>
           <t>ANA</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" s="5" t="inlineStr">
         <is>
           <t>EDM</t>
         </is>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="K10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="16" t="n">
         <v>26.39999961853027</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="16" t="n">
         <v>0.4725062847137451</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10" s="16" t="n">
         <v>5.498743057250977</v>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O10" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q10" t="n">
+      <c r="P10" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q10" s="16" t="n">
         <v>-0.01796084642410278</v>
       </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="R10" s="5" t="n"/>
+      <c r="S10" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T10" s="5" t="n"/>
+      <c r="U10" s="5" t="n"/>
+      <c r="V10" s="5" t="n"/>
+      <c r="W10" s="5" t="n"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="15" t="n">
         <v>2025020829</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>PrizePicks</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>Jarry</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="16" t="n">
         <v>22.5</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="15" t="n">
         <v>-120</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="15" t="n">
         <v>-120</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="15" t="n">
         <v>8477465</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I11" s="5" t="inlineStr">
         <is>
           <t>EDM</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" s="5" t="inlineStr">
         <is>
           <t>ANA</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11" s="16" t="n">
         <v>22.70000076293945</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="16" t="n">
         <v>0.5345092415809631</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11" s="16" t="n">
         <v>6.901848316192627</v>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="O11" s="5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
+      <c r="P11" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q11" s="16" t="n">
         <v>-0.01094532012939453</v>
       </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
+      <c r="R11" s="5" t="n"/>
+      <c r="S11" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T11" s="5" t="n"/>
+      <c r="U11" s="5" t="n"/>
+      <c r="V11" s="5" t="n"/>
+      <c r="W11" s="5" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="B12" s="15" t="n">
+        <v>2025020826</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>Quick</t>
+        </is>
+      </c>
+      <c r="E12" s="16" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F12" s="15" t="n">
+        <v>-125</v>
+      </c>
+      <c r="G12" s="15" t="n">
+        <v>102</v>
+      </c>
+      <c r="H12" s="15" t="n">
+        <v>8471734</v>
+      </c>
+      <c r="I12" s="5" t="inlineStr">
+        <is>
+          <t>NYR</t>
+        </is>
+      </c>
+      <c r="J12" s="5" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="K12" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="16" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="M12" s="16" t="n">
+        <v>0.5315362215042114</v>
+      </c>
+      <c r="N12" s="16" t="n">
+        <v>6.307244300842285</v>
+      </c>
+      <c r="O12" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P12" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q12" s="16" t="n">
+        <v>-0.02401936054229736</v>
+      </c>
+      <c r="R12" s="5" t="n"/>
+      <c r="S12" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T12" s="5" t="n"/>
+      <c r="U12" s="5" t="n"/>
+      <c r="V12" s="5" t="n"/>
+      <c r="W12" s="5" t="n"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="B13" s="15" t="n">
+        <v>2025020825</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>Vejmelka</t>
+        </is>
+      </c>
+      <c r="E13" s="16" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F13" s="15" t="n">
+        <v>-107</v>
+      </c>
+      <c r="G13" s="15" t="n">
+        <v>-115</v>
+      </c>
+      <c r="H13" s="15" t="n">
+        <v>8478872</v>
+      </c>
+      <c r="I13" s="5" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="J13" s="5" t="inlineStr">
+        <is>
+          <t>TBL</t>
+        </is>
+      </c>
+      <c r="K13" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="16" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="M13" s="16" t="n">
+        <v>0.5384576916694641</v>
+      </c>
+      <c r="N13" s="16" t="n">
+        <v>7.691538333892822</v>
+      </c>
+      <c r="O13" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P13" s="5" t="inlineStr">
+        <is>
+          <t>OVER</t>
+        </is>
+      </c>
+      <c r="Q13" s="16" t="n">
+        <v>0.02154946327209473</v>
+      </c>
+      <c r="R13" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" s="5" t="inlineStr">
+        <is>
+          <t>OVER</t>
+        </is>
+      </c>
+      <c r="T13" s="5" t="n"/>
+      <c r="U13" s="5" t="n"/>
+      <c r="V13" s="5" t="n"/>
+      <c r="W13" s="5" t="n"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="B14" s="15" t="n">
+        <v>2025020825</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>Vasilevskiy</t>
+        </is>
+      </c>
+      <c r="E14" s="16" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F14" s="15" t="n">
+        <v>-122</v>
+      </c>
+      <c r="G14" s="15" t="n">
+        <v>100</v>
+      </c>
+      <c r="H14" s="15" t="n">
+        <v>8476883</v>
+      </c>
+      <c r="I14" s="5" t="inlineStr">
+        <is>
+          <t>TBL</t>
+        </is>
+      </c>
+      <c r="J14" s="5" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="K14" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="16" t="n">
+        <v>22.60000038146973</v>
+      </c>
+      <c r="M14" s="16" t="n">
+        <v>0.5218251943588257</v>
+      </c>
+      <c r="N14" s="16" t="n">
+        <v>4.365038871765137</v>
+      </c>
+      <c r="O14" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P14" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q14" s="16" t="n">
+        <v>-0.02182519435882568</v>
+      </c>
+      <c r="R14" s="5" t="n"/>
+      <c r="S14" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T14" s="5" t="n"/>
+      <c r="U14" s="5" t="n"/>
+      <c r="V14" s="5" t="n"/>
+      <c r="W14" s="5" t="n"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="B15" s="15" t="n">
+        <v>2025020825</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>Vasilevskiy</t>
+        </is>
+      </c>
+      <c r="E15" s="16" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F15" s="15" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G15" s="15" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H15" s="15" t="n">
+        <v>8476883</v>
+      </c>
+      <c r="I15" s="5" t="inlineStr">
+        <is>
+          <t>TBL</t>
+        </is>
+      </c>
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="K15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="16" t="n">
+        <v>22.60000038146973</v>
+      </c>
+      <c r="M15" s="16" t="n">
+        <v>0.5218251943588257</v>
+      </c>
+      <c r="N15" s="16" t="n">
+        <v>4.365038871765137</v>
+      </c>
+      <c r="O15" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P15" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q15" s="16" t="n">
+        <v>-0.02362936735153198</v>
+      </c>
+      <c r="R15" s="5" t="n"/>
+      <c r="S15" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T15" s="5" t="n"/>
+      <c r="U15" s="5" t="n"/>
+      <c r="V15" s="5" t="n"/>
+      <c r="W15" s="5" t="n"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="B16" s="15" t="n">
+        <v>2025020825</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>Vejmelka</t>
+        </is>
+      </c>
+      <c r="E16" s="16" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F16" s="15" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G16" s="15" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H16" s="15" t="n">
+        <v>8478872</v>
+      </c>
+      <c r="I16" s="5" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="J16" s="5" t="inlineStr">
+        <is>
+          <t>TBL</t>
+        </is>
+      </c>
+      <c r="K16" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="16" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="M16" s="16" t="n">
+        <v>0.5384576916694641</v>
+      </c>
+      <c r="N16" s="16" t="n">
+        <v>7.691538333892822</v>
+      </c>
+      <c r="O16" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P16" s="5" t="inlineStr">
+        <is>
+          <t>OVER</t>
+        </is>
+      </c>
+      <c r="Q16" s="16" t="n">
+        <v>0.02154946327209473</v>
+      </c>
+      <c r="R16" s="5" t="n"/>
+      <c r="S16" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T16" s="5" t="n"/>
+      <c r="U16" s="5" t="n"/>
+      <c r="V16" s="5" t="n"/>
+      <c r="W16" s="5" t="n"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="B17" s="15" t="n">
+        <v>2025020825</v>
+      </c>
+      <c r="C17" s="5" t="n"/>
+      <c r="D17" s="5" t="n"/>
+      <c r="E17" s="19" t="n"/>
+      <c r="F17" s="20" t="n"/>
+      <c r="G17" s="20" t="n"/>
+      <c r="H17" s="20" t="n"/>
+      <c r="I17" s="5" t="inlineStr">
+        <is>
+          <t>TBL</t>
+        </is>
+      </c>
+      <c r="J17" s="5" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="K17" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="19" t="n"/>
+      <c r="M17" s="19" t="n"/>
+      <c r="N17" s="19" t="n"/>
+      <c r="O17" s="5" t="n"/>
+      <c r="P17" s="5" t="n"/>
+      <c r="Q17" s="19" t="n"/>
+      <c r="R17" s="5" t="n"/>
+      <c r="S17" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T17" s="5" t="n"/>
+      <c r="U17" s="5" t="n"/>
+      <c r="V17" s="5" t="n"/>
+      <c r="W17" s="5" t="n"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="B18" s="15" t="n">
+        <v>2025020825</v>
+      </c>
+      <c r="C18" s="5" t="n"/>
+      <c r="D18" s="5" t="n"/>
+      <c r="E18" s="19" t="n"/>
+      <c r="F18" s="20" t="n"/>
+      <c r="G18" s="20" t="n"/>
+      <c r="H18" s="20" t="n"/>
+      <c r="I18" s="5" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="J18" s="5" t="inlineStr">
+        <is>
+          <t>TBL</t>
+        </is>
+      </c>
+      <c r="K18" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="19" t="n"/>
+      <c r="M18" s="19" t="n"/>
+      <c r="N18" s="19" t="n"/>
+      <c r="O18" s="5" t="n"/>
+      <c r="P18" s="5" t="n"/>
+      <c r="Q18" s="19" t="n"/>
+      <c r="R18" s="5" t="n"/>
+      <c r="S18" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T18" s="5" t="n"/>
+      <c r="U18" s="5" t="n"/>
+      <c r="V18" s="5" t="n"/>
+      <c r="W18" s="5" t="n"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="B19" s="15" t="n">
+        <v>2025020826</v>
+      </c>
+      <c r="C19" s="5" t="n"/>
+      <c r="D19" s="5" t="n"/>
+      <c r="E19" s="19" t="n"/>
+      <c r="F19" s="20" t="n"/>
+      <c r="G19" s="20" t="n"/>
+      <c r="H19" s="20" t="n"/>
+      <c r="I19" s="5" t="inlineStr">
+        <is>
+          <t>NYR</t>
+        </is>
+      </c>
+      <c r="J19" s="5" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="K19" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="19" t="n"/>
+      <c r="M19" s="19" t="n"/>
+      <c r="N19" s="19" t="n"/>
+      <c r="O19" s="5" t="n"/>
+      <c r="P19" s="5" t="n"/>
+      <c r="Q19" s="19" t="n"/>
+      <c r="R19" s="5" t="n"/>
+      <c r="S19" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T19" s="5" t="n"/>
+      <c r="U19" s="5" t="n"/>
+      <c r="V19" s="5" t="n"/>
+      <c r="W19" s="5" t="n"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="B20" s="15" t="n">
+        <v>2025020826</v>
+      </c>
+      <c r="C20" s="5" t="n"/>
+      <c r="D20" s="5" t="n"/>
+      <c r="E20" s="19" t="n"/>
+      <c r="F20" s="20" t="n"/>
+      <c r="G20" s="20" t="n"/>
+      <c r="H20" s="20" t="n"/>
+      <c r="I20" s="5" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="J20" s="5" t="inlineStr">
+        <is>
+          <t>NYR</t>
+        </is>
+      </c>
+      <c r="K20" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="19" t="n"/>
+      <c r="M20" s="19" t="n"/>
+      <c r="N20" s="19" t="n"/>
+      <c r="O20" s="5" t="n"/>
+      <c r="P20" s="5" t="n"/>
+      <c r="Q20" s="19" t="n"/>
+      <c r="R20" s="5" t="n"/>
+      <c r="S20" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T20" s="5" t="n"/>
+      <c r="U20" s="5" t="n"/>
+      <c r="V20" s="5" t="n"/>
+      <c r="W20" s="5" t="n"/>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="B21" s="15" t="n">
+        <v>2025020827</v>
+      </c>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="5" t="n"/>
+      <c r="E21" s="19" t="n"/>
+      <c r="F21" s="20" t="n"/>
+      <c r="G21" s="20" t="n"/>
+      <c r="H21" s="20" t="n"/>
+      <c r="I21" s="5" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="J21" s="5" t="inlineStr">
+        <is>
+          <t>NYI</t>
+        </is>
+      </c>
+      <c r="K21" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="19" t="n"/>
+      <c r="M21" s="19" t="n"/>
+      <c r="N21" s="19" t="n"/>
+      <c r="O21" s="5" t="n"/>
+      <c r="P21" s="5" t="n"/>
+      <c r="Q21" s="19" t="n"/>
+      <c r="R21" s="5" t="n"/>
+      <c r="S21" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T21" s="5" t="n"/>
+      <c r="U21" s="5" t="n"/>
+      <c r="V21" s="5" t="n"/>
+      <c r="W21" s="5" t="n"/>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="B22" s="15" t="n">
+        <v>2025020827</v>
+      </c>
+      <c r="C22" s="5" t="n"/>
+      <c r="D22" s="5" t="n"/>
+      <c r="E22" s="19" t="n"/>
+      <c r="F22" s="20" t="n"/>
+      <c r="G22" s="20" t="n"/>
+      <c r="H22" s="20" t="n"/>
+      <c r="I22" s="5" t="inlineStr">
+        <is>
+          <t>NYI</t>
+        </is>
+      </c>
+      <c r="J22" s="5" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="K22" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="19" t="n"/>
+      <c r="M22" s="19" t="n"/>
+      <c r="N22" s="19" t="n"/>
+      <c r="O22" s="5" t="n"/>
+      <c r="P22" s="5" t="n"/>
+      <c r="Q22" s="19" t="n"/>
+      <c r="R22" s="5" t="n"/>
+      <c r="S22" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T22" s="5" t="n"/>
+      <c r="U22" s="5" t="n"/>
+      <c r="V22" s="5" t="n"/>
+      <c r="W22" s="5" t="n"/>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="B23" s="15" t="n">
+        <v>2025020829</v>
+      </c>
+      <c r="C23" s="5" t="n"/>
+      <c r="D23" s="5" t="n"/>
+      <c r="E23" s="19" t="n"/>
+      <c r="F23" s="20" t="n"/>
+      <c r="G23" s="20" t="n"/>
+      <c r="H23" s="20" t="n"/>
+      <c r="I23" s="5" t="inlineStr">
+        <is>
+          <t>EDM</t>
+        </is>
+      </c>
+      <c r="J23" s="5" t="inlineStr">
+        <is>
+          <t>ANA</t>
+        </is>
+      </c>
+      <c r="K23" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="19" t="n"/>
+      <c r="M23" s="19" t="n"/>
+      <c r="N23" s="19" t="n"/>
+      <c r="O23" s="5" t="n"/>
+      <c r="P23" s="5" t="n"/>
+      <c r="Q23" s="19" t="n"/>
+      <c r="R23" s="5" t="n"/>
+      <c r="S23" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T23" s="5" t="n"/>
+      <c r="U23" s="5" t="n"/>
+      <c r="V23" s="5" t="n"/>
+      <c r="W23" s="5" t="n"/>
+    </row>
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="B24" s="15" t="n">
+        <v>2025020829</v>
+      </c>
+      <c r="C24" s="5" t="n"/>
+      <c r="D24" s="5" t="n"/>
+      <c r="E24" s="19" t="n"/>
+      <c r="F24" s="20" t="n"/>
+      <c r="G24" s="20" t="n"/>
+      <c r="H24" s="20" t="n"/>
+      <c r="I24" s="5" t="inlineStr">
+        <is>
+          <t>ANA</t>
+        </is>
+      </c>
+      <c r="J24" s="5" t="inlineStr">
+        <is>
+          <t>EDM</t>
+        </is>
+      </c>
+      <c r="K24" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="19" t="n"/>
+      <c r="M24" s="19" t="n"/>
+      <c r="N24" s="19" t="n"/>
+      <c r="O24" s="5" t="n"/>
+      <c r="P24" s="5" t="n"/>
+      <c r="Q24" s="19" t="n"/>
+      <c r="R24" s="5" t="n"/>
+      <c r="S24" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T24" s="5" t="n"/>
+      <c r="U24" s="5" t="n"/>
+      <c r="V24" s="5" t="n"/>
+      <c r="W24" s="5" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11210,117 +11977,117 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="26" t="inlineStr">
+      <c r="A1" s="28" t="inlineStr">
         <is>
           <t>game_date</t>
         </is>
       </c>
-      <c r="B1" s="26" t="inlineStr">
+      <c r="B1" s="28" t="inlineStr">
         <is>
           <t>game_id</t>
         </is>
       </c>
-      <c r="C1" s="26" t="inlineStr">
+      <c r="C1" s="28" t="inlineStr">
         <is>
           <t>book</t>
         </is>
       </c>
-      <c r="D1" s="26" t="inlineStr">
+      <c r="D1" s="28" t="inlineStr">
         <is>
           <t>goalie_name</t>
         </is>
       </c>
-      <c r="E1" s="26" t="inlineStr">
+      <c r="E1" s="28" t="inlineStr">
         <is>
           <t>betting_line</t>
         </is>
       </c>
-      <c r="F1" s="26" t="inlineStr">
+      <c r="F1" s="28" t="inlineStr">
         <is>
           <t>line_over</t>
         </is>
       </c>
-      <c r="G1" s="26" t="inlineStr">
+      <c r="G1" s="28" t="inlineStr">
         <is>
           <t>line_under</t>
         </is>
       </c>
-      <c r="H1" s="26" t="inlineStr">
+      <c r="H1" s="28" t="inlineStr">
         <is>
           <t>goalie_id</t>
         </is>
       </c>
-      <c r="I1" s="26" t="inlineStr">
+      <c r="I1" s="28" t="inlineStr">
         <is>
           <t>team_abbrev</t>
         </is>
       </c>
-      <c r="J1" s="26" t="inlineStr">
+      <c r="J1" s="28" t="inlineStr">
         <is>
           <t>opponent_team</t>
         </is>
       </c>
-      <c r="K1" s="26" t="inlineStr">
+      <c r="K1" s="28" t="inlineStr">
         <is>
           <t>is_home</t>
         </is>
       </c>
-      <c r="L1" s="26" t="inlineStr">
+      <c r="L1" s="28" t="inlineStr">
         <is>
           <t>predicted_saves</t>
         </is>
       </c>
-      <c r="M1" s="26" t="inlineStr">
+      <c r="M1" s="28" t="inlineStr">
         <is>
           <t>prob_over</t>
         </is>
       </c>
-      <c r="N1" s="26" t="inlineStr">
+      <c r="N1" s="28" t="inlineStr">
         <is>
           <t>confidence_pct</t>
         </is>
       </c>
-      <c r="O1" s="26" t="inlineStr">
+      <c r="O1" s="28" t="inlineStr">
         <is>
           <t>confidence_bucket</t>
         </is>
       </c>
-      <c r="P1" s="26" t="inlineStr">
+      <c r="P1" s="28" t="inlineStr">
         <is>
           <t>recommendation</t>
         </is>
       </c>
-      <c r="Q1" s="26" t="inlineStr">
+      <c r="Q1" s="28" t="inlineStr">
         <is>
           <t>ev</t>
         </is>
       </c>
-      <c r="R1" s="26" t="inlineStr">
+      <c r="R1" s="28" t="inlineStr">
         <is>
           <t>bet_amount</t>
         </is>
       </c>
-      <c r="S1" s="26" t="inlineStr">
+      <c r="S1" s="28" t="inlineStr">
         <is>
           <t>bet_selection</t>
         </is>
       </c>
-      <c r="T1" s="26" t="inlineStr">
+      <c r="T1" s="28" t="inlineStr">
         <is>
           <t>actual_saves</t>
         </is>
       </c>
-      <c r="U1" s="26" t="inlineStr">
+      <c r="U1" s="28" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="V1" s="26" t="inlineStr">
+      <c r="V1" s="28" t="inlineStr">
         <is>
           <t>profit_loss</t>
         </is>
       </c>
-      <c r="W1" s="26" t="inlineStr">
+      <c r="W1" s="28" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
@@ -11400,6 +12167,18 @@
           <t>UNDER</t>
         </is>
       </c>
+      <c r="T2" t="n">
+        <v>33</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -11475,6 +12254,18 @@
           <t>OVER</t>
         </is>
       </c>
+      <c r="T3" t="n">
+        <v>15</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -11542,11 +12333,24 @@
       <c r="Q4" t="n">
         <v>0.015285491943359</v>
       </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
+      <c r="T4" t="n">
+        <v>21</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -11614,11 +12418,24 @@
       <c r="Q5" t="n">
         <v>0.012548387050629</v>
       </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
+      <c r="T5" t="n">
+        <v>20</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -11686,11 +12503,24 @@
       <c r="Q6" t="n">
         <v>0.008153468370438</v>
       </c>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
+      <c r="T6" t="n">
+        <v>17</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -11758,11 +12588,24 @@
       <c r="Q7" t="n">
         <v>-0.02310222387313843</v>
       </c>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
+      <c r="T7" t="n">
+        <v>20</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -11830,11 +12673,24 @@
       <c r="Q8" t="n">
         <v>-0.02277988195419312</v>
       </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
+      <c r="T8" t="n">
+        <v>21</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -11902,11 +12758,24 @@
       <c r="Q9" t="n">
         <v>-0.03978866338729858</v>
       </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
+      <c r="T9" t="n">
+        <v>17</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -11982,6 +12851,18 @@
           <t>UNDER</t>
         </is>
       </c>
+      <c r="T10" t="n">
+        <v>33</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="W10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -12049,11 +12930,24 @@
       <c r="Q11" t="n">
         <v>0.018103539943695</v>
       </c>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
+      <c r="T11" t="n">
+        <v>32</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -12121,11 +13015,24 @@
       <c r="Q12" t="n">
         <v>-0.009519815444945999</v>
       </c>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
+      <c r="T12" t="n">
+        <v>15</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -12193,11 +13100,24 @@
       <c r="Q13" t="n">
         <v>-0.012787938117981</v>
       </c>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
+      <c r="T13" t="n">
+        <v>32</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -12265,11 +13185,24 @@
       <c r="Q14" t="n">
         <v>0.011135518550873</v>
       </c>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
+      <c r="T14" t="n">
+        <v>32</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12337,11 +13270,24 @@
       <c r="Q15" t="n">
         <v>0.016703963279724</v>
       </c>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
+      <c r="T15" t="n">
+        <v>15</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="V15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12409,11 +13355,24 @@
       <c r="Q16" t="n">
         <v>0.01343584060668945</v>
       </c>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
+      <c r="T16" t="n">
+        <v>32</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12489,6 +13448,18 @@
           <t>OVER</t>
         </is>
       </c>
+      <c r="T17" t="n">
+        <v>15</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="V17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12556,11 +13527,24 @@
       <c r="Q18" t="n">
         <v>0.008857071399689</v>
       </c>
+      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
+      <c r="T18" t="n">
+        <v>32</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12628,11 +13612,24 @@
       <c r="Q19" t="n">
         <v>0.010816544294357</v>
       </c>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
+      <c r="T19" t="n">
+        <v>27</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12700,11 +13697,24 @@
       <c r="Q20" t="n">
         <v>0.003378510475158691</v>
       </c>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
+      <c r="T20" t="n">
+        <v>27</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12772,11 +13782,24 @@
       <c r="Q21" t="n">
         <v>0.005866050720215</v>
       </c>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
+      <c r="T21" t="n">
+        <v>27</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -12844,11 +13867,24 @@
       <c r="Q22" t="n">
         <v>-0.02019384503364563</v>
       </c>
+      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
+      <c r="T22" t="n">
+        <v>30</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -12916,11 +13952,24 @@
       <c r="Q23" t="n">
         <v>-0.02315980195999146</v>
       </c>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
+      <c r="T23" t="n">
+        <v>20</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -12988,11 +14037,24 @@
       <c r="Q24" t="n">
         <v>-0.03969794511795044</v>
       </c>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
+      <c r="T24" t="n">
+        <v>17</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -13060,11 +14122,24 @@
       <c r="Q25" t="n">
         <v>0.01273497939109802</v>
       </c>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
+      <c r="T25" t="n">
+        <v>25</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -13132,11 +14207,24 @@
       <c r="Q26" t="n">
         <v>-0.03520715236663818</v>
       </c>
+      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
+      <c r="T26" t="n">
+        <v>25</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -13204,11 +14292,24 @@
       <c r="Q27" t="n">
         <v>0.003795504570007324</v>
       </c>
+      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
+      <c r="T27" t="n">
+        <v>22</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -13276,11 +14377,24 @@
       <c r="Q28" t="n">
         <v>0.002858221530914307</v>
       </c>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
+      <c r="T28" t="n">
+        <v>25</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -13348,11 +14462,24 @@
       <c r="Q29" t="n">
         <v>-0.03185510635375977</v>
       </c>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
+      <c r="T29" t="n">
+        <v>22</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -13420,11 +14547,24 @@
       <c r="Q30" t="n">
         <v>0.007759869098663</v>
       </c>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
+      <c r="T30" t="n">
+        <v>25</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -13492,11 +14632,24 @@
       <c r="Q31" t="n">
         <v>-0.03184890747070312</v>
       </c>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
+      <c r="T31" t="n">
+        <v>22</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -13564,11 +14717,24 @@
       <c r="Q32" t="n">
         <v>-0.02763187885284424</v>
       </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
+      <c r="T32" t="n">
+        <v>30</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -13636,11 +14802,24 @@
       <c r="Q33" t="n">
         <v>0.003795504570007324</v>
       </c>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
+      <c r="T33" t="n">
+        <v>22</v>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -13708,11 +14887,24 @@
       <c r="Q34" t="n">
         <v>-0.03009486198425293</v>
       </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
+      <c r="T34" t="n">
+        <v>30</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13734,27 +14926,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="8" max="8"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="11" max="11"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="12" max="12"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="13" max="13"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="18" max="18"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="20" max="20"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="21" max="21"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="22" max="22"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="22" max="22"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="23" max="23"/>
   </cols>
   <sheetData>
@@ -15943,27 +17135,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="8" max="8"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="11" max="11"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="12" max="12"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="13" max="13"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="18" max="18"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="20" max="20"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="21" max="21"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="22" max="22"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="22" max="22"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="23" max="23"/>
   </cols>
   <sheetData>
@@ -20102,27 +21294,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="8" max="8"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="11" max="11"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="12" max="12"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="13" max="13"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="18" max="18"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="20" max="20"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="21" max="21"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="22" max="22"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="22" max="22"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="23" max="23"/>
   </cols>
   <sheetData>
@@ -22821,27 +24013,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="8" max="8"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="11" max="11"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="12" max="12"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="13" max="13"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="18" max="18"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="20" max="20"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="21" max="21"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="22" max="22"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="22" max="22"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="23" max="23"/>
   </cols>
   <sheetData>
@@ -24318,27 +25510,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="8" max="8"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="11" max="11"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="12" max="12"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="13" max="13"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="18" max="18"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="20" max="20"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="21" max="21"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="21" min="22" max="22"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="22" max="22"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="23" max="23"/>
   </cols>
   <sheetData>

--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>2026-01-25 11:57:27</t>
+          <t>2026-01-27 06:58:23</t>
         </is>
       </c>
       <c r="C3" s="2" t="n"/>
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="n"/>
       <c r="D7" s="2" t="n"/>
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="n"/>
       <c r="D8" s="2" t="n"/>
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="n"/>
       <c r="D9" s="2" t="n"/>
@@ -717,7 +717,7 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>52.0%</t>
+          <t>48.4%</t>
         </is>
       </c>
       <c r="C11" s="2" t="n"/>
@@ -732,7 +732,7 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>+2.81</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="C12" s="2" t="n"/>
@@ -747,7 +747,7 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>+8.25%</t>
+          <t>-0.85%</t>
         </is>
       </c>
       <c r="C13" s="2" t="n"/>
@@ -813,19 +813,19 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D18" s="26" t="inlineStr">
         <is>
-          <t>47.8%</t>
+          <t>44.8%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>+3.45%</t>
+          <t>-5.26%</t>
         </is>
       </c>
     </row>
@@ -10285,1680 +10285,1611 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="20" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="20" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="20" min="8" max="8"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="23" min="11" max="11"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="12" max="12"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="13" max="13"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="14" max="14"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="18" max="18"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="20" max="20"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="21" max="21"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="22" max="22"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="23" max="23"/>
-  </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="12" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="28" t="inlineStr">
         <is>
           <t>game_date</t>
         </is>
       </c>
-      <c r="B1" s="13" t="inlineStr">
+      <c r="B1" s="28" t="inlineStr">
         <is>
           <t>game_id</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="28" t="inlineStr">
         <is>
           <t>book</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="D1" s="28" t="inlineStr">
         <is>
           <t>goalie_name</t>
         </is>
       </c>
-      <c r="E1" s="14" t="inlineStr">
+      <c r="E1" s="28" t="inlineStr">
         <is>
           <t>betting_line</t>
         </is>
       </c>
-      <c r="F1" s="13" t="inlineStr">
+      <c r="F1" s="28" t="inlineStr">
         <is>
           <t>line_over</t>
         </is>
       </c>
-      <c r="G1" s="13" t="inlineStr">
+      <c r="G1" s="28" t="inlineStr">
         <is>
           <t>line_under</t>
         </is>
       </c>
-      <c r="H1" s="13" t="inlineStr">
+      <c r="H1" s="28" t="inlineStr">
         <is>
           <t>goalie_id</t>
         </is>
       </c>
-      <c r="I1" s="12" t="inlineStr">
+      <c r="I1" s="28" t="inlineStr">
         <is>
           <t>team_abbrev</t>
         </is>
       </c>
-      <c r="J1" s="12" t="inlineStr">
+      <c r="J1" s="28" t="inlineStr">
         <is>
           <t>opponent_team</t>
         </is>
       </c>
-      <c r="K1" s="13" t="inlineStr">
+      <c r="K1" s="28" t="inlineStr">
         <is>
           <t>is_home</t>
         </is>
       </c>
-      <c r="L1" s="14" t="inlineStr">
+      <c r="L1" s="28" t="inlineStr">
         <is>
           <t>predicted_saves</t>
         </is>
       </c>
-      <c r="M1" s="14" t="inlineStr">
+      <c r="M1" s="28" t="inlineStr">
         <is>
           <t>prob_over</t>
         </is>
       </c>
-      <c r="N1" s="14" t="inlineStr">
+      <c r="N1" s="28" t="inlineStr">
         <is>
           <t>confidence_pct</t>
         </is>
       </c>
-      <c r="O1" s="12" t="inlineStr">
+      <c r="O1" s="28" t="inlineStr">
         <is>
           <t>confidence_bucket</t>
         </is>
       </c>
-      <c r="P1" s="12" t="inlineStr">
+      <c r="P1" s="28" t="inlineStr">
         <is>
           <t>recommendation</t>
         </is>
       </c>
-      <c r="Q1" s="14" t="inlineStr">
+      <c r="Q1" s="28" t="inlineStr">
         <is>
           <t>ev</t>
         </is>
       </c>
-      <c r="R1" s="12" t="inlineStr">
+      <c r="R1" s="28" t="inlineStr">
         <is>
           <t>bet_amount</t>
         </is>
       </c>
-      <c r="S1" s="12" t="inlineStr">
+      <c r="S1" s="28" t="inlineStr">
         <is>
           <t>bet_selection</t>
         </is>
       </c>
-      <c r="T1" s="12" t="inlineStr">
+      <c r="T1" s="28" t="inlineStr">
         <is>
           <t>actual_saves</t>
         </is>
       </c>
-      <c r="U1" s="12" t="inlineStr">
+      <c r="U1" s="28" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="V1" s="12" t="inlineStr">
+      <c r="V1" s="28" t="inlineStr">
         <is>
           <t>profit_loss</t>
         </is>
       </c>
-      <c r="W1" s="12" t="inlineStr">
+      <c r="W1" s="28" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="5" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B2" s="15" t="n">
+      <c r="B2" t="n">
         <v>2025020826</v>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Korpisalo</t>
         </is>
       </c>
-      <c r="E2" s="16" t="n">
+      <c r="E2" t="n">
         <v>23.5</v>
       </c>
-      <c r="F2" s="15" t="n">
+      <c r="F2" t="n">
         <v>-110</v>
       </c>
-      <c r="G2" s="15" t="n">
+      <c r="G2" t="n">
         <v>-112</v>
       </c>
-      <c r="H2" s="15" t="n">
+      <c r="H2" t="n">
         <v>8476914</v>
       </c>
-      <c r="I2" s="5" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>BOS</t>
         </is>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>NYR</t>
         </is>
       </c>
-      <c r="K2" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="16" t="n">
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>23.5</v>
       </c>
-      <c r="M2" s="16" t="n">
+      <c r="M2" t="n">
         <v>0.4952241480350494</v>
       </c>
-      <c r="N2" s="16" t="n">
+      <c r="N2" t="n">
         <v>0.9551703929901123</v>
       </c>
-      <c r="O2" s="5" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P2" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q2" s="16" t="n">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
         <v>-0.02352601289749146</v>
       </c>
-      <c r="R2" s="5" t="n"/>
-      <c r="S2" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T2" s="5" t="n"/>
-      <c r="U2" s="5" t="n"/>
-      <c r="V2" s="5" t="n"/>
-      <c r="W2" s="5" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>24</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B3" s="15" t="n">
+      <c r="B3" t="n">
         <v>2025020827</v>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Ersson</t>
         </is>
       </c>
-      <c r="E3" s="16" t="n">
+      <c r="E3" t="n">
         <v>22.5</v>
       </c>
-      <c r="F3" s="15" t="n">
+      <c r="F3" t="n">
         <v>-108</v>
       </c>
-      <c r="G3" s="15" t="n">
+      <c r="G3" t="n">
         <v>-114</v>
       </c>
-      <c r="H3" s="15" t="n">
+      <c r="H3" t="n">
         <v>8481035</v>
       </c>
-      <c r="I3" s="5" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>PHI</t>
         </is>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>NYI</t>
         </is>
       </c>
-      <c r="K3" s="15" t="n">
+      <c r="K3" t="n">
         <v>1</v>
       </c>
-      <c r="L3" s="16" t="n">
+      <c r="L3" t="n">
         <v>22.60000038146973</v>
       </c>
-      <c r="M3" s="16" t="n">
+      <c r="M3" t="n">
         <v>0.5245903730392456</v>
       </c>
-      <c r="N3" s="16" t="n">
+      <c r="N3" t="n">
         <v>4.918074607849121</v>
       </c>
-      <c r="O3" s="5" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P3" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q3" s="16" t="n">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
         <v>0.00535959005355835</v>
       </c>
-      <c r="R3" s="5" t="n"/>
-      <c r="S3" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T3" s="5" t="n"/>
-      <c r="U3" s="5" t="n"/>
-      <c r="V3" s="5" t="n"/>
-      <c r="W3" s="5" t="n"/>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>19</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B4" s="15" t="n">
+      <c r="B4" t="n">
         <v>2025020827</v>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Sorokin</t>
         </is>
       </c>
-      <c r="E4" s="16" t="n">
+      <c r="E4" t="n">
         <v>24.5</v>
       </c>
-      <c r="F4" s="15" t="n">
+      <c r="F4" t="n">
         <v>-108</v>
       </c>
-      <c r="G4" s="15" t="n">
+      <c r="G4" t="n">
         <v>-114</v>
       </c>
-      <c r="H4" s="15" t="n">
+      <c r="H4" t="n">
         <v>8478009</v>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>NYI</t>
         </is>
       </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>PHI</t>
         </is>
       </c>
-      <c r="K4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="16" t="n">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>24.39999961853027</v>
       </c>
-      <c r="M4" s="16" t="n">
+      <c r="M4" t="n">
         <v>0.4777428805828094</v>
       </c>
-      <c r="N4" s="16" t="n">
+      <c r="N4" t="n">
         <v>4.451423645019531</v>
       </c>
-      <c r="O4" s="5" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q4" s="16" t="n">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
         <v>-0.01045316457748413</v>
       </c>
-      <c r="R4" s="5" t="n"/>
-      <c r="S4" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T4" s="5" t="n"/>
-      <c r="U4" s="5" t="n"/>
-      <c r="V4" s="5" t="n"/>
-      <c r="W4" s="5" t="n"/>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>21</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B5" s="15" t="n">
+      <c r="B5" t="n">
         <v>2025020829</v>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Jarry</t>
         </is>
       </c>
-      <c r="E5" s="16" t="n">
+      <c r="E5" t="n">
         <v>22.5</v>
       </c>
-      <c r="F5" s="15" t="n">
+      <c r="F5" t="n">
         <v>-110</v>
       </c>
-      <c r="G5" s="15" t="n">
+      <c r="G5" t="n">
         <v>-112</v>
       </c>
-      <c r="H5" s="15" t="n">
+      <c r="H5" t="n">
         <v>8477465</v>
       </c>
-      <c r="I5" s="5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>EDM</t>
         </is>
       </c>
-      <c r="J5" s="5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>ANA</t>
         </is>
       </c>
-      <c r="K5" s="15" t="n">
+      <c r="K5" t="n">
         <v>1</v>
       </c>
-      <c r="L5" s="16" t="n">
+      <c r="L5" t="n">
         <v>22.70000076293945</v>
       </c>
-      <c r="M5" s="16" t="n">
+      <c r="M5" t="n">
         <v>0.5345092415809631</v>
       </c>
-      <c r="N5" s="16" t="n">
+      <c r="N5" t="n">
         <v>6.901848316192627</v>
       </c>
-      <c r="O5" s="5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P5" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q5" s="16" t="n">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
         <v>0.01069968938827515</v>
       </c>
-      <c r="R5" s="20" t="n">
+      <c r="R5" t="n">
         <v>1</v>
       </c>
-      <c r="S5" s="5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>OVER</t>
         </is>
       </c>
-      <c r="T5" s="5" t="n"/>
-      <c r="U5" s="5" t="n"/>
-      <c r="V5" s="5" t="n"/>
-      <c r="W5" s="5" t="n"/>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="T5" t="n">
+        <v>36</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>0.9090909090909092</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B6" s="15" t="n">
+      <c r="B6" t="n">
         <v>2025020829</v>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Husso</t>
         </is>
       </c>
-      <c r="E6" s="16" t="n">
+      <c r="E6" t="n">
         <v>26.5</v>
       </c>
-      <c r="F6" s="15" t="n">
+      <c r="F6" t="n">
         <v>-109</v>
       </c>
-      <c r="G6" s="15" t="n">
+      <c r="G6" t="n">
         <v>-113</v>
       </c>
-      <c r="H6" s="15" t="n">
+      <c r="H6" t="n">
         <v>8478024</v>
       </c>
-      <c r="I6" s="5" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>ANA</t>
         </is>
       </c>
-      <c r="J6" s="5" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>EDM</t>
         </is>
       </c>
-      <c r="K6" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="16" t="n">
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>26.39999961853027</v>
       </c>
-      <c r="M6" s="16" t="n">
+      <c r="M6" t="n">
         <v>0.4725062847137451</v>
       </c>
-      <c r="N6" s="16" t="n">
+      <c r="N6" t="n">
         <v>5.498743057250977</v>
       </c>
-      <c r="O6" s="5" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P6" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q6" s="16" t="n">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
         <v>-0.003022730350494385</v>
       </c>
-      <c r="R6" s="5" t="n"/>
-      <c r="S6" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T6" s="5" t="n"/>
-      <c r="U6" s="5" t="n"/>
-      <c r="V6" s="5" t="n"/>
-      <c r="W6" s="5" t="n"/>
-    </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>25</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B7" s="15" t="n">
+      <c r="B7" t="n">
         <v>2025020827</v>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>PrizePicks</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Sorokin</t>
         </is>
       </c>
-      <c r="E7" s="16" t="n">
+      <c r="E7" t="n">
         <v>24.5</v>
       </c>
-      <c r="F7" s="15" t="n">
+      <c r="F7" t="n">
         <v>-120</v>
       </c>
-      <c r="G7" s="15" t="n">
+      <c r="G7" t="n">
         <v>-120</v>
       </c>
-      <c r="H7" s="15" t="n">
+      <c r="H7" t="n">
         <v>8478009</v>
       </c>
-      <c r="I7" s="5" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>NYI</t>
         </is>
       </c>
-      <c r="J7" s="5" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>PHI</t>
         </is>
       </c>
-      <c r="K7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="16" t="n">
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>24.39999961853027</v>
       </c>
-      <c r="M7" s="16" t="n">
+      <c r="M7" t="n">
         <v>0.4777428805828094</v>
       </c>
-      <c r="N7" s="16" t="n">
+      <c r="N7" t="n">
         <v>4.451423645019531</v>
       </c>
-      <c r="O7" s="5" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P7" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q7" s="16" t="n">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
         <v>-0.0231974720954895</v>
       </c>
-      <c r="R7" s="5" t="n"/>
-      <c r="S7" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T7" s="5" t="n"/>
-      <c r="U7" s="5" t="n"/>
-      <c r="V7" s="5" t="n"/>
-      <c r="W7" s="5" t="n"/>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>21</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B8" s="15" t="n">
+      <c r="B8" t="n">
         <v>2025020827</v>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>PrizePicks</t>
         </is>
       </c>
-      <c r="D8" s="5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Ersson</t>
         </is>
       </c>
-      <c r="E8" s="16" t="n">
+      <c r="E8" t="n">
         <v>22.5</v>
       </c>
-      <c r="F8" s="15" t="n">
+      <c r="F8" t="n">
         <v>-120</v>
       </c>
-      <c r="G8" s="15" t="n">
+      <c r="G8" t="n">
         <v>-120</v>
       </c>
-      <c r="H8" s="15" t="n">
+      <c r="H8" t="n">
         <v>8481035</v>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>PHI</t>
         </is>
       </c>
-      <c r="J8" s="5" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>NYI</t>
         </is>
       </c>
-      <c r="K8" s="15" t="n">
+      <c r="K8" t="n">
         <v>1</v>
       </c>
-      <c r="L8" s="16" t="n">
+      <c r="L8" t="n">
         <v>22.60000038146973</v>
       </c>
-      <c r="M8" s="16" t="n">
+      <c r="M8" t="n">
         <v>0.5245903730392456</v>
       </c>
-      <c r="N8" s="16" t="n">
+      <c r="N8" t="n">
         <v>4.918074607849121</v>
       </c>
-      <c r="O8" s="5" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q8" s="16" t="n">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
         <v>-0.02086418867111206</v>
       </c>
-      <c r="R8" s="5" t="n"/>
-      <c r="S8" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T8" s="5" t="n"/>
-      <c r="U8" s="5" t="n"/>
-      <c r="V8" s="5" t="n"/>
-      <c r="W8" s="5" t="n"/>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>19</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B9" s="15" t="n">
+      <c r="B9" t="n">
         <v>2025020826</v>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>PrizePicks</t>
         </is>
       </c>
-      <c r="D9" s="5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Korpisalo</t>
         </is>
       </c>
-      <c r="E9" s="16" t="n">
+      <c r="E9" t="n">
         <v>23.5</v>
       </c>
-      <c r="F9" s="15" t="n">
+      <c r="F9" t="n">
         <v>-120</v>
       </c>
-      <c r="G9" s="15" t="n">
+      <c r="G9" t="n">
         <v>-120</v>
       </c>
-      <c r="H9" s="15" t="n">
+      <c r="H9" t="n">
         <v>8476914</v>
       </c>
-      <c r="I9" s="5" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>BOS</t>
         </is>
       </c>
-      <c r="J9" s="5" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>NYR</t>
         </is>
       </c>
-      <c r="K9" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="16" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>23.5</v>
       </c>
-      <c r="M9" s="16" t="n">
+      <c r="M9" t="n">
         <v>0.4952241480350494</v>
       </c>
-      <c r="N9" s="16" t="n">
+      <c r="N9" t="n">
         <v>0.9551703929901123</v>
       </c>
-      <c r="O9" s="5" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P9" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q9" s="16" t="n">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
         <v>-0.04067867994308472</v>
       </c>
-      <c r="R9" s="5" t="n"/>
-      <c r="S9" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T9" s="5" t="n"/>
-      <c r="U9" s="5" t="n"/>
-      <c r="V9" s="5" t="n"/>
-      <c r="W9" s="5" t="n"/>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>24</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B10" s="15" t="n">
+      <c r="B10" t="n">
         <v>2025020829</v>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>PrizePicks</t>
         </is>
       </c>
-      <c r="D10" s="5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Husso</t>
         </is>
       </c>
-      <c r="E10" s="16" t="n">
+      <c r="E10" t="n">
         <v>26.5</v>
       </c>
-      <c r="F10" s="15" t="n">
+      <c r="F10" t="n">
         <v>-120</v>
       </c>
-      <c r="G10" s="15" t="n">
+      <c r="G10" t="n">
         <v>-120</v>
       </c>
-      <c r="H10" s="15" t="n">
+      <c r="H10" t="n">
         <v>8478024</v>
       </c>
-      <c r="I10" s="5" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>ANA</t>
         </is>
       </c>
-      <c r="J10" s="5" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>EDM</t>
         </is>
       </c>
-      <c r="K10" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="16" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>26.39999961853027</v>
       </c>
-      <c r="M10" s="16" t="n">
+      <c r="M10" t="n">
         <v>0.4725062847137451</v>
       </c>
-      <c r="N10" s="16" t="n">
+      <c r="N10" t="n">
         <v>5.498743057250977</v>
       </c>
-      <c r="O10" s="5" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P10" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q10" s="16" t="n">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
         <v>-0.01796084642410278</v>
       </c>
-      <c r="R10" s="5" t="n"/>
-      <c r="S10" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T10" s="5" t="n"/>
-      <c r="U10" s="5" t="n"/>
-      <c r="V10" s="5" t="n"/>
-      <c r="W10" s="5" t="n"/>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>25</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B11" s="15" t="n">
+      <c r="B11" t="n">
         <v>2025020829</v>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>PrizePicks</t>
         </is>
       </c>
-      <c r="D11" s="5" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Jarry</t>
         </is>
       </c>
-      <c r="E11" s="16" t="n">
+      <c r="E11" t="n">
         <v>22.5</v>
       </c>
-      <c r="F11" s="15" t="n">
+      <c r="F11" t="n">
         <v>-120</v>
       </c>
-      <c r="G11" s="15" t="n">
+      <c r="G11" t="n">
         <v>-120</v>
       </c>
-      <c r="H11" s="15" t="n">
+      <c r="H11" t="n">
         <v>8477465</v>
       </c>
-      <c r="I11" s="5" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>EDM</t>
         </is>
       </c>
-      <c r="J11" s="5" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>ANA</t>
         </is>
       </c>
-      <c r="K11" s="15" t="n">
+      <c r="K11" t="n">
         <v>1</v>
       </c>
-      <c r="L11" s="16" t="n">
+      <c r="L11" t="n">
         <v>22.70000076293945</v>
       </c>
-      <c r="M11" s="16" t="n">
+      <c r="M11" t="n">
         <v>0.5345092415809631</v>
       </c>
-      <c r="N11" s="16" t="n">
+      <c r="N11" t="n">
         <v>6.901848316192627</v>
       </c>
-      <c r="O11" s="5" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P11" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q11" s="16" t="n">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
         <v>-0.01094532012939453</v>
       </c>
-      <c r="R11" s="5" t="n"/>
-      <c r="S11" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T11" s="5" t="n"/>
-      <c r="U11" s="5" t="n"/>
-      <c r="V11" s="5" t="n"/>
-      <c r="W11" s="5" t="n"/>
-    </row>
-    <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>36</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B12" s="15" t="n">
+      <c r="B12" t="n">
         <v>2025020826</v>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D12" s="5" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Quick</t>
         </is>
       </c>
-      <c r="E12" s="16" t="n">
+      <c r="E12" t="n">
         <v>22.5</v>
       </c>
-      <c r="F12" s="15" t="n">
+      <c r="F12" t="n">
         <v>-125</v>
       </c>
-      <c r="G12" s="15" t="n">
+      <c r="G12" t="n">
         <v>102</v>
       </c>
-      <c r="H12" s="15" t="n">
+      <c r="H12" t="n">
         <v>8471734</v>
       </c>
-      <c r="I12" s="5" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>NYR</t>
         </is>
       </c>
-      <c r="J12" s="5" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>BOS</t>
         </is>
       </c>
-      <c r="K12" s="15" t="n">
+      <c r="K12" t="n">
         <v>1</v>
       </c>
-      <c r="L12" s="16" t="n">
+      <c r="L12" t="n">
         <v>22.70000076293945</v>
       </c>
-      <c r="M12" s="16" t="n">
+      <c r="M12" t="n">
         <v>0.5315362215042114</v>
       </c>
-      <c r="N12" s="16" t="n">
+      <c r="N12" t="n">
         <v>6.307244300842285</v>
       </c>
-      <c r="O12" s="5" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P12" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q12" s="16" t="n">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
         <v>-0.02401936054229736</v>
       </c>
-      <c r="R12" s="5" t="n"/>
-      <c r="S12" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T12" s="5" t="n"/>
-      <c r="U12" s="5" t="n"/>
-      <c r="V12" s="5" t="n"/>
-      <c r="W12" s="5" t="n"/>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>21</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B13" s="15" t="n">
+      <c r="B13" t="n">
         <v>2025020825</v>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D13" s="5" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Vejmelka</t>
         </is>
       </c>
-      <c r="E13" s="16" t="n">
+      <c r="E13" t="n">
         <v>22.5</v>
       </c>
-      <c r="F13" s="15" t="n">
+      <c r="F13" t="n">
         <v>-107</v>
       </c>
-      <c r="G13" s="15" t="n">
+      <c r="G13" t="n">
         <v>-115</v>
       </c>
-      <c r="H13" s="15" t="n">
+      <c r="H13" t="n">
         <v>8478872</v>
       </c>
-      <c r="I13" s="5" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>UTA</t>
         </is>
       </c>
-      <c r="J13" s="5" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>TBL</t>
         </is>
       </c>
-      <c r="K13" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="16" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>22.70000076293945</v>
       </c>
-      <c r="M13" s="16" t="n">
+      <c r="M13" t="n">
         <v>0.5384576916694641</v>
       </c>
-      <c r="N13" s="16" t="n">
+      <c r="N13" t="n">
         <v>7.691538333892822</v>
       </c>
-      <c r="O13" s="5" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P13" s="5" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>OVER</t>
         </is>
       </c>
-      <c r="Q13" s="16" t="n">
+      <c r="Q13" t="n">
         <v>0.02154946327209473</v>
       </c>
-      <c r="R13" s="20" t="n">
+      <c r="R13" t="n">
         <v>1</v>
       </c>
-      <c r="S13" s="5" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>OVER</t>
         </is>
       </c>
-      <c r="T13" s="5" t="n"/>
-      <c r="U13" s="5" t="n"/>
-      <c r="V13" s="5" t="n"/>
-      <c r="W13" s="5" t="n"/>
-    </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="T13" t="n">
+        <v>27</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="V13" t="n">
+        <v>0.9345794392523366</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B14" s="15" t="n">
+      <c r="B14" t="n">
         <v>2025020825</v>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Underdog</t>
         </is>
       </c>
-      <c r="D14" s="5" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Vasilevskiy</t>
         </is>
       </c>
-      <c r="E14" s="16" t="n">
+      <c r="E14" t="n">
         <v>22.5</v>
       </c>
-      <c r="F14" s="15" t="n">
+      <c r="F14" t="n">
         <v>-122</v>
       </c>
-      <c r="G14" s="15" t="n">
+      <c r="G14" t="n">
         <v>100</v>
       </c>
-      <c r="H14" s="15" t="n">
+      <c r="H14" t="n">
         <v>8476883</v>
       </c>
-      <c r="I14" s="5" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>TBL</t>
         </is>
       </c>
-      <c r="J14" s="5" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>UTA</t>
         </is>
       </c>
-      <c r="K14" s="15" t="n">
+      <c r="K14" t="n">
         <v>1</v>
       </c>
-      <c r="L14" s="16" t="n">
+      <c r="L14" t="n">
         <v>22.60000038146973</v>
       </c>
-      <c r="M14" s="16" t="n">
+      <c r="M14" t="n">
         <v>0.5218251943588257</v>
       </c>
-      <c r="N14" s="16" t="n">
+      <c r="N14" t="n">
         <v>4.365038871765137</v>
       </c>
-      <c r="O14" s="5" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P14" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q14" s="16" t="n">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
         <v>-0.02182519435882568</v>
       </c>
-      <c r="R14" s="5" t="n"/>
-      <c r="S14" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T14" s="5" t="n"/>
-      <c r="U14" s="5" t="n"/>
-      <c r="V14" s="5" t="n"/>
-      <c r="W14" s="5" t="n"/>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>28</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B15" s="15" t="n">
+      <c r="B15" t="n">
         <v>2025020825</v>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>PrizePicks</t>
         </is>
       </c>
-      <c r="D15" s="5" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Vasilevskiy</t>
         </is>
       </c>
-      <c r="E15" s="16" t="n">
+      <c r="E15" t="n">
         <v>22.5</v>
       </c>
-      <c r="F15" s="15" t="n">
+      <c r="F15" t="n">
         <v>-120</v>
       </c>
-      <c r="G15" s="15" t="n">
+      <c r="G15" t="n">
         <v>-120</v>
       </c>
-      <c r="H15" s="15" t="n">
+      <c r="H15" t="n">
         <v>8476883</v>
       </c>
-      <c r="I15" s="5" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>TBL</t>
         </is>
       </c>
-      <c r="J15" s="5" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>UTA</t>
         </is>
       </c>
-      <c r="K15" s="15" t="n">
+      <c r="K15" t="n">
         <v>1</v>
       </c>
-      <c r="L15" s="16" t="n">
+      <c r="L15" t="n">
         <v>22.60000038146973</v>
       </c>
-      <c r="M15" s="16" t="n">
+      <c r="M15" t="n">
         <v>0.5218251943588257</v>
       </c>
-      <c r="N15" s="16" t="n">
+      <c r="N15" t="n">
         <v>4.365038871765137</v>
       </c>
-      <c r="O15" s="5" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P15" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q15" s="16" t="n">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
         <v>-0.02362936735153198</v>
       </c>
-      <c r="R15" s="5" t="n"/>
-      <c r="S15" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T15" s="5" t="n"/>
-      <c r="U15" s="5" t="n"/>
-      <c r="V15" s="5" t="n"/>
-      <c r="W15" s="5" t="n"/>
-    </row>
-    <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="5" t="inlineStr">
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>28</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B16" s="15" t="n">
+      <c r="B16" t="n">
         <v>2025020825</v>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>PrizePicks</t>
         </is>
       </c>
-      <c r="D16" s="5" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Vejmelka</t>
         </is>
       </c>
-      <c r="E16" s="16" t="n">
+      <c r="E16" t="n">
         <v>22.5</v>
       </c>
-      <c r="F16" s="15" t="n">
+      <c r="F16" t="n">
         <v>-120</v>
       </c>
-      <c r="G16" s="15" t="n">
+      <c r="G16" t="n">
         <v>-120</v>
       </c>
-      <c r="H16" s="15" t="n">
+      <c r="H16" t="n">
         <v>8478872</v>
       </c>
-      <c r="I16" s="5" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>UTA</t>
         </is>
       </c>
-      <c r="J16" s="5" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>TBL</t>
         </is>
       </c>
-      <c r="K16" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="16" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>22.70000076293945</v>
       </c>
-      <c r="M16" s="16" t="n">
+      <c r="M16" t="n">
         <v>0.5384576916694641</v>
       </c>
-      <c r="N16" s="16" t="n">
+      <c r="N16" t="n">
         <v>7.691538333892822</v>
       </c>
-      <c r="O16" s="5" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>50-55%</t>
         </is>
       </c>
-      <c r="P16" s="5" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>OVER</t>
         </is>
       </c>
-      <c r="Q16" s="16" t="n">
+      <c r="Q16" t="n">
         <v>0.02154946327209473</v>
       </c>
-      <c r="R16" s="5" t="n"/>
-      <c r="S16" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T16" s="5" t="n"/>
-      <c r="U16" s="5" t="n"/>
-      <c r="V16" s="5" t="n"/>
-      <c r="W16" s="5" t="n"/>
-    </row>
-    <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="5" t="inlineStr">
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>27</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B17" s="15" t="n">
+      <c r="B17" t="n">
         <v>2025020825</v>
       </c>
-      <c r="C17" s="5" t="n"/>
-      <c r="D17" s="5" t="n"/>
-      <c r="E17" s="19" t="n"/>
-      <c r="F17" s="20" t="n"/>
-      <c r="G17" s="20" t="n"/>
-      <c r="H17" s="20" t="n"/>
-      <c r="I17" s="5" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>TBL</t>
         </is>
       </c>
-      <c r="J17" s="5" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>UTA</t>
         </is>
       </c>
-      <c r="K17" s="15" t="n">
+      <c r="K17" t="n">
         <v>1</v>
       </c>
-      <c r="L17" s="19" t="n"/>
-      <c r="M17" s="19" t="n"/>
-      <c r="N17" s="19" t="n"/>
-      <c r="O17" s="5" t="n"/>
-      <c r="P17" s="5" t="n"/>
-      <c r="Q17" s="19" t="n"/>
-      <c r="R17" s="5" t="n"/>
-      <c r="S17" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T17" s="5" t="n"/>
-      <c r="U17" s="5" t="n"/>
-      <c r="V17" s="5" t="n"/>
-      <c r="W17" s="5" t="n"/>
-    </row>
-    <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="5" t="inlineStr">
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B18" s="15" t="n">
+      <c r="B18" t="n">
         <v>2025020825</v>
       </c>
-      <c r="C18" s="5" t="n"/>
-      <c r="D18" s="5" t="n"/>
-      <c r="E18" s="19" t="n"/>
-      <c r="F18" s="20" t="n"/>
-      <c r="G18" s="20" t="n"/>
-      <c r="H18" s="20" t="n"/>
-      <c r="I18" s="5" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>UTA</t>
         </is>
       </c>
-      <c r="J18" s="5" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>TBL</t>
         </is>
       </c>
-      <c r="K18" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="19" t="n"/>
-      <c r="M18" s="19" t="n"/>
-      <c r="N18" s="19" t="n"/>
-      <c r="O18" s="5" t="n"/>
-      <c r="P18" s="5" t="n"/>
-      <c r="Q18" s="19" t="n"/>
-      <c r="R18" s="5" t="n"/>
-      <c r="S18" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T18" s="5" t="n"/>
-      <c r="U18" s="5" t="n"/>
-      <c r="V18" s="5" t="n"/>
-      <c r="W18" s="5" t="n"/>
-    </row>
-    <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="5" t="inlineStr">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B19" s="15" t="n">
+      <c r="B19" t="n">
         <v>2025020826</v>
       </c>
-      <c r="C19" s="5" t="n"/>
-      <c r="D19" s="5" t="n"/>
-      <c r="E19" s="19" t="n"/>
-      <c r="F19" s="20" t="n"/>
-      <c r="G19" s="20" t="n"/>
-      <c r="H19" s="20" t="n"/>
-      <c r="I19" s="5" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>NYR</t>
         </is>
       </c>
-      <c r="J19" s="5" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>BOS</t>
         </is>
       </c>
-      <c r="K19" s="15" t="n">
+      <c r="K19" t="n">
         <v>1</v>
       </c>
-      <c r="L19" s="19" t="n"/>
-      <c r="M19" s="19" t="n"/>
-      <c r="N19" s="19" t="n"/>
-      <c r="O19" s="5" t="n"/>
-      <c r="P19" s="5" t="n"/>
-      <c r="Q19" s="19" t="n"/>
-      <c r="R19" s="5" t="n"/>
-      <c r="S19" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T19" s="5" t="n"/>
-      <c r="U19" s="5" t="n"/>
-      <c r="V19" s="5" t="n"/>
-      <c r="W19" s="5" t="n"/>
-    </row>
-    <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="5" t="inlineStr">
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B20" s="15" t="n">
+      <c r="B20" t="n">
         <v>2025020826</v>
       </c>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="19" t="n"/>
-      <c r="F20" s="20" t="n"/>
-      <c r="G20" s="20" t="n"/>
-      <c r="H20" s="20" t="n"/>
-      <c r="I20" s="5" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>BOS</t>
         </is>
       </c>
-      <c r="J20" s="5" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>NYR</t>
         </is>
       </c>
-      <c r="K20" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="19" t="n"/>
-      <c r="M20" s="19" t="n"/>
-      <c r="N20" s="19" t="n"/>
-      <c r="O20" s="5" t="n"/>
-      <c r="P20" s="5" t="n"/>
-      <c r="Q20" s="19" t="n"/>
-      <c r="R20" s="5" t="n"/>
-      <c r="S20" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T20" s="5" t="n"/>
-      <c r="U20" s="5" t="n"/>
-      <c r="V20" s="5" t="n"/>
-      <c r="W20" s="5" t="n"/>
-    </row>
-    <row r="21" ht="18.75" customHeight="1">
-      <c r="A21" s="5" t="inlineStr">
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B21" s="15" t="n">
+      <c r="B21" t="n">
         <v>2025020827</v>
       </c>
-      <c r="C21" s="5" t="n"/>
-      <c r="D21" s="5" t="n"/>
-      <c r="E21" s="19" t="n"/>
-      <c r="F21" s="20" t="n"/>
-      <c r="G21" s="20" t="n"/>
-      <c r="H21" s="20" t="n"/>
-      <c r="I21" s="5" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>PHI</t>
         </is>
       </c>
-      <c r="J21" s="5" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>NYI</t>
         </is>
       </c>
-      <c r="K21" s="15" t="n">
+      <c r="K21" t="n">
         <v>1</v>
       </c>
-      <c r="L21" s="19" t="n"/>
-      <c r="M21" s="19" t="n"/>
-      <c r="N21" s="19" t="n"/>
-      <c r="O21" s="5" t="n"/>
-      <c r="P21" s="5" t="n"/>
-      <c r="Q21" s="19" t="n"/>
-      <c r="R21" s="5" t="n"/>
-      <c r="S21" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T21" s="5" t="n"/>
-      <c r="U21" s="5" t="n"/>
-      <c r="V21" s="5" t="n"/>
-      <c r="W21" s="5" t="n"/>
-    </row>
-    <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="5" t="inlineStr">
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B22" s="15" t="n">
+      <c r="B22" t="n">
         <v>2025020827</v>
       </c>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="19" t="n"/>
-      <c r="F22" s="20" t="n"/>
-      <c r="G22" s="20" t="n"/>
-      <c r="H22" s="20" t="n"/>
-      <c r="I22" s="5" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>NYI</t>
         </is>
       </c>
-      <c r="J22" s="5" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>PHI</t>
         </is>
       </c>
-      <c r="K22" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="19" t="n"/>
-      <c r="M22" s="19" t="n"/>
-      <c r="N22" s="19" t="n"/>
-      <c r="O22" s="5" t="n"/>
-      <c r="P22" s="5" t="n"/>
-      <c r="Q22" s="19" t="n"/>
-      <c r="R22" s="5" t="n"/>
-      <c r="S22" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T22" s="5" t="n"/>
-      <c r="U22" s="5" t="n"/>
-      <c r="V22" s="5" t="n"/>
-      <c r="W22" s="5" t="n"/>
-    </row>
-    <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="5" t="inlineStr">
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B23" s="15" t="n">
+      <c r="B23" t="n">
         <v>2025020829</v>
       </c>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="19" t="n"/>
-      <c r="F23" s="20" t="n"/>
-      <c r="G23" s="20" t="n"/>
-      <c r="H23" s="20" t="n"/>
-      <c r="I23" s="5" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>EDM</t>
         </is>
       </c>
-      <c r="J23" s="5" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>ANA</t>
         </is>
       </c>
-      <c r="K23" s="15" t="n">
+      <c r="K23" t="n">
         <v>1</v>
       </c>
-      <c r="L23" s="19" t="n"/>
-      <c r="M23" s="19" t="n"/>
-      <c r="N23" s="19" t="n"/>
-      <c r="O23" s="5" t="n"/>
-      <c r="P23" s="5" t="n"/>
-      <c r="Q23" s="19" t="n"/>
-      <c r="R23" s="5" t="n"/>
-      <c r="S23" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T23" s="5" t="n"/>
-      <c r="U23" s="5" t="n"/>
-      <c r="V23" s="5" t="n"/>
-      <c r="W23" s="5" t="n"/>
-    </row>
-    <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="5" t="inlineStr">
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>2026-01-26</t>
         </is>
       </c>
-      <c r="B24" s="15" t="n">
+      <c r="B24" t="n">
         <v>2025020829</v>
       </c>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="19" t="n"/>
-      <c r="F24" s="20" t="n"/>
-      <c r="G24" s="20" t="n"/>
-      <c r="H24" s="20" t="n"/>
-      <c r="I24" s="5" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>ANA</t>
         </is>
       </c>
-      <c r="J24" s="5" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>EDM</t>
         </is>
       </c>
-      <c r="K24" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="19" t="n"/>
-      <c r="M24" s="19" t="n"/>
-      <c r="N24" s="19" t="n"/>
-      <c r="O24" s="5" t="n"/>
-      <c r="P24" s="5" t="n"/>
-      <c r="Q24" s="19" t="n"/>
-      <c r="R24" s="5" t="n"/>
-      <c r="S24" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T24" s="5" t="n"/>
-      <c r="U24" s="5" t="n"/>
-      <c r="V24" s="5" t="n"/>
-      <c r="W24" s="5" t="n"/>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -12178,7 +12109,6 @@
       <c r="V2" t="n">
         <v>-1</v>
       </c>
-      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -12265,7 +12195,6 @@
       <c r="V3" t="n">
         <v>-1</v>
       </c>
-      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -12333,7 +12262,6 @@
       <c r="Q4" t="n">
         <v>0.015285491943359</v>
       </c>
-      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -12350,7 +12278,6 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -12418,7 +12345,6 @@
       <c r="Q5" t="n">
         <v>0.012548387050629</v>
       </c>
-      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -12435,7 +12361,6 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -12503,7 +12428,6 @@
       <c r="Q6" t="n">
         <v>0.008153468370438</v>
       </c>
-      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -12520,7 +12444,6 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -12588,7 +12511,6 @@
       <c r="Q7" t="n">
         <v>-0.02310222387313843</v>
       </c>
-      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -12605,7 +12527,6 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -12673,7 +12594,6 @@
       <c r="Q8" t="n">
         <v>-0.02277988195419312</v>
       </c>
-      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -12690,7 +12610,6 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -12758,7 +12677,6 @@
       <c r="Q9" t="n">
         <v>-0.03978866338729858</v>
       </c>
-      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -12775,7 +12693,6 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -12862,7 +12779,6 @@
       <c r="V10" t="n">
         <v>-2</v>
       </c>
-      <c r="W10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -12930,7 +12846,6 @@
       <c r="Q11" t="n">
         <v>0.018103539943695</v>
       </c>
-      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -12947,7 +12862,6 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -13015,7 +12929,6 @@
       <c r="Q12" t="n">
         <v>-0.009519815444945999</v>
       </c>
-      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -13032,7 +12945,6 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -13100,7 +13012,6 @@
       <c r="Q13" t="n">
         <v>-0.012787938117981</v>
       </c>
-      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -13117,7 +13028,6 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -13185,7 +13095,6 @@
       <c r="Q14" t="n">
         <v>0.011135518550873</v>
       </c>
-      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -13202,7 +13111,6 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -13270,7 +13178,6 @@
       <c r="Q15" t="n">
         <v>0.016703963279724</v>
       </c>
-      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -13287,7 +13194,6 @@
       <c r="V15" t="n">
         <v>-1</v>
       </c>
-      <c r="W15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13355,7 +13261,6 @@
       <c r="Q16" t="n">
         <v>0.01343584060668945</v>
       </c>
-      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -13372,7 +13277,6 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13459,7 +13363,6 @@
       <c r="V17" t="n">
         <v>-1</v>
       </c>
-      <c r="W17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13527,7 +13430,6 @@
       <c r="Q18" t="n">
         <v>0.008857071399689</v>
       </c>
-      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -13544,7 +13446,6 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13612,7 +13513,6 @@
       <c r="Q19" t="n">
         <v>0.010816544294357</v>
       </c>
-      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -13629,7 +13529,6 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13697,7 +13596,6 @@
       <c r="Q20" t="n">
         <v>0.003378510475158691</v>
       </c>
-      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -13714,7 +13612,6 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13782,7 +13679,6 @@
       <c r="Q21" t="n">
         <v>0.005866050720215</v>
       </c>
-      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -13799,7 +13695,6 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -13867,7 +13762,6 @@
       <c r="Q22" t="n">
         <v>-0.02019384503364563</v>
       </c>
-      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -13884,7 +13778,6 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -13952,7 +13845,6 @@
       <c r="Q23" t="n">
         <v>-0.02315980195999146</v>
       </c>
-      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -13969,7 +13861,6 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -14037,7 +13928,6 @@
       <c r="Q24" t="n">
         <v>-0.03969794511795044</v>
       </c>
-      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -14054,7 +13944,6 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -14122,7 +14011,6 @@
       <c r="Q25" t="n">
         <v>0.01273497939109802</v>
       </c>
-      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -14139,7 +14027,6 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -14207,7 +14094,6 @@
       <c r="Q26" t="n">
         <v>-0.03520715236663818</v>
       </c>
-      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -14224,7 +14110,6 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -14292,7 +14177,6 @@
       <c r="Q27" t="n">
         <v>0.003795504570007324</v>
       </c>
-      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -14309,7 +14193,6 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -14377,7 +14260,6 @@
       <c r="Q28" t="n">
         <v>0.002858221530914307</v>
       </c>
-      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -14394,7 +14276,6 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -14462,7 +14343,6 @@
       <c r="Q29" t="n">
         <v>-0.03185510635375977</v>
       </c>
-      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -14479,7 +14359,6 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -14547,7 +14426,6 @@
       <c r="Q30" t="n">
         <v>0.007759869098663</v>
       </c>
-      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -14564,7 +14442,6 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -14632,7 +14509,6 @@
       <c r="Q31" t="n">
         <v>-0.03184890747070312</v>
       </c>
-      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -14649,7 +14525,6 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -14717,7 +14592,6 @@
       <c r="Q32" t="n">
         <v>-0.02763187885284424</v>
       </c>
-      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -14734,7 +14608,6 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -14802,7 +14675,6 @@
       <c r="Q33" t="n">
         <v>0.003795504570007324</v>
       </c>
-      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -14819,7 +14691,6 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -14887,7 +14758,6 @@
       <c r="Q34" t="n">
         <v>-0.03009486198425293</v>
       </c>
-      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -14904,7 +14774,6 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2963" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="220">
   <si>
     <t>game_date</t>
   </si>
@@ -793,7 +793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -828,26 +828,23 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -1184,17 +1181,17 @@
     <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
@@ -1223,7 +1220,7 @@
       <c r="E4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>198</v>
       </c>
       <c r="B5" s="2"/>
@@ -1330,7 +1327,7 @@
       <c r="E15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>208</v>
       </c>
       <c r="B16" s="2"/>
@@ -1339,7 +1336,7 @@
       <c r="E16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>209</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1348,7 +1345,7 @@
       <c r="C17" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>203</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -1365,7 +1362,7 @@
       <c r="C18" s="2">
         <v>13</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="24" t="s">
         <v>211</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -1382,7 +1379,7 @@
       <c r="C19" s="2">
         <v>2</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="24" t="s">
         <v>213</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1399,7 +1396,7 @@
       <c r="C20" s="2">
         <v>0</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="24" t="s">
         <v>216</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -1416,7 +1413,7 @@
       <c r="C21" s="2">
         <v>0</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="24" t="s">
         <v>216</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -1433,7 +1430,7 @@
       <c r="C22" s="2">
         <v>0</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="24" t="s">
         <v>216</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -1450,7 +1447,7 @@
       <c r="C23" s="2">
         <v>0</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="24" t="s">
         <v>216</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -9842,7 +9839,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>182</v>
       </c>
       <c r="B1" s="2"/>
@@ -9852,7 +9849,7 @@
       <c r="B2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>183</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -9941,7 +9938,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -9964,7 +9961,7 @@
     <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="19" max="19" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -9973,73 +9970,73 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="V1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="W1" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10047,7 +10044,7 @@
       <c r="A2" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="15">
         <v>2025020833</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -10056,16 +10053,16 @@
       <c r="D2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="16">
         <v>23.5</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="15">
         <v>-112</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="15">
         <v>-110</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="15">
         <v>8476434</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -10074,16 +10071,16 @@
       <c r="J2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="15">
         <v>1</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="16">
         <v>23.60000038146973</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="16">
         <v>0.5226770639419556</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="16">
         <v>4.535412788391113</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -10092,10 +10089,10 @@
       <c r="P2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="14">
+      <c r="Q2" s="16">
         <v>-0.005624830722808838</v>
       </c>
-      <c r="R2" s="1"/>
+      <c r="R2" s="17"/>
       <c r="S2" s="1" t="s">
         <v>30</v>
       </c>
@@ -10108,7 +10105,7 @@
       <c r="A3" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="15">
         <v>2025020831</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -10117,16 +10114,16 @@
       <c r="D3" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="16">
         <v>24.5</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="15">
         <v>-117</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="15">
         <v>-106</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="15">
         <v>8479361</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -10135,16 +10132,16 @@
       <c r="J3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="15">
         <v>1</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="16">
         <v>24.29999923706055</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="16">
         <v>0.4677028656005859</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="16">
         <v>6.459426879882812</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -10153,14 +10150,12 @@
       <c r="P3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="Q3" s="16">
         <v>0.017734050750732</v>
       </c>
-      <c r="R3" s="19">
-        <v>1</v>
-      </c>
+      <c r="R3" s="15"/>
       <c r="S3" s="1" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -10171,7 +10166,7 @@
       <c r="A4" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="15">
         <v>2025020834</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -10180,16 +10175,16 @@
       <c r="D4" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="16">
         <v>21.5</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="15">
         <v>-125</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="15">
         <v>102</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="15">
         <v>8475683</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -10198,16 +10193,16 @@
       <c r="J4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="15">
         <v>1</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="16">
         <v>21.60000038146973</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="16">
         <v>0.5155121088027954</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="16">
         <v>3.102421760559082</v>
       </c>
       <c r="O4" s="1" t="s">
@@ -10216,10 +10211,10 @@
       <c r="P4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="14">
+      <c r="Q4" s="16">
         <v>-0.01056161522865295</v>
       </c>
-      <c r="R4" s="1"/>
+      <c r="R4" s="17"/>
       <c r="S4" s="1" t="s">
         <v>30</v>
       </c>
@@ -10232,7 +10227,7 @@
       <c r="A5" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="15">
         <v>2025020832</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -10241,16 +10236,16 @@
       <c r="D5" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="16">
         <v>23.5</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="15">
         <v>-107</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="15">
         <v>-115</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="15">
         <v>8482487</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -10259,16 +10254,16 @@
       <c r="J5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="15">
         <v>1</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="16">
         <v>23.60000038146973</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="16">
         <v>0.5140204429626465</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="16">
         <v>2.804088592529297</v>
       </c>
       <c r="O5" s="1" t="s">
@@ -10277,10 +10272,10 @@
       <c r="P5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="16">
         <v>-0.0028877854347229</v>
       </c>
-      <c r="R5" s="1"/>
+      <c r="R5" s="17"/>
       <c r="S5" s="1" t="s">
         <v>30</v>
       </c>
@@ -10293,7 +10288,7 @@
       <c r="A6" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="15">
         <v>2025020835</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -10302,16 +10297,16 @@
       <c r="D6" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="16">
         <v>22.5</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="15">
         <v>-108</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="15">
         <v>-114</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="15">
         <v>8474596</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -10320,16 +10315,16 @@
       <c r="J6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="15">
         <v>1</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="16">
         <v>22.79999923706055</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="16">
         <v>0.553225040435791</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="16">
         <v>10.6450080871582</v>
       </c>
       <c r="O6" s="1" t="s">
@@ -10338,10 +10333,10 @@
       <c r="P6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="16">
         <v>0.03399425745010376</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R6" s="15">
         <v>2</v>
       </c>
       <c r="S6" s="1" t="s">
@@ -10356,7 +10351,7 @@
       <c r="A7" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="15">
         <v>2025020833</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -10365,16 +10360,16 @@
       <c r="D7" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="16">
         <v>23.5</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="15">
         <v>-120</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="15">
         <v>-120</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="15">
         <v>8476434</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -10383,16 +10378,16 @@
       <c r="J7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="15">
         <v>1</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="16">
         <v>23.60000038146973</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="16">
         <v>0.5226770639419556</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="16">
         <v>4.535412788391113</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -10401,10 +10396,10 @@
       <c r="P7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="16">
         <v>-0.0227774977684021</v>
       </c>
-      <c r="R7" s="1"/>
+      <c r="R7" s="17"/>
       <c r="S7" s="1" t="s">
         <v>30</v>
       </c>
@@ -10417,7 +10412,7 @@
       <c r="A8" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="15">
         <v>2025020835</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -10426,16 +10421,16 @@
       <c r="D8" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="16">
         <v>22.5</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="15">
         <v>-120</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="15">
         <v>-120</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="15">
         <v>8474596</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -10444,16 +10439,16 @@
       <c r="J8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="15">
         <v>1</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="16">
         <v>22.79999923706055</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="16">
         <v>0.553225040435791</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="16">
         <v>10.6450080871582</v>
       </c>
       <c r="O8" s="1" t="s">
@@ -10462,10 +10457,10 @@
       <c r="P8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="16">
         <v>0.00777047872543335</v>
       </c>
-      <c r="R8" s="1"/>
+      <c r="R8" s="17"/>
       <c r="S8" s="1" t="s">
         <v>30</v>
       </c>
@@ -10478,7 +10473,7 @@
       <c r="A9" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="15">
         <v>2025020832</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -10487,16 +10482,16 @@
       <c r="D9" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="16">
         <v>23.5</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="15">
         <v>-120</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="15">
         <v>-120</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="15">
         <v>8482487</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -10505,16 +10500,16 @@
       <c r="J9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="15">
         <v>1</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="16">
         <v>23.60000038146973</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="16">
         <v>0.5140204429626465</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="16">
         <v>2.804088592529297</v>
       </c>
       <c r="O9" s="1" t="s">
@@ -10523,10 +10518,10 @@
       <c r="P9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="16">
         <v>-0.03143411874771118</v>
       </c>
-      <c r="R9" s="1"/>
+      <c r="R9" s="17"/>
       <c r="S9" s="1" t="s">
         <v>30</v>
       </c>
@@ -10539,7 +10534,7 @@
       <c r="A10" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="15">
         <v>2025020831</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -10548,16 +10543,16 @@
       <c r="D10" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="16">
         <v>24.5</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="15">
         <v>-120</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="15">
         <v>-120</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="15">
         <v>8479361</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -10566,16 +10561,16 @@
       <c r="J10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="15">
         <v>1</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="16">
         <v>24.29999923706055</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="16">
         <v>0.4677028656005859</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="16">
         <v>6.459426879882812</v>
       </c>
       <c r="O10" s="1" t="s">
@@ -10584,10 +10579,10 @@
       <c r="P10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10" s="16">
         <v>-0.0131574273109436</v>
       </c>
-      <c r="R10" s="1"/>
+      <c r="R10" s="17"/>
       <c r="S10" s="1" t="s">
         <v>30</v>
       </c>
@@ -10595,6 +10590,374 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="15">
+        <v>2025020831</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="16">
+        <v>24.5</v>
+      </c>
+      <c r="F11" s="15">
+        <v>-113</v>
+      </c>
+      <c r="G11" s="15">
+        <v>-109</v>
+      </c>
+      <c r="H11" s="15">
+        <v>8480045</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0</v>
+      </c>
+      <c r="L11" s="16">
+        <v>24.5</v>
+      </c>
+      <c r="M11" s="16">
+        <v>0.4946154057979584</v>
+      </c>
+      <c r="N11" s="16">
+        <v>1.076918840408325</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>-0.01614654064178467</v>
+      </c>
+      <c r="R11" s="17"/>
+      <c r="S11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="15">
+        <v>2025020831</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="16">
+        <v>24.5</v>
+      </c>
+      <c r="F12" s="15">
+        <v>-125</v>
+      </c>
+      <c r="G12" s="15">
+        <v>102</v>
+      </c>
+      <c r="H12" s="15">
+        <v>8479361</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="15">
+        <v>1</v>
+      </c>
+      <c r="L12" s="16">
+        <v>24.29999923706055</v>
+      </c>
+      <c r="M12" s="16">
+        <v>0.4677028656005859</v>
+      </c>
+      <c r="N12" s="16">
+        <v>6.459426879882812</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>0.03724762797355652</v>
+      </c>
+      <c r="R12" s="17">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="15">
+        <v>2025020831</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="16">
+        <v>24.5</v>
+      </c>
+      <c r="F13" s="15">
+        <v>-118</v>
+      </c>
+      <c r="G13" s="15">
+        <v>-105</v>
+      </c>
+      <c r="H13" s="15">
+        <v>8480045</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="15">
+        <v>0</v>
+      </c>
+      <c r="L13" s="16">
+        <v>24.5</v>
+      </c>
+      <c r="M13" s="16">
+        <v>0.4946154057979584</v>
+      </c>
+      <c r="N13" s="16">
+        <v>1.076918840408325</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>-0.006810545921325684</v>
+      </c>
+      <c r="R13" s="17"/>
+      <c r="S13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="15">
+        <v>2025020833</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="16">
+        <v>23.5</v>
+      </c>
+      <c r="F14" s="15">
+        <v>-115</v>
+      </c>
+      <c r="G14" s="15">
+        <v>-107</v>
+      </c>
+      <c r="H14" s="15">
+        <v>8476434</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="15">
+        <v>1</v>
+      </c>
+      <c r="L14" s="16">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M14" s="16">
+        <v>0.5226770639419556</v>
+      </c>
+      <c r="N14" s="16">
+        <v>4.535412788391113</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>-0.01220667362213135</v>
+      </c>
+      <c r="R14" s="17"/>
+      <c r="S14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="15">
+        <v>2025020834</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="16">
+        <v>22.5</v>
+      </c>
+      <c r="F15" s="15">
+        <v>-103</v>
+      </c>
+      <c r="G15" s="15">
+        <v>-120</v>
+      </c>
+      <c r="H15" s="15">
+        <v>8475683</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="15">
+        <v>1</v>
+      </c>
+      <c r="L15" s="16">
+        <v>22.60000038146973</v>
+      </c>
+      <c r="M15" s="16">
+        <v>0.5155121088027954</v>
+      </c>
+      <c r="N15" s="16">
+        <v>3.102421760559082</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>0.008122920989990234</v>
+      </c>
+      <c r="R15" s="17"/>
+      <c r="S15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="15">
+        <v>2025020835</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="16">
+        <v>24.5</v>
+      </c>
+      <c r="F16" s="15">
+        <v>-113</v>
+      </c>
+      <c r="G16" s="15">
+        <v>-109</v>
+      </c>
+      <c r="H16" s="15">
+        <v>8476945</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0</v>
+      </c>
+      <c r="L16" s="16">
+        <v>24.5</v>
+      </c>
+      <c r="M16" s="16">
+        <v>0.4919174909591675</v>
+      </c>
+      <c r="N16" s="16">
+        <v>1.616501808166504</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="16">
+        <v>-0.01344859600067139</v>
+      </c>
+      <c r="R16" s="17"/>
+      <c r="S16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10616,24 +10979,24 @@
     <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="19" max="19" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="23" max="23" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -10760,7 +11123,7 @@
       <c r="Q2" s="3">
         <v>-0.02352601289749146</v>
       </c>
-      <c r="R2" s="12"/>
+      <c r="R2" s="2"/>
       <c r="S2" s="1" t="s">
         <v>30</v>
       </c>
@@ -10827,7 +11190,7 @@
       <c r="Q3" s="3">
         <v>0.00535959005355835</v>
       </c>
-      <c r="R3" s="12"/>
+      <c r="R3" s="2"/>
       <c r="S3" s="1" t="s">
         <v>30</v>
       </c>
@@ -10894,7 +11257,7 @@
       <c r="Q4" s="3">
         <v>-0.01045316457748413</v>
       </c>
-      <c r="R4" s="12"/>
+      <c r="R4" s="2"/>
       <c r="S4" s="1" t="s">
         <v>30</v>
       </c>
@@ -11030,7 +11393,7 @@
       <c r="Q6" s="3">
         <v>-0.003022730350494385</v>
       </c>
-      <c r="R6" s="12"/>
+      <c r="R6" s="2"/>
       <c r="S6" s="1" t="s">
         <v>30</v>
       </c>
@@ -11097,7 +11460,7 @@
       <c r="Q7" s="3">
         <v>-0.0231974720954895</v>
       </c>
-      <c r="R7" s="12"/>
+      <c r="R7" s="2"/>
       <c r="S7" s="1" t="s">
         <v>30</v>
       </c>
@@ -11164,7 +11527,7 @@
       <c r="Q8" s="3">
         <v>-0.02086418867111206</v>
       </c>
-      <c r="R8" s="12"/>
+      <c r="R8" s="2"/>
       <c r="S8" s="1" t="s">
         <v>30</v>
       </c>
@@ -11231,7 +11594,7 @@
       <c r="Q9" s="3">
         <v>-0.04067867994308472</v>
       </c>
-      <c r="R9" s="12"/>
+      <c r="R9" s="2"/>
       <c r="S9" s="1" t="s">
         <v>30</v>
       </c>
@@ -11298,7 +11661,7 @@
       <c r="Q10" s="3">
         <v>-0.01796084642410278</v>
       </c>
-      <c r="R10" s="12"/>
+      <c r="R10" s="2"/>
       <c r="S10" s="1" t="s">
         <v>30</v>
       </c>
@@ -11365,7 +11728,7 @@
       <c r="Q11" s="3">
         <v>-0.01094532012939453</v>
       </c>
-      <c r="R11" s="12"/>
+      <c r="R11" s="2"/>
       <c r="S11" s="1" t="s">
         <v>30</v>
       </c>
@@ -11432,7 +11795,7 @@
       <c r="Q12" s="3">
         <v>-0.02401936054229736</v>
       </c>
-      <c r="R12" s="12"/>
+      <c r="R12" s="2"/>
       <c r="S12" s="1" t="s">
         <v>30</v>
       </c>
@@ -11568,7 +11931,7 @@
       <c r="Q14" s="3">
         <v>-0.02182519435882568</v>
       </c>
-      <c r="R14" s="12"/>
+      <c r="R14" s="2"/>
       <c r="S14" s="1" t="s">
         <v>30</v>
       </c>
@@ -11635,7 +11998,7 @@
       <c r="Q15" s="3">
         <v>-0.02362936735153198</v>
       </c>
-      <c r="R15" s="12"/>
+      <c r="R15" s="2"/>
       <c r="S15" s="1" t="s">
         <v>30</v>
       </c>
@@ -11702,7 +12065,7 @@
       <c r="Q16" s="3">
         <v>0.02154946327209473</v>
       </c>
-      <c r="R16" s="12"/>
+      <c r="R16" s="2"/>
       <c r="S16" s="1" t="s">
         <v>30</v>
       </c>
@@ -11726,10 +12089,10 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
       <c r="I17" s="1" t="s">
         <v>34</v>
       </c>
@@ -11739,19 +12102,19 @@
       <c r="K17" s="2">
         <v>1</v>
       </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="12"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="2"/>
       <c r="S17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T17" s="12"/>
+      <c r="T17" s="2"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="12"/>
+      <c r="V17" s="2"/>
       <c r="W17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
@@ -11763,10 +12126,10 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="1" t="s">
         <v>62</v>
       </c>
@@ -11776,19 +12139,19 @@
       <c r="K18" s="2">
         <v>0</v>
       </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="12"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="2"/>
       <c r="S18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T18" s="12"/>
+      <c r="T18" s="2"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="12"/>
+      <c r="V18" s="2"/>
       <c r="W18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
@@ -11800,10 +12163,10 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
       <c r="I19" s="1" t="s">
         <v>79</v>
       </c>
@@ -11813,19 +12176,19 @@
       <c r="K19" s="2">
         <v>1</v>
       </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="12"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="2"/>
       <c r="S19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T19" s="12"/>
+      <c r="T19" s="2"/>
       <c r="U19" s="1"/>
-      <c r="V19" s="12"/>
+      <c r="V19" s="2"/>
       <c r="W19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
@@ -11837,10 +12200,10 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
       <c r="I20" s="1" t="s">
         <v>45</v>
       </c>
@@ -11850,19 +12213,19 @@
       <c r="K20" s="2">
         <v>0</v>
       </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="12"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="2"/>
       <c r="S20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T20" s="12"/>
+      <c r="T20" s="2"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="12"/>
+      <c r="V20" s="2"/>
       <c r="W20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
@@ -11874,10 +12237,10 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
       <c r="I21" s="1" t="s">
         <v>76</v>
       </c>
@@ -11887,19 +12250,19 @@
       <c r="K21" s="2">
         <v>1</v>
       </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="12"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="2"/>
       <c r="S21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T21" s="12"/>
+      <c r="T21" s="2"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="12"/>
+      <c r="V21" s="2"/>
       <c r="W21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
@@ -11911,10 +12274,10 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
       <c r="I22" s="1" t="s">
         <v>59</v>
       </c>
@@ -11924,19 +12287,19 @@
       <c r="K22" s="2">
         <v>0</v>
       </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="12"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="2"/>
       <c r="S22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T22" s="12"/>
+      <c r="T22" s="2"/>
       <c r="U22" s="1"/>
-      <c r="V22" s="12"/>
+      <c r="V22" s="2"/>
       <c r="W22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
@@ -11948,10 +12311,10 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
       <c r="I23" s="1" t="s">
         <v>56</v>
       </c>
@@ -11961,19 +12324,19 @@
       <c r="K23" s="2">
         <v>1</v>
       </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="12"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="2"/>
       <c r="S23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T23" s="12"/>
+      <c r="T23" s="2"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="12"/>
+      <c r="V23" s="2"/>
       <c r="W23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
@@ -11985,10 +12348,10 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
       <c r="I24" s="1" t="s">
         <v>66</v>
       </c>
@@ -11998,19 +12361,19 @@
       <c r="K24" s="2">
         <v>0</v>
       </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="12"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="2"/>
       <c r="S24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T24" s="12"/>
+      <c r="T24" s="2"/>
       <c r="U24" s="1"/>
-      <c r="V24" s="12"/>
+      <c r="V24" s="2"/>
       <c r="W24" s="1"/>
     </row>
   </sheetData>
@@ -12046,7 +12409,7 @@
     <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="19" max="19" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -12315,7 +12678,7 @@
       <c r="Q4" s="3">
         <v>0.015285491943359</v>
       </c>
-      <c r="R4" s="12"/>
+      <c r="R4" s="2"/>
       <c r="S4" s="1" t="s">
         <v>30</v>
       </c>
@@ -12382,7 +12745,7 @@
       <c r="Q5" s="3">
         <v>0.012548387050629</v>
       </c>
-      <c r="R5" s="12"/>
+      <c r="R5" s="2"/>
       <c r="S5" s="1" t="s">
         <v>30</v>
       </c>
@@ -12449,7 +12812,7 @@
       <c r="Q6" s="3">
         <v>0.008153468370438</v>
       </c>
-      <c r="R6" s="12"/>
+      <c r="R6" s="2"/>
       <c r="S6" s="1" t="s">
         <v>30</v>
       </c>
@@ -12516,7 +12879,7 @@
       <c r="Q7" s="3">
         <v>-0.02310222387313843</v>
       </c>
-      <c r="R7" s="12"/>
+      <c r="R7" s="2"/>
       <c r="S7" s="1" t="s">
         <v>30</v>
       </c>
@@ -12583,7 +12946,7 @@
       <c r="Q8" s="3">
         <v>-0.02277988195419312</v>
       </c>
-      <c r="R8" s="12"/>
+      <c r="R8" s="2"/>
       <c r="S8" s="1" t="s">
         <v>30</v>
       </c>
@@ -12650,7 +13013,7 @@
       <c r="Q9" s="3">
         <v>-0.03978866338729858</v>
       </c>
-      <c r="R9" s="12"/>
+      <c r="R9" s="2"/>
       <c r="S9" s="1" t="s">
         <v>30</v>
       </c>
@@ -12786,7 +13149,7 @@
       <c r="Q11" s="3">
         <v>0.018103539943695</v>
       </c>
-      <c r="R11" s="12"/>
+      <c r="R11" s="2"/>
       <c r="S11" s="1" t="s">
         <v>30</v>
       </c>
@@ -12853,7 +13216,7 @@
       <c r="Q12" s="3">
         <v>-0.009519815444946</v>
       </c>
-      <c r="R12" s="12"/>
+      <c r="R12" s="2"/>
       <c r="S12" s="1" t="s">
         <v>30</v>
       </c>
@@ -12920,7 +13283,7 @@
       <c r="Q13" s="3">
         <v>-0.012787938117981</v>
       </c>
-      <c r="R13" s="12"/>
+      <c r="R13" s="2"/>
       <c r="S13" s="1" t="s">
         <v>30</v>
       </c>
@@ -12987,7 +13350,7 @@
       <c r="Q14" s="3">
         <v>0.011135518550873</v>
       </c>
-      <c r="R14" s="12"/>
+      <c r="R14" s="2"/>
       <c r="S14" s="1" t="s">
         <v>30</v>
       </c>
@@ -13054,7 +13417,7 @@
       <c r="Q15" s="3">
         <v>0.016703963279724</v>
       </c>
-      <c r="R15" s="12"/>
+      <c r="R15" s="2"/>
       <c r="S15" s="1" t="s">
         <v>30</v>
       </c>
@@ -13121,7 +13484,7 @@
       <c r="Q16" s="3">
         <v>0.01343584060668945</v>
       </c>
-      <c r="R16" s="12"/>
+      <c r="R16" s="2"/>
       <c r="S16" s="1" t="s">
         <v>30</v>
       </c>
@@ -13257,7 +13620,7 @@
       <c r="Q18" s="3">
         <v>0.008857071399689</v>
       </c>
-      <c r="R18" s="12"/>
+      <c r="R18" s="2"/>
       <c r="S18" s="1" t="s">
         <v>30</v>
       </c>
@@ -13324,7 +13687,7 @@
       <c r="Q19" s="3">
         <v>0.010816544294357</v>
       </c>
-      <c r="R19" s="12"/>
+      <c r="R19" s="2"/>
       <c r="S19" s="1" t="s">
         <v>30</v>
       </c>
@@ -13391,7 +13754,7 @@
       <c r="Q20" s="3">
         <v>0.003378510475158691</v>
       </c>
-      <c r="R20" s="12"/>
+      <c r="R20" s="2"/>
       <c r="S20" s="1" t="s">
         <v>30</v>
       </c>
@@ -13458,7 +13821,7 @@
       <c r="Q21" s="3">
         <v>0.005866050720215</v>
       </c>
-      <c r="R21" s="12"/>
+      <c r="R21" s="2"/>
       <c r="S21" s="1" t="s">
         <v>30</v>
       </c>
@@ -13525,7 +13888,7 @@
       <c r="Q22" s="3">
         <v>-0.02019384503364563</v>
       </c>
-      <c r="R22" s="12"/>
+      <c r="R22" s="2"/>
       <c r="S22" s="1" t="s">
         <v>30</v>
       </c>
@@ -13592,7 +13955,7 @@
       <c r="Q23" s="3">
         <v>-0.02315980195999146</v>
       </c>
-      <c r="R23" s="12"/>
+      <c r="R23" s="2"/>
       <c r="S23" s="1" t="s">
         <v>30</v>
       </c>
@@ -13659,7 +14022,7 @@
       <c r="Q24" s="3">
         <v>-0.03969794511795044</v>
       </c>
-      <c r="R24" s="12"/>
+      <c r="R24" s="2"/>
       <c r="S24" s="1" t="s">
         <v>30</v>
       </c>
@@ -13726,7 +14089,7 @@
       <c r="Q25" s="3">
         <v>0.01273497939109802</v>
       </c>
-      <c r="R25" s="12"/>
+      <c r="R25" s="2"/>
       <c r="S25" s="1" t="s">
         <v>30</v>
       </c>
@@ -13793,7 +14156,7 @@
       <c r="Q26" s="3">
         <v>-0.03520715236663818</v>
       </c>
-      <c r="R26" s="12"/>
+      <c r="R26" s="2"/>
       <c r="S26" s="1" t="s">
         <v>30</v>
       </c>
@@ -13860,7 +14223,7 @@
       <c r="Q27" s="3">
         <v>0.003795504570007324</v>
       </c>
-      <c r="R27" s="12"/>
+      <c r="R27" s="2"/>
       <c r="S27" s="1" t="s">
         <v>30</v>
       </c>
@@ -13927,7 +14290,7 @@
       <c r="Q28" s="3">
         <v>0.002858221530914307</v>
       </c>
-      <c r="R28" s="12"/>
+      <c r="R28" s="2"/>
       <c r="S28" s="1" t="s">
         <v>30</v>
       </c>
@@ -13994,7 +14357,7 @@
       <c r="Q29" s="3">
         <v>-0.03185510635375977</v>
       </c>
-      <c r="R29" s="12"/>
+      <c r="R29" s="2"/>
       <c r="S29" s="1" t="s">
         <v>30</v>
       </c>
@@ -14061,7 +14424,7 @@
       <c r="Q30" s="3">
         <v>0.007759869098663</v>
       </c>
-      <c r="R30" s="12"/>
+      <c r="R30" s="2"/>
       <c r="S30" s="1" t="s">
         <v>30</v>
       </c>
@@ -14128,7 +14491,7 @@
       <c r="Q31" s="3">
         <v>-0.03184890747070312</v>
       </c>
-      <c r="R31" s="12"/>
+      <c r="R31" s="2"/>
       <c r="S31" s="1" t="s">
         <v>30</v>
       </c>
@@ -14195,7 +14558,7 @@
       <c r="Q32" s="3">
         <v>-0.02763187885284424</v>
       </c>
-      <c r="R32" s="12"/>
+      <c r="R32" s="2"/>
       <c r="S32" s="1" t="s">
         <v>30</v>
       </c>
@@ -14262,7 +14625,7 @@
       <c r="Q33" s="3">
         <v>0.003795504570007324</v>
       </c>
-      <c r="R33" s="12"/>
+      <c r="R33" s="2"/>
       <c r="S33" s="1" t="s">
         <v>30</v>
       </c>
@@ -14329,7 +14692,7 @@
       <c r="Q34" s="3">
         <v>-0.03009486198425293</v>
       </c>
-      <c r="R34" s="12"/>
+      <c r="R34" s="2"/>
       <c r="S34" s="1" t="s">
         <v>30</v>
       </c>

--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073" uniqueCount="221">
   <si>
     <t>game_date</t>
   </si>
@@ -578,6 +578,9 @@
     <t>Allen</t>
   </si>
   <si>
+    <t>Manual</t>
+  </si>
+  <si>
     <t>BETTING TRACKER SETTINGS</t>
   </si>
   <si>
@@ -793,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -844,6 +847,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1181,17 +1190,17 @@
     <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="A1" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
@@ -1203,10 +1212,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1220,8 +1229,8 @@
       <c r="E4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
-      <c r="A5" s="23" t="s">
-        <v>198</v>
+      <c r="A5" s="25" t="s">
+        <v>199</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1237,7 +1246,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B7" s="2">
         <v>31</v>
@@ -1248,7 +1257,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B8" s="2">
         <v>15</v>
@@ -1259,7 +1268,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B9" s="2">
         <v>16</v>
@@ -1270,7 +1279,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -1281,10 +1290,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1292,7 +1301,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B12" s="2">
         <v>-0.35</v>
@@ -1303,10 +1312,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1327,8 +1336,8 @@
       <c r="E15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
-      <c r="A16" s="23" t="s">
-        <v>208</v>
+      <c r="A16" s="25" t="s">
+        <v>209</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1336,20 +1345,20 @@
       <c r="E16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="20" t="s">
-        <v>209</v>
+      <c r="A17" s="22" t="s">
+        <v>210</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>204</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
@@ -1362,11 +1371,11 @@
       <c r="C18" s="2">
         <v>13</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>211</v>
+      <c r="D18" s="26" t="s">
+        <v>212</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
@@ -1379,16 +1388,16 @@
       <c r="C19" s="2">
         <v>2</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>213</v>
+      <c r="D19" s="26" t="s">
+        <v>214</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -1396,33 +1405,33 @@
       <c r="C20" s="2">
         <v>0</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>216</v>
+      <c r="D20" s="26" t="s">
+        <v>217</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="B21" s="2">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>216</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -1430,16 +1439,16 @@
       <c r="C22" s="2">
         <v>0</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>216</v>
+      <c r="D22" s="26" t="s">
+        <v>217</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -1447,11 +1456,11 @@
       <c r="C23" s="2">
         <v>0</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>216</v>
+      <c r="D23" s="26" t="s">
+        <v>217</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -9839,8 +9848,8 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="19" t="s">
-        <v>182</v>
+      <c r="A1" s="21" t="s">
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -9849,16 +9858,16 @@
       <c r="B2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="20" t="s">
-        <v>183</v>
+      <c r="A3" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -9866,7 +9875,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B5" s="2">
         <v>55</v>
@@ -9874,7 +9883,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B6" s="2">
         <v>65</v>
@@ -9882,7 +9891,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -9894,15 +9903,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B10" s="2">
         <v>-110</v>
@@ -9914,15 +9923,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B13" s="2">
         <v>89</v>
@@ -9938,7 +9947,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -9948,20 +9957,20 @@
     <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="19" max="19" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -9969,7 +9978,7 @@
     <col min="23" max="23" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -10148,12 +10157,12 @@
         <v>28</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="16">
-        <v>0.017734050750732</v>
-      </c>
-      <c r="R3" s="15"/>
+        <v>0.02249318361282349</v>
+      </c>
+      <c r="R3" s="17"/>
       <c r="S3" s="1" t="s">
         <v>30</v>
       </c>
@@ -10334,7 +10343,7 @@
         <v>52</v>
       </c>
       <c r="Q6" s="16">
-        <v>0.03399425745010376</v>
+        <v>0.03631681203842163</v>
       </c>
       <c r="R6" s="15">
         <v>2</v>
@@ -10455,10 +10464,10 @@
         <v>51</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="16">
-        <v>0.00777047872543335</v>
+        <v>0.03631681203842163</v>
       </c>
       <c r="R8" s="17"/>
       <c r="S8" s="1" t="s">
@@ -10577,10 +10586,10 @@
         <v>28</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="16">
-        <v>-0.0131574273109436</v>
+        <v>0.02249318361282349</v>
       </c>
       <c r="R10" s="17"/>
       <c r="S10" s="1" t="s">
@@ -10702,9 +10711,9 @@
         <v>100</v>
       </c>
       <c r="Q12" s="16">
-        <v>0.03724762797355652</v>
-      </c>
-      <c r="R12" s="17">
+        <v>0.02249318361282349</v>
+      </c>
+      <c r="R12" s="15">
         <v>1</v>
       </c>
       <c r="S12" s="1" t="s">
@@ -10958,6 +10967,469 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="15">
+        <v>2025020835</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="16">
+        <v>24.5</v>
+      </c>
+      <c r="F17" s="15">
+        <v>-120</v>
+      </c>
+      <c r="G17" s="15">
+        <v>-120</v>
+      </c>
+      <c r="H17" s="15">
+        <v>8476945</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="15">
+        <v>0</v>
+      </c>
+      <c r="L17" s="16">
+        <v>24.5</v>
+      </c>
+      <c r="M17" s="16">
+        <v>0.4919174909591675</v>
+      </c>
+      <c r="N17" s="16">
+        <v>1.616501808166504</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>-0.03737205266952515</v>
+      </c>
+      <c r="R17" s="17"/>
+      <c r="S17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" s="15">
+        <v>2025020831</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="16">
+        <v>24.5</v>
+      </c>
+      <c r="F18" s="15">
+        <v>-120</v>
+      </c>
+      <c r="G18" s="15">
+        <v>-120</v>
+      </c>
+      <c r="H18" s="15">
+        <v>8480045</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
+      <c r="L18" s="16">
+        <v>24.5</v>
+      </c>
+      <c r="M18" s="16">
+        <v>0.4946154057979584</v>
+      </c>
+      <c r="N18" s="16">
+        <v>1.076918840408325</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" s="16">
+        <v>-0.04006999731063843</v>
+      </c>
+      <c r="R18" s="17"/>
+      <c r="S18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="15">
+        <v>2025020833</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="15">
+        <v>8476434</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" s="15">
+        <v>1</v>
+      </c>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" s="15">
+        <v>2025020831</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="16">
+        <v>24.5</v>
+      </c>
+      <c r="F20" s="15">
+        <v>-125</v>
+      </c>
+      <c r="G20" s="15">
+        <v>-104</v>
+      </c>
+      <c r="H20" s="15">
+        <v>8479361</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="15">
+        <v>1</v>
+      </c>
+      <c r="L20" s="16">
+        <v>24.29999923706055</v>
+      </c>
+      <c r="M20" s="16">
+        <v>0.4677028656005859</v>
+      </c>
+      <c r="N20" s="16">
+        <v>6.459426879882812</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>0.02249318361282349</v>
+      </c>
+      <c r="R20" s="17">
+        <v>1</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="15">
+        <v>2025020834</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="15">
+        <v>8475683</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" s="15">
+        <v>1</v>
+      </c>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="15">
+        <v>2025020832</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="15">
+        <v>8482487</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" s="15">
+        <v>1</v>
+      </c>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" s="15">
+        <v>2025020835</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="16">
+        <v>22.5</v>
+      </c>
+      <c r="F23" s="15">
+        <v>-107</v>
+      </c>
+      <c r="G23" s="15">
+        <v>-122</v>
+      </c>
+      <c r="H23" s="15">
+        <v>8474596</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="15">
+        <v>1</v>
+      </c>
+      <c r="L23" s="16">
+        <v>22.79999923706055</v>
+      </c>
+      <c r="M23" s="16">
+        <v>0.553225040435791</v>
+      </c>
+      <c r="N23" s="16">
+        <v>10.6450080871582</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>0.03631681203842163</v>
+      </c>
+      <c r="R23" s="17">
+        <v>2</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B24" s="15">
+        <v>2025020831</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="15">
+        <v>8480045</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="15">
+        <v>0</v>
+      </c>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" s="15">
+        <v>2025020835</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="15">
+        <v>8476945</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K25" s="15">
+        <v>0</v>
+      </c>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3113" uniqueCount="222">
   <si>
     <t>game_date</t>
   </si>
@@ -581,6 +581,9 @@
     <t>Manual</t>
   </si>
   <si>
+    <t>Wallstedt</t>
+  </si>
+  <si>
     <t>BETTING TRACKER SETTINGS</t>
   </si>
   <si>
@@ -796,7 +799,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -850,10 +853,10 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -863,9 +866,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1190,17 +1190,17 @@
     <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
+        <v>197</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
@@ -1212,10 +1212,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1229,8 +1229,8 @@
       <c r="E4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
-      <c r="A5" s="25" t="s">
-        <v>199</v>
+      <c r="A5" s="24" t="s">
+        <v>200</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1246,7 +1246,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B7" s="2">
         <v>31</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B8" s="2">
         <v>15</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B9" s="2">
         <v>16</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1301,7 +1301,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B12" s="2">
         <v>-0.35</v>
@@ -1312,10 +1312,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1336,8 +1336,8 @@
       <c r="E15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
-      <c r="A16" s="25" t="s">
-        <v>209</v>
+      <c r="A16" s="24" t="s">
+        <v>210</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1346,19 +1346,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
@@ -1371,11 +1371,11 @@
       <c r="C18" s="2">
         <v>13</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>212</v>
+      <c r="D18" s="25" t="s">
+        <v>213</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
@@ -1388,16 +1388,16 @@
       <c r="C19" s="2">
         <v>2</v>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>214</v>
+      <c r="D19" s="25" t="s">
+        <v>215</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -1405,33 +1405,33 @@
       <c r="C20" s="2">
         <v>0</v>
       </c>
-      <c r="D20" s="26" t="s">
-        <v>217</v>
+      <c r="D20" s="25" t="s">
+        <v>218</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="B21" s="2">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>217</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -1439,16 +1439,16 @@
       <c r="C22" s="2">
         <v>0</v>
       </c>
-      <c r="D22" s="26" t="s">
-        <v>217</v>
+      <c r="D22" s="25" t="s">
+        <v>218</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -1456,11 +1456,11 @@
       <c r="C23" s="2">
         <v>0</v>
       </c>
-      <c r="D23" s="26" t="s">
-        <v>217</v>
+      <c r="D23" s="25" t="s">
+        <v>218</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -9849,7 +9849,7 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -9859,15 +9859,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -9875,7 +9875,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B5" s="2">
         <v>55</v>
@@ -9883,7 +9883,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B6" s="2">
         <v>65</v>
@@ -9891,7 +9891,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -9903,15 +9903,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B10" s="2">
         <v>-110</v>
@@ -9923,15 +9923,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B13" s="2">
         <v>89</v>
@@ -9947,7 +9947,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -9957,19 +9957,19 @@
     <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="18" max="18" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="19" max="19" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -11104,8 +11104,8 @@
         <v>166</v>
       </c>
       <c r="E19" s="18"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="15">
         <v>8476434</v>
       </c>
@@ -11185,7 +11185,7 @@
       <c r="Q20" s="16">
         <v>0.02249318361282349</v>
       </c>
-      <c r="R20" s="17">
+      <c r="R20" s="15">
         <v>1</v>
       </c>
       <c r="S20" s="1" t="s">
@@ -11210,8 +11210,8 @@
         <v>168</v>
       </c>
       <c r="E21" s="18"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="15">
         <v>8475683</v>
       </c>
@@ -11253,8 +11253,8 @@
         <v>180</v>
       </c>
       <c r="E22" s="18"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
       <c r="H22" s="15">
         <v>8482487</v>
       </c>
@@ -11334,7 +11334,7 @@
       <c r="Q23" s="16">
         <v>0.03631681203842163</v>
       </c>
-      <c r="R23" s="17">
+      <c r="R23" s="15">
         <v>2</v>
       </c>
       <c r="S23" s="1" t="s">
@@ -11359,8 +11359,8 @@
         <v>113</v>
       </c>
       <c r="E24" s="18"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
       <c r="H24" s="15">
         <v>8480045</v>
       </c>
@@ -11402,8 +11402,8 @@
         <v>144</v>
       </c>
       <c r="E25" s="18"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
       <c r="H25" s="15">
         <v>8476945</v>
       </c>
@@ -11430,6 +11430,311 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26" s="15">
+        <v>2025020837</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="16">
+        <v>25.5</v>
+      </c>
+      <c r="F26" s="15">
+        <v>-124</v>
+      </c>
+      <c r="G26" s="15">
+        <v>101</v>
+      </c>
+      <c r="H26" s="15">
+        <v>8481519</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K26" s="15">
+        <v>0</v>
+      </c>
+      <c r="L26" s="16">
+        <v>25.39999961853027</v>
+      </c>
+      <c r="M26" s="16">
+        <v>0.4840939342975616</v>
+      </c>
+      <c r="N26" s="16">
+        <v>3.181213140487671</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q26" s="16">
+        <v>0.018393665552139</v>
+      </c>
+      <c r="R26" s="17"/>
+      <c r="S26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="15">
+        <v>2025020837</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" s="16">
+        <v>22.5</v>
+      </c>
+      <c r="F27" s="15">
+        <v>-110</v>
+      </c>
+      <c r="G27" s="15">
+        <v>-112</v>
+      </c>
+      <c r="H27" s="15">
+        <v>8482661</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K27" s="15">
+        <v>1</v>
+      </c>
+      <c r="L27" s="16">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="M27" s="16">
+        <v>0.5361526608467102</v>
+      </c>
+      <c r="N27" s="16">
+        <v>7.230532169342041</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q27" s="16">
+        <v>0.01234310865402222</v>
+      </c>
+      <c r="R27" s="17"/>
+      <c r="S27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="15">
+        <v>2025020836</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="16">
+        <v>22.5</v>
+      </c>
+      <c r="F28" s="15">
+        <v>-112</v>
+      </c>
+      <c r="G28" s="15">
+        <v>-110</v>
+      </c>
+      <c r="H28" s="15">
+        <v>8476412</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" s="15">
+        <v>1</v>
+      </c>
+      <c r="L28" s="16">
+        <v>22.60000038146973</v>
+      </c>
+      <c r="M28" s="16">
+        <v>0.5236468315124512</v>
+      </c>
+      <c r="N28" s="16">
+        <v>4.729366302490234</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q28" s="16">
+        <v>-0.004655063152313232</v>
+      </c>
+      <c r="R28" s="17"/>
+      <c r="S28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" s="15">
+        <v>2025020834</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E29" s="16">
+        <v>22.5</v>
+      </c>
+      <c r="F29" s="15">
+        <v>-120</v>
+      </c>
+      <c r="G29" s="15">
+        <v>-120</v>
+      </c>
+      <c r="H29" s="15">
+        <v>8475683</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29" s="15">
+        <v>1</v>
+      </c>
+      <c r="L29" s="16">
+        <v>22.60000038146973</v>
+      </c>
+      <c r="M29" s="16">
+        <v>0.5155121088027954</v>
+      </c>
+      <c r="N29" s="16">
+        <v>3.102421760559082</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q29" s="16">
+        <v>-0.02994245290756226</v>
+      </c>
+      <c r="R29" s="17"/>
+      <c r="S29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="15">
+        <v>2025020837</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="16">
+        <v>25.5</v>
+      </c>
+      <c r="F30" s="15">
+        <v>-120</v>
+      </c>
+      <c r="G30" s="15">
+        <v>-120</v>
+      </c>
+      <c r="H30" s="15">
+        <v>8481519</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K30" s="15">
+        <v>0</v>
+      </c>
+      <c r="L30" s="16">
+        <v>25.39999961853027</v>
+      </c>
+      <c r="M30" s="16">
+        <v>0.4840939342975616</v>
+      </c>
+      <c r="N30" s="16">
+        <v>3.181213140487671</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q30" s="16">
+        <v>-0.02954846620559692</v>
+      </c>
+      <c r="R30" s="17"/>
+      <c r="S30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -11828,7 +11828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W72"/>
+  <dimension ref="A1:W73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17321,6 +17321,83 @@
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2025020835</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>BetOnline</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Hellebuyck</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-112</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-115</v>
+      </c>
+      <c r="H73" t="n">
+        <v>8476945</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>WPG</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>NJD</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.4919174909591675</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1.616501808166504</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>-0.02680122852325439</v>
+      </c>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -11828,7 +11828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W73"/>
+  <dimension ref="A1:W92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17398,6 +17398,1469 @@
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2025020830</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Swayman</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-134</v>
+      </c>
+      <c r="G74" t="n">
+        <v>109</v>
+      </c>
+      <c r="H74" t="n">
+        <v>8480280</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>NSH</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.5169528722763062</v>
+      </c>
+      <c r="N74" t="n">
+        <v>3.39057445526123</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.004578232765197754</v>
+      </c>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2025020830</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Saros</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-104</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-118</v>
+      </c>
+      <c r="H75" t="n">
+        <v>8477424</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>NSH</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.4805526733398438</v>
+      </c>
+      <c r="N75" t="n">
+        <v>3.88946533203125</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>-0.02183705568313599</v>
+      </c>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2025020834</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Vanecek</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-114</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-108</v>
+      </c>
+      <c r="H76" t="n">
+        <v>8477970</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.4938078820705414</v>
+      </c>
+      <c r="N76" t="n">
+        <v>1.238423585891724</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>-0.01303869485855103</v>
+      </c>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2025020832</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Dobes</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-112</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-110</v>
+      </c>
+      <c r="H77" t="n">
+        <v>8482487</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VGK</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.5140204429626465</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2.804088592529297</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>-0.01428145170211792</v>
+      </c>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2025020830</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Swayman</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H78" t="n">
+        <v>8480280</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>NSH</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="n">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.4758935570716858</v>
+      </c>
+      <c r="N78" t="n">
+        <v>4.821288585662842</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>-0.02134811878204346</v>
+      </c>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>2025020830</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Saros</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H79" t="n">
+        <v>8477424</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>NSH</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.514534056186676</v>
+      </c>
+      <c r="N79" t="n">
+        <v>2.906811237335205</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>-0.03092050552368164</v>
+      </c>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2025020837</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Knight</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>26</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H80" t="n">
+        <v>8481519</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>25.89999961853027</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.4841515421867371</v>
+      </c>
+      <c r="N80" t="n">
+        <v>3.169691562652588</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>-0.02960610389709473</v>
+      </c>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2025020830</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>BetOnline</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Swayman</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-128</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-101</v>
+      </c>
+      <c r="H81" t="n">
+        <v>8480280</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>NSH</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.5169528722763062</v>
+      </c>
+      <c r="N81" t="n">
+        <v>3.39057445526123</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>-0.0194404125213623</v>
+      </c>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2025020831</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>BetOnline</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Luukkonen</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-118</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-110</v>
+      </c>
+      <c r="H82" t="n">
+        <v>8480045</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>BUF</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.4946154057979584</v>
+      </c>
+      <c r="N82" t="n">
+        <v>1.076918840408325</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>-0.01842498779296875</v>
+      </c>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2025020831</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>BetOnline</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Woll</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F83" t="n">
+        <v>103</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-133</v>
+      </c>
+      <c r="H83" t="n">
+        <v>8479361</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>BUF</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>25.29999923706055</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.4653855860233307</v>
+      </c>
+      <c r="N83" t="n">
+        <v>6.922883033752441</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>-0.02722525596618652</v>
+      </c>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2025020834</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>BetOnline</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Bobrovsky</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-103</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-125</v>
+      </c>
+      <c r="H84" t="n">
+        <v>8475683</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="n">
+        <v>22.60000038146973</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.5155121088027954</v>
+      </c>
+      <c r="N84" t="n">
+        <v>3.102421760559082</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.008122920989990234</v>
+      </c>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>2025020832</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>BetOnline</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Dobes</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-109</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-119</v>
+      </c>
+      <c r="H85" t="n">
+        <v>8482487</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VGK</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.5140204429626465</v>
+      </c>
+      <c r="N85" t="n">
+        <v>2.804088592529297</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>-0.007510662078857422</v>
+      </c>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>2025020838</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>BetOnline</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Lankinen</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-125</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-103</v>
+      </c>
+      <c r="H86" t="n">
+        <v>8480947</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>SJS</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.535576343536377</v>
+      </c>
+      <c r="N86" t="n">
+        <v>7.115268707275391</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>-0.01997923851013184</v>
+      </c>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2025020838</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>BetOnline</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Askarov</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-112</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-115</v>
+      </c>
+      <c r="H87" t="n">
+        <v>8482137</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>SJS</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.4759393334388733</v>
+      </c>
+      <c r="N87" t="n">
+        <v>4.812133312225342</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>-0.01082307100296021</v>
+      </c>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2025020832</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Schmid</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-113</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-109</v>
+      </c>
+      <c r="H88" t="n">
+        <v>8481033</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>VGK</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>21.70000076293945</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.5360070466995239</v>
+      </c>
+      <c r="N88" t="n">
+        <v>7.201409339904785</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.005490601062774658</v>
+      </c>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2025020839</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Thompson</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-102</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-122</v>
+      </c>
+      <c r="H89" t="n">
+        <v>8480313</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>WSH</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>23.70000076293945</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.5345218777656555</v>
+      </c>
+      <c r="N89" t="n">
+        <v>6.904375553131104</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>OVER</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.02957135438919067</v>
+      </c>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>2025020830</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>BetOnline</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Swayman</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-130</v>
+      </c>
+      <c r="G90" t="n">
+        <v>101</v>
+      </c>
+      <c r="H90" t="n">
+        <v>8480280</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>NSH</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.5169528722763062</v>
+      </c>
+      <c r="N90" t="n">
+        <v>3.39057445526123</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>-0.01446530222892761</v>
+      </c>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2025020830</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>BetOnline</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Saros</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-102</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-127</v>
+      </c>
+      <c r="H91" t="n">
+        <v>8477424</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>NSH</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.4805526733398438</v>
+      </c>
+      <c r="N91" t="n">
+        <v>3.88946533203125</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>-0.02439785003662109</v>
+      </c>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2025020835</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>BetOnline</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Hellebuyck</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-115</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-112</v>
+      </c>
+      <c r="H92" t="n">
+        <v>8476945</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>WPG</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>NJD</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.4919174909591675</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1.616501808166504</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>-0.02021938562393188</v>
+      </c>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -11828,7 +11828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W92"/>
+  <dimension ref="A1:W108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18861,6 +18861,1238 @@
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr"/>
       <c r="W92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2025020830</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Swayman</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-108</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-114</v>
+      </c>
+      <c r="H93" t="n">
+        <v>8480280</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>NSH</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="n">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.4758935570716858</v>
+      </c>
+      <c r="N93" t="n">
+        <v>4.821288585662842</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>-0.008603811264038086</v>
+      </c>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>2025020831</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>BetOnline</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Woll</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F94" t="n">
+        <v>100</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-130</v>
+      </c>
+      <c r="H94" t="n">
+        <v>8479361</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>BUF</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="n">
+        <v>25.29999923706055</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.4653855860233307</v>
+      </c>
+      <c r="N94" t="n">
+        <v>6.922883033752441</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>-0.03060293197631836</v>
+      </c>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2025020835</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>BetOnline</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Allen</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-105</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-123</v>
+      </c>
+      <c r="H95" t="n">
+        <v>8474596</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>NJD</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>WPG</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="n">
+        <v>22.79999923706055</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.553225040435791</v>
+      </c>
+      <c r="N95" t="n">
+        <v>10.6450080871582</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>55-60%</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>OVER</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>0.04102993011474609</v>
+      </c>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>2025020837</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>BetOnline</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Knight</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F96" t="n">
+        <v>104</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-135</v>
+      </c>
+      <c r="H96" t="n">
+        <v>8481519</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>26.39999961853027</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.4792600870132446</v>
+      </c>
+      <c r="N96" t="n">
+        <v>4.147982597351074</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>-0.01093599200248718</v>
+      </c>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>2025020839</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Thompson</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H97" t="n">
+        <v>8480313</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>WSH</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>23.70000076293945</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.5345218777656555</v>
+      </c>
+      <c r="N97" t="n">
+        <v>6.904375553131104</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>-0.01093268394470215</v>
+      </c>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>2025020830</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>BetOnline</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Saros</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F98" t="n">
+        <v>107</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-139</v>
+      </c>
+      <c r="H98" t="n">
+        <v>8477424</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>NSH</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.4805526733398438</v>
+      </c>
+      <c r="N98" t="n">
+        <v>3.88946533203125</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>-0.002539128065109253</v>
+      </c>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>2025020830</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>BetOnline</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Swayman</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-105</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-123</v>
+      </c>
+      <c r="H99" t="n">
+        <v>8480280</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>NSH</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="n">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.4758935570716858</v>
+      </c>
+      <c r="N99" t="n">
+        <v>4.821288585662842</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>-0.02746307849884033</v>
+      </c>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2025020832</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>BetOnline</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Dobes</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-111</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-116</v>
+      </c>
+      <c r="H100" t="n">
+        <v>8482487</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>VGK</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.5140204429626465</v>
+      </c>
+      <c r="N100" t="n">
+        <v>2.804088592529297</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>-0.01204591989517212</v>
+      </c>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>2025020832</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>BetOnline</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Schmid</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-114</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-114</v>
+      </c>
+      <c r="H101" t="n">
+        <v>8481033</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>VGK</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>21.70000076293945</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.5360070466995239</v>
+      </c>
+      <c r="N101" t="n">
+        <v>7.201409339904785</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>0.003296792507171631</v>
+      </c>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>2025020834</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>BetOnline</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Bobrovsky</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-105</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-125</v>
+      </c>
+      <c r="H102" t="n">
+        <v>8475683</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="n">
+        <v>22.60000038146973</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.5155121088027954</v>
+      </c>
+      <c r="N102" t="n">
+        <v>3.102421760559082</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>0.003316998481750488</v>
+      </c>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>2025020836</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>BetOnline</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Binnington</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-110</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-118</v>
+      </c>
+      <c r="H103" t="n">
+        <v>8476412</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>STL</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="n">
+        <v>22.60000038146973</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.5236468315124512</v>
+      </c>
+      <c r="N103" t="n">
+        <v>4.729366302490234</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>-0.0001627206802368164</v>
+      </c>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>2025020838</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>BetOnline</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Lankinen</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-123</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-104</v>
+      </c>
+      <c r="H104" t="n">
+        <v>8480947</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>SJS</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.535576343536377</v>
+      </c>
+      <c r="N104" t="n">
+        <v>7.115268707275391</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>-0.01599317789077759</v>
+      </c>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>2025020838</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>BetOnline</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Askarov</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-114</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-114</v>
+      </c>
+      <c r="H105" t="n">
+        <v>8482137</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>SJS</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.4759393334388733</v>
+      </c>
+      <c r="N105" t="n">
+        <v>4.812133312225342</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>-0.008649587631225586</v>
+      </c>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>2025020839</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Thompson</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H106" t="n">
+        <v>8480313</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>WSH</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>22.79999923706055</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.5501191020011902</v>
+      </c>
+      <c r="N106" t="n">
+        <v>10.0238208770752</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>55-60%</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>0.00466454029083252</v>
+      </c>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>2025020836</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>BetOnline</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Binnington</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-109</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-119</v>
+      </c>
+      <c r="H107" t="n">
+        <v>8476412</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>STL</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="n">
+        <v>22.60000038146973</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.5236468315124512</v>
+      </c>
+      <c r="N107" t="n">
+        <v>4.729366302490234</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>0.002115726470947266</v>
+      </c>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>2025020836</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>BetOnline</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Oettinger</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-125</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-103</v>
+      </c>
+      <c r="H108" t="n">
+        <v>8479979</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>STL</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>21.70000076293945</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.5381660461425781</v>
+      </c>
+      <c r="N108" t="n">
+        <v>7.633209228515625</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>-0.01738953590393066</v>
+      </c>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -584,7 +584,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>2026-01-27 06:58:23</t>
+          <t>2026-01-28 08:24:56</t>
         </is>
       </c>
       <c r="C3" s="2" t="n"/>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="n"/>
       <c r="D7" s="2" t="n"/>
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="n"/>
       <c r="D8" s="2" t="n"/>
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="n"/>
       <c r="D9" s="2" t="n"/>
@@ -676,7 +676,7 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>48.4%</t>
+          <t>48.7%</t>
         </is>
       </c>
       <c r="C11" s="2" t="n"/>
@@ -689,8 +689,10 @@
           <t>Total Profit/Loss</t>
         </is>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>-0.35</v>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>-0.45</t>
+        </is>
       </c>
       <c r="C12" s="2" t="n"/>
       <c r="D12" s="2" t="n"/>
@@ -704,7 +706,7 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>-0.85%</t>
+          <t>-0.88%</t>
         </is>
       </c>
       <c r="C13" s="2" t="n"/>
@@ -770,19 +772,19 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D18" s="19" t="inlineStr">
         <is>
-          <t>44.8%</t>
+          <t>48.6%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-5.26%</t>
+          <t>+1.84%</t>
         </is>
       </c>
     </row>
@@ -793,19 +795,19 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D19" s="19" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>+85.18%</t>
+          <t>-25.93%</t>
         </is>
       </c>
     </row>
@@ -11980,7 +11982,6 @@
       <c r="Q2" t="n">
         <v>-0.005624830722808838</v>
       </c>
-      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -11997,7 +11998,6 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -12065,7 +12065,6 @@
       <c r="Q3" t="n">
         <v>0.01773405075073242</v>
       </c>
-      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -12082,7 +12081,6 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -12150,7 +12148,6 @@
       <c r="Q4" t="n">
         <v>-0.01056161522865295</v>
       </c>
-      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -12167,7 +12164,6 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -12235,7 +12231,6 @@
       <c r="Q5" t="n">
         <v>-0.0028877854347229</v>
       </c>
-      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -12252,7 +12247,6 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -12339,7 +12333,6 @@
       <c r="V6" t="n">
         <v>-2</v>
       </c>
-      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -12407,7 +12400,6 @@
       <c r="Q7" t="n">
         <v>-0.0227774977684021</v>
       </c>
-      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -12424,7 +12416,6 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -12492,7 +12483,6 @@
       <c r="Q8" t="n">
         <v>0.00777047872543335</v>
       </c>
-      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -12509,7 +12499,6 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -12577,7 +12566,6 @@
       <c r="Q9" t="n">
         <v>-0.03143411874771118</v>
       </c>
-      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -12594,7 +12582,6 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -12662,7 +12649,6 @@
       <c r="Q10" t="n">
         <v>-0.0131574273109436</v>
       </c>
-      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -12679,7 +12665,6 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -12747,7 +12732,6 @@
       <c r="Q11" t="n">
         <v>-0.01614654064178467</v>
       </c>
-      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -12764,7 +12748,6 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -12851,7 +12834,6 @@
       <c r="V12" t="n">
         <v>2.04</v>
       </c>
-      <c r="W12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -12919,7 +12901,6 @@
       <c r="Q13" t="n">
         <v>-0.006810545921325684</v>
       </c>
-      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -12936,7 +12917,6 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -13004,7 +12984,6 @@
       <c r="Q14" t="n">
         <v>-0.01220667362213135</v>
       </c>
-      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -13021,7 +13000,6 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -13089,7 +13067,6 @@
       <c r="Q15" t="n">
         <v>0.008122920989990234</v>
       </c>
-      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -13106,7 +13083,6 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13174,7 +13150,6 @@
       <c r="Q16" t="n">
         <v>-0.01344859600067139</v>
       </c>
-      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -13191,7 +13166,6 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13259,7 +13233,6 @@
       <c r="Q17" t="n">
         <v>-0.03737205266952515</v>
       </c>
-      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -13276,7 +13249,6 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13344,7 +13316,6 @@
       <c r="Q18" t="n">
         <v>-0.04006999731063843</v>
       </c>
-      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -13361,7 +13332,6 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13382,9 +13352,6 @@
           <t>Gibson</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
         <v>8476434</v>
       </c>
@@ -13401,22 +13368,11 @@
       <c r="K19" t="n">
         <v>1</v>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13503,7 +13459,6 @@
       <c r="V20" t="n">
         <v>0.9615384615384617</v>
       </c>
-      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13524,9 +13479,6 @@
           <t>Bobrovsky</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
         <v>8475683</v>
       </c>
@@ -13543,22 +13495,11 @@
       <c r="K21" t="n">
         <v>1</v>
       </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -13579,9 +13520,6 @@
           <t>Dobes</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
         <v>8482487</v>
       </c>
@@ -13598,22 +13536,11 @@
       <c r="K22" t="n">
         <v>1</v>
       </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -13700,7 +13627,6 @@
       <c r="V23" t="n">
         <v>-1</v>
       </c>
-      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -13721,9 +13647,6 @@
           <t>Luukkonen</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
         <v>8480045</v>
       </c>
@@ -13740,22 +13663,11 @@
       <c r="K24" t="n">
         <v>0</v>
       </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -13776,9 +13688,6 @@
           <t>Hellebuyck</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
         <v>8476945</v>
       </c>
@@ -13795,22 +13704,11 @@
       <c r="K25" t="n">
         <v>0</v>
       </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -13878,7 +13776,6 @@
       <c r="Q26" t="n">
         <v>0.01839366555213928</v>
       </c>
-      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -13895,7 +13792,6 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -13963,7 +13859,6 @@
       <c r="Q27" t="n">
         <v>0.01234310865402222</v>
       </c>
-      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -13980,7 +13875,6 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -14048,7 +13942,6 @@
       <c r="Q28" t="n">
         <v>-0.004655063152313232</v>
       </c>
-      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -14065,7 +13958,6 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -14133,7 +14025,6 @@
       <c r="Q29" t="n">
         <v>-0.02994245290756226</v>
       </c>
-      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -14150,7 +14041,6 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -14218,7 +14108,6 @@
       <c r="Q30" t="n">
         <v>-0.02954846620559692</v>
       </c>
-      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -14235,7 +14124,6 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -14303,7 +14191,6 @@
       <c r="Q31" t="n">
         <v>-0.009301900863647461</v>
       </c>
-      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -14320,7 +14207,6 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -14388,7 +14274,6 @@
       <c r="Q32" t="n">
         <v>0.02980959415435791</v>
       </c>
-      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -14405,7 +14290,6 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -14473,7 +14357,6 @@
       <c r="Q33" t="n">
         <v>-0.02068179845809937</v>
       </c>
-      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -14490,7 +14373,6 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -14558,7 +14440,6 @@
       <c r="Q34" t="n">
         <v>-0.005624830722808838</v>
       </c>
-      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -14575,7 +14456,6 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -14662,7 +14542,6 @@
       <c r="V35" t="n">
         <v>-1</v>
       </c>
-      <c r="W35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -14730,7 +14609,6 @@
       <c r="Q36" t="n">
         <v>-0.0005426406860351562</v>
       </c>
-      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -14747,7 +14625,6 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -14834,7 +14711,6 @@
       <c r="V37" t="n">
         <v>0.9174311926605505</v>
       </c>
-      <c r="W37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -14902,7 +14778,6 @@
       <c r="Q38" t="n">
         <v>-0.01193499565124512</v>
       </c>
-      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -14919,7 +14794,6 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -14987,7 +14861,6 @@
       <c r="Q39" t="n">
         <v>-0.00801539421081543</v>
       </c>
-      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -15004,7 +14877,6 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -15072,7 +14944,6 @@
       <c r="Q40" t="n">
         <v>-0.02180773019790649</v>
       </c>
-      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -15089,7 +14960,6 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -15157,7 +15027,6 @@
       <c r="Q41" t="n">
         <v>-0.007288515567779541</v>
       </c>
-      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -15174,7 +15043,6 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -15242,7 +15110,6 @@
       <c r="Q42" t="n">
         <v>-0.009878218173980713</v>
       </c>
-      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -15259,7 +15126,6 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -15327,7 +15193,6 @@
       <c r="Q43" t="n">
         <v>-0.04238969087600708</v>
       </c>
-      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -15344,7 +15209,6 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -15412,7 +15276,6 @@
       <c r="Q44" t="n">
         <v>-0.005210340023040771</v>
       </c>
-      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -15429,7 +15292,6 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -15497,7 +15359,6 @@
       <c r="Q45" t="n">
         <v>-0.02042937278747559</v>
       </c>
-      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -15514,7 +15375,6 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -15582,7 +15442,6 @@
       <c r="Q46" t="n">
         <v>0.03399425745010376</v>
       </c>
-      <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -15599,7 +15458,6 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -15667,7 +15525,6 @@
       <c r="Q47" t="n">
         <v>-0.03189206123352051</v>
       </c>
-      <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -15684,7 +15541,6 @@
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -15752,7 +15608,6 @@
       <c r="Q48" t="n">
         <v>0.01341855525970459</v>
       </c>
-      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -15769,7 +15624,6 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -15837,7 +15691,6 @@
       <c r="Q49" t="n">
         <v>0.0100862979888916</v>
       </c>
-      <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -15854,7 +15707,6 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -15922,7 +15774,6 @@
       <c r="Q50" t="n">
         <v>-0.002419531345367432</v>
       </c>
-      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -15939,7 +15790,6 @@
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -16007,7 +15857,6 @@
       <c r="Q51" t="n">
         <v>0.01209968328475952</v>
       </c>
-      <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -16024,7 +15873,6 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -16092,7 +15940,6 @@
       <c r="Q52" t="n">
         <v>-0.01599317789077759</v>
       </c>
-      <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -16109,7 +15956,6 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -16177,7 +16023,6 @@
       <c r="Q53" t="n">
         <v>-0.02213147282600403</v>
       </c>
-      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -16194,7 +16039,6 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -16262,7 +16106,6 @@
       <c r="Q54" t="n">
         <v>0.0002511143684387207</v>
       </c>
-      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -16279,7 +16122,6 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -16347,7 +16189,6 @@
       <c r="Q55" t="n">
         <v>0.00188562273979187</v>
       </c>
-      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -16364,7 +16205,6 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -16432,7 +16272,6 @@
       <c r="Q56" t="n">
         <v>0.02734661102294922</v>
       </c>
-      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -16449,7 +16288,6 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -16517,7 +16355,6 @@
       <c r="Q57" t="n">
         <v>-0.01384621858596802</v>
       </c>
-      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -16534,7 +16371,6 @@
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -16602,7 +16438,6 @@
       <c r="Q58" t="n">
         <v>-0.01003319025039673</v>
       </c>
-      <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -16619,7 +16454,6 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -16687,7 +16521,6 @@
       <c r="Q59" t="n">
         <v>-0.02448755502700806</v>
       </c>
-      <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -16704,7 +16537,6 @@
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -16772,7 +16604,6 @@
       <c r="Q60" t="n">
         <v>0.03866195678710938</v>
       </c>
-      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -16789,7 +16620,6 @@
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -16857,7 +16687,6 @@
       <c r="Q61" t="n">
         <v>-0.02961361408233643</v>
       </c>
-      <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -16874,7 +16703,6 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -16942,7 +16770,6 @@
       <c r="Q62" t="n">
         <v>0.007850766181945801</v>
       </c>
-      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -16959,7 +16786,6 @@
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -17027,7 +16853,6 @@
       <c r="Q63" t="n">
         <v>-0.004655063152313232</v>
       </c>
-      <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -17044,7 +16869,6 @@
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -17112,7 +16936,6 @@
       <c r="Q64" t="n">
         <v>0.00545579195022583</v>
       </c>
-      <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -17129,7 +16952,6 @@
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -17197,7 +17019,6 @@
       <c r="Q65" t="n">
         <v>-0.01525998115539551</v>
       </c>
-      <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -17214,7 +17035,6 @@
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -17301,7 +17121,6 @@
       <c r="V66" t="n">
         <v>-1</v>
       </c>
-      <c r="W66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17369,7 +17188,6 @@
       <c r="Q67" t="n">
         <v>-0.01997923851013184</v>
       </c>
-      <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -17386,7 +17204,6 @@
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17454,7 +17271,6 @@
       <c r="Q68" t="n">
         <v>-0.01837259531021118</v>
       </c>
-      <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -17471,7 +17287,6 @@
       <c r="V68" t="n">
         <v>0</v>
       </c>
-      <c r="W68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17539,7 +17354,6 @@
       <c r="Q69" t="n">
         <v>-0.02139389514923096</v>
       </c>
-      <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -17556,7 +17370,6 @@
       <c r="V69" t="n">
         <v>0</v>
       </c>
-      <c r="W69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17624,7 +17437,6 @@
       <c r="Q70" t="n">
         <v>-0.01614654064178467</v>
       </c>
-      <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -17641,7 +17453,6 @@
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -17709,7 +17520,6 @@
       <c r="Q71" t="n">
         <v>-0.02005130052566528</v>
       </c>
-      <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -17726,7 +17536,6 @@
       <c r="V71" t="n">
         <v>0</v>
       </c>
-      <c r="W71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -17794,7 +17603,6 @@
       <c r="Q72" t="n">
         <v>-0.02462774515151978</v>
       </c>
-      <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -17811,7 +17619,6 @@
       <c r="V72" t="n">
         <v>0</v>
       </c>
-      <c r="W72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -17879,7 +17686,6 @@
       <c r="Q73" t="n">
         <v>-0.02680122852325439</v>
       </c>
-      <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -17896,7 +17702,6 @@
       <c r="V73" t="n">
         <v>0</v>
       </c>
-      <c r="W73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -17964,7 +17769,6 @@
       <c r="Q74" t="n">
         <v>0.004578232765197754</v>
       </c>
-      <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -17981,7 +17785,6 @@
       <c r="V74" t="n">
         <v>0</v>
       </c>
-      <c r="W74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -18049,7 +17852,6 @@
       <c r="Q75" t="n">
         <v>-0.02183705568313599</v>
       </c>
-      <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -18066,7 +17868,6 @@
       <c r="V75" t="n">
         <v>0</v>
       </c>
-      <c r="W75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -18134,7 +17935,6 @@
       <c r="Q76" t="n">
         <v>-0.01303869485855103</v>
       </c>
-      <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -18151,7 +17951,6 @@
       <c r="V76" t="n">
         <v>0</v>
       </c>
-      <c r="W76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -18219,7 +18018,6 @@
       <c r="Q77" t="n">
         <v>-0.01428145170211792</v>
       </c>
-      <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -18236,7 +18034,6 @@
       <c r="V77" t="n">
         <v>0</v>
       </c>
-      <c r="W77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -18304,7 +18101,6 @@
       <c r="Q78" t="n">
         <v>-0.02134811878204346</v>
       </c>
-      <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -18321,7 +18117,6 @@
       <c r="V78" t="n">
         <v>0</v>
       </c>
-      <c r="W78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -18389,7 +18184,6 @@
       <c r="Q79" t="n">
         <v>-0.03092050552368164</v>
       </c>
-      <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -18406,7 +18200,6 @@
       <c r="V79" t="n">
         <v>0</v>
       </c>
-      <c r="W79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -18474,7 +18267,6 @@
       <c r="Q80" t="n">
         <v>-0.02960610389709473</v>
       </c>
-      <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -18491,7 +18283,6 @@
       <c r="V80" t="n">
         <v>0</v>
       </c>
-      <c r="W80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -18559,7 +18350,6 @@
       <c r="Q81" t="n">
         <v>-0.0194404125213623</v>
       </c>
-      <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -18576,7 +18366,6 @@
       <c r="V81" t="n">
         <v>0</v>
       </c>
-      <c r="W81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18644,7 +18433,6 @@
       <c r="Q82" t="n">
         <v>-0.01842498779296875</v>
       </c>
-      <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -18661,7 +18449,6 @@
       <c r="V82" t="n">
         <v>0</v>
       </c>
-      <c r="W82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18729,7 +18516,6 @@
       <c r="Q83" t="n">
         <v>-0.02722525596618652</v>
       </c>
-      <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -18746,7 +18532,6 @@
       <c r="V83" t="n">
         <v>0</v>
       </c>
-      <c r="W83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18814,7 +18599,6 @@
       <c r="Q84" t="n">
         <v>0.008122920989990234</v>
       </c>
-      <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -18831,7 +18615,6 @@
       <c r="V84" t="n">
         <v>0</v>
       </c>
-      <c r="W84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18899,7 +18682,6 @@
       <c r="Q85" t="n">
         <v>-0.007510662078857422</v>
       </c>
-      <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -18916,7 +18698,6 @@
       <c r="V85" t="n">
         <v>0</v>
       </c>
-      <c r="W85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18984,7 +18765,6 @@
       <c r="Q86" t="n">
         <v>-0.01997923851013184</v>
       </c>
-      <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -19001,7 +18781,6 @@
       <c r="V86" t="n">
         <v>0</v>
       </c>
-      <c r="W86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19069,7 +18848,6 @@
       <c r="Q87" t="n">
         <v>-0.01082307100296021</v>
       </c>
-      <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -19086,7 +18864,6 @@
       <c r="V87" t="n">
         <v>0</v>
       </c>
-      <c r="W87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19154,7 +18931,6 @@
       <c r="Q88" t="n">
         <v>0.005490601062774658</v>
       </c>
-      <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -19171,7 +18947,6 @@
       <c r="V88" t="n">
         <v>0</v>
       </c>
-      <c r="W88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19258,7 +19033,6 @@
       <c r="V89" t="n">
         <v>0.9803921568627452</v>
       </c>
-      <c r="W89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19326,7 +19100,6 @@
       <c r="Q90" t="n">
         <v>-0.01446530222892761</v>
       </c>
-      <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -19343,7 +19116,6 @@
       <c r="V90" t="n">
         <v>0</v>
       </c>
-      <c r="W90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19411,7 +19183,6 @@
       <c r="Q91" t="n">
         <v>-0.02439785003662109</v>
       </c>
-      <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -19428,7 +19199,6 @@
       <c r="V91" t="n">
         <v>0</v>
       </c>
-      <c r="W91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19496,7 +19266,6 @@
       <c r="Q92" t="n">
         <v>-0.02021938562393188</v>
       </c>
-      <c r="R92" t="inlineStr"/>
       <c r="S92" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -19513,7 +19282,6 @@
       <c r="V92" t="n">
         <v>0</v>
       </c>
-      <c r="W92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19581,7 +19349,6 @@
       <c r="Q93" t="n">
         <v>-0.008603811264038086</v>
       </c>
-      <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -19598,7 +19365,6 @@
       <c r="V93" t="n">
         <v>0</v>
       </c>
-      <c r="W93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -19666,7 +19432,6 @@
       <c r="Q94" t="n">
         <v>-0.03060293197631836</v>
       </c>
-      <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -19683,7 +19448,6 @@
       <c r="V94" t="n">
         <v>0</v>
       </c>
-      <c r="W94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -19751,7 +19515,6 @@
       <c r="Q95" t="n">
         <v>0.04102993011474609</v>
       </c>
-      <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -19768,7 +19531,6 @@
       <c r="V95" t="n">
         <v>0</v>
       </c>
-      <c r="W95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -19836,7 +19598,6 @@
       <c r="Q96" t="n">
         <v>-0.01093599200248718</v>
       </c>
-      <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -19853,7 +19614,6 @@
       <c r="V96" t="n">
         <v>0</v>
       </c>
-      <c r="W96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -19921,7 +19681,6 @@
       <c r="Q97" t="n">
         <v>-0.01093268394470215</v>
       </c>
-      <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -19938,7 +19697,6 @@
       <c r="V97" t="n">
         <v>0</v>
       </c>
-      <c r="W97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20006,7 +19764,6 @@
       <c r="Q98" t="n">
         <v>-0.002539128065109253</v>
       </c>
-      <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -20023,7 +19780,6 @@
       <c r="V98" t="n">
         <v>0</v>
       </c>
-      <c r="W98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -20091,7 +19847,6 @@
       <c r="Q99" t="n">
         <v>-0.02746307849884033</v>
       </c>
-      <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -20108,7 +19863,6 @@
       <c r="V99" t="n">
         <v>0</v>
       </c>
-      <c r="W99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -20176,7 +19930,6 @@
       <c r="Q100" t="n">
         <v>-0.01204591989517212</v>
       </c>
-      <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -20193,7 +19946,6 @@
       <c r="V100" t="n">
         <v>0</v>
       </c>
-      <c r="W100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -20261,7 +20013,6 @@
       <c r="Q101" t="n">
         <v>0.003296792507171631</v>
       </c>
-      <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -20278,7 +20029,6 @@
       <c r="V101" t="n">
         <v>0</v>
       </c>
-      <c r="W101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -20346,7 +20096,6 @@
       <c r="Q102" t="n">
         <v>0.003316998481750488</v>
       </c>
-      <c r="R102" t="inlineStr"/>
       <c r="S102" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -20363,7 +20112,6 @@
       <c r="V102" t="n">
         <v>0</v>
       </c>
-      <c r="W102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -20431,7 +20179,6 @@
       <c r="Q103" t="n">
         <v>-0.0001627206802368164</v>
       </c>
-      <c r="R103" t="inlineStr"/>
       <c r="S103" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -20448,7 +20195,6 @@
       <c r="V103" t="n">
         <v>0</v>
       </c>
-      <c r="W103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -20516,7 +20262,6 @@
       <c r="Q104" t="n">
         <v>-0.01599317789077759</v>
       </c>
-      <c r="R104" t="inlineStr"/>
       <c r="S104" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -20533,7 +20278,6 @@
       <c r="V104" t="n">
         <v>0</v>
       </c>
-      <c r="W104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -20601,7 +20345,6 @@
       <c r="Q105" t="n">
         <v>-0.008649587631225586</v>
       </c>
-      <c r="R105" t="inlineStr"/>
       <c r="S105" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -20618,7 +20361,6 @@
       <c r="V105" t="n">
         <v>0</v>
       </c>
-      <c r="W105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -20686,7 +20428,6 @@
       <c r="Q106" t="n">
         <v>0.00466454029083252</v>
       </c>
-      <c r="R106" t="inlineStr"/>
       <c r="S106" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -20703,7 +20444,6 @@
       <c r="V106" t="n">
         <v>0</v>
       </c>
-      <c r="W106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -20771,7 +20511,6 @@
       <c r="Q107" t="n">
         <v>0.002115726470947266</v>
       </c>
-      <c r="R107" t="inlineStr"/>
       <c r="S107" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -20788,7 +20527,6 @@
       <c r="V107" t="n">
         <v>0</v>
       </c>
-      <c r="W107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -20856,7 +20594,6 @@
       <c r="Q108" t="n">
         <v>-0.01738953590393066</v>
       </c>
-      <c r="R108" t="inlineStr"/>
       <c r="S108" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -20873,7 +20610,6 @@
       <c r="V108" t="n">
         <v>0</v>
       </c>
-      <c r="W108" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -8,21 +8,22 @@
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Settings" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2026-01-27" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2026-01-26" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="2026-01-25" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="2026-01-24" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="2026-01-23" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="2026-01-22" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="2026-01-21" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="2026-01-20" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="2026-01-19" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="2026-01-18" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="2026-01-17" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="2026-01-16" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="2026-01-15" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="2026-01-14" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="2026-01-13" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="2026-01-28" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2026-01-27" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2026-01-26" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2026-01-25" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2026-01-24" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="2026-01-23" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="2026-01-22" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="2026-01-21" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="2026-01-20" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="2026-01-19" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="2026-01-18" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="2026-01-17" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="2026-01-16" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="2026-01-15" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="2026-01-14" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="2026-01-13" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -32,7 +33,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -67,13 +68,23 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004472C4"/>
+        <bgColor rgb="004472C4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -116,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
@@ -180,6 +191,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -917,6 +931,1503 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="12" max="12"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="13" max="13"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="19" max="19"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="21" max="21"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="22" max="22"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>game_date</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>game_id</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="D1" s="9" t="inlineStr">
+        <is>
+          <t>goalie_name</t>
+        </is>
+      </c>
+      <c r="E1" s="11" t="inlineStr">
+        <is>
+          <t>betting_line</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>line_over</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>line_under</t>
+        </is>
+      </c>
+      <c r="H1" s="10" t="inlineStr">
+        <is>
+          <t>goalie_id</t>
+        </is>
+      </c>
+      <c r="I1" s="9" t="inlineStr">
+        <is>
+          <t>team_abbrev</t>
+        </is>
+      </c>
+      <c r="J1" s="9" t="inlineStr">
+        <is>
+          <t>opponent_team</t>
+        </is>
+      </c>
+      <c r="K1" s="10" t="inlineStr">
+        <is>
+          <t>is_home</t>
+        </is>
+      </c>
+      <c r="L1" s="11" t="inlineStr">
+        <is>
+          <t>predicted_saves</t>
+        </is>
+      </c>
+      <c r="M1" s="11" t="inlineStr">
+        <is>
+          <t>prob_over</t>
+        </is>
+      </c>
+      <c r="N1" s="11" t="inlineStr">
+        <is>
+          <t>confidence_pct</t>
+        </is>
+      </c>
+      <c r="O1" s="9" t="inlineStr">
+        <is>
+          <t>confidence_bucket</t>
+        </is>
+      </c>
+      <c r="P1" s="9" t="inlineStr">
+        <is>
+          <t>recommendation</t>
+        </is>
+      </c>
+      <c r="Q1" s="11" t="inlineStr">
+        <is>
+          <t>ev</t>
+        </is>
+      </c>
+      <c r="R1" s="10" t="inlineStr">
+        <is>
+          <t>bet_amount</t>
+        </is>
+      </c>
+      <c r="S1" s="9" t="inlineStr">
+        <is>
+          <t>bet_selection</t>
+        </is>
+      </c>
+      <c r="T1" s="10" t="inlineStr">
+        <is>
+          <t>actual_saves</t>
+        </is>
+      </c>
+      <c r="U1" s="9" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="V1" s="10" t="inlineStr">
+        <is>
+          <t>profit_loss</t>
+        </is>
+      </c>
+      <c r="W1" s="9" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>2025020789</v>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>Wedgewood</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>-107</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>-115</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>8475809</v>
+      </c>
+      <c r="I2" s="5" t="inlineStr">
+        <is>
+          <t>COL</t>
+        </is>
+      </c>
+      <c r="J2" s="5" t="inlineStr">
+        <is>
+          <t>ANA</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>23.70000076293945</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>0.5356113314628601</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>7.122266292572021</v>
+      </c>
+      <c r="O2" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P2" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>0.01870310306549072</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" s="5" t="inlineStr">
+        <is>
+          <t>OVER</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="U2" s="5" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W2" s="5" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2025020789</v>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>Dostal</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>-125</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>8480843</v>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>ANA</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>COL</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>0.4652156233787537</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>6.956875324249268</v>
+      </c>
+      <c r="O3" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P3" s="5" t="inlineStr">
+        <is>
+          <t>UNDER</t>
+        </is>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>0.03973487019538879</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" s="5" t="inlineStr">
+        <is>
+          <t>UNDER</t>
+        </is>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="U3" s="5" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="V3" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="W3" s="5" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>2025020790</v>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>Ersson</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>-107</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>-115</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>8481035</v>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="J4" s="5" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>0.5046634078025818</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>0.9326815605163574</v>
+      </c>
+      <c r="O4" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P4" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>-0.0122448205947876</v>
+      </c>
+      <c r="R4" s="2" t="n"/>
+      <c r="S4" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="U4" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="5" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>2025020793</v>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Grubauer</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>-102</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>-122</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>8475831</v>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>NYI</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>0.4978570342063904</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>0.4285931587219238</v>
+      </c>
+      <c r="O5" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P5" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <v>-0.007093489170074463</v>
+      </c>
+      <c r="R5" s="2" t="n"/>
+      <c r="S5" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="U5" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="5" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>2025020793</v>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Sorokin</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>-106</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>-117</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>8478009</v>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>NYI</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>0.4783008098602295</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>4.339838027954102</v>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>-0.0174713134765625</v>
+      </c>
+      <c r="R6" s="2" t="n"/>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>2025020791</v>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Wolf</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>-115</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>-107</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>8481692</v>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>CGY</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>PIT</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>0.4901162385940552</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>1.976752281188965</v>
+      </c>
+      <c r="O7" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P7" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <v>-0.007024466991424561</v>
+      </c>
+      <c r="R7" s="2" t="n"/>
+      <c r="S7" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="U7" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5" t="n"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>2025020791</v>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>Skinner</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>-104</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>-118</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>8479973</v>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>PIT</t>
+        </is>
+      </c>
+      <c r="J8" s="5" t="inlineStr">
+        <is>
+          <t>CGY</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>24.29999923706055</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>0.4680142998695374</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>6.397140026092529</v>
+      </c>
+      <c r="O8" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P8" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>-0.00929868221282959</v>
+      </c>
+      <c r="R8" s="2" t="n"/>
+      <c r="S8" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="U8" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="5" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>2025020792</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>Lankinen</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>-113</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>-109</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>8480947</v>
+      </c>
+      <c r="I9" s="5" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="J9" s="5" t="inlineStr">
+        <is>
+          <t>WSH</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>0.4808475077152252</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>3.830498456954956</v>
+      </c>
+      <c r="O9" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P9" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>-0.002378582954406738</v>
+      </c>
+      <c r="R9" s="2" t="n"/>
+      <c r="S9" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="U9" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="5" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>2025020792</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>Thompson</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>-106</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>-115</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>8480313</v>
+      </c>
+      <c r="I10" s="5" t="inlineStr">
+        <is>
+          <t>WSH</t>
+        </is>
+      </c>
+      <c r="J10" s="5" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>0.4860748648643494</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>2.785027027130127</v>
+      </c>
+      <c r="O10" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P10" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q10" s="3" t="n">
+        <v>-0.02095860242843628</v>
+      </c>
+      <c r="R10" s="2" t="n"/>
+      <c r="S10" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="U10" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="5" t="n"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>2025020789</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>Wedgewood</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n"/>
+      <c r="F11" s="2" t="n"/>
+      <c r="G11" s="2" t="n"/>
+      <c r="H11" s="2" t="n">
+        <v>8475809</v>
+      </c>
+      <c r="I11" s="5" t="inlineStr">
+        <is>
+          <t>COL</t>
+        </is>
+      </c>
+      <c r="J11" s="5" t="inlineStr">
+        <is>
+          <t>ANA</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3" t="n"/>
+      <c r="M11" s="3" t="n"/>
+      <c r="N11" s="3" t="n"/>
+      <c r="O11" s="5" t="n"/>
+      <c r="P11" s="5" t="n"/>
+      <c r="Q11" s="3" t="n"/>
+      <c r="R11" s="2" t="n"/>
+      <c r="S11" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="U11" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="5" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>2025020789</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>Dostal</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="2" t="n">
+        <v>8480843</v>
+      </c>
+      <c r="I12" s="5" t="inlineStr">
+        <is>
+          <t>ANA</t>
+        </is>
+      </c>
+      <c r="J12" s="5" t="inlineStr">
+        <is>
+          <t>COL</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="n"/>
+      <c r="M12" s="3" t="n"/>
+      <c r="N12" s="3" t="n"/>
+      <c r="O12" s="5" t="n"/>
+      <c r="P12" s="5" t="n"/>
+      <c r="Q12" s="3" t="n"/>
+      <c r="R12" s="2" t="n"/>
+      <c r="S12" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="U12" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="5" t="n"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>2025020790</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>Ersson</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="2" t="n"/>
+      <c r="G13" s="2" t="n"/>
+      <c r="H13" s="2" t="n">
+        <v>8481035</v>
+      </c>
+      <c r="I13" s="5" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="J13" s="5" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3" t="n"/>
+      <c r="M13" s="3" t="n"/>
+      <c r="N13" s="3" t="n"/>
+      <c r="O13" s="5" t="n"/>
+      <c r="P13" s="5" t="n"/>
+      <c r="Q13" s="3" t="n"/>
+      <c r="R13" s="2" t="n"/>
+      <c r="S13" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="U13" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="5" t="n"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>2025020793</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>Grubauer</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="2" t="n"/>
+      <c r="G14" s="2" t="n"/>
+      <c r="H14" s="2" t="n">
+        <v>8475831</v>
+      </c>
+      <c r="I14" s="5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="J14" s="5" t="inlineStr">
+        <is>
+          <t>NYI</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3" t="n"/>
+      <c r="M14" s="3" t="n"/>
+      <c r="N14" s="3" t="n"/>
+      <c r="O14" s="5" t="n"/>
+      <c r="P14" s="5" t="n"/>
+      <c r="Q14" s="3" t="n"/>
+      <c r="R14" s="2" t="n"/>
+      <c r="S14" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="U14" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="5" t="n"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>2025020793</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>Sorokin</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="2" t="n"/>
+      <c r="G15" s="2" t="n"/>
+      <c r="H15" s="2" t="n">
+        <v>8478009</v>
+      </c>
+      <c r="I15" s="5" t="inlineStr">
+        <is>
+          <t>NYI</t>
+        </is>
+      </c>
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="n"/>
+      <c r="M15" s="3" t="n"/>
+      <c r="N15" s="3" t="n"/>
+      <c r="O15" s="5" t="n"/>
+      <c r="P15" s="5" t="n"/>
+      <c r="Q15" s="3" t="n"/>
+      <c r="R15" s="2" t="n"/>
+      <c r="S15" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="U15" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="5" t="n"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>2025020791</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>Wolf</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="2" t="n"/>
+      <c r="G16" s="2" t="n"/>
+      <c r="H16" s="2" t="n">
+        <v>8481692</v>
+      </c>
+      <c r="I16" s="5" t="inlineStr">
+        <is>
+          <t>CGY</t>
+        </is>
+      </c>
+      <c r="J16" s="5" t="inlineStr">
+        <is>
+          <t>PIT</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3" t="n"/>
+      <c r="M16" s="3" t="n"/>
+      <c r="N16" s="3" t="n"/>
+      <c r="O16" s="5" t="n"/>
+      <c r="P16" s="5" t="n"/>
+      <c r="Q16" s="3" t="n"/>
+      <c r="R16" s="2" t="n"/>
+      <c r="S16" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="U16" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="5" t="n"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>2025020791</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>Skinner</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="2" t="n"/>
+      <c r="G17" s="2" t="n"/>
+      <c r="H17" s="2" t="n">
+        <v>8479973</v>
+      </c>
+      <c r="I17" s="5" t="inlineStr">
+        <is>
+          <t>PIT</t>
+        </is>
+      </c>
+      <c r="J17" s="5" t="inlineStr">
+        <is>
+          <t>CGY</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3" t="n"/>
+      <c r="M17" s="3" t="n"/>
+      <c r="N17" s="3" t="n"/>
+      <c r="O17" s="5" t="n"/>
+      <c r="P17" s="5" t="n"/>
+      <c r="Q17" s="3" t="n"/>
+      <c r="R17" s="2" t="n"/>
+      <c r="S17" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="U17" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="5" t="n"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>2025020792</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>Lankinen</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="2" t="n"/>
+      <c r="G18" s="2" t="n"/>
+      <c r="H18" s="2" t="n">
+        <v>8480947</v>
+      </c>
+      <c r="I18" s="5" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="J18" s="5" t="inlineStr">
+        <is>
+          <t>WSH</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3" t="n"/>
+      <c r="M18" s="3" t="n"/>
+      <c r="N18" s="3" t="n"/>
+      <c r="O18" s="5" t="n"/>
+      <c r="P18" s="5" t="n"/>
+      <c r="Q18" s="3" t="n"/>
+      <c r="R18" s="2" t="n"/>
+      <c r="S18" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="U18" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="5" t="n"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>2025020792</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>Thompson</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="n"/>
+      <c r="F19" s="2" t="n"/>
+      <c r="G19" s="2" t="n"/>
+      <c r="H19" s="2" t="n">
+        <v>8480313</v>
+      </c>
+      <c r="I19" s="5" t="inlineStr">
+        <is>
+          <t>WSH</t>
+        </is>
+      </c>
+      <c r="J19" s="5" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3" t="n"/>
+      <c r="M19" s="3" t="n"/>
+      <c r="N19" s="3" t="n"/>
+      <c r="O19" s="5" t="n"/>
+      <c r="P19" s="5" t="n"/>
+      <c r="Q19" s="3" t="n"/>
+      <c r="R19" s="2" t="n"/>
+      <c r="S19" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="U19" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="5" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2455,7 +3966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -4068,7 +5579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -4523,7 +6034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -6564,7 +8075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -7507,7 +9018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -9082,7 +10593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -9853,7 +11364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -11791,6 +13302,1066 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:W13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="21" t="inlineStr">
+        <is>
+          <t>game_date</t>
+        </is>
+      </c>
+      <c r="B1" s="21" t="inlineStr">
+        <is>
+          <t>game_id</t>
+        </is>
+      </c>
+      <c r="C1" s="21" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="D1" s="21" t="inlineStr">
+        <is>
+          <t>goalie_name</t>
+        </is>
+      </c>
+      <c r="E1" s="21" t="inlineStr">
+        <is>
+          <t>betting_line</t>
+        </is>
+      </c>
+      <c r="F1" s="21" t="inlineStr">
+        <is>
+          <t>line_over</t>
+        </is>
+      </c>
+      <c r="G1" s="21" t="inlineStr">
+        <is>
+          <t>line_under</t>
+        </is>
+      </c>
+      <c r="H1" s="21" t="inlineStr">
+        <is>
+          <t>goalie_id</t>
+        </is>
+      </c>
+      <c r="I1" s="21" t="inlineStr">
+        <is>
+          <t>team_abbrev</t>
+        </is>
+      </c>
+      <c r="J1" s="21" t="inlineStr">
+        <is>
+          <t>opponent_team</t>
+        </is>
+      </c>
+      <c r="K1" s="21" t="inlineStr">
+        <is>
+          <t>is_home</t>
+        </is>
+      </c>
+      <c r="L1" s="21" t="inlineStr">
+        <is>
+          <t>predicted_saves</t>
+        </is>
+      </c>
+      <c r="M1" s="21" t="inlineStr">
+        <is>
+          <t>prob_over</t>
+        </is>
+      </c>
+      <c r="N1" s="21" t="inlineStr">
+        <is>
+          <t>confidence_pct</t>
+        </is>
+      </c>
+      <c r="O1" s="21" t="inlineStr">
+        <is>
+          <t>confidence_bucket</t>
+        </is>
+      </c>
+      <c r="P1" s="21" t="inlineStr">
+        <is>
+          <t>recommendation</t>
+        </is>
+      </c>
+      <c r="Q1" s="21" t="inlineStr">
+        <is>
+          <t>ev</t>
+        </is>
+      </c>
+      <c r="R1" s="21" t="inlineStr">
+        <is>
+          <t>bet_amount</t>
+        </is>
+      </c>
+      <c r="S1" s="21" t="inlineStr">
+        <is>
+          <t>bet_selection</t>
+        </is>
+      </c>
+      <c r="T1" s="21" t="inlineStr">
+        <is>
+          <t>actual_saves</t>
+        </is>
+      </c>
+      <c r="U1" s="21" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="V1" s="21" t="inlineStr">
+        <is>
+          <t>profit_loss</t>
+        </is>
+      </c>
+      <c r="W1" s="21" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2025020842</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Rittich</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-112</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-110</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8479496</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>NYI</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>NYR</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>22.60000038146973</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.5299665927886963</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5.993318557739258</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.001664698123931885</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2025020842</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-104</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8477484</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>NYR</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>NYI</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.478788286447525</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.242342948913574</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.0242428183555603</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2025020841</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Reimer</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-104</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8473503</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>OTT</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>COL</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>25.39999961853027</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.4711481332778931</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5.770373344421387</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.01660269498825073</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2025020841</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Blackwood</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-103</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8478406</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>COL</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>OTT</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.472442626953125</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5.511474609375</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.01789718866348267</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2025020840</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Vladar</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-125</v>
+      </c>
+      <c r="G6" t="n">
+        <v>102</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8478435</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CBJ</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5205114483833313</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.10228967666626</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.01556095480918884</v>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2025020840</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Merzlikins</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-107</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-115</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8478007</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CBJ</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.5165077447891235</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.301548957824707</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.0004004836082458496</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2025020842</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8477484</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>NYR</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>NYI</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.478788286447525</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.242342948913574</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.0242428183555603</v>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2025020842</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Rittich</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8479496</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>NYI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>NYR</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>22.60000038146973</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.5299665927886963</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.993318557739258</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.01548796892166138</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2025020841</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Reimer</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8473503</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>OTT</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>COL</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>25.39999961853027</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.4711481332778931</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5.770373344421387</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.01660269498825073</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2025020841</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Blackwood</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8478406</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>COL</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>OTT</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.472442626953125</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.511474609375</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.01789718866348267</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2025020840</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Vladar</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H12" t="n">
+        <v>8478435</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>CBJ</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.4879578948020935</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.408421039581299</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.03341245651245117</v>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2025020840</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Merzlikins</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8478007</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>CBJ</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.5165077447891235</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.301548957824707</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.02894681692123413</v>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:W108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20616,7 +23187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -22416,7 +24987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -25390,7 +27961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -27599,7 +30170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -31758,7 +34329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -34475,1501 +37046,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:W19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="8" max="8"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="11" max="11"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="12" max="12"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="13" max="13"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="18" max="18"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="20" max="20"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="21" max="21"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="22" max="22"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="23" max="23"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="9" t="inlineStr">
-        <is>
-          <t>game_date</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>game_id</t>
-        </is>
-      </c>
-      <c r="C1" s="9" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="D1" s="9" t="inlineStr">
-        <is>
-          <t>goalie_name</t>
-        </is>
-      </c>
-      <c r="E1" s="11" t="inlineStr">
-        <is>
-          <t>betting_line</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>line_over</t>
-        </is>
-      </c>
-      <c r="G1" s="10" t="inlineStr">
-        <is>
-          <t>line_under</t>
-        </is>
-      </c>
-      <c r="H1" s="10" t="inlineStr">
-        <is>
-          <t>goalie_id</t>
-        </is>
-      </c>
-      <c r="I1" s="9" t="inlineStr">
-        <is>
-          <t>team_abbrev</t>
-        </is>
-      </c>
-      <c r="J1" s="9" t="inlineStr">
-        <is>
-          <t>opponent_team</t>
-        </is>
-      </c>
-      <c r="K1" s="10" t="inlineStr">
-        <is>
-          <t>is_home</t>
-        </is>
-      </c>
-      <c r="L1" s="11" t="inlineStr">
-        <is>
-          <t>predicted_saves</t>
-        </is>
-      </c>
-      <c r="M1" s="11" t="inlineStr">
-        <is>
-          <t>prob_over</t>
-        </is>
-      </c>
-      <c r="N1" s="11" t="inlineStr">
-        <is>
-          <t>confidence_pct</t>
-        </is>
-      </c>
-      <c r="O1" s="9" t="inlineStr">
-        <is>
-          <t>confidence_bucket</t>
-        </is>
-      </c>
-      <c r="P1" s="9" t="inlineStr">
-        <is>
-          <t>recommendation</t>
-        </is>
-      </c>
-      <c r="Q1" s="11" t="inlineStr">
-        <is>
-          <t>ev</t>
-        </is>
-      </c>
-      <c r="R1" s="10" t="inlineStr">
-        <is>
-          <t>bet_amount</t>
-        </is>
-      </c>
-      <c r="S1" s="9" t="inlineStr">
-        <is>
-          <t>bet_selection</t>
-        </is>
-      </c>
-      <c r="T1" s="10" t="inlineStr">
-        <is>
-          <t>actual_saves</t>
-        </is>
-      </c>
-      <c r="U1" s="9" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="V1" s="10" t="inlineStr">
-        <is>
-          <t>profit_loss</t>
-        </is>
-      </c>
-      <c r="W1" s="9" t="inlineStr">
-        <is>
-          <t>notes</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>2025020789</v>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>Wedgewood</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>-107</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>-115</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>8475809</v>
-      </c>
-      <c r="I2" s="5" t="inlineStr">
-        <is>
-          <t>COL</t>
-        </is>
-      </c>
-      <c r="J2" s="5" t="inlineStr">
-        <is>
-          <t>ANA</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3" t="n">
-        <v>23.70000076293945</v>
-      </c>
-      <c r="M2" s="3" t="n">
-        <v>0.5356113314628601</v>
-      </c>
-      <c r="N2" s="3" t="n">
-        <v>7.122266292572021</v>
-      </c>
-      <c r="O2" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P2" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q2" s="3" t="n">
-        <v>0.01870310306549072</v>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" s="5" t="inlineStr">
-        <is>
-          <t>OVER</t>
-        </is>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="U2" s="5" t="inlineStr">
-        <is>
-          <t>LOSS</t>
-        </is>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W2" s="5" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>2025020789</v>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>Dostal</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>-125</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>102</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>8480843</v>
-      </c>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>ANA</t>
-        </is>
-      </c>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>COL</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>27.29999923706055</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>0.4652156233787537</v>
-      </c>
-      <c r="N3" s="3" t="n">
-        <v>6.956875324249268</v>
-      </c>
-      <c r="O3" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P3" s="5" t="inlineStr">
-        <is>
-          <t>UNDER</t>
-        </is>
-      </c>
-      <c r="Q3" s="3" t="n">
-        <v>0.03973487019538879</v>
-      </c>
-      <c r="R3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S3" s="5" t="inlineStr">
-        <is>
-          <t>UNDER</t>
-        </is>
-      </c>
-      <c r="T3" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="U3" s="5" t="inlineStr">
-        <is>
-          <t>LOSS</t>
-        </is>
-      </c>
-      <c r="V3" s="2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="W3" s="5" t="n"/>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>2025020790</v>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>Ersson</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>-107</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>-115</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>8481035</v>
-      </c>
-      <c r="I4" s="5" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="J4" s="5" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="M4" s="3" t="n">
-        <v>0.5046634078025818</v>
-      </c>
-      <c r="N4" s="3" t="n">
-        <v>0.9326815605163574</v>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q4" s="3" t="n">
-        <v>-0.0122448205947876</v>
-      </c>
-      <c r="R4" s="2" t="n"/>
-      <c r="S4" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="U4" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="5" t="n"/>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>2025020793</v>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>Grubauer</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>-102</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>-122</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>8475831</v>
-      </c>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
-          <t>NYI</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="M5" s="3" t="n">
-        <v>0.4978570342063904</v>
-      </c>
-      <c r="N5" s="3" t="n">
-        <v>0.4285931587219238</v>
-      </c>
-      <c r="O5" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P5" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q5" s="3" t="n">
-        <v>-0.007093489170074463</v>
-      </c>
-      <c r="R5" s="2" t="n"/>
-      <c r="S5" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="U5" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="5" t="n"/>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>2025020793</v>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>Sorokin</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>-106</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>-117</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>8478009</v>
-      </c>
-      <c r="I6" s="5" t="inlineStr">
-        <is>
-          <t>NYI</t>
-        </is>
-      </c>
-      <c r="J6" s="5" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3" t="n">
-        <v>24.39999961853027</v>
-      </c>
-      <c r="M6" s="3" t="n">
-        <v>0.4783008098602295</v>
-      </c>
-      <c r="N6" s="3" t="n">
-        <v>4.339838027954102</v>
-      </c>
-      <c r="O6" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P6" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q6" s="3" t="n">
-        <v>-0.0174713134765625</v>
-      </c>
-      <c r="R6" s="2" t="n"/>
-      <c r="S6" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T6" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="U6" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="5" t="n"/>
-    </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>2025020791</v>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>Wolf</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>-115</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>-107</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>8481692</v>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>CGY</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
-          <t>PIT</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M7" s="3" t="n">
-        <v>0.4901162385940552</v>
-      </c>
-      <c r="N7" s="3" t="n">
-        <v>1.976752281188965</v>
-      </c>
-      <c r="O7" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P7" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q7" s="3" t="n">
-        <v>-0.007024466991424561</v>
-      </c>
-      <c r="R7" s="2" t="n"/>
-      <c r="S7" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T7" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="U7" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="5" t="n"/>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>2025020791</v>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>Skinner</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>-104</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>-118</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>8479973</v>
-      </c>
-      <c r="I8" s="5" t="inlineStr">
-        <is>
-          <t>PIT</t>
-        </is>
-      </c>
-      <c r="J8" s="5" t="inlineStr">
-        <is>
-          <t>CGY</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="n">
-        <v>24.29999923706055</v>
-      </c>
-      <c r="M8" s="3" t="n">
-        <v>0.4680142998695374</v>
-      </c>
-      <c r="N8" s="3" t="n">
-        <v>6.397140026092529</v>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q8" s="3" t="n">
-        <v>-0.00929868221282959</v>
-      </c>
-      <c r="R8" s="2" t="n"/>
-      <c r="S8" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T8" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="U8" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" s="5" t="n"/>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>2025020792</v>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>Lankinen</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>-113</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>-109</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>8480947</v>
-      </c>
-      <c r="I9" s="5" t="inlineStr">
-        <is>
-          <t>VAN</t>
-        </is>
-      </c>
-      <c r="J9" s="5" t="inlineStr">
-        <is>
-          <t>WSH</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="3" t="n">
-        <v>24.39999961853027</v>
-      </c>
-      <c r="M9" s="3" t="n">
-        <v>0.4808475077152252</v>
-      </c>
-      <c r="N9" s="3" t="n">
-        <v>3.830498456954956</v>
-      </c>
-      <c r="O9" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P9" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q9" s="3" t="n">
-        <v>-0.002378582954406738</v>
-      </c>
-      <c r="R9" s="2" t="n"/>
-      <c r="S9" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T9" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="U9" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="5" t="n"/>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>2025020792</v>
-      </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>Thompson</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>-106</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>-115</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>8480313</v>
-      </c>
-      <c r="I10" s="5" t="inlineStr">
-        <is>
-          <t>WSH</t>
-        </is>
-      </c>
-      <c r="J10" s="5" t="inlineStr">
-        <is>
-          <t>VAN</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="n">
-        <v>24.39999961853027</v>
-      </c>
-      <c r="M10" s="3" t="n">
-        <v>0.4860748648643494</v>
-      </c>
-      <c r="N10" s="3" t="n">
-        <v>2.785027027130127</v>
-      </c>
-      <c r="O10" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P10" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q10" s="3" t="n">
-        <v>-0.02095860242843628</v>
-      </c>
-      <c r="R10" s="2" t="n"/>
-      <c r="S10" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="U10" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="5" t="n"/>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>2025020789</v>
-      </c>
-      <c r="C11" s="5" t="inlineStr">
-        <is>
-          <t>PrizePicks</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>Wedgewood</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="n"/>
-      <c r="F11" s="2" t="n"/>
-      <c r="G11" s="2" t="n"/>
-      <c r="H11" s="2" t="n">
-        <v>8475809</v>
-      </c>
-      <c r="I11" s="5" t="inlineStr">
-        <is>
-          <t>COL</t>
-        </is>
-      </c>
-      <c r="J11" s="5" t="inlineStr">
-        <is>
-          <t>ANA</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="3" t="n"/>
-      <c r="M11" s="3" t="n"/>
-      <c r="N11" s="3" t="n"/>
-      <c r="O11" s="5" t="n"/>
-      <c r="P11" s="5" t="n"/>
-      <c r="Q11" s="3" t="n"/>
-      <c r="R11" s="2" t="n"/>
-      <c r="S11" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="U11" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" s="5" t="n"/>
-    </row>
-    <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>2025020789</v>
-      </c>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t>PrizePicks</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>Dostal</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="n"/>
-      <c r="F12" s="2" t="n"/>
-      <c r="G12" s="2" t="n"/>
-      <c r="H12" s="2" t="n">
-        <v>8480843</v>
-      </c>
-      <c r="I12" s="5" t="inlineStr">
-        <is>
-          <t>ANA</t>
-        </is>
-      </c>
-      <c r="J12" s="5" t="inlineStr">
-        <is>
-          <t>COL</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3" t="n"/>
-      <c r="M12" s="3" t="n"/>
-      <c r="N12" s="3" t="n"/>
-      <c r="O12" s="5" t="n"/>
-      <c r="P12" s="5" t="n"/>
-      <c r="Q12" s="3" t="n"/>
-      <c r="R12" s="2" t="n"/>
-      <c r="S12" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T12" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="U12" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" s="5" t="n"/>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>2025020790</v>
-      </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>PrizePicks</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>Ersson</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="2" t="n"/>
-      <c r="G13" s="2" t="n"/>
-      <c r="H13" s="2" t="n">
-        <v>8481035</v>
-      </c>
-      <c r="I13" s="5" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="J13" s="5" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3" t="n"/>
-      <c r="M13" s="3" t="n"/>
-      <c r="N13" s="3" t="n"/>
-      <c r="O13" s="5" t="n"/>
-      <c r="P13" s="5" t="n"/>
-      <c r="Q13" s="3" t="n"/>
-      <c r="R13" s="2" t="n"/>
-      <c r="S13" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T13" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="U13" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" s="5" t="n"/>
-    </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>2025020793</v>
-      </c>
-      <c r="C14" s="5" t="inlineStr">
-        <is>
-          <t>PrizePicks</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>Grubauer</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="n"/>
-      <c r="F14" s="2" t="n"/>
-      <c r="G14" s="2" t="n"/>
-      <c r="H14" s="2" t="n">
-        <v>8475831</v>
-      </c>
-      <c r="I14" s="5" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="J14" s="5" t="inlineStr">
-        <is>
-          <t>NYI</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="3" t="n"/>
-      <c r="M14" s="3" t="n"/>
-      <c r="N14" s="3" t="n"/>
-      <c r="O14" s="5" t="n"/>
-      <c r="P14" s="5" t="n"/>
-      <c r="Q14" s="3" t="n"/>
-      <c r="R14" s="2" t="n"/>
-      <c r="S14" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T14" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="U14" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" s="5" t="n"/>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>2025020793</v>
-      </c>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>PrizePicks</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>Sorokin</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="n"/>
-      <c r="F15" s="2" t="n"/>
-      <c r="G15" s="2" t="n"/>
-      <c r="H15" s="2" t="n">
-        <v>8478009</v>
-      </c>
-      <c r="I15" s="5" t="inlineStr">
-        <is>
-          <t>NYI</t>
-        </is>
-      </c>
-      <c r="J15" s="5" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3" t="n"/>
-      <c r="M15" s="3" t="n"/>
-      <c r="N15" s="3" t="n"/>
-      <c r="O15" s="5" t="n"/>
-      <c r="P15" s="5" t="n"/>
-      <c r="Q15" s="3" t="n"/>
-      <c r="R15" s="2" t="n"/>
-      <c r="S15" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T15" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="U15" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" s="5" t="n"/>
-    </row>
-    <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>2025020791</v>
-      </c>
-      <c r="C16" s="5" t="inlineStr">
-        <is>
-          <t>PrizePicks</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>Wolf</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
-      <c r="H16" s="2" t="n">
-        <v>8481692</v>
-      </c>
-      <c r="I16" s="5" t="inlineStr">
-        <is>
-          <t>CGY</t>
-        </is>
-      </c>
-      <c r="J16" s="5" t="inlineStr">
-        <is>
-          <t>PIT</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="3" t="n"/>
-      <c r="M16" s="3" t="n"/>
-      <c r="N16" s="3" t="n"/>
-      <c r="O16" s="5" t="n"/>
-      <c r="P16" s="5" t="n"/>
-      <c r="Q16" s="3" t="n"/>
-      <c r="R16" s="2" t="n"/>
-      <c r="S16" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T16" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="U16" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" s="5" t="n"/>
-    </row>
-    <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>2025020791</v>
-      </c>
-      <c r="C17" s="5" t="inlineStr">
-        <is>
-          <t>PrizePicks</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>Skinner</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n">
-        <v>8479973</v>
-      </c>
-      <c r="I17" s="5" t="inlineStr">
-        <is>
-          <t>PIT</t>
-        </is>
-      </c>
-      <c r="J17" s="5" t="inlineStr">
-        <is>
-          <t>CGY</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="n"/>
-      <c r="M17" s="3" t="n"/>
-      <c r="N17" s="3" t="n"/>
-      <c r="O17" s="5" t="n"/>
-      <c r="P17" s="5" t="n"/>
-      <c r="Q17" s="3" t="n"/>
-      <c r="R17" s="2" t="n"/>
-      <c r="S17" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T17" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="U17" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" s="5" t="n"/>
-    </row>
-    <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>2025020792</v>
-      </c>
-      <c r="C18" s="5" t="inlineStr">
-        <is>
-          <t>PrizePicks</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>Lankinen</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n">
-        <v>8480947</v>
-      </c>
-      <c r="I18" s="5" t="inlineStr">
-        <is>
-          <t>VAN</t>
-        </is>
-      </c>
-      <c r="J18" s="5" t="inlineStr">
-        <is>
-          <t>WSH</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" s="3" t="n"/>
-      <c r="M18" s="3" t="n"/>
-      <c r="N18" s="3" t="n"/>
-      <c r="O18" s="5" t="n"/>
-      <c r="P18" s="5" t="n"/>
-      <c r="Q18" s="3" t="n"/>
-      <c r="R18" s="2" t="n"/>
-      <c r="S18" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T18" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="U18" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" s="5" t="n"/>
-    </row>
-    <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>2025020792</v>
-      </c>
-      <c r="C19" s="5" t="inlineStr">
-        <is>
-          <t>PrizePicks</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>Thompson</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="2" t="n">
-        <v>8480313</v>
-      </c>
-      <c r="I19" s="5" t="inlineStr">
-        <is>
-          <t>WSH</t>
-        </is>
-      </c>
-      <c r="J19" s="5" t="inlineStr">
-        <is>
-          <t>VAN</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3" t="n"/>
-      <c r="M19" s="3" t="n"/>
-      <c r="N19" s="3" t="n"/>
-      <c r="O19" s="5" t="n"/>
-      <c r="P19" s="5" t="n"/>
-      <c r="Q19" s="3" t="n"/>
-      <c r="R19" s="2" t="n"/>
-      <c r="S19" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T19" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="U19" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" s="5" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -8,22 +8,23 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Settings" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-28" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-27" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-26" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-25" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-24" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-23" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-22" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-21" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-20" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-19" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-18" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-17" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-16" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-15" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-14" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-13" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-29" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-28" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-27" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-26" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-25" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-24" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-23" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-22" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-21" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-20" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-19" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-18" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-17" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-16" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-15" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-14" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-13" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -33,7 +34,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -74,13 +75,23 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004472C4"/>
+        <bgColor rgb="004472C4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -138,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
@@ -220,6 +231,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -955,6 +969,2725 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:W31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="12" max="12"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="13" max="13"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="14" max="14"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="17" max="17"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="18" max="18"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="19" max="19"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="20" max="20"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="21" max="21"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="22" max="22"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>game_date</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>game_id</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="D1" s="9" t="inlineStr">
+        <is>
+          <t>goalie_name</t>
+        </is>
+      </c>
+      <c r="E1" s="11" t="inlineStr">
+        <is>
+          <t>betting_line</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>line_over</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>line_under</t>
+        </is>
+      </c>
+      <c r="H1" s="10" t="inlineStr">
+        <is>
+          <t>goalie_id</t>
+        </is>
+      </c>
+      <c r="I1" s="9" t="inlineStr">
+        <is>
+          <t>team_abbrev</t>
+        </is>
+      </c>
+      <c r="J1" s="9" t="inlineStr">
+        <is>
+          <t>opponent_team</t>
+        </is>
+      </c>
+      <c r="K1" s="10" t="inlineStr">
+        <is>
+          <t>is_home</t>
+        </is>
+      </c>
+      <c r="L1" s="11" t="inlineStr">
+        <is>
+          <t>predicted_saves</t>
+        </is>
+      </c>
+      <c r="M1" s="11" t="inlineStr">
+        <is>
+          <t>prob_over</t>
+        </is>
+      </c>
+      <c r="N1" s="11" t="inlineStr">
+        <is>
+          <t>confidence_pct</t>
+        </is>
+      </c>
+      <c r="O1" s="9" t="inlineStr">
+        <is>
+          <t>confidence_bucket</t>
+        </is>
+      </c>
+      <c r="P1" s="9" t="inlineStr">
+        <is>
+          <t>recommendation</t>
+        </is>
+      </c>
+      <c r="Q1" s="11" t="inlineStr">
+        <is>
+          <t>ev</t>
+        </is>
+      </c>
+      <c r="R1" s="10" t="inlineStr">
+        <is>
+          <t>bet_amount</t>
+        </is>
+      </c>
+      <c r="S1" s="9" t="inlineStr">
+        <is>
+          <t>bet_selection</t>
+        </is>
+      </c>
+      <c r="T1" s="10" t="inlineStr">
+        <is>
+          <t>actual_saves</t>
+        </is>
+      </c>
+      <c r="U1" s="9" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="V1" s="10" t="inlineStr">
+        <is>
+          <t>profit_loss</t>
+        </is>
+      </c>
+      <c r="W1" s="9" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>2025020794</v>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>Schmid</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>-114</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>-108</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>8481033</v>
+      </c>
+      <c r="I2" s="5" t="inlineStr">
+        <is>
+          <t>VGK</t>
+        </is>
+      </c>
+      <c r="J2" s="5" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>21.70000076293945</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>0.5335663557052612</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>6.713271141052246</v>
+      </c>
+      <c r="O2" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P2" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>0.0008561015129089999</v>
+      </c>
+      <c r="R2" s="2" t="n"/>
+      <c r="S2" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="U2" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="5" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2025020794</v>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>Korpisalo</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>-114</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>-108</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>8476914</v>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>VGK</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>24.29999923706055</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>0.4615394473075867</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>7.692110538482666</v>
+      </c>
+      <c r="O3" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P3" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>0.019229769706726</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="5" t="inlineStr">
+        <is>
+          <t>UNDER</t>
+        </is>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="U3" s="5" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="V3" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W3" s="5" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>2025020796</v>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>Knight</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>-122</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>8481519</v>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="J4" s="5" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>28.29999923706055</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>0.4651559293270111</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>6.968813896179199</v>
+      </c>
+      <c r="O4" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P4" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>0.0065421462059021</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="5" t="inlineStr">
+        <is>
+          <t>UNDER</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="U4" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="5" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>2025020797</v>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Greaves</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>-114</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>-108</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>8482982</v>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>CBJ</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>23.70000076293945</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>0.5321161150932312</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>6.42322301864624</v>
+      </c>
+      <c r="O5" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P5" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <v>-0.0005941390991210938</v>
+      </c>
+      <c r="R5" s="2" t="n"/>
+      <c r="S5" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="U5" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="5" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>2025020797</v>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>DeSmith</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>-105</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>-118</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>8479193</v>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>CBJ</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>0.4942755997180939</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>1.144880056381226</v>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>-0.01791951060295105</v>
+      </c>
+      <c r="R6" s="2" t="n"/>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>2025020799</v>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Hellebuyck</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>-124</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>8476945</v>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>WPG</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>0.4948709011077881</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>1.025819778442383</v>
+      </c>
+      <c r="O7" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P7" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <v>0.002260059118270874</v>
+      </c>
+      <c r="R7" s="2" t="n"/>
+      <c r="S7" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="U7" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5" t="n"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>2025020799</v>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>Tarasov</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>-103</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>8480193</v>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="J8" s="5" t="inlineStr">
+        <is>
+          <t>WPG</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>22.60000038146973</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>0.5288675427436829</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>5.773508548736572</v>
+      </c>
+      <c r="O8" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P8" s="5" t="inlineStr">
+        <is>
+          <t>OVER</t>
+        </is>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>0.021478354930878</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" s="5" t="inlineStr">
+        <is>
+          <t>OVER</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="U8" s="5" t="inlineStr">
+        <is>
+          <t>LOSS</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W8" s="5" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>2025020798</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>Saros</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>-122</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>8477424</v>
+      </c>
+      <c r="I9" s="5" t="inlineStr">
+        <is>
+          <t>NSH</t>
+        </is>
+      </c>
+      <c r="J9" s="5" t="inlineStr">
+        <is>
+          <t>OTT</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>0.5046124458312988</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>0.9224891662597656</v>
+      </c>
+      <c r="O9" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P9" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>-0.004612445831298828</v>
+      </c>
+      <c r="R9" s="2" t="n"/>
+      <c r="S9" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="U9" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="5" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>2025020798</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>Reimer</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>-108</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>-114</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>8473503</v>
+      </c>
+      <c r="I10" s="5" t="inlineStr">
+        <is>
+          <t>OTT</t>
+        </is>
+      </c>
+      <c r="J10" s="5" t="inlineStr">
+        <is>
+          <t>NSH</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>0.5181494951248169</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>3.629899024963379</v>
+      </c>
+      <c r="O10" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P10" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q10" s="3" t="n">
+        <v>-0.001081287860870361</v>
+      </c>
+      <c r="R10" s="2" t="n"/>
+      <c r="S10" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="U10" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="5" t="n"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>2025020800</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>Silovs</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>-110</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>-112</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>8481668</v>
+      </c>
+      <c r="I11" s="5" t="inlineStr">
+        <is>
+          <t>PIT</t>
+        </is>
+      </c>
+      <c r="J11" s="5" t="inlineStr">
+        <is>
+          <t>EDM</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>0.4908878803253174</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>1.822423934936523</v>
+      </c>
+      <c r="O11" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P11" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q11" s="3" t="n">
+        <v>-0.01918977499008179</v>
+      </c>
+      <c r="R11" s="2" t="n"/>
+      <c r="S11" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="U11" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="5" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>2025020800</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>Jarry</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>-107</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>-115</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>8477465</v>
+      </c>
+      <c r="I12" s="5" t="inlineStr">
+        <is>
+          <t>EDM</t>
+        </is>
+      </c>
+      <c r="J12" s="5" t="inlineStr">
+        <is>
+          <t>PIT</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3" t="n">
+        <v>23.70000076293945</v>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>0.5327706933021545</v>
+      </c>
+      <c r="N12" s="3" t="n">
+        <v>6.554138660430908</v>
+      </c>
+      <c r="O12" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P12" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q12" s="3" t="n">
+        <v>0.015862464904785</v>
+      </c>
+      <c r="R12" s="2" t="n"/>
+      <c r="S12" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="U12" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="5" t="n"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>2025020801</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>Talbot</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>-124</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>8475660</v>
+      </c>
+      <c r="I13" s="5" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="J13" s="5" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>25.39999961853027</v>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>0.4863932132720947</v>
+      </c>
+      <c r="N13" s="3" t="n">
+        <v>2.721357345581055</v>
+      </c>
+      <c r="O13" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P13" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q13" s="3" t="n">
+        <v>-0.02099597454071045</v>
+      </c>
+      <c r="R13" s="2" t="n"/>
+      <c r="S13" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="U13" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="5" t="n"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>2025020801</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>Gustavsson</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>-124</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>8479406</v>
+      </c>
+      <c r="I14" s="5" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="J14" s="5" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M14" s="3" t="n">
+        <v>0.5013213753700256</v>
+      </c>
+      <c r="N14" s="3" t="n">
+        <v>0.264275074005127</v>
+      </c>
+      <c r="O14" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P14" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q14" s="3" t="n">
+        <v>0.003808945417404175</v>
+      </c>
+      <c r="R14" s="2" t="n"/>
+      <c r="S14" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="U14" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="5" t="n"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>2025020795</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>Montembeault</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>-112</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>-110</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>8478470</v>
+      </c>
+      <c r="I15" s="5" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>BUF</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <v>0.5358108878135681</v>
+      </c>
+      <c r="N15" s="3" t="n">
+        <v>7.162177562713623</v>
+      </c>
+      <c r="O15" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P15" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q15" s="3" t="n">
+        <v>0.007508993148803711</v>
+      </c>
+      <c r="R15" s="2" t="n"/>
+      <c r="S15" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="U15" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="5" t="n"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>2025020795</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>Luukkonen</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>-112</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>-110</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>8480045</v>
+      </c>
+      <c r="I16" s="5" t="inlineStr">
+        <is>
+          <t>BUF</t>
+        </is>
+      </c>
+      <c r="J16" s="5" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3" t="n">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="M16" s="3" t="n">
+        <v>0.4757562279701233</v>
+      </c>
+      <c r="N16" s="3" t="n">
+        <v>4.848754405975342</v>
+      </c>
+      <c r="O16" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P16" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q16" s="3" t="n">
+        <v>0.0004342198371887207</v>
+      </c>
+      <c r="R16" s="2" t="n"/>
+      <c r="S16" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="U16" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="5" t="n"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>2025020796</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>Andersen</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>-103</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>8475883</v>
+      </c>
+      <c r="I17" s="5" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="J17" s="5" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>19.70000076293945</v>
+      </c>
+      <c r="M17" s="3" t="n">
+        <v>0.5309252142906189</v>
+      </c>
+      <c r="N17" s="3" t="n">
+        <v>6.185042858123779</v>
+      </c>
+      <c r="O17" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P17" s="5" t="inlineStr">
+        <is>
+          <t>OVER</t>
+        </is>
+      </c>
+      <c r="Q17" s="3" t="n">
+        <v>0.03587570786476135</v>
+      </c>
+      <c r="R17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" s="5" t="inlineStr">
+        <is>
+          <t>OVER</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="U17" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="5" t="n"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>2025020796</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>Knight</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>-112</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>-112</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>8481519</v>
+      </c>
+      <c r="I18" s="5" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="J18" s="5" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3" t="n">
+        <v>28.29999923706055</v>
+      </c>
+      <c r="M18" s="3" t="n">
+        <v>0.4651559293270111</v>
+      </c>
+      <c r="N18" s="3" t="n">
+        <v>6.968813896179199</v>
+      </c>
+      <c r="O18" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P18" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q18" s="3" t="n">
+        <v>0.0065421462059021</v>
+      </c>
+      <c r="R18" s="2" t="n"/>
+      <c r="S18" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="U18" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="5" t="n"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>2025020796</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>Andersen</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>-125</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>8475883</v>
+      </c>
+      <c r="I19" s="5" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="J19" s="5" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3" t="n">
+        <v>19.70000076293945</v>
+      </c>
+      <c r="M19" s="3" t="n">
+        <v>0.5309252142906189</v>
+      </c>
+      <c r="N19" s="3" t="n">
+        <v>6.185042858123779</v>
+      </c>
+      <c r="O19" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P19" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q19" s="3" t="n">
+        <v>0.03587570786476135</v>
+      </c>
+      <c r="R19" s="2" t="n"/>
+      <c r="S19" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="U19" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="5" t="n"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>2025020799</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>Hellebuyck</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>-124</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>8476945</v>
+      </c>
+      <c r="I20" s="5" t="inlineStr">
+        <is>
+          <t>WPG</t>
+        </is>
+      </c>
+      <c r="J20" s="5" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M20" s="3" t="n">
+        <v>0.4948709011077881</v>
+      </c>
+      <c r="N20" s="3" t="n">
+        <v>1.025819778442383</v>
+      </c>
+      <c r="O20" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P20" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q20" s="3" t="n">
+        <v>0.002260059118270874</v>
+      </c>
+      <c r="R20" s="2" t="n"/>
+      <c r="S20" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="U20" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="5" t="n"/>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>2025020799</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>Hellebuyck</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>-124</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>8476945</v>
+      </c>
+      <c r="I21" s="5" t="inlineStr">
+        <is>
+          <t>WPG</t>
+        </is>
+      </c>
+      <c r="J21" s="5" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M21" s="3" t="n">
+        <v>0.4948709011077881</v>
+      </c>
+      <c r="N21" s="3" t="n">
+        <v>1.025819778442383</v>
+      </c>
+      <c r="O21" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P21" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q21" s="3" t="n">
+        <v>0.002260059118270874</v>
+      </c>
+      <c r="R21" s="2" t="n"/>
+      <c r="S21" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="U21" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="5" t="n"/>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>2025020799</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>Hellebuyck</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>-124</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>8476945</v>
+      </c>
+      <c r="I22" s="5" t="inlineStr">
+        <is>
+          <t>WPG</t>
+        </is>
+      </c>
+      <c r="J22" s="5" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M22" s="3" t="n">
+        <v>0.4948709011077881</v>
+      </c>
+      <c r="N22" s="3" t="n">
+        <v>1.025819778442383</v>
+      </c>
+      <c r="O22" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P22" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q22" s="3" t="n">
+        <v>0.002260059118270874</v>
+      </c>
+      <c r="R22" s="2" t="n"/>
+      <c r="S22" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="U22" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" s="5" t="n"/>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>2025020798</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>Saros</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>8477424</v>
+      </c>
+      <c r="I23" s="5" t="inlineStr">
+        <is>
+          <t>NSH</t>
+        </is>
+      </c>
+      <c r="J23" s="5" t="inlineStr">
+        <is>
+          <t>OTT</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="M23" s="3" t="n">
+        <v>0.5045216679573059</v>
+      </c>
+      <c r="N23" s="3" t="n">
+        <v>0.9043335914611816</v>
+      </c>
+      <c r="O23" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P23" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q23" s="3" t="n">
+        <v>-0.04093289375305176</v>
+      </c>
+      <c r="R23" s="2" t="n"/>
+      <c r="S23" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="U23" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" s="5" t="n"/>
+    </row>
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>2025020798</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>Reimer</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>8473503</v>
+      </c>
+      <c r="I24" s="5" t="inlineStr">
+        <is>
+          <t>OTT</t>
+        </is>
+      </c>
+      <c r="J24" s="5" t="inlineStr">
+        <is>
+          <t>NSH</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M24" s="3" t="n">
+        <v>0.5181494951248169</v>
+      </c>
+      <c r="N24" s="3" t="n">
+        <v>3.629899024963379</v>
+      </c>
+      <c r="O24" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P24" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q24" s="3" t="n">
+        <v>-0.02730506658554077</v>
+      </c>
+      <c r="R24" s="2" t="n"/>
+      <c r="S24" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="U24" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" s="5" t="n"/>
+    </row>
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>2025020799</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>Hellebuyck</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>8476945</v>
+      </c>
+      <c r="I25" s="5" t="inlineStr">
+        <is>
+          <t>WPG</t>
+        </is>
+      </c>
+      <c r="J25" s="5" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="M25" s="3" t="n">
+        <v>0.4971076548099518</v>
+      </c>
+      <c r="N25" s="3" t="n">
+        <v>0.5784690380096436</v>
+      </c>
+      <c r="O25" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P25" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q25" s="3" t="n">
+        <v>-0.04256218671798706</v>
+      </c>
+      <c r="R25" s="2" t="n"/>
+      <c r="S25" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="U25" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" s="5" t="n"/>
+    </row>
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>2025020799</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>Tarasov</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>8480193</v>
+      </c>
+      <c r="I26" s="5" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="J26" s="5" t="inlineStr">
+        <is>
+          <t>WPG</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3" t="n">
+        <v>22.60000038146973</v>
+      </c>
+      <c r="M26" s="3" t="n">
+        <v>0.5288675427436829</v>
+      </c>
+      <c r="N26" s="3" t="n">
+        <v>5.773508548736572</v>
+      </c>
+      <c r="O26" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P26" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q26" s="3" t="n">
+        <v>-0.0165870189666748</v>
+      </c>
+      <c r="R26" s="2" t="n"/>
+      <c r="S26" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="U26" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" s="5" t="n"/>
+    </row>
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>2025020800</v>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>Silovs</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>8481668</v>
+      </c>
+      <c r="I27" s="5" t="inlineStr">
+        <is>
+          <t>PIT</t>
+        </is>
+      </c>
+      <c r="J27" s="5" t="inlineStr">
+        <is>
+          <t>EDM</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M27" s="3" t="n">
+        <v>0.4908878803253174</v>
+      </c>
+      <c r="N27" s="3" t="n">
+        <v>1.822423934936523</v>
+      </c>
+      <c r="O27" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P27" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q27" s="3" t="n">
+        <v>-0.03634244203567505</v>
+      </c>
+      <c r="R27" s="2" t="n"/>
+      <c r="S27" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="U27" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="5" t="n"/>
+    </row>
+    <row r="28" ht="18.75" customHeight="1">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>2025020800</v>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>Jarry</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>8477465</v>
+      </c>
+      <c r="I28" s="5" t="inlineStr">
+        <is>
+          <t>EDM</t>
+        </is>
+      </c>
+      <c r="J28" s="5" t="inlineStr">
+        <is>
+          <t>PIT</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3" t="n">
+        <v>23.70000076293945</v>
+      </c>
+      <c r="M28" s="3" t="n">
+        <v>0.5327706933021545</v>
+      </c>
+      <c r="N28" s="3" t="n">
+        <v>6.554138660430908</v>
+      </c>
+      <c r="O28" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P28" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q28" s="3" t="n">
+        <v>-0.01268386840820312</v>
+      </c>
+      <c r="R28" s="2" t="n"/>
+      <c r="S28" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="U28" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" s="5" t="n"/>
+    </row>
+    <row r="29" ht="18.75" customHeight="1">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>2025020801</v>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>Talbot</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>8475660</v>
+      </c>
+      <c r="I29" s="5" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="J29" s="5" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="n">
+        <v>24.89999961853027</v>
+      </c>
+      <c r="M29" s="3" t="n">
+        <v>0.4886287450790405</v>
+      </c>
+      <c r="N29" s="3" t="n">
+        <v>2.274250984191895</v>
+      </c>
+      <c r="O29" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P29" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q29" s="3" t="n">
+        <v>-0.03408330678939819</v>
+      </c>
+      <c r="R29" s="2" t="n"/>
+      <c r="S29" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="U29" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" s="5" t="n"/>
+    </row>
+    <row r="30" ht="18.75" customHeight="1">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>2025020801</v>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>Gustavsson</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>8479406</v>
+      </c>
+      <c r="I30" s="5" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="J30" s="5" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="M30" s="3" t="n">
+        <v>0.5077030658721924</v>
+      </c>
+      <c r="N30" s="3" t="n">
+        <v>1.540613174438477</v>
+      </c>
+      <c r="O30" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P30" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q30" s="3" t="n">
+        <v>-0.03775149583816528</v>
+      </c>
+      <c r="R30" s="2" t="n"/>
+      <c r="S30" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="U30" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" s="5" t="n"/>
+    </row>
+    <row r="31" ht="18.75" customHeight="1">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>2025020801</v>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>Talbot</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>-103</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>-124</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>8475660</v>
+      </c>
+      <c r="I31" s="5" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="J31" s="5" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3" t="n">
+        <v>25.39999961853027</v>
+      </c>
+      <c r="M31" s="3" t="n">
+        <v>0.4863932132720947</v>
+      </c>
+      <c r="N31" s="3" t="n">
+        <v>2.721357345581055</v>
+      </c>
+      <c r="O31" s="5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P31" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q31" s="3" t="n">
+        <v>-0.02099597454071045</v>
+      </c>
+      <c r="R31" s="2" t="n"/>
+      <c r="S31" s="5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="U31" s="5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="V31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" s="5" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2446,7 +5179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -3990,7 +6723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -5603,7 +8336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -6058,7 +8791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -8099,7 +10832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -9042,7 +11775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -10617,7 +13350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -11388,7 +14121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -13326,6 +16059,450 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:W5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="27" t="inlineStr">
+        <is>
+          <t>game_date</t>
+        </is>
+      </c>
+      <c r="B1" s="27" t="inlineStr">
+        <is>
+          <t>game_id</t>
+        </is>
+      </c>
+      <c r="C1" s="27" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="D1" s="27" t="inlineStr">
+        <is>
+          <t>goalie_name</t>
+        </is>
+      </c>
+      <c r="E1" s="27" t="inlineStr">
+        <is>
+          <t>betting_line</t>
+        </is>
+      </c>
+      <c r="F1" s="27" t="inlineStr">
+        <is>
+          <t>line_over</t>
+        </is>
+      </c>
+      <c r="G1" s="27" t="inlineStr">
+        <is>
+          <t>line_under</t>
+        </is>
+      </c>
+      <c r="H1" s="27" t="inlineStr">
+        <is>
+          <t>goalie_id</t>
+        </is>
+      </c>
+      <c r="I1" s="27" t="inlineStr">
+        <is>
+          <t>team_abbrev</t>
+        </is>
+      </c>
+      <c r="J1" s="27" t="inlineStr">
+        <is>
+          <t>opponent_team</t>
+        </is>
+      </c>
+      <c r="K1" s="27" t="inlineStr">
+        <is>
+          <t>is_home</t>
+        </is>
+      </c>
+      <c r="L1" s="27" t="inlineStr">
+        <is>
+          <t>predicted_saves</t>
+        </is>
+      </c>
+      <c r="M1" s="27" t="inlineStr">
+        <is>
+          <t>prob_over</t>
+        </is>
+      </c>
+      <c r="N1" s="27" t="inlineStr">
+        <is>
+          <t>confidence_pct</t>
+        </is>
+      </c>
+      <c r="O1" s="27" t="inlineStr">
+        <is>
+          <t>confidence_bucket</t>
+        </is>
+      </c>
+      <c r="P1" s="27" t="inlineStr">
+        <is>
+          <t>recommendation</t>
+        </is>
+      </c>
+      <c r="Q1" s="27" t="inlineStr">
+        <is>
+          <t>ev</t>
+        </is>
+      </c>
+      <c r="R1" s="27" t="inlineStr">
+        <is>
+          <t>bet_amount</t>
+        </is>
+      </c>
+      <c r="S1" s="27" t="inlineStr">
+        <is>
+          <t>bet_selection</t>
+        </is>
+      </c>
+      <c r="T1" s="27" t="inlineStr">
+        <is>
+          <t>actual_saves</t>
+        </is>
+      </c>
+      <c r="U1" s="27" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="V1" s="27" t="inlineStr">
+        <is>
+          <t>profit_loss</t>
+        </is>
+      </c>
+      <c r="W1" s="27" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2025020845</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Dobes</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-108</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-114</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8482487</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>COL</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>25.39999961853027</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.4731991291046143</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5.360174179077148</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.005909383296966553</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2025020849</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Quick</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-115</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-107</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8471734</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>NYR</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>NYI</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.5146973133087158</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.939462661743164</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.02018642425537109</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2025020849</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Sorokin</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-122</v>
+      </c>
+      <c r="G4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8478009</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>NYI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>NYR</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.5354784727096558</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7.095694541931152</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.01407104730606079</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2025020846</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Gibson</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-121</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-102</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8476434</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>WSH</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.5145837068557739</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.916741371154785</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.01953423023223877</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13517,7 +16694,6 @@
       <c r="Q2" t="n">
         <v>0.001664698123931885</v>
       </c>
-      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -13534,7 +16710,6 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -13602,7 +16777,6 @@
       <c r="Q3" t="n">
         <v>-0.0242428183555603</v>
       </c>
-      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -13619,7 +16793,6 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -13687,7 +16860,6 @@
       <c r="Q4" t="n">
         <v>-0.01660269498825073</v>
       </c>
-      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -13704,7 +16876,6 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -13772,7 +16943,6 @@
       <c r="Q5" t="n">
         <v>-0.01789718866348267</v>
       </c>
-      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -13789,7 +16959,6 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -13857,7 +17026,6 @@
       <c r="Q6" t="n">
         <v>-0.01556095480918884</v>
       </c>
-      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -13874,7 +17042,6 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -13942,7 +17109,6 @@
       <c r="Q7" t="n">
         <v>-0.0004004836082458496</v>
       </c>
-      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -13959,7 +17125,6 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -14027,7 +17192,6 @@
       <c r="Q8" t="n">
         <v>-0.0242428183555603</v>
       </c>
-      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -14044,7 +17208,6 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -14112,7 +17275,6 @@
       <c r="Q9" t="n">
         <v>-0.01548796892166138</v>
       </c>
-      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -14129,7 +17291,6 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -14197,7 +17358,6 @@
       <c r="Q10" t="n">
         <v>-0.01660269498825073</v>
       </c>
-      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -14214,7 +17374,6 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -14282,7 +17441,6 @@
       <c r="Q11" t="n">
         <v>-0.01789718866348267</v>
       </c>
-      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -14299,7 +17457,6 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -14367,7 +17524,6 @@
       <c r="Q12" t="n">
         <v>-0.03341245651245117</v>
       </c>
-      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -14384,7 +17540,6 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -14452,7 +17607,6 @@
       <c r="Q13" t="n">
         <v>-0.02894681692123413</v>
       </c>
-      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr">
         <is>
           <t>NONE</t>
@@ -14469,7 +17623,6 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -14556,7 +17709,6 @@
       <c r="V14" t="n">
         <v>-1</v>
       </c>
-      <c r="W14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -14643,14 +17795,13 @@
       <c r="V15" t="n">
         <v>0.970873786407767</v>
       </c>
-      <c r="W15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -23772,7 +26923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -25572,7 +28723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -28546,7 +31697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -30755,7 +33906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -34912,2723 +38063,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:W31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="8" max="8"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="11" max="11"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="12" max="12"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="13" max="13"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="14" max="14"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="17" max="17"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="18" max="18"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="20" max="20"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="21" max="21"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="22" max="22"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="23" max="23"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="9" t="inlineStr">
-        <is>
-          <t>game_date</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>game_id</t>
-        </is>
-      </c>
-      <c r="C1" s="9" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="D1" s="9" t="inlineStr">
-        <is>
-          <t>goalie_name</t>
-        </is>
-      </c>
-      <c r="E1" s="11" t="inlineStr">
-        <is>
-          <t>betting_line</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>line_over</t>
-        </is>
-      </c>
-      <c r="G1" s="10" t="inlineStr">
-        <is>
-          <t>line_under</t>
-        </is>
-      </c>
-      <c r="H1" s="10" t="inlineStr">
-        <is>
-          <t>goalie_id</t>
-        </is>
-      </c>
-      <c r="I1" s="9" t="inlineStr">
-        <is>
-          <t>team_abbrev</t>
-        </is>
-      </c>
-      <c r="J1" s="9" t="inlineStr">
-        <is>
-          <t>opponent_team</t>
-        </is>
-      </c>
-      <c r="K1" s="10" t="inlineStr">
-        <is>
-          <t>is_home</t>
-        </is>
-      </c>
-      <c r="L1" s="11" t="inlineStr">
-        <is>
-          <t>predicted_saves</t>
-        </is>
-      </c>
-      <c r="M1" s="11" t="inlineStr">
-        <is>
-          <t>prob_over</t>
-        </is>
-      </c>
-      <c r="N1" s="11" t="inlineStr">
-        <is>
-          <t>confidence_pct</t>
-        </is>
-      </c>
-      <c r="O1" s="9" t="inlineStr">
-        <is>
-          <t>confidence_bucket</t>
-        </is>
-      </c>
-      <c r="P1" s="9" t="inlineStr">
-        <is>
-          <t>recommendation</t>
-        </is>
-      </c>
-      <c r="Q1" s="11" t="inlineStr">
-        <is>
-          <t>ev</t>
-        </is>
-      </c>
-      <c r="R1" s="10" t="inlineStr">
-        <is>
-          <t>bet_amount</t>
-        </is>
-      </c>
-      <c r="S1" s="9" t="inlineStr">
-        <is>
-          <t>bet_selection</t>
-        </is>
-      </c>
-      <c r="T1" s="10" t="inlineStr">
-        <is>
-          <t>actual_saves</t>
-        </is>
-      </c>
-      <c r="U1" s="9" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="V1" s="10" t="inlineStr">
-        <is>
-          <t>profit_loss</t>
-        </is>
-      </c>
-      <c r="W1" s="9" t="inlineStr">
-        <is>
-          <t>notes</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>2025020794</v>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>Schmid</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>-114</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>-108</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>8481033</v>
-      </c>
-      <c r="I2" s="5" t="inlineStr">
-        <is>
-          <t>VGK</t>
-        </is>
-      </c>
-      <c r="J2" s="5" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3" t="n">
-        <v>21.70000076293945</v>
-      </c>
-      <c r="M2" s="3" t="n">
-        <v>0.5335663557052612</v>
-      </c>
-      <c r="N2" s="3" t="n">
-        <v>6.713271141052246</v>
-      </c>
-      <c r="O2" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P2" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q2" s="3" t="n">
-        <v>0.0008561015129089999</v>
-      </c>
-      <c r="R2" s="2" t="n"/>
-      <c r="S2" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="U2" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="5" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>2025020794</v>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>Korpisalo</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>-114</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>-108</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>8476914</v>
-      </c>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>VGK</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>24.29999923706055</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>0.4615394473075867</v>
-      </c>
-      <c r="N3" s="3" t="n">
-        <v>7.692110538482666</v>
-      </c>
-      <c r="O3" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P3" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q3" s="3" t="n">
-        <v>0.019229769706726</v>
-      </c>
-      <c r="R3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="5" t="inlineStr">
-        <is>
-          <t>UNDER</t>
-        </is>
-      </c>
-      <c r="T3" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="U3" s="5" t="inlineStr">
-        <is>
-          <t>LOSS</t>
-        </is>
-      </c>
-      <c r="V3" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W3" s="5" t="n"/>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>2025020796</v>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>Knight</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>-122</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>8481519</v>
-      </c>
-      <c r="I4" s="5" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="J4" s="5" t="inlineStr">
-        <is>
-          <t>CAR</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3" t="n">
-        <v>28.29999923706055</v>
-      </c>
-      <c r="M4" s="3" t="n">
-        <v>0.4651559293270111</v>
-      </c>
-      <c r="N4" s="3" t="n">
-        <v>6.968813896179199</v>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q4" s="3" t="n">
-        <v>0.0065421462059021</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" s="5" t="inlineStr">
-        <is>
-          <t>UNDER</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="U4" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="5" t="n"/>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>2025020797</v>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>Greaves</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>-114</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>-108</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>8482982</v>
-      </c>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
-          <t>CBJ</t>
-        </is>
-      </c>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="n">
-        <v>23.70000076293945</v>
-      </c>
-      <c r="M5" s="3" t="n">
-        <v>0.5321161150932312</v>
-      </c>
-      <c r="N5" s="3" t="n">
-        <v>6.42322301864624</v>
-      </c>
-      <c r="O5" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P5" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q5" s="3" t="n">
-        <v>-0.0005941390991210938</v>
-      </c>
-      <c r="R5" s="2" t="n"/>
-      <c r="S5" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="U5" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="5" t="n"/>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>2025020797</v>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>DeSmith</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>-105</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>-118</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>8479193</v>
-      </c>
-      <c r="I6" s="5" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="J6" s="5" t="inlineStr">
-        <is>
-          <t>CBJ</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M6" s="3" t="n">
-        <v>0.4942755997180939</v>
-      </c>
-      <c r="N6" s="3" t="n">
-        <v>1.144880056381226</v>
-      </c>
-      <c r="O6" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P6" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q6" s="3" t="n">
-        <v>-0.01791951060295105</v>
-      </c>
-      <c r="R6" s="2" t="n"/>
-      <c r="S6" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T6" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="U6" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="5" t="n"/>
-    </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>2025020799</v>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>Hellebuyck</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>101</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>-124</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>8476945</v>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>WPG</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
-          <t>FLA</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M7" s="3" t="n">
-        <v>0.4948709011077881</v>
-      </c>
-      <c r="N7" s="3" t="n">
-        <v>1.025819778442383</v>
-      </c>
-      <c r="O7" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P7" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q7" s="3" t="n">
-        <v>0.002260059118270874</v>
-      </c>
-      <c r="R7" s="2" t="n"/>
-      <c r="S7" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T7" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="U7" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="5" t="n"/>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>2025020799</v>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>Tarasov</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>-103</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>-120</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>8480193</v>
-      </c>
-      <c r="I8" s="5" t="inlineStr">
-        <is>
-          <t>FLA</t>
-        </is>
-      </c>
-      <c r="J8" s="5" t="inlineStr">
-        <is>
-          <t>WPG</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="n">
-        <v>22.60000038146973</v>
-      </c>
-      <c r="M8" s="3" t="n">
-        <v>0.5288675427436829</v>
-      </c>
-      <c r="N8" s="3" t="n">
-        <v>5.773508548736572</v>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>OVER</t>
-        </is>
-      </c>
-      <c r="Q8" s="3" t="n">
-        <v>0.021478354930878</v>
-      </c>
-      <c r="R8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" s="5" t="inlineStr">
-        <is>
-          <t>OVER</t>
-        </is>
-      </c>
-      <c r="T8" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="U8" s="5" t="inlineStr">
-        <is>
-          <t>LOSS</t>
-        </is>
-      </c>
-      <c r="V8" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W8" s="5" t="n"/>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>2025020798</v>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>Saros</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>-122</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>8477424</v>
-      </c>
-      <c r="I9" s="5" t="inlineStr">
-        <is>
-          <t>NSH</t>
-        </is>
-      </c>
-      <c r="J9" s="5" t="inlineStr">
-        <is>
-          <t>OTT</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="3" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="M9" s="3" t="n">
-        <v>0.5046124458312988</v>
-      </c>
-      <c r="N9" s="3" t="n">
-        <v>0.9224891662597656</v>
-      </c>
-      <c r="O9" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P9" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q9" s="3" t="n">
-        <v>-0.004612445831298828</v>
-      </c>
-      <c r="R9" s="2" t="n"/>
-      <c r="S9" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T9" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="U9" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="5" t="n"/>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>2025020798</v>
-      </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>Reimer</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>-108</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>-114</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>8473503</v>
-      </c>
-      <c r="I10" s="5" t="inlineStr">
-        <is>
-          <t>OTT</t>
-        </is>
-      </c>
-      <c r="J10" s="5" t="inlineStr">
-        <is>
-          <t>NSH</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="n">
-        <v>23.60000038146973</v>
-      </c>
-      <c r="M10" s="3" t="n">
-        <v>0.5181494951248169</v>
-      </c>
-      <c r="N10" s="3" t="n">
-        <v>3.629899024963379</v>
-      </c>
-      <c r="O10" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P10" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q10" s="3" t="n">
-        <v>-0.001081287860870361</v>
-      </c>
-      <c r="R10" s="2" t="n"/>
-      <c r="S10" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="U10" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="5" t="n"/>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>2025020800</v>
-      </c>
-      <c r="C11" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>Silovs</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>-110</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>-112</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>8481668</v>
-      </c>
-      <c r="I11" s="5" t="inlineStr">
-        <is>
-          <t>PIT</t>
-        </is>
-      </c>
-      <c r="J11" s="5" t="inlineStr">
-        <is>
-          <t>EDM</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="M11" s="3" t="n">
-        <v>0.4908878803253174</v>
-      </c>
-      <c r="N11" s="3" t="n">
-        <v>1.822423934936523</v>
-      </c>
-      <c r="O11" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P11" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q11" s="3" t="n">
-        <v>-0.01918977499008179</v>
-      </c>
-      <c r="R11" s="2" t="n"/>
-      <c r="S11" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="U11" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" s="5" t="n"/>
-    </row>
-    <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>2025020800</v>
-      </c>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>Jarry</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>-107</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>-115</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>8477465</v>
-      </c>
-      <c r="I12" s="5" t="inlineStr">
-        <is>
-          <t>EDM</t>
-        </is>
-      </c>
-      <c r="J12" s="5" t="inlineStr">
-        <is>
-          <t>PIT</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="3" t="n">
-        <v>23.70000076293945</v>
-      </c>
-      <c r="M12" s="3" t="n">
-        <v>0.5327706933021545</v>
-      </c>
-      <c r="N12" s="3" t="n">
-        <v>6.554138660430908</v>
-      </c>
-      <c r="O12" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P12" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q12" s="3" t="n">
-        <v>0.015862464904785</v>
-      </c>
-      <c r="R12" s="2" t="n"/>
-      <c r="S12" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T12" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="U12" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" s="5" t="n"/>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>2025020801</v>
-      </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>Talbot</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>101</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>-124</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>8475660</v>
-      </c>
-      <c r="I13" s="5" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="J13" s="5" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3" t="n">
-        <v>25.39999961853027</v>
-      </c>
-      <c r="M13" s="3" t="n">
-        <v>0.4863932132720947</v>
-      </c>
-      <c r="N13" s="3" t="n">
-        <v>2.721357345581055</v>
-      </c>
-      <c r="O13" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P13" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q13" s="3" t="n">
-        <v>-0.02099597454071045</v>
-      </c>
-      <c r="R13" s="2" t="n"/>
-      <c r="S13" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T13" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="U13" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" s="5" t="n"/>
-    </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>2025020801</v>
-      </c>
-      <c r="C14" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>Gustavsson</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>101</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>-124</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>8479406</v>
-      </c>
-      <c r="I14" s="5" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="J14" s="5" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="3" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="M14" s="3" t="n">
-        <v>0.5013213753700256</v>
-      </c>
-      <c r="N14" s="3" t="n">
-        <v>0.264275074005127</v>
-      </c>
-      <c r="O14" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P14" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q14" s="3" t="n">
-        <v>0.003808945417404175</v>
-      </c>
-      <c r="R14" s="2" t="n"/>
-      <c r="S14" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T14" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="U14" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" s="5" t="n"/>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>2025020795</v>
-      </c>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>Montembeault</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>-112</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>-110</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>8478470</v>
-      </c>
-      <c r="I15" s="5" t="inlineStr">
-        <is>
-          <t>MTL</t>
-        </is>
-      </c>
-      <c r="J15" s="5" t="inlineStr">
-        <is>
-          <t>BUF</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" s="3" t="n">
-        <v>22.70000076293945</v>
-      </c>
-      <c r="M15" s="3" t="n">
-        <v>0.5358108878135681</v>
-      </c>
-      <c r="N15" s="3" t="n">
-        <v>7.162177562713623</v>
-      </c>
-      <c r="O15" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P15" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q15" s="3" t="n">
-        <v>0.007508993148803711</v>
-      </c>
-      <c r="R15" s="2" t="n"/>
-      <c r="S15" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="U15" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" s="5" t="n"/>
-    </row>
-    <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>2025020795</v>
-      </c>
-      <c r="C16" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>Luukkonen</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>-112</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>-110</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>8480045</v>
-      </c>
-      <c r="I16" s="5" t="inlineStr">
-        <is>
-          <t>BUF</t>
-        </is>
-      </c>
-      <c r="J16" s="5" t="inlineStr">
-        <is>
-          <t>MTL</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3" t="n">
-        <v>24.39999961853027</v>
-      </c>
-      <c r="M16" s="3" t="n">
-        <v>0.4757562279701233</v>
-      </c>
-      <c r="N16" s="3" t="n">
-        <v>4.848754405975342</v>
-      </c>
-      <c r="O16" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P16" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q16" s="3" t="n">
-        <v>0.0004342198371887207</v>
-      </c>
-      <c r="R16" s="2" t="n"/>
-      <c r="S16" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T16" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="U16" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" s="5" t="n"/>
-    </row>
-    <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>2025020796</v>
-      </c>
-      <c r="C17" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>Andersen</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>-103</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>-120</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>8475883</v>
-      </c>
-      <c r="I17" s="5" t="inlineStr">
-        <is>
-          <t>CAR</t>
-        </is>
-      </c>
-      <c r="J17" s="5" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" s="3" t="n">
-        <v>19.70000076293945</v>
-      </c>
-      <c r="M17" s="3" t="n">
-        <v>0.5309252142906189</v>
-      </c>
-      <c r="N17" s="3" t="n">
-        <v>6.185042858123779</v>
-      </c>
-      <c r="O17" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P17" s="5" t="inlineStr">
-        <is>
-          <t>OVER</t>
-        </is>
-      </c>
-      <c r="Q17" s="3" t="n">
-        <v>0.03587570786476135</v>
-      </c>
-      <c r="R17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S17" s="5" t="inlineStr">
-        <is>
-          <t>OVER</t>
-        </is>
-      </c>
-      <c r="T17" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="U17" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" s="5" t="n"/>
-    </row>
-    <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>2025020796</v>
-      </c>
-      <c r="C18" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>Knight</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>-112</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>-112</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>8481519</v>
-      </c>
-      <c r="I18" s="5" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="J18" s="5" t="inlineStr">
-        <is>
-          <t>CAR</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3" t="n">
-        <v>28.29999923706055</v>
-      </c>
-      <c r="M18" s="3" t="n">
-        <v>0.4651559293270111</v>
-      </c>
-      <c r="N18" s="3" t="n">
-        <v>6.968813896179199</v>
-      </c>
-      <c r="O18" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P18" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q18" s="3" t="n">
-        <v>0.0065421462059021</v>
-      </c>
-      <c r="R18" s="2" t="n"/>
-      <c r="S18" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T18" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="U18" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" s="5" t="n"/>
-    </row>
-    <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>2025020796</v>
-      </c>
-      <c r="C19" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>Andersen</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>102</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>-125</v>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>8475883</v>
-      </c>
-      <c r="I19" s="5" t="inlineStr">
-        <is>
-          <t>CAR</t>
-        </is>
-      </c>
-      <c r="J19" s="5" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="3" t="n">
-        <v>19.70000076293945</v>
-      </c>
-      <c r="M19" s="3" t="n">
-        <v>0.5309252142906189</v>
-      </c>
-      <c r="N19" s="3" t="n">
-        <v>6.185042858123779</v>
-      </c>
-      <c r="O19" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P19" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q19" s="3" t="n">
-        <v>0.03587570786476135</v>
-      </c>
-      <c r="R19" s="2" t="n"/>
-      <c r="S19" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T19" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="U19" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" s="5" t="n"/>
-    </row>
-    <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>2025020799</v>
-      </c>
-      <c r="C20" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
-          <t>Hellebuyck</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>103</v>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>-124</v>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>8476945</v>
-      </c>
-      <c r="I20" s="5" t="inlineStr">
-        <is>
-          <t>WPG</t>
-        </is>
-      </c>
-      <c r="J20" s="5" t="inlineStr">
-        <is>
-          <t>FLA</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="3" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M20" s="3" t="n">
-        <v>0.4948709011077881</v>
-      </c>
-      <c r="N20" s="3" t="n">
-        <v>1.025819778442383</v>
-      </c>
-      <c r="O20" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P20" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q20" s="3" t="n">
-        <v>0.002260059118270874</v>
-      </c>
-      <c r="R20" s="2" t="n"/>
-      <c r="S20" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T20" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="U20" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" s="5" t="n"/>
-    </row>
-    <row r="21" ht="18.75" customHeight="1">
-      <c r="A21" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>2025020799</v>
-      </c>
-      <c r="C21" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>Hellebuyck</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>103</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>-124</v>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>8476945</v>
-      </c>
-      <c r="I21" s="5" t="inlineStr">
-        <is>
-          <t>WPG</t>
-        </is>
-      </c>
-      <c r="J21" s="5" t="inlineStr">
-        <is>
-          <t>FLA</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="3" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M21" s="3" t="n">
-        <v>0.4948709011077881</v>
-      </c>
-      <c r="N21" s="3" t="n">
-        <v>1.025819778442383</v>
-      </c>
-      <c r="O21" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P21" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q21" s="3" t="n">
-        <v>0.002260059118270874</v>
-      </c>
-      <c r="R21" s="2" t="n"/>
-      <c r="S21" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="U21" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" s="5" t="n"/>
-    </row>
-    <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>2025020799</v>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D22" s="5" t="inlineStr">
-        <is>
-          <t>Hellebuyck</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>103</v>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>-124</v>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>8476945</v>
-      </c>
-      <c r="I22" s="5" t="inlineStr">
-        <is>
-          <t>WPG</t>
-        </is>
-      </c>
-      <c r="J22" s="5" t="inlineStr">
-        <is>
-          <t>FLA</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" s="3" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M22" s="3" t="n">
-        <v>0.4948709011077881</v>
-      </c>
-      <c r="N22" s="3" t="n">
-        <v>1.025819778442383</v>
-      </c>
-      <c r="O22" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P22" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q22" s="3" t="n">
-        <v>0.002260059118270874</v>
-      </c>
-      <c r="R22" s="2" t="n"/>
-      <c r="S22" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T22" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="U22" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" s="5" t="n"/>
-    </row>
-    <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>2025020798</v>
-      </c>
-      <c r="C23" s="5" t="inlineStr">
-        <is>
-          <t>PrizePicks</t>
-        </is>
-      </c>
-      <c r="D23" s="5" t="inlineStr">
-        <is>
-          <t>Saros</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>-120</v>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>-120</v>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>8477424</v>
-      </c>
-      <c r="I23" s="5" t="inlineStr">
-        <is>
-          <t>NSH</t>
-        </is>
-      </c>
-      <c r="J23" s="5" t="inlineStr">
-        <is>
-          <t>OTT</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="M23" s="3" t="n">
-        <v>0.5045216679573059</v>
-      </c>
-      <c r="N23" s="3" t="n">
-        <v>0.9043335914611816</v>
-      </c>
-      <c r="O23" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P23" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q23" s="3" t="n">
-        <v>-0.04093289375305176</v>
-      </c>
-      <c r="R23" s="2" t="n"/>
-      <c r="S23" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T23" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="U23" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" s="5" t="n"/>
-    </row>
-    <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>2025020798</v>
-      </c>
-      <c r="C24" s="5" t="inlineStr">
-        <is>
-          <t>PrizePicks</t>
-        </is>
-      </c>
-      <c r="D24" s="5" t="inlineStr">
-        <is>
-          <t>Reimer</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>-120</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>-120</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>8473503</v>
-      </c>
-      <c r="I24" s="5" t="inlineStr">
-        <is>
-          <t>OTT</t>
-        </is>
-      </c>
-      <c r="J24" s="5" t="inlineStr">
-        <is>
-          <t>NSH</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="n">
-        <v>23.60000038146973</v>
-      </c>
-      <c r="M24" s="3" t="n">
-        <v>0.5181494951248169</v>
-      </c>
-      <c r="N24" s="3" t="n">
-        <v>3.629899024963379</v>
-      </c>
-      <c r="O24" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P24" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q24" s="3" t="n">
-        <v>-0.02730506658554077</v>
-      </c>
-      <c r="R24" s="2" t="n"/>
-      <c r="S24" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T24" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="U24" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" s="5" t="n"/>
-    </row>
-    <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>2025020799</v>
-      </c>
-      <c r="C25" s="5" t="inlineStr">
-        <is>
-          <t>PrizePicks</t>
-        </is>
-      </c>
-      <c r="D25" s="5" t="inlineStr">
-        <is>
-          <t>Hellebuyck</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>-120</v>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>-120</v>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>8476945</v>
-      </c>
-      <c r="I25" s="5" t="inlineStr">
-        <is>
-          <t>WPG</t>
-        </is>
-      </c>
-      <c r="J25" s="5" t="inlineStr">
-        <is>
-          <t>FLA</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="M25" s="3" t="n">
-        <v>0.4971076548099518</v>
-      </c>
-      <c r="N25" s="3" t="n">
-        <v>0.5784690380096436</v>
-      </c>
-      <c r="O25" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P25" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q25" s="3" t="n">
-        <v>-0.04256218671798706</v>
-      </c>
-      <c r="R25" s="2" t="n"/>
-      <c r="S25" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T25" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="U25" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" s="5" t="n"/>
-    </row>
-    <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>2025020799</v>
-      </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>PrizePicks</t>
-        </is>
-      </c>
-      <c r="D26" s="5" t="inlineStr">
-        <is>
-          <t>Tarasov</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>-120</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>-120</v>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>8480193</v>
-      </c>
-      <c r="I26" s="5" t="inlineStr">
-        <is>
-          <t>FLA</t>
-        </is>
-      </c>
-      <c r="J26" s="5" t="inlineStr">
-        <is>
-          <t>WPG</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3" t="n">
-        <v>22.60000038146973</v>
-      </c>
-      <c r="M26" s="3" t="n">
-        <v>0.5288675427436829</v>
-      </c>
-      <c r="N26" s="3" t="n">
-        <v>5.773508548736572</v>
-      </c>
-      <c r="O26" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P26" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q26" s="3" t="n">
-        <v>-0.0165870189666748</v>
-      </c>
-      <c r="R26" s="2" t="n"/>
-      <c r="S26" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T26" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="U26" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" s="5" t="n"/>
-    </row>
-    <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>2025020800</v>
-      </c>
-      <c r="C27" s="5" t="inlineStr">
-        <is>
-          <t>PrizePicks</t>
-        </is>
-      </c>
-      <c r="D27" s="5" t="inlineStr">
-        <is>
-          <t>Silovs</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>-120</v>
-      </c>
-      <c r="G27" s="2" t="n">
-        <v>-120</v>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>8481668</v>
-      </c>
-      <c r="I27" s="5" t="inlineStr">
-        <is>
-          <t>PIT</t>
-        </is>
-      </c>
-      <c r="J27" s="5" t="inlineStr">
-        <is>
-          <t>EDM</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="M27" s="3" t="n">
-        <v>0.4908878803253174</v>
-      </c>
-      <c r="N27" s="3" t="n">
-        <v>1.822423934936523</v>
-      </c>
-      <c r="O27" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P27" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q27" s="3" t="n">
-        <v>-0.03634244203567505</v>
-      </c>
-      <c r="R27" s="2" t="n"/>
-      <c r="S27" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T27" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="U27" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" s="5" t="n"/>
-    </row>
-    <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>2025020800</v>
-      </c>
-      <c r="C28" s="5" t="inlineStr">
-        <is>
-          <t>PrizePicks</t>
-        </is>
-      </c>
-      <c r="D28" s="5" t="inlineStr">
-        <is>
-          <t>Jarry</t>
-        </is>
-      </c>
-      <c r="E28" s="3" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>-120</v>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>-120</v>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>8477465</v>
-      </c>
-      <c r="I28" s="5" t="inlineStr">
-        <is>
-          <t>EDM</t>
-        </is>
-      </c>
-      <c r="J28" s="5" t="inlineStr">
-        <is>
-          <t>PIT</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" s="3" t="n">
-        <v>23.70000076293945</v>
-      </c>
-      <c r="M28" s="3" t="n">
-        <v>0.5327706933021545</v>
-      </c>
-      <c r="N28" s="3" t="n">
-        <v>6.554138660430908</v>
-      </c>
-      <c r="O28" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P28" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q28" s="3" t="n">
-        <v>-0.01268386840820312</v>
-      </c>
-      <c r="R28" s="2" t="n"/>
-      <c r="S28" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T28" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="U28" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" s="5" t="n"/>
-    </row>
-    <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>2025020801</v>
-      </c>
-      <c r="C29" s="5" t="inlineStr">
-        <is>
-          <t>PrizePicks</t>
-        </is>
-      </c>
-      <c r="D29" s="5" t="inlineStr">
-        <is>
-          <t>Talbot</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="F29" s="2" t="n">
-        <v>-120</v>
-      </c>
-      <c r="G29" s="2" t="n">
-        <v>-120</v>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>8475660</v>
-      </c>
-      <c r="I29" s="5" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="J29" s="5" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="n">
-        <v>24.89999961853027</v>
-      </c>
-      <c r="M29" s="3" t="n">
-        <v>0.4886287450790405</v>
-      </c>
-      <c r="N29" s="3" t="n">
-        <v>2.274250984191895</v>
-      </c>
-      <c r="O29" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P29" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q29" s="3" t="n">
-        <v>-0.03408330678939819</v>
-      </c>
-      <c r="R29" s="2" t="n"/>
-      <c r="S29" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T29" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="U29" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" s="5" t="n"/>
-    </row>
-    <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>2025020801</v>
-      </c>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>PrizePicks</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="inlineStr">
-        <is>
-          <t>Gustavsson</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="F30" s="2" t="n">
-        <v>-120</v>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>-120</v>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>8479406</v>
-      </c>
-      <c r="I30" s="5" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="J30" s="5" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="M30" s="3" t="n">
-        <v>0.5077030658721924</v>
-      </c>
-      <c r="N30" s="3" t="n">
-        <v>1.540613174438477</v>
-      </c>
-      <c r="O30" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P30" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q30" s="3" t="n">
-        <v>-0.03775149583816528</v>
-      </c>
-      <c r="R30" s="2" t="n"/>
-      <c r="S30" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T30" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="U30" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" s="5" t="n"/>
-    </row>
-    <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" s="5" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>2025020801</v>
-      </c>
-      <c r="C31" s="5" t="inlineStr">
-        <is>
-          <t>Underdog</t>
-        </is>
-      </c>
-      <c r="D31" s="5" t="inlineStr">
-        <is>
-          <t>Talbot</t>
-        </is>
-      </c>
-      <c r="E31" s="3" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F31" s="2" t="n">
-        <v>-103</v>
-      </c>
-      <c r="G31" s="2" t="n">
-        <v>-124</v>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>8475660</v>
-      </c>
-      <c r="I31" s="5" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="J31" s="5" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="3" t="n">
-        <v>25.39999961853027</v>
-      </c>
-      <c r="M31" s="3" t="n">
-        <v>0.4863932132720947</v>
-      </c>
-      <c r="N31" s="3" t="n">
-        <v>2.721357345581055</v>
-      </c>
-      <c r="O31" s="5" t="inlineStr">
-        <is>
-          <t>50-55%</t>
-        </is>
-      </c>
-      <c r="P31" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="Q31" s="3" t="n">
-        <v>-0.02099597454071045</v>
-      </c>
-      <c r="R31" s="2" t="n"/>
-      <c r="S31" s="5" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="T31" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="U31" s="5" t="inlineStr">
-        <is>
-          <t>NO BET</t>
-        </is>
-      </c>
-      <c r="V31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" s="5" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -16059,7 +16059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16491,6 +16491,391 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2025020853</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Gustavsson</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-110</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-112</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8479406</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CGY</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.4979816079139709</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.4036784172058105</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.02582794427871704</v>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2025020845</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Dobes</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8482487</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>COL</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>25.39999961853027</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.4731991291046143</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.360174179077148</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.01865369081497192</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2025020849</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Quick</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8471734</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>NYR</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>NYI</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.5146973133087158</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.939462661743164</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.03075724840164185</v>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2025020849</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Sorokin</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8478009</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>NYI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>NYR</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.5354784727096558</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7.095694541931152</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.009976089000701904</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2025020846</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Gibson</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8476434</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>WSH</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.5145837068557739</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.916741371154785</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.03087085485458374</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -16059,7 +16059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16876,6 +16876,468 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2025020851</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Bussi</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-103</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-121</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8483548</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>21.60000038146973</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.5193274617195129</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.865492343902588</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.01193827390670776</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2025020844</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-121</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-103</v>
+      </c>
+      <c r="H12" t="n">
+        <v>8479312</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>BUF</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>LAK</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.5175476670265198</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.509533405303955</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.02493685483932495</v>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2025020848</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Markstrom</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-121</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-102</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8474593</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>NJD</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>NSH</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.5345504283905029</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6.910085678100586</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.01296091079711914</v>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2025020853</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Gustavsson</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8479406</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>CGY</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.4979816079139709</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.4036784172058105</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>-0.04343616962432861</v>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2025020849</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>BetOnline</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Quick</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-119</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-109</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8471734</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>NYR</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>NYI</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.5146973133087158</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.939462661743164</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>-0.02868169546127319</v>
+      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2025020849</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>BetOnline</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Sorokin</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-125</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-103</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8478009</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>NYI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>NYR</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.5354784727096558</v>
+      </c>
+      <c r="N16" t="n">
+        <v>7.095694541931152</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>-0.02007710933685303</v>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -16059,7 +16059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17338,6 +17338,314 @@
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2025020843</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Underdog</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Swayman</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-114</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-108</v>
+      </c>
+      <c r="H17" t="n">
+        <v>8480280</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.5322672128677368</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.453442573547363</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>-0.0004430413246154785</v>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2025020848</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Markstrom</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H18" t="n">
+        <v>8474593</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>NJD</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>NSH</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.5345504283905029</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.910085678100586</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.01090413331985474</v>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2025020851</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Bussi</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H19" t="n">
+        <v>8483548</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>21.60000038146973</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.5193274617195129</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.865492343902588</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>-0.02612709999084473</v>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2025020844</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>PrizePicks</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-120</v>
+      </c>
+      <c r="H20" t="n">
+        <v>8479312</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>BUF</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>LAK</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.5175476670265198</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.509533405303955</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>50-55%</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>NO BET</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>-0.02790689468383789</v>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/betting_tracker.xlsx
+++ b/betting_tracker.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4667" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4835" uniqueCount="235">
   <si>
     <t>game_date</t>
   </si>
@@ -622,6 +622,9 @@
     <t>Tolopilo</t>
   </si>
   <si>
+    <t>Annunen</t>
+  </si>
+  <si>
     <t>BETTING TRACKER SETTINGS</t>
   </si>
   <si>
@@ -875,12 +878,6 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -890,8 +887,11 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -901,6 +901,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1230,11 +1233,11 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="A1" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
       <c r="D1" s="22"/>
       <c r="E1" s="2"/>
     </row>
@@ -1247,10 +1250,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1265,7 +1268,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1281,7 +1284,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B7" s="2">
         <v>39</v>
@@ -1292,7 +1295,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B8" s="2">
         <v>19</v>
@@ -1303,7 +1306,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B9" s="2">
         <v>20</v>
@@ -1314,7 +1317,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -1325,10 +1328,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1336,7 +1339,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B12" s="2">
         <v>-0.45</v>
@@ -1347,10 +1350,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1372,7 +1375,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1380,20 +1383,20 @@
       <c r="E16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="21" t="s">
-        <v>223</v>
+      <c r="A17" s="20" t="s">
+        <v>224</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>217</v>
+        <v>215</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>218</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
@@ -1407,10 +1410,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
@@ -1424,15 +1427,15 @@
         <v>2</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -1441,32 +1444,32 @@
         <v>0</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="B21" s="2">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>230</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -1475,15 +1478,15 @@
         <v>0</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -1492,10 +1495,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -13173,8 +13176,8 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="20" t="s">
-        <v>196</v>
+      <c r="A1" s="19" t="s">
+        <v>197</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -13183,16 +13186,16 @@
       <c r="B2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="21" t="s">
-        <v>197</v>
+      <c r="A3" s="20" t="s">
+        <v>198</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -13200,7 +13203,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B5" s="2">
         <v>55</v>
@@ -13208,7 +13211,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B6" s="2">
         <v>65</v>
@@ -13216,7 +13219,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -13228,15 +13231,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B10" s="2">
         <v>-110</v>
@@ -13248,15 +13251,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B13" s="2">
         <v>89</v>
@@ -13272,7 +13275,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:W83"/>
+  <dimension ref="A1:W104"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -13295,7 +13298,7 @@
     <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="19" max="19" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -13304,73 +13307,73 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -13387,7 +13390,7 @@
       <c r="D2" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="16">
         <v>25.5</v>
       </c>
       <c r="F2" s="12">
@@ -13408,13 +13411,13 @@
       <c r="K2" s="12">
         <v>1</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="16">
         <v>25.39999961853027</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="16">
         <v>0.4731991291046143</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="16">
         <v>5.360174179077148</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -13423,10 +13426,10 @@
       <c r="P2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="Q2" s="16">
         <v>-0.005909383296966553</v>
       </c>
-      <c r="R2" s="1"/>
+      <c r="R2" s="17"/>
       <c r="S2" s="1" t="s">
         <v>30</v>
       </c>
@@ -13448,7 +13451,7 @@
       <c r="D3" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="16">
         <v>23.5</v>
       </c>
       <c r="F3" s="12">
@@ -13469,13 +13472,13 @@
       <c r="K3" s="12">
         <v>1</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="16">
         <v>23.60000038146973</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="16">
         <v>0.5146973133087158</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="16">
         <v>2.939462661743164</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -13484,10 +13487,10 @@
       <c r="P3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="16">
         <v>-0.02018642425537109</v>
       </c>
-      <c r="R3" s="1"/>
+      <c r="R3" s="17"/>
       <c r="S3" s="1" t="s">
         <v>30</v>
       </c>
@@ -13509,7 +13512,7 @@
       <c r="D4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="16">
         <v>22.5</v>
       </c>
       <c r="F4" s="12">
@@ -13530,13 +13533,13 @@
       <c r="K4" s="12">
         <v>0</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="16">
         <v>22.70000076293945</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="16">
         <v>0.5354784727096558</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="16">
         <v>7.095694541931152</v>
       </c>
       <c r="O4" s="1" t="s">
@@ -13545,10 +13548,10 @@
       <c r="P4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="16">
         <v>-0.01407104730606079</v>
       </c>
-      <c r="R4" s="1"/>
+      <c r="R4" s="17"/>
       <c r="S4" s="1" t="s">
         <v>30</v>
       </c>
@@ -13570,7 +13573,7 @@
       <c r="D5" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="16">
         <v>23.5</v>
       </c>
       <c r="F5" s="12">
@@ -13591,13 +13594,13 @@
       <c r="K5" s="12">
         <v>1</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="16">
         <v>23.60000038146973</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="16">
         <v>0.5145837068557739</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="16">
         <v>2.916741371154785</v>
       </c>
       <c r="O5" s="1" t="s">
@@ -13606,10 +13609,10 @@
       <c r="P5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="16">
         <v>-0.01953423023223877</v>
       </c>
-      <c r="R5" s="1"/>
+      <c r="R5" s="17"/>
       <c r="S5" s="1" t="s">
         <v>30</v>
       </c>
@@ -13631,7 +13634,7 @@
       <c r="D6" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="16">
         <v>24.5</v>
       </c>
       <c r="F6" s="12">
@@ -13652,13 +13655,13 @@
       <c r="K6" s="12">
         <v>1</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="16">
         <v>24.5</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="16">
         <v>0.4979816079139709</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="16">
         <v>0.4036784172058105</v>
       </c>
       <c r="O6" s="1" t="s">
@@ -13667,10 +13670,10 @@
       <c r="P6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="16">
         <v>-0.02582794427871704</v>
       </c>
-      <c r="R6" s="1"/>
+      <c r="R6" s="17"/>
       <c r="S6" s="1" t="s">
         <v>30</v>
       </c>
@@ -13692,7 +13695,7 @@
       <c r="D7" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="16">
         <v>25.5</v>
       </c>
       <c r="F7" s="12">
@@ -13713,13 +13716,13 @@
       <c r="K7" s="12">
         <v>1</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="16">
         <v>25.39999961853027</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="16">
         <v>0.4731991291046143</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="16">
         <v>5.360174179077148</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -13728,10 +13731,10 @@
       <c r="P7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="16">
         <v>-0.01865369081497192</v>
       </c>
-      <c r="R7" s="1"/>
+      <c r="R7" s="17"/>
       <c r="S7" s="1" t="s">
         <v>30</v>
       </c>
@@ -13753,7 +13756,7 @@
       <c r="D8" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="16">
         <v>23.5</v>
       </c>
       <c r="F8" s="12">
@@ -13774,13 +13777,13 @@
       <c r="K8" s="12">
         <v>1</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="16">
         <v>23.60000038146973</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="16">
         <v>0.5146973133087158</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="16">
         <v>2.939462661743164</v>
       </c>
       <c r="O8" s="1" t="s">
@@ -13789,10 +13792,10 @@
       <c r="P8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="16">
         <v>-0.03075724840164185</v>
       </c>
-      <c r="R8" s="1"/>
+      <c r="R8" s="17"/>
       <c r="S8" s="1" t="s">
         <v>30</v>
       </c>
@@ -13814,7 +13817,7 @@
       <c r="D9" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="16">
         <v>22.5</v>
       </c>
       <c r="F9" s="12">
@@ -13835,13 +13838,13 @@
       <c r="K9" s="12">
         <v>0</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="16">
         <v>22.70000076293945</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="16">
         <v>0.5354784727096558</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="16">
         <v>7.095694541931152</v>
       </c>
       <c r="O9" s="1" t="s">
@@ -13850,10 +13853,10 @@
       <c r="P9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="16">
         <v>-0.009976089000701904</v>
       </c>
-      <c r="R9" s="1"/>
+      <c r="R9" s="17"/>
       <c r="S9" s="1" t="s">
         <v>30</v>
       </c>
@@ -13875,7 +13878,7 @@
       <c r="D10" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="16">
         <v>23.5</v>
       </c>
       <c r="F10" s="12">
@@ -13896,13 +13899,13 @@
       <c r="K10" s="12">
         <v>1</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="16">
         <v>23.60000038146973</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="16">
         <v>0.5145837068557739</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="16">
         <v>2.916741371154785</v>
       </c>
       <c r="O10" s="1" t="s">
@@ -13911,10 +13914,10 @@
       <c r="P10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="16">
         <v>-0.03087085485458374</v>
       </c>
-      <c r="R10" s="1"/>
+      <c r="R10" s="17"/>
       <c r="S10" s="1" t="s">
         <v>30</v>
       </c>
@@ -13936,7 +13939,7 @@
       <c r="D11" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="16">
         <v>21.5</v>
       </c>
       <c r="F11" s="12">
@@ -13957,13 +13960,13 @@
       <c r="K11" s="12">
         <v>1</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="16">
         <v>21.60000038146973</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="16">
         <v>0.5193274617195129</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="16">
         <v>3.865492343902588</v>
       </c>
       <c r="O11" s="1" t="s">
@@ -13972,10 +13975,10 @@
       <c r="P11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="16">
         <v>0.01193827390670776</v>
       </c>
-      <c r="R11" s="1"/>
+      <c r="R11" s="17"/>
       <c r="S11" s="1" t="s">
         <v>30</v>
       </c>
@@ -13997,7 +14000,7 @@
       <c r="D12" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="16">
         <v>23.5</v>
       </c>
       <c r="F12" s="12">
@@ -14018,13 +14021,13 @@
       <c r="K12" s="12">
         <v>1</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="16">
         <v>23.60000038146973</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="16">
         <v>0.5175476670265198</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="16">
         <v>3.509533405303955</v>
       </c>
       <c r="O12" s="1" t="s">
@@ -14033,10 +14036,10 @@
       <c r="P12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="16">
         <v>-0.02493685483932495</v>
       </c>
-      <c r="R12" s="1"/>
+      <c r="R12" s="17"/>
       <c r="S12" s="1" t="s">
         <v>30</v>
       </c>
@@ -14058,7 +14061,7 @@
       <c r="D13" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="16">
         <v>22.5</v>
       </c>
       <c r="F13" s="12">
@@ -14079,13 +14082,13 @@
       <c r="K13" s="12">
         <v>1</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="16">
         <v>22.70000076293945</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="16">
         <v>0.5345504283905029</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="16">
         <v>6.910085678100586</v>
       </c>
       <c r="O13" s="1" t="s">
@@ -14094,10 +14097,10 @@
       <c r="P13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="16">
         <v>-0.01296091079711914</v>
       </c>
-      <c r="R13" s="1"/>
+      <c r="R13" s="17"/>
       <c r="S13" s="1" t="s">
         <v>30</v>
       </c>
@@ -14119,7 +14122,7 @@
       <c r="D14" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="16">
         <v>24.5</v>
       </c>
       <c r="F14" s="12">
@@ -14140,13 +14143,13 @@
       <c r="K14" s="12">
         <v>1</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="16">
         <v>24.5</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="16">
         <v>0.4979816079139709</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="16">
         <v>0.4036784172058105</v>
       </c>
       <c r="O14" s="1" t="s">
@@ -14155,10 +14158,10 @@
       <c r="P14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="Q14" s="16">
         <v>-0.04343616962432861</v>
       </c>
-      <c r="R14" s="1"/>
+      <c r="R14" s="17"/>
       <c r="S14" s="1" t="s">
         <v>30</v>
       </c>
@@ -14180,7 +14183,7 @@
       <c r="D15" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="16">
         <v>23.5</v>
       </c>
       <c r="F15" s="12">
@@ -14201,13 +14204,13 @@
       <c r="K15" s="12">
         <v>1</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="16">
         <v>23.60000038146973</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="16">
         <v>0.5146973133087158</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="16">
         <v>2.939462661743164</v>
       </c>
       <c r="O15" s="1" t="s">
@@ -14216,10 +14219,10 @@
       <c r="P15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="16">
         <v>-0.02868169546127319</v>
       </c>
-      <c r="R15" s="1"/>
+      <c r="R15" s="17"/>
       <c r="S15" s="1" t="s">
         <v>30</v>
       </c>
@@ -14241,7 +14244,7 @@
       <c r="D16" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="16">
         <v>22.5</v>
       </c>
       <c r="F16" s="12">
@@ -14262,13 +14265,13 @@
       <c r="K16" s="12">
         <v>0</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="16">
         <v>22.70000076293945</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="16">
         <v>0.5354784727096558</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="16">
         <v>7.095694541931152</v>
       </c>
       <c r="O16" s="1" t="s">
@@ -14277,10 +14280,10 @@
       <c r="P16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="16">
         <v>-0.02007710933685303</v>
       </c>
-      <c r="R16" s="1"/>
+      <c r="R16" s="17"/>
       <c r="S16" s="1" t="s">
         <v>30</v>
       </c>
@@ -14302,7 +14305,7 @@
       <c r="D17" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="16">
         <v>22.5</v>
       </c>
       <c r="F17" s="12">
@@ -14323,13 +14326,13 @@
       <c r="K17" s="12">
         <v>1</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="16">
         <v>22.70000076293945</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="16">
         <v>0.5322672128677368</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="16">
         <v>6.453442573547363</v>
       </c>
       <c r="O17" s="1" t="s">
@@ -14338,10 +14341,10 @@
       <c r="P17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="16">
         <v>-0.0004430413246154785</v>
       </c>
-      <c r="R17" s="1"/>
+      <c r="R17" s="17"/>
       <c r="S17" s="1" t="s">
         <v>30</v>
       </c>
@@ -14363,7 +14366,7 @@
       <c r="D18" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="16">
         <v>22.5</v>
       </c>
       <c r="F18" s="12">
@@ -14384,13 +14387,13 @@
       <c r="K18" s="12">
         <v>1</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="16">
         <v>22.70000076293945</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="16">
         <v>0.5345504283905029</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="16">
         <v>6.910085678100586</v>
       </c>
       <c r="O18" s="1" t="s">
@@ -14399,10 +14402,10 @@
       <c r="P18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="16">
         <v>-0.01090413331985474</v>
       </c>
-      <c r="R18" s="1"/>
+      <c r="R18" s="17"/>
       <c r="S18" s="1" t="s">
         <v>30</v>
       </c>
@@ -14424,7 +14427,7 @@
       <c r="D19" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="16">
         <v>21.5</v>
       </c>
       <c r="F19" s="12">
@@ -14445,13 +14448,13 @@
       <c r="K19" s="12">
         <v>1</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="16">
         <v>21.60000038146973</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="16">
         <v>0.5193274617195129</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="16">
         <v>3.865492343902588</v>
       </c>
       <c r="O19" s="1" t="s">
@@ -14460,10 +14463,10 @@
       <c r="P19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="Q19" s="16">
         <v>-0.02612709999084473</v>
       </c>
-      <c r="R19" s="1"/>
+      <c r="R19" s="17"/>
       <c r="S19" s="1" t="s">
         <v>30</v>
       </c>
@@ -14485,7 +14488,7 @@
       <c r="D20" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="16">
         <v>23.5</v>
       </c>
       <c r="F20" s="12">
@@ -14506,13 +14509,13 @@
       <c r="K20" s="12">
         <v>1</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="16">
         <v>23.60000038146973</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="16">
         <v>0.5175476670265198</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="16">
         <v>3.509533405303955</v>
       </c>
       <c r="O20" s="1" t="s">
@@ -14521,10 +14524,10 @@
       <c r="P20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q20" s="16">
         <v>-0.02790689468383789</v>
       </c>
-      <c r="R20" s="1"/>
+      <c r="R20" s="17"/>
       <c r="S20" s="1" t="s">
         <v>30</v>
       </c>
@@ -14546,7 +14549,7 @@
       <c r="D21" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="16">
         <v>23.5</v>
       </c>
       <c r="F21" s="12">
@@ -14567,13 +14570,13 @@
       <c r="K21" s="12">
         <v>0</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="16">
         <v>23.60000038146973</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="16">
         <v>0.5277119278907776</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="16">
         <v>5.542385578155518</v>
       </c>
       <c r="O21" s="1" t="s">
@@ -14582,10 +14585,10 @@
       <c r="P21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Q21" s="13">
+      <c r="Q21" s="16">
         <v>0.03266242146492004</v>
       </c>
-      <c r="R21" s="19">
+      <c r="R21" s="12">
         <v>1</v>
       </c>
       <c r="S21" s="1" t="s">
@@ -14609,7 +14612,7 @@
       <c r="D22" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="16">
         <v>25.5</v>
       </c>
       <c r="F22" s="12">
@@ -14630,13 +14633,13 @@
       <c r="K22" s="12">
         <v>1</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="16">
         <v>25.39999961853027</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="16">
         <v>0.4731991291046143</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="16">
         <v>5.360174179077148</v>
       </c>
       <c r="O22" s="1" t="s">
@@ -14645,12 +14648,14 @@
       <c r="P22" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="Q22" s="16">
         <v>0.0218503475189209</v>
       </c>
-      <c r="R22" s="1"/>
+      <c r="R22" s="17">
+        <v>1</v>
+      </c>
       <c r="S22" s="1" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
@@ -14670,7 +14675,7 @@
       <c r="D23" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="16">
         <v>23.5</v>
       </c>
       <c r="F23" s="12">
@@ -14691,13 +14696,13 @@
       <c r="K23" s="12">
         <v>0</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="16">
         <v>23.60000038146973</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M23" s="16">
         <v>0.5148442387580872</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N23" s="16">
         <v>2.968847751617432</v>
       </c>
       <c r="O23" s="1" t="s">
@@ -14706,10 +14711,10 @@
       <c r="P23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q23" s="13">
+      <c r="Q23" s="16">
         <v>0.002649128437042236</v>
       </c>
-      <c r="R23" s="1"/>
+      <c r="R23" s="17"/>
       <c r="S23" s="1" t="s">
         <v>30</v>
       </c>
@@ -14731,7 +14736,7 @@
       <c r="D24" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="16">
         <v>23.5</v>
       </c>
       <c r="F24" s="12">
@@ -14752,13 +14757,13 @@
       <c r="K24" s="12">
         <v>1</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="16">
         <v>23.60000038146973</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M24" s="16">
         <v>0.5146973133087158</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N24" s="16">
         <v>2.939462661743164</v>
       </c>
       <c r="O24" s="1" t="s">
@@ -14767,10 +14772,10 @@
       <c r="P24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q24" s="13">
+      <c r="Q24" s="16">
         <v>-0.01964783668518066</v>
       </c>
-      <c r="R24" s="1"/>
+      <c r="R24" s="17"/>
       <c r="S24" s="1" t="s">
         <v>30</v>
       </c>
@@ -14792,7 +14797,7 @@
       <c r="D25" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="16">
         <v>22.5</v>
       </c>
       <c r="F25" s="12">
@@ -14813,13 +14818,13 @@
       <c r="K25" s="12">
         <v>0</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="16">
         <v>22.60000038146973</v>
       </c>
-      <c r="M25" s="13">
+      <c r="M25" s="16">
         <v>0.5204097032546997</v>
       </c>
-      <c r="N25" s="13">
+      <c r="N25" s="16">
         <v>4.081940650939941</v>
       </c>
       <c r="O25" s="1" t="s">
@@ -14828,10 +14833,10 @@
       <c r="P25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q25" s="13">
+      <c r="Q25" s="16">
         <v>0.008214592933654785</v>
       </c>
-      <c r="R25" s="1"/>
+      <c r="R25" s="17"/>
       <c r="S25" s="1" t="s">
         <v>30</v>
       </c>
@@ -14853,7 +14858,7 @@
       <c r="D26" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="16">
         <v>22.5</v>
       </c>
       <c r="F26" s="12">
@@ -14874,13 +14879,13 @@
       <c r="K26" s="12">
         <v>1</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="16">
         <v>22.70000076293945</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="16">
         <v>0.5322672128677368</v>
       </c>
-      <c r="N26" s="13">
+      <c r="N26" s="16">
         <v>6.453442573547363</v>
       </c>
       <c r="O26" s="1" t="s">
@@ -14889,10 +14894,10 @@
       <c r="P26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q26" s="13">
+      <c r="Q26" s="16">
         <v>-0.02328836917877197</v>
       </c>
-      <c r="R26" s="1"/>
+      <c r="R26" s="17"/>
       <c r="S26" s="1" t="s">
         <v>30</v>
       </c>
@@ -14914,7 +14919,7 @@
       <c r="D27" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="16">
         <v>21.5</v>
       </c>
       <c r="F27" s="12">
@@ -14935,13 +14940,13 @@
       <c r="K27" s="12">
         <v>1</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="16">
         <v>21.70000076293945</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="16">
         <v>0.5433188676834106</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N27" s="16">
         <v>8.663773536682129</v>
       </c>
       <c r="O27" s="1" t="s">
@@ -14950,10 +14955,10 @@
       <c r="P27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q27" s="13">
+      <c r="Q27" s="16">
         <v>0.01501697301864624</v>
       </c>
-      <c r="R27" s="19">
+      <c r="R27" s="12">
         <v>1</v>
       </c>
       <c r="S27" s="1" t="s">
@@ -14977,7 +14982,7 @@
       <c r="D28" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="16">
         <v>25.5</v>
       </c>
       <c r="F28" s="12">
@@ -14998,13 +15003,13 @@
       <c r="K28" s="12">
         <v>0</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="16">
         <v>25.29999923706055</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="16">
         <v>0.4653881788253784</v>
       </c>
-      <c r="N28" s="13">
+      <c r="N28" s="16">
         <v>6.922364234924316</v>
       </c>
       <c r="O28" s="1" t="s">
@@ -15013,10 +15018,10 @@
       <c r="P28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q28" s="13">
+      <c r="Q28" s="16">
         <v>0.001901566982269287</v>
       </c>
-      <c r="R28" s="1"/>
+      <c r="R28" s="17"/>
       <c r="S28" s="1" t="s">
         <v>30</v>
       </c>
@@ -15038,7 +15043,7 @@
       <c r="D29" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="16">
         <v>25.5</v>
       </c>
       <c r="F29" s="12">
@@ -15059,13 +15064,13 @@
       <c r="K29" s="12">
         <v>0</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="16">
         <v>25.5</v>
       </c>
-      <c r="M29" s="13">
+      <c r="M29" s="16">
         <v>0.4915177822113037</v>
       </c>
-      <c r="N29" s="13">
+      <c r="N29" s="16">
         <v>1.696443557739258</v>
       </c>
       <c r="O29" s="1" t="s">
@@ -15074,10 +15079,10 @@
       <c r="P29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q29" s="13">
+      <c r="Q29" s="16">
         <v>0.01096978783607483</v>
       </c>
-      <c r="R29" s="1"/>
+      <c r="R29" s="17"/>
       <c r="S29" s="1" t="s">
         <v>30</v>
       </c>
@@ -15099,7 +15104,7 @@
       <c r="D30" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="16">
         <v>23.5</v>
       </c>
       <c r="F30" s="12">
@@ -15120,13 +15125,13 @@
       <c r="K30" s="12">
         <v>1</v>
       </c>
-      <c r="L30" s="13">
+      <c r="L30" s="16">
         <v>23.60000038146973</v>
       </c>
-      <c r="M30" s="13">
+      <c r="M30" s="16">
         <v>0.5161229372024536</v>
       </c>
-      <c r="N30" s="13">
+      <c r="N30" s="16">
         <v>3.224587440490723</v>
       </c>
       <c r="O30" s="1" t="s">
@@ -15135,10 +15140,10 @@
       <c r="P30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q30" s="13">
+      <c r="Q30" s="16">
         <v>0.008733749389648438</v>
       </c>
-      <c r="R30" s="1"/>
+      <c r="R30" s="17"/>
       <c r="S30" s="1" t="s">
         <v>30</v>
       </c>
@@ -15160,7 +15165,7 @@
       <c r="D31" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="16">
         <v>23.5</v>
       </c>
       <c r="F31" s="12">
@@ -15181,13 +15186,13 @@
       <c r="K31" s="12">
         <v>0</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="16">
         <v>23.60000038146973</v>
       </c>
-      <c r="M31" s="13">
+      <c r="M31" s="16">
         <v>0.529326319694519</v>
       </c>
-      <c r="N31" s="13">
+      <c r="N31" s="16">
         <v>5.865263938903809</v>
       </c>
       <c r="O31" s="1" t="s">
@@ -15196,10 +15201,10 @@
       <c r="P31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q31" s="13">
+      <c r="Q31" s="16">
         <v>-0.02193716168403625</v>
       </c>
-      <c r="R31" s="1"/>
+      <c r="R31" s="17"/>
       <c r="S31" s="1" t="s">
         <v>30</v>
       </c>
@@ -15221,7 +15226,7 @@
       <c r="D32" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="16">
         <v>22.5</v>
       </c>
       <c r="F32" s="12">
@@ -15242,13 +15247,13 @@
       <c r="K32" s="12">
         <v>0</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="16">
         <v>22.70000076293945</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M32" s="16">
         <v>0.5395511388778687</v>
       </c>
-      <c r="N32" s="13">
+      <c r="N32" s="16">
         <v>7.91022777557373</v>
       </c>
       <c r="O32" s="1" t="s">
@@ -15257,10 +15262,10 @@
       <c r="P32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q32" s="13">
+      <c r="Q32" s="16">
         <v>-0.01402026414871216</v>
       </c>
-      <c r="R32" s="1"/>
+      <c r="R32" s="17"/>
       <c r="S32" s="1" t="s">
         <v>30</v>
       </c>
@@ -15282,7 +15287,7 @@
       <c r="D33" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="16">
         <v>21.5</v>
       </c>
       <c r="F33" s="12">
@@ -15303,13 +15308,13 @@
       <c r="K33" s="12">
         <v>1</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="16">
         <v>21.60000038146973</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="16">
         <v>0.5230324864387512</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N33" s="16">
         <v>4.606497287750244</v>
       </c>
       <c r="O33" s="1" t="s">
@@ -15318,10 +15323,10 @@
       <c r="P33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q33" s="13">
+      <c r="Q33" s="16">
         <v>-0.01825189590454102</v>
       </c>
-      <c r="R33" s="1"/>
+      <c r="R33" s="17"/>
       <c r="S33" s="1" t="s">
         <v>30</v>
       </c>
@@ -15343,7 +15348,7 @@
       <c r="D34" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="16">
         <v>24.5</v>
       </c>
       <c r="F34" s="12">
@@ -15364,13 +15369,13 @@
       <c r="K34" s="12">
         <v>1</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L34" s="16">
         <v>24.39999961853027</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M34" s="16">
         <v>0.4815677106380463</v>
       </c>
-      <c r="N34" s="13">
+      <c r="N34" s="16">
         <v>3.686457872390747</v>
       </c>
       <c r="O34" s="1" t="s">
@@ -15379,10 +15384,10 @@
       <c r="P34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q34" s="13">
+      <c r="Q34" s="16">
         <v>-0.02338281273841858</v>
       </c>
-      <c r="R34" s="1"/>
+      <c r="R34" s="17"/>
       <c r="S34" s="1" t="s">
         <v>30</v>
       </c>
@@ -15404,7 +15409,7 @@
       <c r="D35" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="16">
         <v>24.5</v>
       </c>
       <c r="F35" s="12">
@@ -15425,13 +15430,13 @@
       <c r="K35" s="12">
         <v>0</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L35" s="16">
         <v>24.29999923706055</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M35" s="16">
         <v>0.4649927020072937</v>
       </c>
-      <c r="N35" s="13">
+      <c r="N35" s="16">
         <v>7.00145959854126</v>
       </c>
       <c r="O35" s="1" t="s">
@@ -15440,10 +15445,10 @@
       <c r="P35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q35" s="13">
+      <c r="Q35" s="16">
         <v>0.01347619295120239</v>
       </c>
-      <c r="R35" s="1"/>
+      <c r="R35" s="17"/>
       <c r="S35" s="1" t="s">
         <v>30</v>
       </c>
@@ -15465,7 +15470,7 @@
       <c r="D36" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="16">
         <v>26.5</v>
       </c>
       <c r="F36" s="12">
@@ -15486,13 +15491,13 @@
       <c r="K36" s="12">
         <v>0</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L36" s="16">
         <v>26.29999923706055</v>
       </c>
-      <c r="M36" s="13">
+      <c r="M36" s="16">
         <v>0.4657675623893738</v>
       </c>
-      <c r="N36" s="13">
+      <c r="N36" s="16">
         <v>6.846487522125244</v>
       </c>
       <c r="O36" s="1" t="s">
@@ -15501,10 +15506,10 @@
       <c r="P36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q36" s="13">
+      <c r="Q36" s="16">
         <v>-0.004938066005706787</v>
       </c>
-      <c r="R36" s="1"/>
+      <c r="R36" s="17"/>
       <c r="S36" s="1" t="s">
         <v>30</v>
       </c>
@@ -15526,7 +15531,7 @@
       <c r="D37" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="16">
         <v>24.5</v>
       </c>
       <c r="F37" s="12">
@@ -15547,13 +15552,13 @@
       <c r="K37" s="12">
         <v>1</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L37" s="16">
         <v>24.5</v>
       </c>
-      <c r="M37" s="13">
+      <c r="M37" s="16">
         <v>0.4979816079139709</v>
       </c>
-      <c r="N37" s="13">
+      <c r="N37" s="16">
         <v>0.4036784172058105</v>
       </c>
       <c r="O37" s="1" t="s">
@@ -15562,10 +15567,10 @@
       <c r="P37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="13">
+      <c r="Q37" s="16">
         <v>-0.002932131290435791</v>
       </c>
-      <c r="R37" s="1"/>
+      <c r="R37" s="17"/>
       <c r="S37" s="1" t="s">
         <v>30</v>
       </c>
@@ -15587,7 +15592,7 @@
       <c r="D38" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="16">
         <v>24.5</v>
       </c>
       <c r="F38" s="12">
@@ -15608,13 +15613,13 @@
       <c r="K38" s="12">
         <v>1</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L38" s="16">
         <v>24.5</v>
       </c>
-      <c r="M38" s="13">
+      <c r="M38" s="16">
         <v>0.4963505268096924</v>
       </c>
-      <c r="N38" s="13">
+      <c r="N38" s="16">
         <v>0.7298946380615234</v>
       </c>
       <c r="O38" s="1" t="s">
@@ -15623,10 +15628,10 @@
       <c r="P38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q38" s="13">
+      <c r="Q38" s="16">
         <v>0.003649473190307617</v>
       </c>
-      <c r="R38" s="1"/>
+      <c r="R38" s="17"/>
       <c r="S38" s="1" t="s">
         <v>30</v>
       </c>
@@ -15648,7 +15653,7 @@
       <c r="D39" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="16">
         <v>20.5</v>
       </c>
       <c r="F39" s="12">
@@ -15669,13 +15674,13 @@
       <c r="K39" s="12">
         <v>0</v>
       </c>
-      <c r="L39" s="13">
+      <c r="L39" s="16">
         <v>20.60000038146973</v>
       </c>
-      <c r="M39" s="13">
+      <c r="M39" s="16">
         <v>0.5156127214431763</v>
       </c>
-      <c r="N39" s="13">
+      <c r="N39" s="16">
         <v>3.122544288635254</v>
       </c>
       <c r="O39" s="1" t="s">
@@ -15684,10 +15689,10 @@
       <c r="P39" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q39" s="13">
+      <c r="Q39" s="16">
         <v>-0.01927101612091064</v>
       </c>
-      <c r="R39" s="1"/>
+      <c r="R39" s="17"/>
       <c r="S39" s="1" t="s">
         <v>30</v>
       </c>
@@ -15709,7 +15714,7 @@
       <c r="D40" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="16">
         <v>21.5</v>
       </c>
       <c r="F40" s="12">
@@ -15730,13 +15735,13 @@
       <c r="K40" s="12">
         <v>1</v>
       </c>
-      <c r="L40" s="13">
+      <c r="L40" s="16">
         <v>21.60000038146973</v>
       </c>
-      <c r="M40" s="13">
+      <c r="M40" s="16">
         <v>0.529077410697937</v>
       </c>
-      <c r="N40" s="13">
+      <c r="N40" s="16">
         <v>5.815482139587402</v>
       </c>
       <c r="O40" s="1" t="s">
@@ -15745,10 +15750,10 @@
       <c r="P40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q40" s="13">
+      <c r="Q40" s="16">
         <v>0.005267858505249023</v>
       </c>
-      <c r="R40" s="1"/>
+      <c r="R40" s="17"/>
       <c r="S40" s="1" t="s">
         <v>30</v>
       </c>
@@ -15770,7 +15775,7 @@
       <c r="D41" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="16">
         <v>26.5</v>
       </c>
       <c r="F41" s="12">
@@ -15791,13 +15796,13 @@
       <c r="K41" s="12">
         <v>0</v>
       </c>
-      <c r="L41" s="13">
+      <c r="L41" s="16">
         <v>26.29999923706055</v>
       </c>
-      <c r="M41" s="13">
+      <c r="M41" s="16">
         <v>0.4632219076156616</v>
       </c>
-      <c r="N41" s="13">
+      <c r="N41" s="16">
         <v>7.355618476867676</v>
       </c>
       <c r="O41" s="1" t="s">
@@ -15806,10 +15811,10 @@
       <c r="P41" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Q41" s="13">
+      <c r="Q41" s="16">
         <v>0.02458298206329346</v>
       </c>
-      <c r="R41" s="19">
+      <c r="R41" s="12">
         <v>1</v>
       </c>
       <c r="S41" s="1" t="s">
@@ -15833,7 +15838,7 @@
       <c r="D42" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="16">
         <v>24.5</v>
       </c>
       <c r="F42" s="12">
@@ -15854,13 +15859,13 @@